--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -998,7 +998,7 @@
         <v>1267.34145175</v>
       </c>
       <c r="L18">
-        <v>4523.4495450156</v>
+        <v>4272.60620642495</v>
       </c>
       <c r="M18">
         <v>1250</v>
@@ -1019,22 +1019,22 @@
         <v>2.77500605</v>
       </c>
       <c r="S18">
-        <v>119.736133823072</v>
+        <v>125.618265543291</v>
       </c>
       <c r="T18">
-        <v>514.8653754392095</v>
+        <v>540.1585418361512</v>
       </c>
       <c r="U18">
-        <v>182.111928192429</v>
+        <v>176.22979647221</v>
       </c>
       <c r="V18">
-        <v>479.921160016497</v>
+        <v>487.567931252782</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>66.41462456078995</v>
+        <v>41.1214581638481</v>
       </c>
       <c r="Y18">
         <v>1111.79846646574</v>
@@ -1087,7 +1087,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="L19">
-        <v>4809.01592115306</v>
+        <v>4558.79969090888</v>
       </c>
       <c r="M19">
         <v>1250</v>
@@ -1126,7 +1126,7 @@
         <v>-1.023181539494544e-12</v>
       </c>
       <c r="Y19">
-        <v>1217.55713053652</v>
+        <v>1219.27765406469</v>
       </c>
       <c r="Z19">
         <v>800</v>
@@ -1176,7 +1176,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="L20">
-        <v>5093.86838135018</v>
+        <v>4844.27769168161</v>
       </c>
       <c r="M20">
         <v>1250</v>
@@ -1215,7 +1215,7 @@
         <v>9.663381206337363e-13</v>
       </c>
       <c r="Y20">
-        <v>1327.62201627545</v>
+        <v>1329.33909875656</v>
       </c>
       <c r="Z20">
         <v>800</v>
@@ -1265,7 +1265,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="L21">
-        <v>5378.00871039681</v>
+        <v>5129.04199745241</v>
       </c>
       <c r="M21">
         <v>1250</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>827.962611940299</v>
+        <v>827.962611940298</v>
       </c>
       <c r="P21">
-        <v>1008.609</v>
+        <v>1008.608999999999</v>
       </c>
       <c r="Q21">
-        <v>672.4060000000003</v>
+        <v>672.4059999999995</v>
       </c>
       <c r="R21">
         <v>13.94484173</v>
@@ -1304,7 +1304,7 @@
         <v>-1.023181539494544e-12</v>
       </c>
       <c r="Y21">
-        <v>1437.4667722429</v>
+        <v>1439.18042055904</v>
       </c>
       <c r="Z21">
         <v>800</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1251.48279660001</v>
+        <v>1251.4827966</v>
       </c>
       <c r="L22">
-        <v>5661.43868862081</v>
+        <v>5413.09439245878</v>
       </c>
       <c r="M22">
-        <v>1250.00000000001</v>
+        <v>1250</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>489.2800000000004</v>
       </c>
       <c r="U22">
-        <v>166.666666666658</v>
+        <v>166.666666666663</v>
       </c>
       <c r="V22">
-        <v>499.999999999973</v>
+        <v>499.99999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>9.663381206337363e-13</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="Y22">
-        <v>1547.09183869842</v>
+        <v>1548.80205971793</v>
       </c>
       <c r="Z22">
         <v>800</v>
@@ -1443,7 +1443,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="L23">
-        <v>5944.16009189926</v>
+        <v>5696.43665647763</v>
       </c>
       <c r="M23">
         <v>1250</v>
@@ -1473,16 +1473,16 @@
         <v>166.666666666667</v>
       </c>
       <c r="V23">
-        <v>500.000000000002</v>
+        <v>500.000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1656.49765502101</v>
+        <v>1658.20445559849</v>
       </c>
       <c r="Z23">
         <v>800</v>
@@ -1532,7 +1532,7 @@
         <v>1236.208249</v>
       </c>
       <c r="L24">
-        <v>6226.17469166952</v>
+        <v>5979.07056483644</v>
       </c>
       <c r="M24">
         <v>1250</v>
@@ -1562,16 +1562,16 @@
         <v>166.666666666669</v>
       </c>
       <c r="V24">
-        <v>500.000000000006</v>
+        <v>500.000000000008</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>9.094947017729282e-13</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="Y24">
-        <v>1765.68465971097</v>
+        <v>1767.38804668729</v>
       </c>
       <c r="Z24">
         <v>800</v>
@@ -1621,7 +1621,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="L25">
-        <v>6507.48425494034</v>
+        <v>6260.99788842435</v>
       </c>
       <c r="M25">
         <v>1250</v>
@@ -1648,19 +1648,19 @@
         <v>495.2799999999991</v>
       </c>
       <c r="U25">
-        <v>166.666666666675</v>
+        <v>166.666666666666</v>
       </c>
       <c r="V25">
-        <v>500.000000000024</v>
+        <v>499.999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1.023181539494544e-12</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="Y25">
-        <v>1874.65329039155</v>
+        <v>1876.35327059392</v>
       </c>
       <c r="Z25">
         <v>800</v>
@@ -1710,7 +1710,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="L26">
-        <v>6788.09054430299</v>
+        <v>6542.22039370329</v>
       </c>
       <c r="M26">
         <v>1250</v>
@@ -1737,10 +1737,10 @@
         <v>497.2800000000001</v>
       </c>
       <c r="U26">
-        <v>166.666666666662</v>
+        <v>166.666666666664</v>
       </c>
       <c r="V26">
-        <v>499.999999999985</v>
+        <v>499.999999999991</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="Y26">
-        <v>1983.40398381077</v>
+        <v>1985.10056405273</v>
       </c>
       <c r="Z26">
         <v>800</v>
@@ -1799,7 +1799,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="L27">
-        <v>7067.99531794224</v>
+        <v>6822.73984271903</v>
       </c>
       <c r="M27">
         <v>1250</v>
@@ -1826,19 +1826,19 @@
         <v>499.2800000000011</v>
       </c>
       <c r="U27">
-        <v>166.666666666661</v>
+        <v>166.666666666662</v>
       </c>
       <c r="V27">
-        <v>499.999999999982</v>
+        <v>499.999999999986</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>2091.93717584315</v>
+        <v>2093.63036292462</v>
       </c>
       <c r="Z27">
         <v>800</v>
@@ -1888,7 +1888,7 @@
         <v>1202.60218405</v>
       </c>
       <c r="L28">
-        <v>7347.20032964738</v>
+        <v>7102.55799311223</v>
       </c>
       <c r="M28">
         <v>1250</v>
@@ -1915,19 +1915,19 @@
         <v>501.2800000000021</v>
       </c>
       <c r="U28">
-        <v>166.666666666667</v>
+        <v>166.666666666664</v>
       </c>
       <c r="V28">
-        <v>500.000000000001</v>
+        <v>499.999999999992</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="Y28">
-        <v>2200.25330149146</v>
+        <v>2201.94310219877</v>
       </c>
       <c r="Z28">
         <v>800</v>
@@ -1977,7 +1977,7 @@
         <v>1182.2661073</v>
       </c>
       <c r="L29">
-        <v>7625.70732882326</v>
+        <v>7381.67659812945</v>
       </c>
       <c r="M29">
         <v>1250</v>
@@ -2004,19 +2004,19 @@
         <v>503.2799999999988</v>
       </c>
       <c r="U29">
-        <v>166.666666666664</v>
+        <v>166.666666666665</v>
       </c>
       <c r="V29">
-        <v>499.999999999993</v>
+        <v>499.999999999995</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>2308.35279488847</v>
+        <v>2310.03921599437</v>
       </c>
       <c r="Z29">
         <v>800</v>
@@ -2066,7 +2066,7 @@
         <v>1161.9300305</v>
       </c>
       <c r="L30">
-        <v>7903.5180605012</v>
+        <v>7660.09740663413</v>
       </c>
       <c r="M30">
         <v>1250</v>
@@ -2093,19 +2093,19 @@
         <v>505.2799999999998</v>
       </c>
       <c r="U30">
-        <v>166.666666666669</v>
+        <v>166.666666666668</v>
       </c>
       <c r="V30">
-        <v>500.000000000006</v>
+        <v>500.000000000005</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>9.094947017729282e-13</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="Y30">
-        <v>2416.2360892987</v>
+        <v>2417.91913756238</v>
       </c>
       <c r="Z30">
         <v>800</v>
@@ -2152,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1132.77776330001</v>
+        <v>1132.7777633</v>
       </c>
       <c r="L31">
-        <v>8180.63426534995</v>
+        <v>7937.82216311754</v>
       </c>
       <c r="M31">
-        <v>1250.00000000001</v>
+        <v>1250</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2182,19 +2182,19 @@
         <v>407.2799999999998</v>
       </c>
       <c r="U31">
-        <v>166.66666666666</v>
+        <v>166.666666666666</v>
       </c>
       <c r="V31">
-        <v>499.999999999979</v>
+        <v>499.999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>9.663381206337363e-13</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="Y31">
-        <v>2523.9036171201</v>
+        <v>2525.58329928726</v>
       </c>
       <c r="Z31">
         <v>800</v>
@@ -2232,7 +2232,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H32">
-        <v>4832.28853302123</v>
+        <v>5319.09218528439</v>
       </c>
       <c r="I32">
         <v>2410.5626</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>641.16202645</v>
+        <v>1103.6254961</v>
       </c>
       <c r="L32">
-        <v>8457.057679686581</v>
+        <v>8214.85260770975</v>
       </c>
       <c r="M32">
-        <v>787.53653035</v>
+        <v>1250</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2271,19 +2271,19 @@
         <v>409.2799999999999</v>
       </c>
       <c r="U32">
-        <v>166.66666666667</v>
+        <v>166.666666666671</v>
       </c>
       <c r="V32">
-        <v>500.000000000009</v>
+        <v>500.000000000014</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1.023181539494544e-12</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="Y32">
-        <v>2631.35580988586</v>
+        <v>2633.03213268868</v>
       </c>
       <c r="Z32">
         <v>800</v>
@@ -2321,7 +2321,7 @@
         <v>0.35220001</v>
       </c>
       <c r="H33">
-        <v>4255.59152377647</v>
+        <v>4838.12924806178</v>
       </c>
       <c r="I33">
         <v>2434.7876</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>553.4108380710539</v>
       </c>
       <c r="L33">
-        <v>8622.95496144549</v>
+        <v>8491.19047619047</v>
       </c>
       <c r="M33">
-        <v>162.53653035</v>
+        <v>715.947368421054</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2354,25 +2354,25 @@
         <v>203.3171886</v>
       </c>
       <c r="S33">
-        <v>95.646511627907</v>
+        <v>95.6465116279046</v>
       </c>
       <c r="T33">
-        <v>411.2800000000001</v>
+        <v>411.2799999999898</v>
       </c>
       <c r="U33">
-        <v>166.66666666667</v>
+        <v>166.666666666663</v>
       </c>
       <c r="V33">
-        <v>500.000000000011</v>
+        <v>499.999999999979</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-1.023181539494544e-12</v>
+        <v>9.947598300641403e-12</v>
       </c>
       <c r="Y33">
-        <v>2738.59309826609</v>
+        <v>2740.26606842331</v>
       </c>
       <c r="Z33">
         <v>800</v>
@@ -2410,13 +2410,13 @@
         <v>0.65550003</v>
       </c>
       <c r="H34">
-        <v>3771.15358043733</v>
+        <v>3857.55358043732</v>
       </c>
       <c r="I34">
         <v>2069.22578181818</v>
       </c>
       <c r="J34">
-        <v>169.763628865103</v>
+        <v>83.3636288649983</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>8640</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>90.94736842105441</v>
       </c>
       <c r="N34">
-        <v>1.08940412246739e-10</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>1000</v>
@@ -2443,10 +2443,10 @@
         <v>217.9426921</v>
       </c>
       <c r="S34">
-        <v>96.11162790697669</v>
+        <v>96.1116279069719</v>
       </c>
       <c r="T34">
-        <v>413.2799999999997</v>
+        <v>413.2799999999792</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>2.09183781407773e-11</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>2845.61591206956</v>
+        <v>2847.28553628646</v>
       </c>
       <c r="Z34">
         <v>800</v>
@@ -2473,7 +2473,7 @@
         <v>2069.22578181818</v>
       </c>
       <c r="AC34">
-        <v>2455.825012121213</v>
+        <v>2455.825012121214</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>8618.399999999971</v>
+        <v>8640</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>2839.92468024542</v>
+        <v>2841.59096521388</v>
       </c>
       <c r="Z35">
         <v>800</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>8596.85399999997</v>
+        <v>8618.4</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>2834.24483088493</v>
+        <v>2835.90778328345</v>
       </c>
       <c r="Z36">
         <v>800</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>8575.36186499997</v>
+        <v>8596.853999999999</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>2828.57634122316</v>
+        <v>2830.23596771689</v>
       </c>
       <c r="Z37">
         <v>800</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>8553.92346033747</v>
+        <v>8575.361865000001</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>2822.91918854071</v>
+        <v>2824.57549578145</v>
       </c>
       <c r="Z38">
         <v>800</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>8532.538651686629</v>
+        <v>8553.923460337501</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>2817.27335016363</v>
+        <v>2818.92634478989</v>
       </c>
       <c r="Z39">
         <v>800</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>8511.20730505742</v>
+        <v>8532.53865168666</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>2811.6388034633</v>
+        <v>2813.28849210031</v>
       </c>
       <c r="Z40">
         <v>800</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>8489.92928679477</v>
+        <v>8511.20730505744</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>2806.01552585638</v>
+        <v>2807.66191511611</v>
       </c>
       <c r="Z41">
         <v>800</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>8468.704463577789</v>
+        <v>8489.929286794801</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>2800.40349480466</v>
+        <v>2802.04659128588</v>
       </c>
       <c r="Z42">
         <v>800</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>8447.53270241885</v>
+        <v>8468.70446357782</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>2794.80268781505</v>
+        <v>2796.4424981033</v>
       </c>
       <c r="Z43">
         <v>800</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>8426.4138706628</v>
+        <v>8447.53270241887</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>2789.21308243942</v>
+        <v>2790.8496131071</v>
       </c>
       <c r="Z44">
         <v>800</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>8405.347835986149</v>
+        <v>8426.413870662829</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>2783.63465627454</v>
+        <v>2785.26791388088</v>
       </c>
       <c r="Z45">
         <v>800</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>8384.33446639618</v>
+        <v>8405.347835986169</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>2778.067386962</v>
+        <v>2779.69737805312</v>
       </c>
       <c r="Z46">
         <v>800</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>8363.37363023019</v>
+        <v>8384.334466396211</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>2772.51125218807</v>
+        <v>2774.13798329702</v>
       </c>
       <c r="Z47">
         <v>800</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>8342.465196154621</v>
+        <v>8363.37363023022</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>2766.9662296837</v>
+        <v>2768.58970733042</v>
       </c>
       <c r="Z48">
         <v>800</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>8321.609033164241</v>
+        <v>8342.46519615465</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>2761.43229722433</v>
+        <v>2763.05252791576</v>
       </c>
       <c r="Z49">
         <v>800</v>
@@ -3834,22 +3834,22 @@
         <v>0.65550003</v>
       </c>
       <c r="H50">
-        <v>4517.90272866098</v>
+        <v>4412.88671082824</v>
       </c>
       <c r="I50">
         <v>4009.65548969697</v>
       </c>
       <c r="J50">
-        <v>130.54508529251</v>
+        <v>235.561103125249</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>8300.805010581331</v>
+        <v>8321.609033164261</v>
       </c>
       <c r="M50">
-        <v>188.917703544727</v>
+        <v>78.3745268786851</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>2755.90943262988</v>
+        <v>2757.52642285993</v>
       </c>
       <c r="Z50">
         <v>800</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>8324.920952646749</v>
+        <v>8319.41896071504</v>
       </c>
       <c r="M51">
         <v>327.363872199998</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>2750.39761376462</v>
+        <v>2752.01137001421</v>
       </c>
       <c r="Z51">
         <v>800</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>8381.85756991263</v>
+        <v>8376.36933296075</v>
       </c>
       <c r="M52">
         <v>328.394161600006</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>2744.89681853709</v>
+        <v>2746.50734727418</v>
       </c>
       <c r="Z52">
         <v>800</v>
@@ -4107,13 +4107,13 @@
         <v>4359.51316969697</v>
       </c>
       <c r="J53">
-        <v>7.95807864051312e-13</v>
+        <v>9.09494701772928e-13</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>8438.89653936785</v>
+        <v>8433.42202300835</v>
       </c>
       <c r="M53">
         <v>328.359252999999</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>2739.40702490002</v>
+        <v>2741.01433257963</v>
       </c>
       <c r="Z53">
         <v>800</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>8495.78462060693</v>
+        <v>8490.32379053833</v>
       </c>
       <c r="M54">
         <v>328.324344300004</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>2733.92821085022</v>
+        <v>2735.53230391447</v>
       </c>
       <c r="Z54">
         <v>800</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>8552.52219082667</v>
+        <v>8547.07501283324</v>
       </c>
       <c r="M55">
         <v>324.834954000003</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>2728.46035442852</v>
+        <v>2730.06123930665</v>
       </c>
       <c r="Z55">
         <v>800</v>
@@ -4368,22 +4368,22 @@
         <v>0.65550003</v>
       </c>
       <c r="H56">
-        <v>4516.89213782055</v>
+        <v>4538.57204241394</v>
       </c>
       <c r="I56">
         <v>4721.83804969697</v>
       </c>
       <c r="J56">
-        <v>92.3521412492186</v>
+        <v>70.6722366558279</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>8608.2891869246</v>
+        <v>8602.855626876149</v>
       </c>
       <c r="M56">
-        <v>224.132783337665</v>
+        <v>246.953735541234</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>2723.00343371966</v>
+        <v>2724.60111682803</v>
       </c>
       <c r="Z56">
         <v>800</v>
@@ -4457,25 +4457,25 @@
         <v>0.65550003</v>
       </c>
       <c r="H57">
-        <v>3936.95790322328</v>
+        <v>3958.63780781667</v>
       </c>
       <c r="I57">
         <v>4842.61300969697</v>
       </c>
       <c r="J57">
-        <v>674.818096776719</v>
+        <v>653.138192183328</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>8639.999999999991</v>
+        <v>8640.000000000009</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>400.867216662335</v>
+        <v>378.046264458766</v>
       </c>
       <c r="O57">
         <v>1000</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>6.82121026329696e-12</v>
+        <v>1.00044417195022e-11</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>2717.55742685222</v>
+        <v>2719.15191459438</v>
       </c>
       <c r="Z57">
         <v>800</v>
@@ -4546,25 +4546,25 @@
         <v>1.04989998</v>
       </c>
       <c r="H58">
-        <v>3834.9306453702</v>
+        <v>3856.61054996359</v>
       </c>
       <c r="I58">
         <v>4962.26956969697</v>
       </c>
       <c r="J58">
-        <v>1257.28405230422</v>
+        <v>1235.60414771083</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>8512.908627194111</v>
+        <v>8518.914140931911</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1025.86721666234</v>
+        <v>1003.04626445877</v>
       </c>
       <c r="O58">
         <v>1000</v>
@@ -4597,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>2712.12231199851</v>
+        <v>2713.71361076519</v>
       </c>
       <c r="Z58">
         <v>800</v>
       </c>
       <c r="AA58">
-        <v>5.6843418860808e-13</v>
+        <v>-9.09494701772928e-13</v>
       </c>
       <c r="AB58">
         <v>4962.26956969697</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>8221.661298609721</v>
+        <v>8233.65731230096</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>2567.80917848563</v>
+        <v>2569.39729465477</v>
       </c>
       <c r="Z59">
         <v>800</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>7872.15977694215</v>
+        <v>7884.12580059915</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>2423.78467123977</v>
+        <v>2425.36961117657</v>
       </c>
       <c r="Z60">
         <v>800</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>7523.53200907874</v>
+        <v>7535.4681176766</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>2280.0482130084</v>
+        <v>2281.62998306533</v>
       </c>
       <c r="Z61">
         <v>800</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>7175.77581063499</v>
+        <v>7187.68207896136</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>2136.59922769349</v>
+        <v>2138.17783421031</v>
       </c>
       <c r="Z62">
         <v>800</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>6828.88900268735</v>
+        <v>6840.7655053429</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>1993.43714034922</v>
+        <v>1995.012589653</v>
       </c>
       <c r="Z63">
         <v>800</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>6482.86941175958</v>
+        <v>6494.7162231585</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>1850.56137717963</v>
+        <v>1852.1336755848</v>
       </c>
       <c r="Z64">
         <v>800</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>6137.71486980913</v>
+        <v>6149.53206417955</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1707.97136553638</v>
+        <v>1709.54051934474</v>
       </c>
       <c r="Z65">
         <v>800</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>5793.42321421356</v>
+        <v>5805.21086559804</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1565.66653391642</v>
+        <v>1567.23254941716</v>
       </c>
       <c r="Z66">
         <v>800</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>5449.99228775697</v>
+        <v>5461.750470013</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>1423.6463119597</v>
+        <v>1425.20919542944</v>
       </c>
       <c r="Z67">
         <v>800</v>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>5107.41993861653</v>
+        <v>5119.14872541691</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>1281.91013044689</v>
+        <v>1283.46988814969</v>
       </c>
       <c r="Z68">
         <v>800</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>4765.70402034893</v>
+        <v>4777.40348518232</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>1140.45742129711</v>
+        <v>1142.01405948451</v>
       </c>
       <c r="Z69">
         <v>800</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>4589.31607608754</v>
+        <v>4600.98629225884</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>5.6843418860808e-12</v>
+        <v>5.22959453519434e-12</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>999.287617565626</v>
+        <v>1000.84114247665</v>
       </c>
       <c r="Z70">
         <v>800</v>
@@ -5715,7 +5715,7 @@
         <v>544.509625970005</v>
       </c>
       <c r="L71">
-        <v>4577.84278589732</v>
+        <v>4589.48382652819</v>
       </c>
       <c r="M71">
         <v>625.000000000005</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>997.289042330493</v>
+        <v>998.839460191693</v>
       </c>
       <c r="Z71">
         <v>800</v>
@@ -5804,7 +5804,7 @@
         <v>1194.56987885</v>
       </c>
       <c r="L72">
-        <v>4714.83567893258</v>
+        <v>4726.44761696187</v>
       </c>
       <c r="M72">
         <v>1250</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>995.294464245832</v>
+        <v>996.84178127131</v>
       </c>
       <c r="Z72">
         <v>800</v>
@@ -5893,7 +5893,7 @@
         <v>1142.06353777498</v>
       </c>
       <c r="L73">
-        <v>4999.92358973524</v>
+        <v>5011.50649791947</v>
       </c>
       <c r="M73">
         <v>1185.68594660498</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>993.30387531734</v>
+        <v>994.848097708767</v>
       </c>
       <c r="Z73">
         <v>800</v>
@@ -5982,7 +5982,7 @@
         <v>528.871250104977</v>
       </c>
       <c r="L74">
-        <v>5269.02419307959</v>
+        <v>5280.57814399335</v>
       </c>
       <c r="M74">
         <v>560.6859466049769</v>
@@ -6003,10 +6003,10 @@
         <v>37.6022046</v>
       </c>
       <c r="S74">
-        <v>300.706976744191</v>
+        <v>300.706976744186</v>
       </c>
       <c r="T74">
-        <v>1293.040000000021</v>
+        <v>1293.04</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -6015,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>-1.88720150617883e-11</v>
+        <v>-1.36424205265939e-12</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>991.317267566705</v>
+        <v>992.858401513349</v>
       </c>
       <c r="Z74">
         <v>800</v>
@@ -6065,19 +6065,19 @@
         <v>3143.43253181818</v>
       </c>
       <c r="J75">
-        <v>79.0415213105484</v>
+        <v>79.04152131054821</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>5389.01454491557</v>
+        <v>5400.53961095205</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>62.1622967295246</v>
+        <v>62.1622967295244</v>
       </c>
       <c r="O75">
         <v>1000</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>989.334633031577</v>
+        <v>990.872684710323</v>
       </c>
       <c r="Z75">
         <v>800</v>
@@ -6154,19 +6154,19 @@
         <v>2919.15748181818</v>
       </c>
       <c r="J76">
-        <v>662.554899053049</v>
+        <v>662.554899053048</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>5359.18350941393</v>
+        <v>5370.67976278532</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>687.162296729525</v>
+        <v>687.162296729524</v>
       </c>
       <c r="O76">
         <v>1000</v>
@@ -6193,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>258.159064628426</v>
+        <v>258.159064628427</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>987.355963765514</v>
+        <v>988.890939340902</v>
       </c>
       <c r="Z76">
         <v>800</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>5164.95336729052</v>
+        <v>5176.42088002848</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>913.670400552309</v>
+        <v>915.202306176546</v>
       </c>
       <c r="Z77">
         <v>800</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>4823.09361545125</v>
+        <v>4834.53245940736</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>772.954170862315</v>
+        <v>774.4830126753041</v>
       </c>
       <c r="Z78">
         <v>800</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>4482.08851299157</v>
+        <v>4493.49875983779</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>632.519373631702</v>
+        <v>634.045157761065</v>
       </c>
       <c r="Z79">
         <v>800</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>4141.93592328803</v>
+        <v>4153.31764451714</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>492.36544599555</v>
+        <v>493.888178556653</v>
       </c>
       <c r="Z80">
         <v>800</v>
@@ -6593,7 +6593,7 @@
         <v>1.04989998</v>
       </c>
       <c r="H81">
-        <v>3946.5843818223</v>
+        <v>3905.59898544783</v>
       </c>
       <c r="I81">
         <v>1797.78223181818</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>3802.63371505876</v>
+        <v>3813.9869819848</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -6626,10 +6626,10 @@
         <v>0.711204375</v>
       </c>
       <c r="S81">
-        <v>172.290232558145</v>
+        <v>133.256521725316</v>
       </c>
       <c r="T81">
-        <v>740.8480000000235</v>
+        <v>573.0030434188587</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -6638,13 +6638,13 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>-2.13731254916638e-11</v>
+        <v>167.844956581143</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>352.49182621467</v>
+        <v>354.011513310651</v>
       </c>
       <c r="Z81">
         <v>800</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>3464.17976235006</v>
+        <v>3475.50464610878</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <v>351.786842562246</v>
+        <v>306.679891233712</v>
       </c>
       <c r="Z82">
         <v>800</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>3126.57194452313</v>
+        <v>3137.86851607246</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>351.083268877125</v>
+        <v>306.066531451248</v>
       </c>
       <c r="Z83">
         <v>800</v>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>2789.80814624077</v>
+        <v>2801.07647636122</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>350.381102339371</v>
+        <v>305.454398388346</v>
       </c>
       <c r="Z84">
         <v>800</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>2453.88625745412</v>
+        <v>2465.12641674927</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>349.68034013469</v>
+        <v>304.843489591567</v>
       </c>
       <c r="Z85">
         <v>800</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>2118.80417338943</v>
+        <v>2130.01623228634</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>348.980979454426</v>
+        <v>304.23380261239</v>
       </c>
       <c r="Z86">
         <v>800</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>1784.55979453491</v>
+        <v>1795.74382328458</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>348.28301749552</v>
+        <v>303.625335007167</v>
       </c>
       <c r="Z87">
         <v>800</v>
@@ -7222,19 +7222,19 @@
         <v>1884.39338181819</v>
       </c>
       <c r="J88">
-        <v>1149.02502160349</v>
+        <v>1169.08624443002</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1451.15102662752</v>
+        <v>1462.30709530531</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1228.88292334051</v>
+        <v>1250.00000000002</v>
       </c>
       <c r="O88">
         <v>1000</v>
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="S88">
-        <v>159.822445591588</v>
+        <v>178.928372093052</v>
       </c>
       <c r="T88">
-        <v>687.2365160438284</v>
+        <v>769.3920000001235</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>82.1554839561779</v>
+        <v>-1.16529008664656e-10</v>
       </c>
       <c r="X88">
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>347.586451460529</v>
+        <v>303.018084337153</v>
       </c>
       <c r="Z88">
         <v>800</v>
@@ -7311,19 +7311,19 @@
         <v>1917.09858181819</v>
       </c>
       <c r="J89">
-        <v>555.172539355986</v>
+        <v>575.233762182523</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>1124.1329060766</v>
+        <v>1129.70395914599</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>603.882923340511</v>
+        <v>625.000000000024</v>
       </c>
       <c r="O89">
         <v>1000</v>
@@ -7338,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>158.588957219493</v>
+        <v>177.694883720957</v>
       </c>
       <c r="T89">
-        <v>681.9325160438199</v>
+        <v>764.088000000115</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -7350,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>82.1554839561916</v>
+        <v>-1.02772901300341e-10</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>324.070310792002</v>
+        <v>302.412048168511</v>
       </c>
       <c r="Z89">
         <v>800</v>
@@ -7368,7 +7368,7 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AC89">
-        <v>2379.761412121224</v>
+        <v>2379.761412121223</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -7403,16 +7403,16 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>19.5986527000067</v>
+        <v>19.5986527000065</v>
       </c>
       <c r="L90">
-        <v>962.4060150375921</v>
+        <v>962.406015037591</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>-6.66844357510854e-12</v>
+        <v>-6.45172804070171e-12</v>
       </c>
       <c r="O90">
         <v>1000</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>300.60120240481</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Z90">
         <v>800</v>
@@ -7457,7 +7457,7 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AC90">
-        <v>2396.114012121224</v>
+        <v>2396.114012121223</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -7483,7 +7483,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H91">
-        <v>5504.91856253909</v>
+        <v>5310.12313454442</v>
       </c>
       <c r="I91">
         <v>1982.50898181821</v>
@@ -7492,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>136.225200189912</v>
+        <v>29.5771406078942</v>
       </c>
       <c r="L91">
-        <v>960</v>
+        <v>959.999999999999</v>
       </c>
       <c r="M91">
-        <v>116.753322739912</v>
+        <v>10.1052631578942</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -7516,25 +7516,25 @@
         <v>0</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>175.227906976749</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>753.4800000000207</v>
       </c>
       <c r="U91">
-        <v>253.83201425787</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>8.01604277359024</v>
+        <v>0</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
       <c r="X91">
-        <v>753.4800000000197</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>300</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Z91">
         <v>800</v>
@@ -7546,7 +7546,7 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AC91">
-        <v>2412.466612121223</v>
+        <v>2412.466612121224</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -7572,25 +7572,25 @@
         <v>0.65550003</v>
       </c>
       <c r="H92">
-        <v>5602.69413953489</v>
+        <v>5633.69452412215</v>
       </c>
       <c r="I92">
         <v>2135.21418181822</v>
       </c>
       <c r="J92">
-        <v>37.014948448682</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>29.4503653578997</v>
       </c>
       <c r="L92">
-        <v>985.328914150729</v>
+        <v>959.999999999999</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>10.1052631578997</v>
       </c>
       <c r="N92">
-        <v>58.3082058301915</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>1000</v>
@@ -7605,13 +7605,13 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>92.6428835526028</v>
+        <v>173.994418604657</v>
       </c>
       <c r="T92">
-        <v>398.364399276192</v>
+        <v>748.1760000000251</v>
       </c>
       <c r="U92">
-        <v>116.603866907944</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>349.811600723832</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>301.203609624058</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Z92">
         <v>800</v>
@@ -7661,25 +7661,25 @@
         <v>0.65550003</v>
       </c>
       <c r="H93">
-        <v>5226.39897674419</v>
+        <v>5364.43813435223</v>
       </c>
       <c r="I93">
         <v>2167.91938181822</v>
       </c>
       <c r="J93">
-        <v>1.59995572346361e-12</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>29.4948538078946</v>
       </c>
       <c r="L93">
-        <v>967.5213271731971</v>
+        <v>960</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N93">
-        <v>19.3895906500017</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>1000</v>
@@ -7694,28 +7694,28 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <v>172.760930232565</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>742.8720000000294</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>276.669182718912</v>
       </c>
       <c r="V93">
-        <v>0</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="W93">
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>827.3408814900693</v>
       </c>
       <c r="Y93">
-        <v>300.60120240481</v>
+        <v>300</v>
       </c>
       <c r="Z93">
-        <v>800</v>
+        <v>715.5311185099592</v>
       </c>
       <c r="AA93">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0.65550003</v>
       </c>
       <c r="H94">
-        <v>5508.04538074297</v>
+        <v>5528.45547616402</v>
       </c>
       <c r="I94">
         <v>2100.62458181823</v>
@@ -7759,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>315.374078118648</v>
+        <v>334.763668768646</v>
       </c>
       <c r="L94">
         <v>960</v>
       </c>
       <c r="M94">
-        <v>295.939999018648</v>
+        <v>315.329589668647</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -7792,19 +7792,19 @@
         <v>500</v>
       </c>
       <c r="V94">
-        <v>5.33867735470962</v>
+        <v>5.3386773547107</v>
       </c>
       <c r="W94">
         <v>0</v>
       </c>
       <c r="X94">
-        <v>1494.66132264529</v>
+        <v>1494.661322645289</v>
       </c>
       <c r="Y94">
         <v>300</v>
       </c>
       <c r="Z94">
-        <v>42.90667735474168</v>
+        <v>42.90667735474273</v>
       </c>
       <c r="AA94">
         <v>0</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1027.88574976693</v>
+        <v>1032.4907775463</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>245.561462435143</v>
+        <v>245.561462435142</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -7887,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>736.684387305429</v>
+        <v>736.6843873054261</v>
       </c>
       <c r="Y95">
         <v>300.60120240481</v>
       </c>
       <c r="Z95">
-        <v>795.579612694608</v>
+        <v>795.5796126946088</v>
       </c>
       <c r="AA95">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>1004.00786042633</v>
+        <v>1008.60137563626</v>
       </c>
       <c r="M96">
         <v>0</v>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,495 +549,1503 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="C2">
-        <v>19.5682133</v>
+        <v>20.1164578</v>
       </c>
       <c r="D2">
-        <v>1549.28</v>
+        <v>1381.28</v>
       </c>
       <c r="E2">
-        <v>3623.4076</v>
+        <v>3555.4076</v>
       </c>
       <c r="F2">
-        <v>808.4</v>
+        <v>701.484</v>
       </c>
       <c r="G2">
         <v>0.35220001</v>
       </c>
+      <c r="H2">
+        <v>5907.21648659703</v>
+      </c>
+      <c r="I2">
+        <v>2503.1816</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1267.34145175</v>
+      </c>
+      <c r="L2">
+        <v>4272.60620642495</v>
+      </c>
+      <c r="M2">
+        <v>1250</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>863.767611940299</v>
+      </c>
+      <c r="P2">
+        <v>1052.226</v>
+      </c>
+      <c r="Q2">
+        <v>701.4840000000004</v>
+      </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.77500605</v>
+      </c>
+      <c r="S2">
+        <v>125.618265543291</v>
+      </c>
+      <c r="T2">
+        <v>540.1585418361512</v>
+      </c>
+      <c r="U2">
+        <v>176.22979647221</v>
+      </c>
+      <c r="V2">
+        <v>487.567931252782</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>41.1214581638481</v>
+      </c>
+      <c r="Y2">
+        <v>1111.79846646574</v>
+      </c>
+      <c r="Z2">
+        <v>800</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>2503.1816</v>
+      </c>
+      <c r="AC2">
+        <v>2479.1878</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>4525</v>
+        <v>5112.5</v>
       </c>
       <c r="C3">
-        <v>19.34694195</v>
+        <v>20.39342325</v>
       </c>
       <c r="D3">
-        <v>1551.28</v>
+        <v>1383.28</v>
       </c>
       <c r="E3">
-        <v>3650.4076</v>
+        <v>3582.4076</v>
       </c>
       <c r="F3">
-        <v>810.424</v>
+        <v>698.458</v>
       </c>
       <c r="G3">
         <v>0.35220001</v>
       </c>
+      <c r="H3">
+        <v>5920.86965820302</v>
+      </c>
+      <c r="I3">
+        <v>2534.7206</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1264.43326875</v>
+      </c>
+      <c r="L3">
+        <v>4558.79969090888</v>
+      </c>
+      <c r="M3">
+        <v>1250</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>860.041567164179</v>
+      </c>
+      <c r="P3">
+        <v>1047.686999999999</v>
+      </c>
+      <c r="Q3">
+        <v>698.4579999999997</v>
+      </c>
       <c r="R3">
-        <v>0</v>
+        <v>5.9601545</v>
+      </c>
+      <c r="S3">
+        <v>135.646511627907</v>
+      </c>
+      <c r="T3">
+        <v>583.28</v>
+      </c>
+      <c r="U3">
+        <v>166.666666666668</v>
+      </c>
+      <c r="V3">
+        <v>500.000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-1.023181539494544e-12</v>
+      </c>
+      <c r="Y3">
+        <v>1219.27765406469</v>
+      </c>
+      <c r="Z3">
+        <v>800</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2534.7206</v>
+      </c>
+      <c r="AC3">
+        <v>2489.6618</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>4050</v>
+        <v>4475</v>
       </c>
       <c r="C4">
-        <v>19.1256706</v>
+        <v>20.6703887</v>
       </c>
       <c r="D4">
-        <v>1553.28</v>
+        <v>1285.28</v>
       </c>
       <c r="E4">
-        <v>3677.4076</v>
+        <v>3589.4076</v>
       </c>
       <c r="F4">
-        <v>812.448</v>
+        <v>688.432</v>
       </c>
       <c r="G4">
         <v>0.35220001</v>
       </c>
+      <c r="H4">
+        <v>5268.72362814291</v>
+      </c>
+      <c r="I4">
+        <v>2556.7596</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1261.52508575</v>
+      </c>
+      <c r="L4">
+        <v>4844.27769168161</v>
+      </c>
+      <c r="M4">
+        <v>1250</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>847.696119402985</v>
+      </c>
+      <c r="P4">
+        <v>1032.648</v>
+      </c>
+      <c r="Q4">
+        <v>688.4319999999998</v>
+      </c>
       <c r="R4">
-        <v>0</v>
+        <v>9.14530295</v>
+      </c>
+      <c r="S4">
+        <v>112.855813953488</v>
+      </c>
+      <c r="T4">
+        <v>485.2799999999984</v>
+      </c>
+      <c r="U4">
+        <v>166.666666666663</v>
+      </c>
+      <c r="V4">
+        <v>499.999999999988</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>9.663381206337363e-13</v>
+      </c>
+      <c r="Y4">
+        <v>1329.33909875656</v>
+      </c>
+      <c r="Z4">
+        <v>800</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2556.7596</v>
+      </c>
+      <c r="AC4">
+        <v>2483.1358</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>4775</v>
+        <v>4435</v>
       </c>
       <c r="C5">
-        <v>19.1663123</v>
+        <v>20.4487829</v>
       </c>
       <c r="D5">
-        <v>1555.28</v>
+        <v>1287.28</v>
       </c>
       <c r="E5">
-        <v>3704.4076</v>
+        <v>3536.4076</v>
       </c>
       <c r="F5">
-        <v>814.472</v>
+        <v>672.4059999999999</v>
       </c>
       <c r="G5">
         <v>0.35220001</v>
       </c>
+      <c r="H5">
+        <v>5243.66009235126</v>
+      </c>
+      <c r="I5">
+        <v>2527.7986</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1256.50394117</v>
+      </c>
+      <c r="L5">
+        <v>5129.04199745241</v>
+      </c>
+      <c r="M5">
+        <v>1250</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>827.962611940298</v>
+      </c>
+      <c r="P5">
+        <v>1008.608999999999</v>
+      </c>
+      <c r="Q5">
+        <v>672.4059999999995</v>
+      </c>
       <c r="R5">
-        <v>0</v>
+        <v>13.94484173</v>
+      </c>
+      <c r="S5">
+        <v>113.320930232558</v>
+      </c>
+      <c r="T5">
+        <v>487.2799999999993</v>
+      </c>
+      <c r="U5">
+        <v>166.66666666667</v>
+      </c>
+      <c r="V5">
+        <v>500.000000000011</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>-1.023181539494544e-12</v>
+      </c>
+      <c r="Y5">
+        <v>1439.18042055904</v>
+      </c>
+      <c r="Z5">
+        <v>800</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>2527.7986</v>
+      </c>
+      <c r="AC5">
+        <v>2440.6098</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>5500</v>
+        <v>4395</v>
       </c>
       <c r="C6">
-        <v>19.206954</v>
+        <v>20.2271771</v>
       </c>
       <c r="D6">
-        <v>1557.28</v>
+        <v>1289.28</v>
       </c>
       <c r="E6">
-        <v>3731.4076</v>
+        <v>3563.4076</v>
       </c>
       <c r="F6">
-        <v>796.496</v>
+        <v>656.38</v>
       </c>
       <c r="G6">
         <v>0.35220001</v>
       </c>
+      <c r="H6">
+        <v>5218.59655657012</v>
+      </c>
+      <c r="I6">
+        <v>2578.8376</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1251.4827966</v>
+      </c>
+      <c r="L6">
+        <v>5413.09439245878</v>
+      </c>
+      <c r="M6">
+        <v>1250</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>808.2291044776121</v>
+      </c>
+      <c r="P6">
+        <v>984.5699999999998</v>
+      </c>
+      <c r="Q6">
+        <v>656.38</v>
+      </c>
       <c r="R6">
-        <v>0</v>
+        <v>18.7443805</v>
+      </c>
+      <c r="S6">
+        <v>113.786046511628</v>
+      </c>
+      <c r="T6">
+        <v>489.2800000000004</v>
+      </c>
+      <c r="U6">
+        <v>166.666666666663</v>
+      </c>
+      <c r="V6">
+        <v>499.99999999999</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>-1.023181539494544e-12</v>
+      </c>
+      <c r="Y6">
+        <v>1548.80205971793</v>
+      </c>
+      <c r="Z6">
+        <v>800</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2578.8376</v>
+      </c>
+      <c r="AC6">
+        <v>2438.0838</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>5275</v>
+        <v>4150</v>
       </c>
       <c r="C7">
-        <v>19.22133745</v>
+        <v>20.76220885</v>
       </c>
       <c r="D7">
-        <v>1559.28</v>
+        <v>1291.28</v>
       </c>
       <c r="E7">
-        <v>3758.4076</v>
+        <v>3490.4076</v>
       </c>
       <c r="F7">
-        <v>788.52</v>
+        <v>643.354</v>
       </c>
       <c r="G7">
         <v>0.35220001</v>
       </c>
+      <c r="H7">
+        <v>4982.08517069614</v>
+      </c>
+      <c r="I7">
+        <v>2525.3766</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1243.8455228</v>
+      </c>
+      <c r="L7">
+        <v>5696.43665647763</v>
+      </c>
+      <c r="M7">
+        <v>1250</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>792.189626865672</v>
+      </c>
+      <c r="P7">
+        <v>965.0310000000002</v>
+      </c>
+      <c r="Q7">
+        <v>643.3540000000003</v>
+      </c>
       <c r="R7">
-        <v>0</v>
+        <v>26.91668605</v>
+      </c>
+      <c r="S7">
+        <v>114.251162790698</v>
+      </c>
+      <c r="T7">
+        <v>491.2800000000014</v>
+      </c>
+      <c r="U7">
+        <v>166.666666666667</v>
+      </c>
+      <c r="V7">
+        <v>500.000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1658.20445559849</v>
+      </c>
+      <c r="Z7">
+        <v>800</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>2525.3766</v>
+      </c>
+      <c r="AC7">
+        <v>2388.5578</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>5050</v>
+        <v>3905</v>
       </c>
       <c r="C8">
-        <v>19.2357209</v>
+        <v>21.2972406</v>
       </c>
       <c r="D8">
-        <v>1561.28</v>
+        <v>1293.28</v>
       </c>
       <c r="E8">
-        <v>3785.4076</v>
+        <v>3517.4076</v>
       </c>
       <c r="F8">
-        <v>780.544</v>
+        <v>634.328</v>
       </c>
       <c r="G8">
         <v>0.35220001</v>
       </c>
+      <c r="H8">
+        <v>4740.64841168783</v>
+      </c>
+      <c r="I8">
+        <v>2565.9156</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1236.208249</v>
+      </c>
+      <c r="L8">
+        <v>5979.07056483644</v>
+      </c>
+      <c r="M8">
+        <v>1250</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>781.07552238806</v>
+      </c>
+      <c r="P8">
+        <v>951.4920000000001</v>
+      </c>
+      <c r="Q8">
+        <v>634.3280000000001</v>
+      </c>
       <c r="R8">
-        <v>0</v>
+        <v>35.0889916</v>
+      </c>
+      <c r="S8">
+        <v>114.716279069767</v>
+      </c>
+      <c r="T8">
+        <v>493.2799999999981</v>
+      </c>
+      <c r="U8">
+        <v>166.666666666669</v>
+      </c>
+      <c r="V8">
+        <v>500.000000000008</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>-1.080024958355352e-12</v>
+      </c>
+      <c r="Y8">
+        <v>1767.38804668729</v>
+      </c>
+      <c r="Z8">
+        <v>800</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>2565.9156</v>
+      </c>
+      <c r="AC8">
+        <v>2393.0318</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>5017.5</v>
+        <v>4057.5</v>
       </c>
       <c r="C9">
-        <v>19.2726831</v>
+        <v>28.6920182</v>
       </c>
       <c r="D9">
-        <v>1563.28</v>
+        <v>1295.28</v>
       </c>
       <c r="E9">
-        <v>3652.4076</v>
+        <v>3444.4076</v>
       </c>
       <c r="F9">
-        <v>782.568</v>
+        <v>636.302</v>
       </c>
       <c r="G9">
         <v>0.35220001</v>
       </c>
+      <c r="H9">
+        <v>4885.40440850748</v>
+      </c>
+      <c r="I9">
+        <v>2489.9546</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1230.69663055</v>
+      </c>
+      <c r="L9">
+        <v>6260.99788842435</v>
+      </c>
+      <c r="M9">
+        <v>1250</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>783.506194029851</v>
+      </c>
+      <c r="P9">
+        <v>954.453</v>
+      </c>
+      <c r="Q9">
+        <v>636.3020000000001</v>
+      </c>
       <c r="R9">
-        <v>0</v>
+        <v>47.99538765</v>
+      </c>
+      <c r="S9">
+        <v>115.181395348837</v>
+      </c>
+      <c r="T9">
+        <v>495.2799999999991</v>
+      </c>
+      <c r="U9">
+        <v>166.666666666666</v>
+      </c>
+      <c r="V9">
+        <v>499.999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>-9.663381206337363e-13</v>
+      </c>
+      <c r="Y9">
+        <v>1876.35327059392</v>
+      </c>
+      <c r="Z9">
+        <v>800</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>2489.9546</v>
+      </c>
+      <c r="AC9">
+        <v>2358.5058</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>4985</v>
+        <v>4210</v>
       </c>
       <c r="C10">
-        <v>19.3096453</v>
+        <v>36.0867958</v>
       </c>
       <c r="D10">
-        <v>1523.28</v>
+        <v>1297.28</v>
       </c>
       <c r="E10">
-        <v>3599.4076</v>
+        <v>3471.4076</v>
       </c>
       <c r="F10">
-        <v>774.592</v>
+        <v>638.276</v>
       </c>
       <c r="G10">
         <v>0.35220001</v>
       </c>
+      <c r="H10">
+        <v>5030.16040532713</v>
+      </c>
+      <c r="I10">
+        <v>2513.9936</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1225.1850121</v>
+      </c>
+      <c r="L10">
+        <v>6542.22039370329</v>
+      </c>
+      <c r="M10">
+        <v>1250</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>785.936865671643</v>
+      </c>
+      <c r="P10">
+        <v>957.4140000000012</v>
+      </c>
+      <c r="Q10">
+        <v>638.2760000000009</v>
+      </c>
       <c r="R10">
-        <v>0</v>
+        <v>60.9017837</v>
+      </c>
+      <c r="S10">
+        <v>115.646511627907</v>
+      </c>
+      <c r="T10">
+        <v>497.2800000000001</v>
+      </c>
+      <c r="U10">
+        <v>166.666666666664</v>
+      </c>
+      <c r="V10">
+        <v>499.999999999991</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1.023181539494544e-12</v>
+      </c>
+      <c r="Y10">
+        <v>1985.10056405273</v>
+      </c>
+      <c r="Z10">
+        <v>800</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>2513.9936</v>
+      </c>
+      <c r="AC10">
+        <v>2373.979800000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>4957.5</v>
+        <v>4112.5</v>
       </c>
       <c r="C11">
-        <v>19.5021497</v>
+        <v>38.29081215</v>
       </c>
       <c r="D11">
-        <v>1497.28</v>
+        <v>1299.28</v>
       </c>
       <c r="E11">
-        <v>3566.4076</v>
+        <v>3398.4076</v>
       </c>
       <c r="F11">
-        <v>766.616</v>
+        <v>625.98</v>
       </c>
       <c r="G11">
         <v>0.35220001</v>
       </c>
+      <c r="H11">
+        <v>4936.40367545613</v>
+      </c>
+      <c r="I11">
+        <v>2459.4376</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1213.89359807</v>
+      </c>
+      <c r="L11">
+        <v>6822.73984271903</v>
+      </c>
+      <c r="M11">
+        <v>1250</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>770.796268656717</v>
+      </c>
+      <c r="P11">
+        <v>938.9700000000004</v>
+      </c>
+      <c r="Q11">
+        <v>625.9800000000004</v>
+      </c>
       <c r="R11">
-        <v>0</v>
+        <v>74.39721408</v>
+      </c>
+      <c r="S11">
+        <v>116.111627906977</v>
+      </c>
+      <c r="T11">
+        <v>499.2800000000011</v>
+      </c>
+      <c r="U11">
+        <v>166.666666666662</v>
+      </c>
+      <c r="V11">
+        <v>499.999999999986</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2093.63036292462</v>
+      </c>
+      <c r="Z11">
+        <v>800</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>2459.4376</v>
+      </c>
+      <c r="AC11">
+        <v>2325.1838</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>4930</v>
+        <v>4015</v>
       </c>
       <c r="C12">
-        <v>19.6946541</v>
+        <v>40.4948285</v>
       </c>
       <c r="D12">
-        <v>1496.28</v>
+        <v>1301.28</v>
       </c>
       <c r="E12">
-        <v>3493.4076</v>
+        <v>3325.4076</v>
       </c>
       <c r="F12">
-        <v>778.64</v>
+        <v>607.83</v>
       </c>
       <c r="G12">
         <v>0.35220001</v>
       </c>
+      <c r="H12">
+        <v>4849.85522917775</v>
+      </c>
+      <c r="I12">
+        <v>2413.6626</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1202.60218405</v>
+      </c>
+      <c r="L12">
+        <v>7102.55799311223</v>
+      </c>
+      <c r="M12">
+        <v>1250</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>748.447388059702</v>
+      </c>
+      <c r="P12">
+        <v>911.7450000000005</v>
+      </c>
+      <c r="Q12">
+        <v>607.8300000000003</v>
+      </c>
       <c r="R12">
-        <v>0</v>
+        <v>87.89264445000001</v>
+      </c>
+      <c r="S12">
+        <v>116.576744186047</v>
+      </c>
+      <c r="T12">
+        <v>501.2800000000021</v>
+      </c>
+      <c r="U12">
+        <v>166.666666666664</v>
+      </c>
+      <c r="V12">
+        <v>499.999999999992</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="Y12">
+        <v>2201.94310219877</v>
+      </c>
+      <c r="Z12">
+        <v>800</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2413.6626</v>
+      </c>
+      <c r="AC12">
+        <v>2270.5338</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>5140</v>
+        <v>4007.5</v>
       </c>
       <c r="C13">
-        <v>19.63862545</v>
+        <v>42.8125747</v>
       </c>
       <c r="D13">
-        <v>1495.28</v>
+        <v>1303.28</v>
       </c>
       <c r="E13">
-        <v>3420.4076</v>
+        <v>3352.4076</v>
       </c>
       <c r="F13">
-        <v>760.664</v>
+        <v>609.6799999999999</v>
       </c>
       <c r="G13">
         <v>0.35220001</v>
       </c>
+      <c r="H13">
+        <v>4819.1592196172</v>
+      </c>
+      <c r="I13">
+        <v>2437.8876</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1182.2661073</v>
+      </c>
+      <c r="L13">
+        <v>7381.67659812945</v>
+      </c>
+      <c r="M13">
+        <v>1250</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>750.7253731343289</v>
+      </c>
+      <c r="P13">
+        <v>914.5200000000006</v>
+      </c>
+      <c r="Q13">
+        <v>609.6800000000004</v>
+      </c>
       <c r="R13">
-        <v>0</v>
+        <v>110.5464674</v>
+      </c>
+      <c r="S13">
+        <v>117.041860465116</v>
+      </c>
+      <c r="T13">
+        <v>503.2799999999988</v>
+      </c>
+      <c r="U13">
+        <v>166.666666666665</v>
+      </c>
+      <c r="V13">
+        <v>499.999999999995</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>2310.03921599437</v>
+      </c>
+      <c r="Z13">
+        <v>800</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>2437.8876</v>
+      </c>
+      <c r="AC13">
+        <v>2285.8838</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>5550</v>
+        <v>4000</v>
       </c>
       <c r="C14">
-        <v>19.5825968</v>
+        <v>45.1303209</v>
       </c>
       <c r="D14">
-        <v>1494.28</v>
+        <v>1305.28</v>
       </c>
       <c r="E14">
-        <v>3447.4076</v>
+        <v>3379.4076</v>
       </c>
       <c r="F14">
-        <v>752.688</v>
+        <v>611.53</v>
       </c>
       <c r="G14">
         <v>0.35220001</v>
       </c>
+      <c r="H14">
+        <v>4788.46321000402</v>
+      </c>
+      <c r="I14">
+        <v>2462.1126</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1161.9300305</v>
+      </c>
+      <c r="L14">
+        <v>7660.09740663413</v>
+      </c>
+      <c r="M14">
+        <v>1250</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>753.003358208956</v>
+      </c>
+      <c r="P14">
+        <v>917.2950000000006</v>
+      </c>
+      <c r="Q14">
+        <v>611.5300000000005</v>
+      </c>
       <c r="R14">
-        <v>0</v>
+        <v>133.2002904</v>
+      </c>
+      <c r="S14">
+        <v>117.506976744186</v>
+      </c>
+      <c r="T14">
+        <v>505.2799999999998</v>
+      </c>
+      <c r="U14">
+        <v>166.666666666668</v>
+      </c>
+      <c r="V14">
+        <v>500.000000000005</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>-1.023181539494544e-12</v>
+      </c>
+      <c r="Y14">
+        <v>2417.91913756238</v>
+      </c>
+      <c r="Z14">
+        <v>800</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>2462.1126</v>
+      </c>
+      <c r="AC14">
+        <v>2301.2338</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>5105</v>
+        <v>4310</v>
       </c>
       <c r="C15">
-        <v>19.67642385</v>
+        <v>43.723751</v>
       </c>
       <c r="D15">
-        <v>1493.28</v>
+        <v>1207.28</v>
       </c>
       <c r="E15">
-        <v>3374.4076</v>
+        <v>3306.4076</v>
       </c>
       <c r="F15">
-        <v>736.562</v>
+        <v>613.38</v>
       </c>
       <c r="G15">
         <v>0.35220001</v>
       </c>
+      <c r="H15">
+        <v>5041.56839531862</v>
+      </c>
+      <c r="I15">
+        <v>2386.3376</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1132.7777633</v>
+      </c>
+      <c r="L15">
+        <v>7937.82216311754</v>
+      </c>
+      <c r="M15">
+        <v>1250</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>755.2813432835831</v>
+      </c>
+      <c r="P15">
+        <v>920.070000000001</v>
+      </c>
+      <c r="Q15">
+        <v>613.3800000000007</v>
+      </c>
       <c r="R15">
-        <v>0.122170075</v>
+        <v>160.9459877</v>
+      </c>
+      <c r="S15">
+        <v>94.7162790697674</v>
+      </c>
+      <c r="T15">
+        <v>407.2799999999998</v>
+      </c>
+      <c r="U15">
+        <v>166.666666666666</v>
+      </c>
+      <c r="V15">
+        <v>499.999999999999</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>-9.663381206337363e-13</v>
+      </c>
+      <c r="Y15">
+        <v>2525.58329928726</v>
+      </c>
+      <c r="Z15">
+        <v>800</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2386.3376</v>
+      </c>
+      <c r="AC15">
+        <v>2266.5838</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>4860</v>
+        <v>4620</v>
       </c>
       <c r="C16">
-        <v>19.7702509</v>
+        <v>42.3171811</v>
       </c>
       <c r="D16">
-        <v>1377.28</v>
+        <v>1209.28</v>
       </c>
       <c r="E16">
-        <v>3501.4076</v>
+        <v>3333.4076</v>
       </c>
       <c r="F16">
-        <v>718.5359999999999</v>
+        <v>615.23</v>
       </c>
       <c r="G16">
         <v>0.35220001</v>
       </c>
+      <c r="H16">
+        <v>5319.09218528439</v>
+      </c>
+      <c r="I16">
+        <v>2410.5626</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1103.6254961</v>
+      </c>
+      <c r="L16">
+        <v>8214.85260770975</v>
+      </c>
+      <c r="M16">
+        <v>1250</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>757.559328358209</v>
+      </c>
+      <c r="P16">
+        <v>922.8449999999997</v>
+      </c>
+      <c r="Q16">
+        <v>615.2299999999999</v>
+      </c>
       <c r="R16">
-        <v>0.24434015</v>
+        <v>188.691685</v>
+      </c>
+      <c r="S16">
+        <v>95.1813953488372</v>
+      </c>
+      <c r="T16">
+        <v>409.2799999999999</v>
+      </c>
+      <c r="U16">
+        <v>166.666666666671</v>
+      </c>
+      <c r="V16">
+        <v>500.000000000014</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>-9.663381206337363e-13</v>
+      </c>
+      <c r="Y16">
+        <v>2633.03213268868</v>
+      </c>
+      <c r="Z16">
+        <v>800</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>2410.5626</v>
+      </c>
+      <c r="AC16">
+        <v>2281.9338</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>5355</v>
+        <v>4720</v>
       </c>
       <c r="C17">
-        <v>19.94335435</v>
+        <v>40.78065825</v>
       </c>
       <c r="D17">
-        <v>1379.28</v>
+        <v>1211.28</v>
       </c>
       <c r="E17">
-        <v>3528.4076</v>
+        <v>3360.4076</v>
       </c>
       <c r="F17">
-        <v>700.51</v>
+        <v>617.08</v>
       </c>
       <c r="G17">
         <v>0.35220001</v>
       </c>
+      <c r="H17">
+        <v>4838.12924806178</v>
+      </c>
+      <c r="I17">
+        <v>2434.7876</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>553.4108380710539</v>
+      </c>
+      <c r="L17">
+        <v>8491.19047619047</v>
+      </c>
+      <c r="M17">
+        <v>715.947368421054</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>759.837313432836</v>
+      </c>
+      <c r="P17">
+        <v>925.62</v>
+      </c>
+      <c r="Q17">
+        <v>617.08</v>
+      </c>
       <c r="R17">
-        <v>1.5096731</v>
+        <v>203.3171886</v>
+      </c>
+      <c r="S17">
+        <v>95.6465116279046</v>
+      </c>
+      <c r="T17">
+        <v>411.2799999999898</v>
+      </c>
+      <c r="U17">
+        <v>166.666666666663</v>
+      </c>
+      <c r="V17">
+        <v>499.999999999979</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>9.947598300641403e-12</v>
+      </c>
+      <c r="Y17">
+        <v>2740.26606842331</v>
+      </c>
+      <c r="Z17">
+        <v>800</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2434.7876</v>
+      </c>
+      <c r="AC17">
+        <v>2297.2838</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>5100</v>
+        <v>4820</v>
       </c>
       <c r="C18">
-        <v>20.1164578</v>
+        <v>39.2441354</v>
       </c>
       <c r="D18">
-        <v>1381.28</v>
+        <v>1213.28</v>
       </c>
       <c r="E18">
-        <v>3555.4076</v>
+        <v>3287.4076</v>
       </c>
       <c r="F18">
-        <v>701.484</v>
+        <v>618.9299999999999</v>
       </c>
       <c r="G18">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H18">
-        <v>5907.21648659703</v>
+        <v>3857.55358043732</v>
       </c>
       <c r="I18">
-        <v>2503.1816</v>
+        <v>2069.22578181818</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>83.3636288649983</v>
       </c>
       <c r="K18">
-        <v>1267.34145175</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4272.60620642495</v>
+        <v>8640</v>
       </c>
       <c r="M18">
-        <v>1250</v>
+        <v>90.94736842105441</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>863.767611940299</v>
+        <v>1000</v>
       </c>
       <c r="P18">
-        <v>1052.226</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q18">
-        <v>701.4840000000004</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R18">
-        <v>2.77500605</v>
+        <v>217.9426921</v>
       </c>
       <c r="S18">
-        <v>125.618265543291</v>
+        <v>96.1116279069719</v>
       </c>
       <c r="T18">
-        <v>540.1585418361512</v>
+        <v>413.2799999999792</v>
       </c>
       <c r="U18">
-        <v>176.22979647221</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>487.567931252782</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>2.09183781407773e-11</v>
       </c>
       <c r="X18">
-        <v>41.1214581638481</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1111.79846646574</v>
+        <v>2847.28553628646</v>
       </c>
       <c r="Z18">
         <v>800</v>
@@ -1046,87 +2054,87 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>2503.1816</v>
+        <v>2069.22578181818</v>
       </c>
       <c r="AC18">
-        <v>2479.1878</v>
+        <v>2455.825012121214</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>5112.5</v>
+        <v>4825</v>
       </c>
       <c r="C19">
-        <v>20.39342325</v>
+        <v>42.53360225</v>
       </c>
       <c r="D19">
-        <v>1383.28</v>
+        <v>1215.28</v>
       </c>
       <c r="E19">
-        <v>3582.4076</v>
+        <v>3214.4076</v>
       </c>
       <c r="F19">
-        <v>698.458</v>
+        <v>620.78</v>
       </c>
       <c r="G19">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H19">
-        <v>5920.86965820302</v>
+        <v>3760.50901486285</v>
       </c>
       <c r="I19">
-        <v>2534.7206</v>
+        <v>1996.22578181818</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>185.896566532497</v>
       </c>
       <c r="K19">
-        <v>1264.43326875</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4558.79969090888</v>
+        <v>8640</v>
       </c>
       <c r="M19">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-2.92743607133161e-12</v>
       </c>
       <c r="O19">
-        <v>860.041567164179</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>1047.686999999999</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q19">
-        <v>698.4579999999997</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R19">
-        <v>5.9601545</v>
+        <v>238.2141986</v>
       </c>
       <c r="S19">
-        <v>135.646511627907</v>
+        <v>96.5767441860465</v>
       </c>
       <c r="T19">
-        <v>583.28</v>
+        <v>415.2799999999999</v>
       </c>
       <c r="U19">
-        <v>166.666666666668</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>500.000000000005</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1219.27765406469</v>
+        <v>2841.59096521388</v>
       </c>
       <c r="Z19">
         <v>800</v>
@@ -1135,87 +2143,87 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>2534.7206</v>
+        <v>1996.22578181818</v>
       </c>
       <c r="AC19">
-        <v>2489.6618</v>
+        <v>2419.325012121213</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>4475</v>
+        <v>4830</v>
       </c>
       <c r="C20">
-        <v>20.6703887</v>
+        <v>45.8230691</v>
       </c>
       <c r="D20">
-        <v>1285.28</v>
+        <v>1319.032</v>
       </c>
       <c r="E20">
-        <v>3589.4076</v>
+        <v>3141.4076</v>
       </c>
       <c r="F20">
-        <v>688.432</v>
+        <v>622.63</v>
       </c>
       <c r="G20">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H20">
-        <v>5268.72362814291</v>
+        <v>3774.71086798802</v>
       </c>
       <c r="I20">
-        <v>2556.7596</v>
+        <v>1923.22578181818</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>202.029504105002</v>
       </c>
       <c r="K20">
-        <v>1261.52508575</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>4844.27769168161</v>
+        <v>8618.4</v>
       </c>
       <c r="M20">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.79056769411545e-12</v>
       </c>
       <c r="O20">
-        <v>847.696119402985</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>1032.648</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q20">
-        <v>688.4319999999998</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R20">
-        <v>9.14530295</v>
+        <v>258.485705</v>
       </c>
       <c r="S20">
-        <v>112.855813953488</v>
+        <v>120.70511627907</v>
       </c>
       <c r="T20">
-        <v>485.2799999999984</v>
+        <v>519.0320000000009</v>
       </c>
       <c r="U20">
-        <v>166.666666666663</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>499.999999999988</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1329.33909875656</v>
+        <v>2835.90778328345</v>
       </c>
       <c r="Z20">
         <v>800</v>
@@ -1224,87 +2232,87 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>2556.7596</v>
+        <v>1923.22578181818</v>
       </c>
       <c r="AC20">
-        <v>2483.1358</v>
+        <v>2382.825012121213</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>4435</v>
+        <v>5100</v>
       </c>
       <c r="C21">
-        <v>20.4487829</v>
+        <v>44.8789446</v>
       </c>
       <c r="D21">
-        <v>1287.28</v>
+        <v>1380.976</v>
       </c>
       <c r="E21">
-        <v>3536.4076</v>
+        <v>3068.4076</v>
       </c>
       <c r="F21">
-        <v>672.4059999999999</v>
+        <v>624.48</v>
       </c>
       <c r="G21">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H21">
-        <v>5243.66009235126</v>
+        <v>4052.22896410314</v>
       </c>
       <c r="I21">
-        <v>2527.7986</v>
+        <v>1850.22578181818</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>209.637268454998</v>
       </c>
       <c r="K21">
-        <v>1256.50394117</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5129.04199745241</v>
+        <v>8596.853999999999</v>
       </c>
       <c r="M21">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-1.79056769411545e-12</v>
       </c>
       <c r="O21">
-        <v>827.962611940298</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>1008.608999999999</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q21">
-        <v>672.4059999999995</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R21">
-        <v>13.94484173</v>
+        <v>265.5497535</v>
       </c>
       <c r="S21">
-        <v>113.320930232558</v>
+        <v>135.110697674419</v>
       </c>
       <c r="T21">
-        <v>487.2799999999993</v>
+        <v>580.9760000000016</v>
       </c>
       <c r="U21">
-        <v>166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>500.000000000011</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1439.18042055904</v>
+        <v>2830.23596771689</v>
       </c>
       <c r="Z21">
         <v>800</v>
@@ -1313,87 +2321,87 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>2527.7986</v>
+        <v>1850.22578181818</v>
       </c>
       <c r="AC21">
-        <v>2440.6098</v>
+        <v>2346.325012121213</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>4395</v>
+        <v>5150</v>
       </c>
       <c r="C22">
-        <v>20.2271771</v>
+        <v>43.9348201</v>
       </c>
       <c r="D22">
-        <v>1289.28</v>
+        <v>1442.92</v>
       </c>
       <c r="E22">
-        <v>3563.4076</v>
+        <v>3195.4076</v>
       </c>
       <c r="F22">
-        <v>656.38</v>
+        <v>626.33</v>
       </c>
       <c r="G22">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H22">
-        <v>5218.59655657012</v>
+        <v>4109.74706031326</v>
       </c>
       <c r="I22">
-        <v>2578.8376</v>
+        <v>1977.22578181818</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>217.245032709994</v>
       </c>
       <c r="K22">
-        <v>1251.4827966</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5413.09439245878</v>
+        <v>8575.361865000001</v>
       </c>
       <c r="M22">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>-6.19593265582807e-12</v>
       </c>
       <c r="O22">
-        <v>808.2291044776121</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>984.5699999999998</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q22">
-        <v>656.38</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R22">
-        <v>18.7443805</v>
+        <v>272.6138019</v>
       </c>
       <c r="S22">
-        <v>113.786046511628</v>
+        <v>149.516279069767</v>
       </c>
       <c r="T22">
-        <v>489.2800000000004</v>
+        <v>642.919999999998</v>
       </c>
       <c r="U22">
-        <v>166.666666666663</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>499.99999999999</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1548.80205971793</v>
+        <v>2824.57549578145</v>
       </c>
       <c r="Z22">
         <v>800</v>
@@ -1402,78 +2410,78 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>2578.8376</v>
+        <v>1977.22578181818</v>
       </c>
       <c r="AC22">
-        <v>2438.0838</v>
+        <v>2409.825012121213</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>4150</v>
+        <v>5150</v>
       </c>
       <c r="C23">
-        <v>20.76220885</v>
+        <v>43.0984044</v>
       </c>
       <c r="D23">
-        <v>1291.28</v>
+        <v>1408.04</v>
       </c>
       <c r="E23">
-        <v>3490.4076</v>
+        <v>3280.502</v>
       </c>
       <c r="F23">
-        <v>643.354</v>
+        <v>628.1799999999999</v>
       </c>
       <c r="G23">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H23">
-        <v>4982.08517069614</v>
+        <v>4087.34102362593</v>
       </c>
       <c r="I23">
-        <v>2525.3766</v>
+        <v>2062.32018181818</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>231.133860094998</v>
       </c>
       <c r="K23">
-        <v>1243.8455228</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5696.43665647763</v>
+        <v>8553.923460337501</v>
       </c>
       <c r="M23">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-1.98951966012828e-12</v>
       </c>
       <c r="O23">
-        <v>792.189626865672</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>965.0310000000002</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q23">
-        <v>643.3540000000003</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R23">
-        <v>26.91668605</v>
+        <v>286.3972045</v>
       </c>
       <c r="S23">
-        <v>114.251162790698</v>
+        <v>141.404651162791</v>
       </c>
       <c r="T23">
-        <v>491.2800000000014</v>
+        <v>608.0400000000012</v>
       </c>
       <c r="U23">
-        <v>166.666666666667</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>500.000000000001</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -1482,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>1658.20445559849</v>
+        <v>2818.92634478989</v>
       </c>
       <c r="Z23">
         <v>800</v>
@@ -1491,87 +2499,87 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>2525.3766</v>
+        <v>2062.32018181818</v>
       </c>
       <c r="AC23">
-        <v>2388.5578</v>
+        <v>2452.372212121213</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>3905</v>
+        <v>5250</v>
       </c>
       <c r="C24">
-        <v>21.2972406</v>
+        <v>42.2619887</v>
       </c>
       <c r="D24">
-        <v>1293.28</v>
+        <v>1473.44</v>
       </c>
       <c r="E24">
-        <v>3517.4076</v>
+        <v>3247.272</v>
       </c>
       <c r="F24">
-        <v>634.328</v>
+        <v>634.03</v>
       </c>
       <c r="G24">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H24">
-        <v>4740.64841168783</v>
+        <v>4189.42196358779</v>
       </c>
       <c r="I24">
-        <v>2565.9156</v>
+        <v>2029.09018181818</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>245.022687575</v>
       </c>
       <c r="K24">
-        <v>1236.208249</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5979.07056483644</v>
+        <v>8532.53865168666</v>
       </c>
       <c r="M24">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-3.97903932025656e-13</v>
       </c>
       <c r="O24">
-        <v>781.07552238806</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>951.4920000000001</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q24">
-        <v>634.3280000000001</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R24">
-        <v>35.0889916</v>
+        <v>300.1806072</v>
       </c>
       <c r="S24">
-        <v>114.716279069767</v>
+        <v>156.613953488372</v>
       </c>
       <c r="T24">
-        <v>493.2799999999981</v>
+        <v>673.4399999999996</v>
       </c>
       <c r="U24">
-        <v>166.666666666669</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>500.000000000008</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1767.38804668729</v>
+        <v>2813.28849210031</v>
       </c>
       <c r="Z24">
         <v>800</v>
@@ -1580,87 +2588,87 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>2565.9156</v>
+        <v>2029.09018181818</v>
       </c>
       <c r="AC24">
-        <v>2393.0318</v>
+        <v>2435.757212121213</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>4057.5</v>
+        <v>5100</v>
       </c>
       <c r="C25">
-        <v>28.6920182</v>
+        <v>41.5971712</v>
       </c>
       <c r="D25">
-        <v>1295.28</v>
+        <v>1438.944</v>
       </c>
       <c r="E25">
-        <v>3444.4076</v>
+        <v>3414.041999999999</v>
       </c>
       <c r="F25">
-        <v>636.302</v>
+        <v>638.88</v>
       </c>
       <c r="G25">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H25">
-        <v>4885.40440850748</v>
+        <v>4020.79186527233</v>
       </c>
       <c r="I25">
-        <v>2489.9546</v>
+        <v>2195.86018181818</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>255.229344029994</v>
       </c>
       <c r="K25">
-        <v>1230.69663055</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6260.99788842435</v>
+        <v>8511.20730505744</v>
       </c>
       <c r="M25">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-6.13908923696727e-12</v>
       </c>
       <c r="O25">
-        <v>783.506194029851</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>954.453</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q25">
-        <v>636.3020000000001</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R25">
-        <v>47.99538765</v>
+        <v>310.2596386</v>
       </c>
       <c r="S25">
-        <v>115.181395348837</v>
+        <v>148.591627906977</v>
       </c>
       <c r="T25">
-        <v>495.2799999999991</v>
+        <v>638.9440000000011</v>
       </c>
       <c r="U25">
-        <v>166.666666666666</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>499.999999999999</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1876.35327059392</v>
+        <v>2807.66191511611</v>
       </c>
       <c r="Z25">
         <v>800</v>
@@ -1669,87 +2677,87 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>2489.9546</v>
+        <v>2195.86018181818</v>
       </c>
       <c r="AC25">
-        <v>2358.5058</v>
+        <v>2519.142212121213</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>4210</v>
+        <v>5150</v>
       </c>
       <c r="C26">
-        <v>36.0867958</v>
+        <v>40.9323537</v>
       </c>
       <c r="D26">
-        <v>1297.28</v>
+        <v>1604.448</v>
       </c>
       <c r="E26">
-        <v>3471.4076</v>
+        <v>3580.812</v>
       </c>
       <c r="F26">
-        <v>638.276</v>
+        <v>655.73</v>
       </c>
       <c r="G26">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H26">
-        <v>5030.16040532713</v>
+        <v>4100.99897625919</v>
       </c>
       <c r="I26">
-        <v>2513.9936</v>
+        <v>2362.63018181818</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>265.436000484994</v>
       </c>
       <c r="K26">
-        <v>1225.1850121</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>6542.22039370329</v>
+        <v>8489.929286794801</v>
       </c>
       <c r="M26">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-6.02540239924565e-12</v>
       </c>
       <c r="O26">
-        <v>785.936865671643</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <v>957.4140000000012</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q26">
-        <v>638.2760000000009</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R26">
-        <v>60.9017837</v>
+        <v>320.33867</v>
       </c>
       <c r="S26">
-        <v>115.646511627907</v>
+        <v>187.080930232558</v>
       </c>
       <c r="T26">
-        <v>497.2800000000001</v>
+        <v>804.4479999999993</v>
       </c>
       <c r="U26">
-        <v>166.666666666664</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>499.999999999991</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1985.10056405273</v>
+        <v>2802.04659128588</v>
       </c>
       <c r="Z26">
         <v>800</v>
@@ -1758,78 +2766,78 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>2513.9936</v>
+        <v>2362.63018181818</v>
       </c>
       <c r="AC26">
-        <v>2373.979800000001</v>
+        <v>2602.527212121213</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>4112.5</v>
+        <v>5300</v>
       </c>
       <c r="C27">
-        <v>38.29081215</v>
+        <v>40.61608455</v>
       </c>
       <c r="D27">
-        <v>1299.28</v>
+        <v>1770.048</v>
       </c>
       <c r="E27">
-        <v>3398.4076</v>
+        <v>3747.582</v>
       </c>
       <c r="F27">
-        <v>625.98</v>
+        <v>666.58</v>
       </c>
       <c r="G27">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H27">
-        <v>4936.40367545613</v>
+        <v>4284.45804430401</v>
       </c>
       <c r="I27">
-        <v>2459.4376</v>
+        <v>2529.40018181818</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>272.4141417425</v>
       </c>
       <c r="K27">
-        <v>1213.89359807</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>6822.73984271903</v>
+        <v>8468.70446357782</v>
       </c>
       <c r="M27">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="O27">
-        <v>770.796268656717</v>
+        <v>1000</v>
       </c>
       <c r="P27">
-        <v>938.9700000000004</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q27">
-        <v>625.9800000000004</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R27">
-        <v>74.39721408</v>
+        <v>327.3678127</v>
       </c>
       <c r="S27">
-        <v>116.111627906977</v>
+        <v>225.592558139535</v>
       </c>
       <c r="T27">
-        <v>499.2800000000011</v>
+        <v>970.0480000000005</v>
       </c>
       <c r="U27">
-        <v>166.666666666662</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>499.999999999986</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -1838,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>2093.63036292462</v>
+        <v>2796.4424981033</v>
       </c>
       <c r="Z27">
         <v>800</v>
@@ -1847,87 +2855,87 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>2459.4376</v>
+        <v>2529.40018181818</v>
       </c>
       <c r="AC27">
-        <v>2325.1838</v>
+        <v>2685.912212121213</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B28">
-        <v>4015</v>
+        <v>5650</v>
       </c>
       <c r="C28">
-        <v>40.4948285</v>
+        <v>40.2998154</v>
       </c>
       <c r="D28">
-        <v>1301.28</v>
+        <v>1935.648</v>
       </c>
       <c r="E28">
-        <v>3325.4076</v>
+        <v>3718.6344</v>
       </c>
       <c r="F28">
-        <v>607.83</v>
+        <v>687.4299999999999</v>
       </c>
       <c r="G28">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H28">
-        <v>4849.85522917775</v>
+        <v>4667.91711234884</v>
       </c>
       <c r="I28">
-        <v>2413.6626</v>
+        <v>2500.45258181818</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>279.392282999995</v>
       </c>
       <c r="K28">
-        <v>1202.60218405</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>7102.55799311223</v>
+        <v>8447.53270241887</v>
       </c>
       <c r="M28">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-5.51381162949838e-12</v>
       </c>
       <c r="O28">
-        <v>748.447388059702</v>
+        <v>1000</v>
       </c>
       <c r="P28">
-        <v>911.7450000000005</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q28">
-        <v>607.8300000000003</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R28">
-        <v>87.89264445000001</v>
+        <v>334.3969554</v>
       </c>
       <c r="S28">
-        <v>116.576744186047</v>
+        <v>264.104186046512</v>
       </c>
       <c r="T28">
-        <v>501.2800000000021</v>
+        <v>1135.648000000002</v>
       </c>
       <c r="U28">
-        <v>166.666666666664</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>499.999999999992</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>2201.94310219877</v>
+        <v>2790.8496131071</v>
       </c>
       <c r="Z28">
         <v>800</v>
@@ -1936,78 +2944,78 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>2413.6626</v>
+        <v>2500.45258181818</v>
       </c>
       <c r="AC28">
-        <v>2270.5338</v>
+        <v>2671.438412121213</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>4007.5</v>
+        <v>5375</v>
       </c>
       <c r="C29">
-        <v>42.8125747</v>
+        <v>39.99843145</v>
       </c>
       <c r="D29">
-        <v>1303.28</v>
+        <v>1958.712</v>
       </c>
       <c r="E29">
-        <v>3352.4076</v>
+        <v>3877.0659</v>
       </c>
       <c r="F29">
-        <v>609.6799999999999</v>
+        <v>787.6136</v>
       </c>
       <c r="G29">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H29">
-        <v>4819.1592196172</v>
+        <v>4396.63369748808</v>
       </c>
       <c r="I29">
-        <v>2437.8876</v>
+        <v>2658.88408181818</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>281.3076048375</v>
       </c>
       <c r="K29">
-        <v>1182.2661073</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>7381.67659812945</v>
+        <v>8426.413870662829</v>
       </c>
       <c r="M29">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-2.27373675443232e-13</v>
       </c>
       <c r="O29">
-        <v>750.7253731343289</v>
+        <v>1000</v>
       </c>
       <c r="P29">
-        <v>914.5200000000006</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q29">
-        <v>609.6800000000004</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R29">
-        <v>110.5464674</v>
+        <v>336.1116997</v>
       </c>
       <c r="S29">
-        <v>117.041860465116</v>
+        <v>269.467906976744</v>
       </c>
       <c r="T29">
-        <v>503.2799999999988</v>
+        <v>1158.711999999999</v>
       </c>
       <c r="U29">
-        <v>166.666666666665</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>499.999999999995</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2016,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>2310.03921599437</v>
+        <v>2785.26791388088</v>
       </c>
       <c r="Z29">
         <v>800</v>
@@ -2025,87 +3033,87 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>2437.8876</v>
+        <v>2658.88408181818</v>
       </c>
       <c r="AC29">
-        <v>2285.8838</v>
+        <v>2750.654162121213</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="C30">
-        <v>45.1303209</v>
+        <v>39.6970475</v>
       </c>
       <c r="D30">
-        <v>1305.28</v>
+        <v>1981.776</v>
       </c>
       <c r="E30">
-        <v>3379.4076</v>
+        <v>4035.4974</v>
       </c>
       <c r="F30">
-        <v>611.53</v>
+        <v>794.5328</v>
       </c>
       <c r="G30">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H30">
-        <v>4788.46321000402</v>
+        <v>4325.35028262733</v>
       </c>
       <c r="I30">
-        <v>2462.1126</v>
+        <v>2817.31558181818</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>283.222926674994</v>
       </c>
       <c r="K30">
-        <v>1161.9300305</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>7660.09740663413</v>
+        <v>8405.347835986169</v>
       </c>
       <c r="M30">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-6.53699316899292e-12</v>
       </c>
       <c r="O30">
-        <v>753.003358208956</v>
+        <v>1000</v>
       </c>
       <c r="P30">
-        <v>917.2950000000006</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q30">
-        <v>611.5300000000005</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R30">
-        <v>133.2002904</v>
+        <v>337.826444</v>
       </c>
       <c r="S30">
-        <v>117.506976744186</v>
+        <v>274.831627906977</v>
       </c>
       <c r="T30">
-        <v>505.2799999999998</v>
+        <v>1181.776000000001</v>
       </c>
       <c r="U30">
-        <v>166.666666666668</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>500.000000000005</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>2417.91913756238</v>
+        <v>2779.69737805312</v>
       </c>
       <c r="Z30">
         <v>800</v>
@@ -2114,87 +3122,87 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>2462.1126</v>
+        <v>2817.31558181818</v>
       </c>
       <c r="AC30">
-        <v>2301.2338</v>
+        <v>2829.869912121213</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>4310</v>
+        <v>5625</v>
       </c>
       <c r="C31">
-        <v>43.723751</v>
+        <v>39.0792272</v>
       </c>
       <c r="D31">
-        <v>1207.28</v>
+        <v>2009.64</v>
       </c>
       <c r="E31">
-        <v>3306.4076</v>
+        <v>4193.928899999999</v>
       </c>
       <c r="F31">
-        <v>613.38</v>
+        <v>802.8920000000001</v>
       </c>
       <c r="G31">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H31">
-        <v>5041.56839531862</v>
+        <v>4650.80572522733</v>
       </c>
       <c r="I31">
-        <v>2386.3376</v>
+        <v>2975.74708181818</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>289.571484074994</v>
       </c>
       <c r="K31">
-        <v>1132.7777633</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>7937.82216311754</v>
+        <v>8384.334466396211</v>
       </c>
       <c r="M31">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-6.08224581810646e-12</v>
       </c>
       <c r="O31">
-        <v>755.2813432835831</v>
+        <v>1000</v>
       </c>
       <c r="P31">
-        <v>920.070000000001</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q31">
-        <v>613.3800000000007</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R31">
-        <v>160.9459877</v>
+        <v>343.8913157</v>
       </c>
       <c r="S31">
-        <v>94.7162790697674</v>
+        <v>281.311627906977</v>
       </c>
       <c r="T31">
-        <v>407.2799999999998</v>
+        <v>1209.640000000001</v>
       </c>
       <c r="U31">
-        <v>166.666666666666</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>499.999999999999</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>2525.58329928726</v>
+        <v>2774.13798329702</v>
       </c>
       <c r="Z31">
         <v>800</v>
@@ -2203,87 +3211,87 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>2386.3376</v>
+        <v>2975.74708181818</v>
       </c>
       <c r="AC31">
-        <v>2266.5838</v>
+        <v>2909.085662121213</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>4620</v>
+        <v>5550</v>
       </c>
       <c r="C32">
-        <v>42.3171811</v>
+        <v>38.4614069</v>
       </c>
       <c r="D32">
-        <v>1209.28</v>
+        <v>2037.504</v>
       </c>
       <c r="E32">
-        <v>3333.4076</v>
+        <v>4352.3604</v>
       </c>
       <c r="F32">
-        <v>615.23</v>
+        <v>811.2511999999999</v>
       </c>
       <c r="G32">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H32">
-        <v>5319.09218528439</v>
+        <v>4576.26116782733</v>
       </c>
       <c r="I32">
-        <v>2410.5626</v>
+        <v>3134.17858181818</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>295.920041474994</v>
       </c>
       <c r="K32">
-        <v>1103.6254961</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>8214.85260770975</v>
+        <v>8363.37363023022</v>
       </c>
       <c r="M32">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-5.79802872380242e-12</v>
       </c>
       <c r="O32">
-        <v>757.559328358209</v>
+        <v>1000</v>
       </c>
       <c r="P32">
-        <v>922.8449999999997</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q32">
-        <v>615.2299999999999</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R32">
-        <v>188.691685</v>
+        <v>349.9561874</v>
       </c>
       <c r="S32">
-        <v>95.1813953488372</v>
+        <v>287.791627906977</v>
       </c>
       <c r="T32">
-        <v>409.2799999999999</v>
+        <v>1237.504000000001</v>
       </c>
       <c r="U32">
-        <v>166.666666666671</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>500.000000000014</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>2633.03213268868</v>
+        <v>2768.58970733042</v>
       </c>
       <c r="Z32">
         <v>800</v>
@@ -2292,87 +3300,87 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>2410.5626</v>
+        <v>3134.17858181818</v>
       </c>
       <c r="AC32">
-        <v>2281.9338</v>
+        <v>2988.301412121213</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>4720</v>
+        <v>5425</v>
       </c>
       <c r="C33">
-        <v>40.78065825</v>
+        <v>35.2655999</v>
       </c>
       <c r="D33">
-        <v>1211.28</v>
+        <v>2091.288</v>
       </c>
       <c r="E33">
-        <v>3360.4076</v>
+        <v>4510.791899999999</v>
       </c>
       <c r="F33">
-        <v>617.08</v>
+        <v>827.3864</v>
       </c>
       <c r="G33">
-        <v>0.35220001</v>
+        <v>0.65550003</v>
       </c>
       <c r="H33">
-        <v>4838.12924806178</v>
+        <v>4457.34603901291</v>
       </c>
       <c r="I33">
-        <v>2434.7876</v>
+        <v>3307.87526969697</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>302.968472614996</v>
       </c>
       <c r="K33">
-        <v>553.4108380710539</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>8491.19047619047</v>
+        <v>8342.46519615465</v>
       </c>
       <c r="M33">
-        <v>715.947368421054</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-3.97903932025656e-12</v>
       </c>
       <c r="O33">
-        <v>759.837313432836</v>
+        <v>1000</v>
       </c>
       <c r="P33">
-        <v>925.62</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q33">
-        <v>617.08</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R33">
-        <v>203.3171886</v>
+        <v>354.1797816</v>
       </c>
       <c r="S33">
-        <v>95.6465116279046</v>
+        <v>300.299534883721</v>
       </c>
       <c r="T33">
-        <v>411.2799999999898</v>
+        <v>1291.288</v>
       </c>
       <c r="U33">
-        <v>166.666666666663</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>499.999999999979</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>9.947598300641403e-12</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>2740.26606842331</v>
+        <v>2763.05252791576</v>
       </c>
       <c r="Z33">
         <v>800</v>
@@ -2381,72 +3389,72 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>2434.7876</v>
+        <v>3307.87526969697</v>
       </c>
       <c r="AC33">
-        <v>2297.2838</v>
+        <v>3067.517162121212</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>4820</v>
+        <v>5300</v>
       </c>
       <c r="C34">
-        <v>39.2441354</v>
+        <v>32.0697929</v>
       </c>
       <c r="D34">
-        <v>1213.28</v>
+        <v>2145.072</v>
       </c>
       <c r="E34">
-        <v>3287.4076</v>
+        <v>5196.436919999998</v>
       </c>
       <c r="F34">
-        <v>618.9299999999999</v>
+        <v>843.5215999999999</v>
       </c>
       <c r="G34">
         <v>0.65550003</v>
       </c>
       <c r="H34">
-        <v>3857.55358043732</v>
+        <v>4412.88671082824</v>
       </c>
       <c r="I34">
-        <v>2069.22578181818</v>
+        <v>4009.65548969697</v>
       </c>
       <c r="J34">
-        <v>83.3636288649983</v>
+        <v>235.561103125249</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>8640</v>
+        <v>8321.609033164261</v>
       </c>
       <c r="M34">
-        <v>90.94736842105441</v>
+        <v>78.3745268786851</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1000</v>
+        <v>999.999999999999</v>
       </c>
       <c r="P34">
-        <v>1218.181818181818</v>
+        <v>1218.181818181817</v>
       </c>
       <c r="Q34">
-        <v>812.121212121212</v>
+        <v>812.1212121212111</v>
       </c>
       <c r="R34">
-        <v>217.9426921</v>
+        <v>358.4033757</v>
       </c>
       <c r="S34">
-        <v>96.1116279069719</v>
+        <v>312.807441860465</v>
       </c>
       <c r="T34">
-        <v>413.2799999999792</v>
+        <v>1345.071999999999</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -2455,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>2.09183781407773e-11</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>2847.28553628646</v>
+        <v>2757.52642285993</v>
       </c>
       <c r="Z34">
         <v>800</v>
@@ -2470,54 +3478,54 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>2069.22578181818</v>
+        <v>4009.65548969697</v>
       </c>
       <c r="AC34">
-        <v>2455.825012121214</v>
+        <v>3410.339672121211</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B35">
-        <v>4825</v>
+        <v>5150</v>
       </c>
       <c r="C35">
-        <v>42.53360225</v>
+        <v>28.1248745</v>
       </c>
       <c r="D35">
-        <v>1215.28</v>
+        <v>2193.168</v>
       </c>
       <c r="E35">
-        <v>3214.4076</v>
+        <v>5312.94948</v>
       </c>
       <c r="F35">
-        <v>620.78</v>
+        <v>857.9504000000001</v>
       </c>
       <c r="G35">
         <v>0.65550003</v>
       </c>
       <c r="H35">
-        <v>3760.50901486285</v>
+        <v>4510.19218604651</v>
       </c>
       <c r="I35">
-        <v>1996.22578181818</v>
+        <v>4140.59684969697</v>
       </c>
       <c r="J35">
-        <v>185.896566532497</v>
+        <v>1.81898940354586e-12</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>8640</v>
+        <v>8319.41896071504</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>327.363872199998</v>
       </c>
       <c r="N35">
-        <v>-2.92743607133161e-12</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>1000</v>
@@ -2529,13 +3537,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R35">
-        <v>238.2141986</v>
+        <v>355.4887467</v>
       </c>
       <c r="S35">
-        <v>96.5767441860465</v>
+        <v>323.992558139535</v>
       </c>
       <c r="T35">
-        <v>415.2799999999999</v>
+        <v>1393.168</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -2550,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>2841.59096521388</v>
+        <v>2752.01137001421</v>
       </c>
       <c r="Z35">
         <v>800</v>
@@ -2559,54 +3567,54 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>1996.22578181818</v>
+        <v>4140.59684969697</v>
       </c>
       <c r="AC35">
-        <v>2419.325012121213</v>
+        <v>3468.595952121212</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>4830</v>
+        <v>5000</v>
       </c>
       <c r="C36">
-        <v>45.8230691</v>
+        <v>24.1799561</v>
       </c>
       <c r="D36">
-        <v>1319.032</v>
+        <v>2241.264</v>
       </c>
       <c r="E36">
-        <v>3141.4076</v>
+        <v>5429.46204</v>
       </c>
       <c r="F36">
-        <v>622.63</v>
+        <v>832.3792</v>
       </c>
       <c r="G36">
         <v>0.65550003</v>
       </c>
       <c r="H36">
-        <v>3774.71086798802</v>
+        <v>4371.93655813954</v>
       </c>
       <c r="I36">
-        <v>1923.22578181818</v>
+        <v>4231.53820969697</v>
       </c>
       <c r="J36">
-        <v>202.029504105002</v>
+        <v>-5.45696821063757e-12</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>8618.4</v>
+        <v>8376.36933296075</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>328.394161600006</v>
       </c>
       <c r="N36">
-        <v>1.79056769411545e-12</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>1000</v>
@@ -2618,13 +3626,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R36">
-        <v>258.485705</v>
+        <v>352.5741177</v>
       </c>
       <c r="S36">
-        <v>120.70511627907</v>
+        <v>335.177674418605</v>
       </c>
       <c r="T36">
-        <v>519.0320000000009</v>
+        <v>1441.264000000001</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -2639,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>2835.90778328345</v>
+        <v>2746.50734727418</v>
       </c>
       <c r="Z36">
         <v>800</v>
@@ -2648,54 +3656,54 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>1923.22578181818</v>
+        <v>4231.53820969697</v>
       </c>
       <c r="AC36">
-        <v>2382.825012121213</v>
+        <v>3526.852232121212</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>5100</v>
       </c>
       <c r="C37">
-        <v>44.8789446</v>
+        <v>19.2233444</v>
       </c>
       <c r="D37">
-        <v>1380.976</v>
+        <v>2279.472</v>
       </c>
       <c r="E37">
-        <v>3068.4076</v>
+        <v>5545.9746</v>
       </c>
       <c r="F37">
-        <v>624.48</v>
+        <v>843.8416</v>
       </c>
       <c r="G37">
         <v>0.65550003</v>
       </c>
       <c r="H37">
-        <v>4052.22896410314</v>
+        <v>4481.26641860465</v>
       </c>
       <c r="I37">
-        <v>1850.22578181818</v>
+        <v>4359.51316969697</v>
       </c>
       <c r="J37">
-        <v>209.637268454998</v>
+        <v>9.09494701772928e-13</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>8596.853999999999</v>
+        <v>8433.42202300835</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>328.359252999999</v>
       </c>
       <c r="N37">
-        <v>-1.79056769411545e-12</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>1000</v>
@@ -2707,13 +3715,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R37">
-        <v>265.5497535</v>
+        <v>347.5825974</v>
       </c>
       <c r="S37">
-        <v>135.110697674419</v>
+        <v>344.063255813954</v>
       </c>
       <c r="T37">
-        <v>580.9760000000016</v>
+        <v>1479.472000000002</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -2728,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>2830.23596771689</v>
+        <v>2741.01433257963</v>
       </c>
       <c r="Z37">
         <v>800</v>
@@ -2737,54 +3745,54 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>1850.22578181818</v>
+        <v>4359.51316969697</v>
       </c>
       <c r="AC37">
-        <v>2346.325012121213</v>
+        <v>3585.108512121212</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B38">
-        <v>5150</v>
+        <v>5100</v>
       </c>
       <c r="C38">
-        <v>43.9348201</v>
+        <v>14.2667327</v>
       </c>
       <c r="D38">
-        <v>1442.92</v>
+        <v>2317.68</v>
       </c>
       <c r="E38">
-        <v>3195.4076</v>
+        <v>5662.487160000001</v>
       </c>
       <c r="F38">
-        <v>626.33</v>
+        <v>848.104</v>
       </c>
       <c r="G38">
         <v>0.65550003</v>
       </c>
       <c r="H38">
-        <v>4109.74706031326</v>
+        <v>4490.59627906977</v>
       </c>
       <c r="I38">
-        <v>1977.22578181818</v>
+        <v>4480.28812969697</v>
       </c>
       <c r="J38">
-        <v>217.245032709994</v>
+        <v>-3.63797880709171e-12</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>8575.361865000001</v>
+        <v>8490.32379053833</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>328.324344300004</v>
       </c>
       <c r="N38">
-        <v>-6.19593265582807e-12</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>1000</v>
@@ -2796,13 +3804,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R38">
-        <v>272.6138019</v>
+        <v>342.591077</v>
       </c>
       <c r="S38">
-        <v>149.516279069767</v>
+        <v>352.948837209302</v>
       </c>
       <c r="T38">
-        <v>642.919999999998</v>
+        <v>1517.679999999998</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -2817,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>2824.57549578145</v>
+        <v>2735.53230391447</v>
       </c>
       <c r="Z38">
         <v>800</v>
@@ -2826,54 +3834,54 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>1977.22578181818</v>
+        <v>4480.28812969697</v>
       </c>
       <c r="AC38">
-        <v>2409.825012121213</v>
+        <v>3643.364792121212</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>5150</v>
       </c>
       <c r="C39">
-        <v>43.0984044</v>
+        <v>10.5524517</v>
       </c>
       <c r="D39">
-        <v>1408.04</v>
+        <v>2355.864</v>
       </c>
       <c r="E39">
-        <v>3280.502</v>
+        <v>5778.99972</v>
       </c>
       <c r="F39">
-        <v>628.1799999999999</v>
+        <v>852.3664</v>
       </c>
       <c r="G39">
         <v>0.65550003</v>
       </c>
       <c r="H39">
-        <v>4087.34102362593</v>
+        <v>4549.92027906977</v>
       </c>
       <c r="I39">
-        <v>2062.32018181818</v>
+        <v>4601.06308969697</v>
       </c>
       <c r="J39">
-        <v>231.133860094998</v>
+        <v>-2.72848410531878e-12</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>8553.923460337501</v>
+        <v>8547.07501283324</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>324.834954000003</v>
       </c>
       <c r="N39">
-        <v>-1.98951966012828e-12</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>1000</v>
@@ -2885,13 +3893,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R39">
-        <v>286.3972045</v>
+        <v>335.3874057</v>
       </c>
       <c r="S39">
-        <v>141.404651162791</v>
+        <v>361.828837209302</v>
       </c>
       <c r="T39">
-        <v>608.0400000000012</v>
+        <v>1555.863999999998</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -2906,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>2818.92634478989</v>
+        <v>2730.06123930665</v>
       </c>
       <c r="Z39">
         <v>800</v>
@@ -2915,54 +3923,54 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>2062.32018181818</v>
+        <v>4601.06308969697</v>
       </c>
       <c r="AC39">
-        <v>2452.372212121213</v>
+        <v>3701.621072121212</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>5250</v>
+        <v>5200</v>
       </c>
       <c r="C40">
-        <v>42.2619887</v>
+        <v>6.8381707</v>
       </c>
       <c r="D40">
-        <v>1473.44</v>
+        <v>2394.048</v>
       </c>
       <c r="E40">
-        <v>3247.272</v>
+        <v>5895.51228</v>
       </c>
       <c r="F40">
-        <v>634.03</v>
+        <v>856.6288</v>
       </c>
       <c r="G40">
         <v>0.65550003</v>
       </c>
       <c r="H40">
-        <v>4189.42196358779</v>
+        <v>4538.57204241394</v>
       </c>
       <c r="I40">
-        <v>2029.09018181818</v>
+        <v>4721.83804969697</v>
       </c>
       <c r="J40">
-        <v>245.022687575</v>
+        <v>70.6722366558279</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>8532.53865168666</v>
+        <v>8602.855626876149</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>246.953735541234</v>
       </c>
       <c r="N40">
-        <v>-3.97903932025656e-13</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>1000</v>
@@ -2974,13 +3982,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R40">
-        <v>300.1806072</v>
+        <v>328.1837343</v>
       </c>
       <c r="S40">
-        <v>156.613953488372</v>
+        <v>370.708837209302</v>
       </c>
       <c r="T40">
-        <v>673.4399999999996</v>
+        <v>1594.047999999998</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -2995,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>2813.28849210031</v>
+        <v>2724.60111682803</v>
       </c>
       <c r="Z40">
         <v>800</v>
@@ -3004,54 +4012,54 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>2029.09018181818</v>
+        <v>4721.83804969697</v>
       </c>
       <c r="AC40">
-        <v>2435.757212121213</v>
+        <v>3759.877352121212</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="C41">
-        <v>41.5971712</v>
+        <v>8.248754549999999</v>
       </c>
       <c r="D41">
-        <v>1438.944</v>
+        <v>2404.416</v>
       </c>
       <c r="E41">
-        <v>3414.041999999999</v>
+        <v>6012.024839999999</v>
       </c>
       <c r="F41">
-        <v>638.88</v>
+        <v>860.8912</v>
       </c>
       <c r="G41">
         <v>0.65550003</v>
       </c>
       <c r="H41">
-        <v>4020.79186527233</v>
+        <v>3958.63780781667</v>
       </c>
       <c r="I41">
-        <v>2195.86018181818</v>
+        <v>4842.61300969697</v>
       </c>
       <c r="J41">
-        <v>255.229344029994</v>
+        <v>653.138192183328</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>8511.20730505744</v>
+        <v>8640.000000000009</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>-6.13908923696727e-12</v>
+        <v>378.046264458766</v>
       </c>
       <c r="O41">
         <v>1000</v>
@@ -3063,13 +4071,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R41">
-        <v>310.2596386</v>
+        <v>317.7163766</v>
       </c>
       <c r="S41">
-        <v>148.591627906977</v>
+        <v>373.119999999998</v>
       </c>
       <c r="T41">
-        <v>638.9440000000011</v>
+        <v>1604.415999999991</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3078,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1.00044417195022e-11</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>2807.66191511611</v>
+        <v>2719.15191459438</v>
       </c>
       <c r="Z41">
         <v>800</v>
@@ -3093,54 +4101,54 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>2195.86018181818</v>
+        <v>4842.61300969697</v>
       </c>
       <c r="AC41">
-        <v>2519.142212121213</v>
+        <v>3818.133632121212</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B42">
-        <v>5150</v>
+        <v>5800</v>
       </c>
       <c r="C42">
-        <v>40.9323537</v>
+        <v>9.659338399999999</v>
       </c>
       <c r="D42">
-        <v>1604.448</v>
+        <v>2414.784</v>
       </c>
       <c r="E42">
-        <v>3580.812</v>
+        <v>6128.5374</v>
       </c>
       <c r="F42">
-        <v>655.73</v>
+        <v>864.0352</v>
       </c>
       <c r="G42">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H42">
-        <v>4100.99897625919</v>
+        <v>3856.61054996359</v>
       </c>
       <c r="I42">
-        <v>2362.63018181818</v>
+        <v>4962.26956969697</v>
       </c>
       <c r="J42">
-        <v>265.436000484994</v>
+        <v>1235.60414771083</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>8489.929286794801</v>
+        <v>8518.914140931911</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>-6.02540239924565e-12</v>
+        <v>1003.04626445877</v>
       </c>
       <c r="O42">
         <v>1000</v>
@@ -3152,13 +4160,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R42">
-        <v>320.33867</v>
+        <v>307.2490189</v>
       </c>
       <c r="S42">
-        <v>187.080930232558</v>
+        <v>259.252093023256</v>
       </c>
       <c r="T42">
-        <v>804.4479999999993</v>
+        <v>1114.784000000001</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3167,69 +4175,69 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>2802.04659128588</v>
+        <v>2713.71361076519</v>
       </c>
       <c r="Z42">
         <v>800</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>-9.09494701772928e-13</v>
       </c>
       <c r="AB42">
-        <v>2362.63018181818</v>
+        <v>4962.26956969697</v>
       </c>
       <c r="AC42">
-        <v>2602.527212121213</v>
+        <v>3876.389912121212</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B43">
-        <v>5300</v>
+        <v>5850</v>
       </c>
       <c r="C43">
-        <v>40.61608455</v>
+        <v>10.15272495</v>
       </c>
       <c r="D43">
-        <v>1770.048</v>
+        <v>2429.904</v>
       </c>
       <c r="E43">
-        <v>3747.582</v>
+        <v>6245.04996</v>
       </c>
       <c r="F43">
-        <v>666.58</v>
+        <v>888.9712</v>
       </c>
       <c r="G43">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H43">
-        <v>4284.45804430401</v>
+        <v>3680.25233684517</v>
       </c>
       <c r="I43">
-        <v>2529.40018181818</v>
+        <v>5103.71812969697</v>
       </c>
       <c r="J43">
-        <v>272.4141417425</v>
+        <v>1465.6544538525</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>8468.70446357782</v>
+        <v>8233.65731230096</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-5.6843418860808e-14</v>
+        <v>1250</v>
       </c>
       <c r="O43">
         <v>1000</v>
@@ -3241,13 +4249,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R43">
-        <v>327.3678127</v>
+        <v>302.9468869</v>
       </c>
       <c r="S43">
-        <v>225.592558139535</v>
+        <v>262.768372093023</v>
       </c>
       <c r="T43">
-        <v>970.0480000000005</v>
+        <v>1129.903999999999</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3256,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>2796.4424981033</v>
+        <v>2569.39729465477</v>
       </c>
       <c r="Z43">
         <v>800</v>
@@ -3271,54 +4279,54 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>2529.40018181818</v>
+        <v>5103.71812969697</v>
       </c>
       <c r="AC43">
-        <v>2685.912212121213</v>
+        <v>3934.646192121216</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>5650</v>
+        <v>5900</v>
       </c>
       <c r="C44">
-        <v>40.2998154</v>
+        <v>10.6461115</v>
       </c>
       <c r="D44">
-        <v>1935.648</v>
+        <v>2445.024</v>
       </c>
       <c r="E44">
-        <v>3718.6344</v>
+        <v>6238.421999999998</v>
       </c>
       <c r="F44">
-        <v>687.4299999999999</v>
+        <v>881.5072</v>
       </c>
       <c r="G44">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H44">
-        <v>4667.91711234884</v>
+        <v>3738.50017258593</v>
       </c>
       <c r="I44">
-        <v>2500.45258181818</v>
+        <v>5089.62616969697</v>
       </c>
       <c r="J44">
-        <v>279.392282999995</v>
+        <v>1461.098711135</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>8447.53270241887</v>
+        <v>7884.12580059915</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>-5.51381162949838e-12</v>
+        <v>1250</v>
       </c>
       <c r="O44">
         <v>1000</v>
@@ -3330,13 +4338,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R44">
-        <v>334.3969554</v>
+        <v>298.6447548</v>
       </c>
       <c r="S44">
-        <v>264.104186046512</v>
+        <v>266.284651162791</v>
       </c>
       <c r="T44">
-        <v>1135.648000000002</v>
+        <v>1145.024000000001</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3345,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>2790.8496131071</v>
+        <v>2425.36961117657</v>
       </c>
       <c r="Z44">
         <v>800</v>
@@ -3360,72 +4368,72 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>2500.45258181818</v>
+        <v>5089.62616969697</v>
       </c>
       <c r="AC44">
-        <v>2671.438412121213</v>
+        <v>3931.332212121212</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>5375</v>
+        <v>6050</v>
       </c>
       <c r="C45">
-        <v>39.99843145</v>
+        <v>9.09654315</v>
       </c>
       <c r="D45">
-        <v>1958.712</v>
+        <v>2470.656</v>
       </c>
       <c r="E45">
-        <v>3877.0659</v>
+        <v>6231.79404</v>
       </c>
       <c r="F45">
-        <v>787.6136</v>
+        <v>885.1967999999999</v>
       </c>
       <c r="G45">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H45">
-        <v>4396.63369748808</v>
+        <v>3915.10249013262</v>
       </c>
       <c r="I45">
-        <v>2658.88408181818</v>
+        <v>5086.68780969697</v>
       </c>
       <c r="J45">
-        <v>281.3076048375</v>
+        <v>1440.7553703325</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>8426.413870662829</v>
+        <v>7535.4681176766</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>-2.27373675443232e-13</v>
+        <v>1250</v>
       </c>
       <c r="O45">
-        <v>1000</v>
+        <v>999.999999999996</v>
       </c>
       <c r="P45">
-        <v>1218.181818181818</v>
+        <v>1218.181818181813</v>
       </c>
       <c r="Q45">
-        <v>812.121212121212</v>
+        <v>812.1212121212088</v>
       </c>
       <c r="R45">
-        <v>336.1116997</v>
+        <v>275.6811435</v>
       </c>
       <c r="S45">
-        <v>269.467906976744</v>
+        <v>272.245581395349</v>
       </c>
       <c r="T45">
-        <v>1158.711999999999</v>
+        <v>1170.656000000001</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3434,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>2785.26791388088</v>
+        <v>2281.62998306533</v>
       </c>
       <c r="Z45">
         <v>800</v>
@@ -3449,54 +4457,54 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>2658.88408181818</v>
+        <v>5086.68780969697</v>
       </c>
       <c r="AC45">
-        <v>2750.654162121213</v>
+        <v>3928.018232121209</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="C46">
-        <v>39.6970475</v>
+        <v>7.5469748</v>
       </c>
       <c r="D46">
-        <v>1981.776</v>
+        <v>2496.288</v>
       </c>
       <c r="E46">
-        <v>4035.4974</v>
+        <v>6225.166079999999</v>
       </c>
       <c r="F46">
-        <v>794.5328</v>
+        <v>928.8864</v>
       </c>
       <c r="G46">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H46">
-        <v>4325.35028262733</v>
+        <v>3991.7048077743</v>
       </c>
       <c r="I46">
-        <v>2817.31558181818</v>
+        <v>5123.74944969697</v>
       </c>
       <c r="J46">
-        <v>283.222926674994</v>
+        <v>1420.412029435</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>8405.347835986169</v>
+        <v>7187.68207896136</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-6.53699316899292e-12</v>
+        <v>1250</v>
       </c>
       <c r="O46">
         <v>1000</v>
@@ -3508,13 +4516,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R46">
-        <v>337.826444</v>
+        <v>252.7175321</v>
       </c>
       <c r="S46">
-        <v>274.831627906977</v>
+        <v>278.206511627907</v>
       </c>
       <c r="T46">
-        <v>1181.776000000001</v>
+        <v>1196.288</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3523,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>2779.69737805312</v>
+        <v>2138.17783421031</v>
       </c>
       <c r="Z46">
         <v>800</v>
@@ -3538,54 +4546,54 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>2817.31558181818</v>
+        <v>5123.74944969697</v>
       </c>
       <c r="AC46">
-        <v>2829.869912121213</v>
+        <v>3924.704252121214</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>5625</v>
+        <v>6150</v>
       </c>
       <c r="C47">
-        <v>39.0792272</v>
+        <v>6.86442885</v>
       </c>
       <c r="D47">
-        <v>2009.64</v>
+        <v>2521.584000000001</v>
       </c>
       <c r="E47">
-        <v>4193.928899999999</v>
+        <v>6218.53812</v>
       </c>
       <c r="F47">
-        <v>802.8920000000001</v>
+        <v>996.4751999999999</v>
       </c>
       <c r="G47">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H47">
-        <v>4650.80572522733</v>
+        <v>4062.98453291436</v>
       </c>
       <c r="I47">
-        <v>2975.74708181818</v>
+        <v>5184.71028969697</v>
       </c>
       <c r="J47">
-        <v>289.571484074994</v>
+        <v>1405.3092345275</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>8384.334466396211</v>
+        <v>6840.7655053429</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>-6.08224581810646e-12</v>
+        <v>1250</v>
       </c>
       <c r="O47">
         <v>1000</v>
@@ -3597,13 +4605,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R47">
-        <v>343.8913157</v>
+        <v>236.1373073</v>
       </c>
       <c r="S47">
-        <v>281.311627906977</v>
+        <v>284.089302325582</v>
       </c>
       <c r="T47">
-        <v>1209.640000000001</v>
+        <v>1221.584000000003</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -3612,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>2774.13798329702</v>
+        <v>1995.012589653</v>
       </c>
       <c r="Z47">
         <v>800</v>
@@ -3627,72 +4635,72 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>2975.74708181818</v>
+        <v>5184.71028969697</v>
       </c>
       <c r="AC47">
-        <v>2909.085662121213</v>
+        <v>3921.390272121212</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B48">
-        <v>5550</v>
+        <v>6200</v>
       </c>
       <c r="C48">
-        <v>38.4614069</v>
+        <v>6.1818829</v>
       </c>
       <c r="D48">
-        <v>2037.504</v>
+        <v>2546.880000000001</v>
       </c>
       <c r="E48">
-        <v>4352.3604</v>
+        <v>6211.91016</v>
       </c>
       <c r="F48">
-        <v>811.2511999999999</v>
+        <v>1004.064</v>
       </c>
       <c r="G48">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H48">
-        <v>4576.26116782733</v>
+        <v>4134.26425814942</v>
       </c>
       <c r="I48">
-        <v>3134.17858181818</v>
+        <v>5185.67112969697</v>
       </c>
       <c r="J48">
-        <v>295.920041474994</v>
+        <v>1390.206439525</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>8363.37363023022</v>
+        <v>6494.7162231585</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>-5.79802872380242e-12</v>
+        <v>1250</v>
       </c>
       <c r="O48">
-        <v>1000</v>
+        <v>999.999999999998</v>
       </c>
       <c r="P48">
-        <v>1218.181818181818</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="Q48">
-        <v>812.121212121212</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="R48">
-        <v>349.9561874</v>
+        <v>219.5570824</v>
       </c>
       <c r="S48">
-        <v>287.791627906977</v>
+        <v>289.972093023256</v>
       </c>
       <c r="T48">
-        <v>1237.504000000001</v>
+        <v>1246.880000000001</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -3701,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>2768.58970733042</v>
+        <v>1852.1336755848</v>
       </c>
       <c r="Z48">
         <v>800</v>
@@ -3716,54 +4724,54 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>3134.17858181818</v>
+        <v>5185.67112969697</v>
       </c>
       <c r="AC48">
-        <v>2988.301412121213</v>
+        <v>3918.076292121211</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>5425</v>
+        <v>6150</v>
       </c>
       <c r="C49">
-        <v>35.2655999</v>
+        <v>5.28425385</v>
       </c>
       <c r="D49">
-        <v>2091.288</v>
+        <v>2521.632</v>
       </c>
       <c r="E49">
-        <v>4510.791899999999</v>
+        <v>6205.2822</v>
       </c>
       <c r="F49">
-        <v>827.3864</v>
+        <v>996.4896</v>
       </c>
       <c r="G49">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H49">
-        <v>4457.34603901291</v>
+        <v>4090.43587001959</v>
       </c>
       <c r="I49">
-        <v>3307.87526969697</v>
+        <v>5171.46876969697</v>
       </c>
       <c r="J49">
-        <v>302.968472614996</v>
+        <v>1377.8696183525</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>8342.46519615465</v>
+        <v>6149.53206417955</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>-3.97903932025656e-12</v>
+        <v>1250</v>
       </c>
       <c r="O49">
         <v>1000</v>
@@ -3775,13 +4783,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R49">
-        <v>354.1797816</v>
+        <v>205.6733258</v>
       </c>
       <c r="S49">
-        <v>300.299534883721</v>
+        <v>284.100465116279</v>
       </c>
       <c r="T49">
-        <v>1291.288</v>
+        <v>1221.632</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3790,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>2763.05252791576</v>
+        <v>1709.54051934474</v>
       </c>
       <c r="Z49">
         <v>800</v>
@@ -3805,72 +4813,72 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>3307.87526969697</v>
+        <v>5171.46876969697</v>
       </c>
       <c r="AC49">
-        <v>3067.517162121212</v>
+        <v>3914.762312121215</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="C50">
-        <v>32.0697929</v>
+        <v>4.3866248</v>
       </c>
       <c r="D50">
-        <v>2145.072</v>
+        <v>2496.384</v>
       </c>
       <c r="E50">
-        <v>5196.436919999998</v>
+        <v>6198.654240000001</v>
       </c>
       <c r="F50">
-        <v>843.5215999999999</v>
+        <v>988.9151999999999</v>
       </c>
       <c r="G50">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H50">
-        <v>4412.88671082824</v>
+        <v>4046.60748198477</v>
       </c>
       <c r="I50">
-        <v>4009.65548969697</v>
+        <v>5157.26640969697</v>
       </c>
       <c r="J50">
-        <v>235.561103125249</v>
+        <v>1365.532797085</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>8321.609033164261</v>
+        <v>5805.21086559804</v>
       </c>
       <c r="M50">
-        <v>78.3745268786851</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O50">
-        <v>999.999999999999</v>
+        <v>999.999999999997</v>
       </c>
       <c r="P50">
-        <v>1218.181818181817</v>
+        <v>1218.181818181814</v>
       </c>
       <c r="Q50">
-        <v>812.1212121212111</v>
+        <v>812.1212121212096</v>
       </c>
       <c r="R50">
-        <v>358.4033757</v>
+        <v>191.7895691</v>
       </c>
       <c r="S50">
-        <v>312.807441860465</v>
+        <v>278.228837209302</v>
       </c>
       <c r="T50">
-        <v>1345.071999999999</v>
+        <v>1196.383999999999</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -3879,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>2757.52642285993</v>
+        <v>1567.23254941716</v>
       </c>
       <c r="Z50">
         <v>800</v>
@@ -3894,72 +4902,72 @@
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>4009.65548969697</v>
+        <v>5157.26640969697</v>
       </c>
       <c r="AC50">
-        <v>3410.339672121211</v>
+        <v>3911.44833212121</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B51">
-        <v>5150</v>
+        <v>6050</v>
       </c>
       <c r="C51">
-        <v>28.1248745</v>
+        <v>3.88972595</v>
       </c>
       <c r="D51">
-        <v>2193.168</v>
+        <v>2470.704</v>
       </c>
       <c r="E51">
-        <v>5312.94948</v>
+        <v>6192.026279999999</v>
       </c>
       <c r="F51">
-        <v>857.9504000000001</v>
+        <v>921.2112</v>
       </c>
       <c r="G51">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H51">
-        <v>4510.19218604651</v>
+        <v>4006.05946504785</v>
       </c>
       <c r="I51">
-        <v>4140.59684969697</v>
+        <v>5082.93444969697</v>
       </c>
       <c r="J51">
-        <v>1.81898940354586e-12</v>
+        <v>1349.8101163475</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>8319.41896071504</v>
+        <v>5461.750470013</v>
       </c>
       <c r="M51">
-        <v>327.363872199998</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O51">
-        <v>1000</v>
+        <v>999.999999999999</v>
       </c>
       <c r="P51">
-        <v>1218.181818181818</v>
+        <v>1218.181818181817</v>
       </c>
       <c r="Q51">
-        <v>812.121212121212</v>
+        <v>812.1212121212111</v>
       </c>
       <c r="R51">
-        <v>355.4887467</v>
+        <v>174.74248</v>
       </c>
       <c r="S51">
-        <v>323.992558139535</v>
+        <v>272.256744186047</v>
       </c>
       <c r="T51">
-        <v>1393.168</v>
+        <v>1170.704000000002</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -3968,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>2752.01137001421</v>
+        <v>1425.20919542944</v>
       </c>
       <c r="Z51">
         <v>800</v>
@@ -3983,54 +4991,54 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>4140.59684969697</v>
+        <v>5082.93444969697</v>
       </c>
       <c r="AC51">
-        <v>3468.595952121212</v>
+        <v>3908.134352121211</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B52">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="C52">
-        <v>24.1799561</v>
+        <v>3.3928271</v>
       </c>
       <c r="D52">
-        <v>2241.264</v>
+        <v>2445.024</v>
       </c>
       <c r="E52">
-        <v>5429.46204</v>
+        <v>6185.398319999999</v>
       </c>
       <c r="F52">
-        <v>832.3792</v>
+        <v>913.5071999999999</v>
       </c>
       <c r="G52">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H52">
-        <v>4371.93655813954</v>
+        <v>3965.51144801593</v>
       </c>
       <c r="I52">
-        <v>4231.53820969697</v>
+        <v>5068.60248969697</v>
       </c>
       <c r="J52">
-        <v>-5.45696821063757e-12</v>
+        <v>1334.087435705</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>8376.36933296075</v>
+        <v>5119.14872541691</v>
       </c>
       <c r="M52">
-        <v>328.394161600006</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O52">
         <v>1000</v>
@@ -4042,13 +5050,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R52">
-        <v>352.5741177</v>
+        <v>157.695391</v>
       </c>
       <c r="S52">
-        <v>335.177674418605</v>
+        <v>266.284651162791</v>
       </c>
       <c r="T52">
-        <v>1441.264000000001</v>
+        <v>1145.024000000001</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4057,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>2746.50734727418</v>
+        <v>1283.46988814969</v>
       </c>
       <c r="Z52">
         <v>800</v>
@@ -4072,72 +5080,72 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>4231.53820969697</v>
+        <v>5068.60248969697</v>
       </c>
       <c r="AC52">
-        <v>3526.852232121212</v>
+        <v>3904.820372121212</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B53">
-        <v>5100</v>
+        <v>4945</v>
       </c>
       <c r="C53">
-        <v>19.2233444</v>
+        <v>3.7841914</v>
       </c>
       <c r="D53">
-        <v>2279.472</v>
+        <v>2374.968</v>
       </c>
       <c r="E53">
-        <v>5545.9746</v>
+        <v>6178.77036</v>
       </c>
       <c r="F53">
-        <v>843.8416</v>
+        <v>910.4903999999999</v>
       </c>
       <c r="G53">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H53">
-        <v>4481.26641860465</v>
+        <v>3510.31192041651</v>
       </c>
       <c r="I53">
-        <v>4359.51316969697</v>
+        <v>5058.95772969697</v>
       </c>
       <c r="J53">
-        <v>9.09494701772928e-13</v>
+        <v>717.180265629996</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>8433.42202300835</v>
+        <v>4777.40348518232</v>
       </c>
       <c r="M53">
-        <v>328.359252999999</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>624.999999999995</v>
       </c>
       <c r="O53">
-        <v>1000</v>
+        <v>1000.00000000001</v>
       </c>
       <c r="P53">
-        <v>1218.181818181818</v>
+        <v>1218.18181818183</v>
       </c>
       <c r="Q53">
-        <v>812.121212121212</v>
+        <v>812.1212121212201</v>
       </c>
       <c r="R53">
-        <v>347.5825974</v>
+        <v>133.7107868</v>
       </c>
       <c r="S53">
-        <v>344.063255813954</v>
+        <v>249.992558139535</v>
       </c>
       <c r="T53">
-        <v>1479.472000000002</v>
+        <v>1074.968000000001</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4146,69 +5154,69 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>2741.01433257963</v>
+        <v>1142.01405948451</v>
       </c>
       <c r="Z53">
         <v>800</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>-1.2732925824821e-11</v>
       </c>
       <c r="AB53">
-        <v>4359.51316969697</v>
+        <v>5058.95772969697</v>
       </c>
       <c r="AC53">
-        <v>3585.108512121212</v>
+        <v>3901.506392121217</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B54">
-        <v>5100</v>
+        <v>4590</v>
       </c>
       <c r="C54">
-        <v>14.2667327</v>
+        <v>4.1755557</v>
       </c>
       <c r="D54">
-        <v>2317.68</v>
+        <v>2304.912</v>
       </c>
       <c r="E54">
-        <v>5662.487160000001</v>
+        <v>6172.1424</v>
       </c>
       <c r="F54">
-        <v>848.104</v>
+        <v>871.4735999999999</v>
       </c>
       <c r="G54">
         <v>0.65550003</v>
       </c>
       <c r="H54">
-        <v>4490.59627906977</v>
+        <v>3877.20541607291</v>
       </c>
       <c r="I54">
-        <v>4480.28812969697</v>
+        <v>5013.31296969697</v>
       </c>
       <c r="J54">
-        <v>-3.63797880709171e-12</v>
+        <v>100.273095554996</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>8490.32379053833</v>
+        <v>4600.98629225884</v>
       </c>
       <c r="M54">
-        <v>328.324344300004</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>-4.54747350886464e-12</v>
       </c>
       <c r="O54">
         <v>1000</v>
@@ -4220,13 +5228,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R54">
-        <v>342.591077</v>
+        <v>109.7261826</v>
       </c>
       <c r="S54">
-        <v>352.948837209302</v>
+        <v>349.97953488372</v>
       </c>
       <c r="T54">
-        <v>1517.679999999998</v>
+        <v>1504.911999999996</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4235,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>5.22959453519434e-12</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>2735.53230391447</v>
+        <v>1000.84114247665</v>
       </c>
       <c r="Z54">
         <v>800</v>
@@ -4250,51 +5258,51 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>4480.28812969697</v>
+        <v>5013.31296969697</v>
       </c>
       <c r="AC54">
-        <v>3643.364792121212</v>
+        <v>3898.192412121212</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B55">
-        <v>5150</v>
+        <v>4820</v>
       </c>
       <c r="C55">
-        <v>10.5524517</v>
+        <v>4.19094265</v>
       </c>
       <c r="D55">
-        <v>2355.864</v>
+        <v>2234.880000000001</v>
       </c>
       <c r="E55">
-        <v>5778.99972</v>
+        <v>5898.4968</v>
       </c>
       <c r="F55">
-        <v>852.3664</v>
+        <v>790.4640000000001</v>
       </c>
       <c r="G55">
         <v>0.65550003</v>
       </c>
       <c r="H55">
-        <v>4549.92027906977</v>
+        <v>4763.54570175545</v>
       </c>
       <c r="I55">
-        <v>4601.06308969697</v>
+        <v>4680.31498181818</v>
       </c>
       <c r="J55">
-        <v>-2.72848410531878e-12</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>544.509625970005</v>
       </c>
       <c r="L55">
-        <v>8547.07501283324</v>
+        <v>4589.48382652819</v>
       </c>
       <c r="M55">
-        <v>324.834954000003</v>
+        <v>625.000000000005</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4309,13 +5317,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R55">
-        <v>335.3874057</v>
+        <v>84.68131667999999</v>
       </c>
       <c r="S55">
-        <v>361.828837209302</v>
+        <v>333.693023255814</v>
       </c>
       <c r="T55">
-        <v>1555.863999999998</v>
+        <v>1434.88</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4330,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>2730.06123930665</v>
+        <v>998.839460191693</v>
       </c>
       <c r="Z55">
         <v>800</v>
@@ -4339,51 +5347,51 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>4601.06308969697</v>
+        <v>4680.31498181818</v>
       </c>
       <c r="AC55">
-        <v>3701.621072121212</v>
+        <v>3761.369612121213</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B56">
-        <v>5200</v>
+        <v>5050</v>
       </c>
       <c r="C56">
-        <v>6.8381707</v>
+        <v>4.2063296</v>
       </c>
       <c r="D56">
-        <v>2394.048</v>
+        <v>2164.848</v>
       </c>
       <c r="E56">
-        <v>5895.51228</v>
+        <v>5624.8512</v>
       </c>
       <c r="F56">
-        <v>856.6288</v>
+        <v>769.4544</v>
       </c>
       <c r="G56">
         <v>0.65550003</v>
       </c>
       <c r="H56">
-        <v>4538.57204241394</v>
+        <v>5660.71881494614</v>
       </c>
       <c r="I56">
-        <v>4721.83804969697</v>
+        <v>4406.66938181818</v>
       </c>
       <c r="J56">
-        <v>70.6722366558279</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1194.56987885</v>
       </c>
       <c r="L56">
-        <v>8602.855626876149</v>
+        <v>4726.44761696187</v>
       </c>
       <c r="M56">
-        <v>246.953735541234</v>
+        <v>1250</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4398,13 +5406,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R56">
-        <v>328.1837343</v>
+        <v>59.63645075</v>
       </c>
       <c r="S56">
-        <v>370.708837209302</v>
+        <v>317.406511627907</v>
       </c>
       <c r="T56">
-        <v>1594.047999999998</v>
+        <v>1364.848</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4419,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>2724.60111682803</v>
+        <v>996.84178127131</v>
       </c>
       <c r="Z56">
         <v>800</v>
@@ -4428,54 +5436,54 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>4721.83804969697</v>
+        <v>4406.66938181818</v>
       </c>
       <c r="AC56">
-        <v>3759.877352121212</v>
+        <v>3624.546812121213</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>5200</v>
+        <v>5150</v>
       </c>
       <c r="C57">
-        <v>8.248754549999999</v>
+        <v>4.99691885</v>
       </c>
       <c r="D57">
-        <v>2404.416</v>
+        <v>2128.944</v>
       </c>
       <c r="E57">
-        <v>6012.024839999999</v>
+        <v>5351.205599999999</v>
       </c>
       <c r="F57">
-        <v>860.8912</v>
+        <v>738.2543999999999</v>
       </c>
       <c r="G57">
         <v>0.65550003</v>
       </c>
       <c r="H57">
-        <v>3958.63780781667</v>
+        <v>5696.68172642164</v>
       </c>
       <c r="I57">
-        <v>4842.61300969697</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="J57">
-        <v>653.138192183328</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1142.06353777498</v>
       </c>
       <c r="L57">
-        <v>8640.000000000009</v>
+        <v>5011.50649791947</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1185.68594660498</v>
       </c>
       <c r="N57">
-        <v>378.046264458766</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>1000</v>
@@ -4487,13 +5495,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R57">
-        <v>317.7163766</v>
+        <v>48.61932768</v>
       </c>
       <c r="S57">
-        <v>373.119999999998</v>
+        <v>309.056744186047</v>
       </c>
       <c r="T57">
-        <v>1604.415999999991</v>
+        <v>1328.944000000002</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4502,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1.00044417195022e-11</v>
+        <v>0</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>2719.15191459438</v>
+        <v>994.848097708767</v>
       </c>
       <c r="Z57">
         <v>800</v>
@@ -4517,54 +5525,54 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>4842.61300969697</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="AC57">
-        <v>3818.133632121212</v>
+        <v>3487.724012121213</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B58">
-        <v>5800</v>
+        <v>5250</v>
       </c>
       <c r="C58">
-        <v>9.659338399999999</v>
+        <v>5.7875081</v>
       </c>
       <c r="D58">
-        <v>2414.784</v>
+        <v>2093.04</v>
       </c>
       <c r="E58">
-        <v>6128.5374</v>
+        <v>4585.889399999999</v>
       </c>
       <c r="F58">
-        <v>864.0352</v>
+        <v>707.0544</v>
       </c>
       <c r="G58">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H58">
-        <v>3856.61054996359</v>
+        <v>5142.44890463927</v>
       </c>
       <c r="I58">
-        <v>4962.26956969697</v>
+        <v>3367.70758181818</v>
       </c>
       <c r="J58">
-        <v>1235.60414771083</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>528.871250104977</v>
       </c>
       <c r="L58">
-        <v>8518.914140931911</v>
+        <v>5280.57814399335</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>560.6859466049769</v>
       </c>
       <c r="N58">
-        <v>1003.04626445877</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>1000</v>
@@ -4576,13 +5584,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R58">
-        <v>307.2490189</v>
+        <v>37.6022046</v>
       </c>
       <c r="S58">
-        <v>259.252093023256</v>
+        <v>300.706976744186</v>
       </c>
       <c r="T58">
-        <v>1114.784000000001</v>
+        <v>1293.04</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -4591,69 +5599,69 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>500</v>
+        <v>-1.36424205265939e-12</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>2713.71361076519</v>
+        <v>992.858401513349</v>
       </c>
       <c r="Z58">
         <v>800</v>
       </c>
       <c r="AA58">
-        <v>-9.09494701772928e-13</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>4962.26956969697</v>
+        <v>3367.70758181818</v>
       </c>
       <c r="AC58">
-        <v>3876.389912121212</v>
+        <v>3105.065912121213</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B59">
-        <v>5850</v>
+        <v>5250</v>
       </c>
       <c r="C59">
-        <v>10.15272495</v>
+        <v>6.7020294</v>
       </c>
       <c r="D59">
-        <v>2429.904</v>
+        <v>2065.272</v>
       </c>
       <c r="E59">
-        <v>6245.04996</v>
+        <v>4361.614350000001</v>
       </c>
       <c r="F59">
-        <v>888.9712</v>
+        <v>705.8543999999999</v>
       </c>
       <c r="G59">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H59">
-        <v>3680.25233684517</v>
+        <v>4499.92024613131</v>
       </c>
       <c r="I59">
-        <v>5103.71812969697</v>
+        <v>3143.43253181818</v>
       </c>
       <c r="J59">
-        <v>1465.6544538525</v>
+        <v>79.04152131054821</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>8233.65731230096</v>
+        <v>5400.53961095205</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1250</v>
+        <v>62.1622967295244</v>
       </c>
       <c r="O59">
         <v>1000</v>
@@ -4665,13 +5673,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R59">
-        <v>302.9468869</v>
+        <v>27.74133405</v>
       </c>
       <c r="S59">
-        <v>262.768372093023</v>
+        <v>294.249302325581</v>
       </c>
       <c r="T59">
-        <v>1129.903999999999</v>
+        <v>1265.271999999998</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -4680,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>2569.39729465477</v>
+        <v>990.872684710323</v>
       </c>
       <c r="Z59">
         <v>800</v>
@@ -4695,54 +5703,54 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>5103.71812969697</v>
+        <v>3143.43253181818</v>
       </c>
       <c r="AC59">
-        <v>3934.646192121216</v>
+        <v>2992.928387121214</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>5900</v>
+        <v>5250</v>
       </c>
       <c r="C60">
-        <v>10.6461115</v>
+        <v>7.6165507</v>
       </c>
       <c r="D60">
-        <v>2445.024</v>
+        <v>2037.504</v>
       </c>
       <c r="E60">
-        <v>6238.421999999998</v>
+        <v>4137.3393</v>
       </c>
       <c r="F60">
-        <v>881.5072</v>
+        <v>704.6544</v>
       </c>
       <c r="G60">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H60">
-        <v>3738.50017258593</v>
+        <v>3846.58746888652</v>
       </c>
       <c r="I60">
-        <v>5089.62616969697</v>
+        <v>2919.15748181818</v>
       </c>
       <c r="J60">
-        <v>1461.098711135</v>
+        <v>662.554899053048</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>7884.12580059915</v>
+        <v>5370.67976278532</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1250</v>
+        <v>687.162296729524</v>
       </c>
       <c r="O60">
         <v>1000</v>
@@ -4754,13 +5762,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R60">
-        <v>298.6447548</v>
+        <v>17.8804635</v>
       </c>
       <c r="S60">
-        <v>266.284651162791</v>
+        <v>227.754636132924</v>
       </c>
       <c r="T60">
-        <v>1145.024000000001</v>
+        <v>979.3449353715731</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -4769,13 +5777,13 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>500</v>
+        <v>258.159064628427</v>
       </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>2425.36961117657</v>
+        <v>988.890939340902</v>
       </c>
       <c r="Z60">
         <v>800</v>
@@ -4784,48 +5792,48 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>5089.62616969697</v>
+        <v>2919.15748181818</v>
       </c>
       <c r="AC60">
-        <v>3931.332212121212</v>
+        <v>2880.790862121213</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>6050</v>
+        <v>5775</v>
       </c>
       <c r="C61">
-        <v>9.09654315</v>
+        <v>9.230342950000001</v>
       </c>
       <c r="D61">
-        <v>2470.656</v>
+        <v>1935.624</v>
       </c>
       <c r="E61">
-        <v>6231.79404</v>
+        <v>3913.064249999999</v>
       </c>
       <c r="F61">
-        <v>885.1967999999999</v>
+        <v>703.4544</v>
       </c>
       <c r="G61">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H61">
-        <v>3915.10249013262</v>
+        <v>3759.23484139041</v>
       </c>
       <c r="I61">
-        <v>5086.68780969697</v>
+        <v>2694.88243181818</v>
       </c>
       <c r="J61">
-        <v>1440.7553703325</v>
+        <v>1190.9756702375</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>7535.4681176766</v>
+        <v>5176.42088002848</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4834,22 +5842,22 @@
         <v>1250</v>
       </c>
       <c r="O61">
-        <v>999.999999999996</v>
+        <v>999.999999999997</v>
       </c>
       <c r="P61">
-        <v>1218.181818181813</v>
+        <v>1218.181818181814</v>
       </c>
       <c r="Q61">
-        <v>812.1212121212088</v>
+        <v>812.1212121212096</v>
       </c>
       <c r="R61">
-        <v>275.6811435</v>
+        <v>12.8889432</v>
       </c>
       <c r="S61">
-        <v>272.245581395349</v>
+        <v>147.819534883721</v>
       </c>
       <c r="T61">
-        <v>1170.656000000001</v>
+        <v>635.6240000000003</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -4864,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>2281.62998306533</v>
+        <v>915.202306176546</v>
       </c>
       <c r="Z61">
         <v>800</v>
@@ -4873,48 +5881,48 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>5086.68780969697</v>
+        <v>2694.88243181818</v>
       </c>
       <c r="AC61">
-        <v>3928.018232121209</v>
+        <v>2768.653337121209</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B62">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="C62">
-        <v>7.5469748</v>
+        <v>10.8441352</v>
       </c>
       <c r="D62">
-        <v>2496.288</v>
+        <v>1833.744</v>
       </c>
       <c r="E62">
-        <v>6225.166079999999</v>
+        <v>3688.7892</v>
       </c>
       <c r="F62">
-        <v>928.8864</v>
+        <v>702.2543999999999</v>
       </c>
       <c r="G62">
         <v>1.04989998</v>
       </c>
       <c r="H62">
-        <v>3991.7048077743</v>
+        <v>3765.6322138943</v>
       </c>
       <c r="I62">
-        <v>5123.74944969697</v>
+        <v>2470.60738181818</v>
       </c>
       <c r="J62">
-        <v>1420.412029435</v>
+        <v>1184.700623315</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>7187.68207896136</v>
+        <v>4834.53245940736</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4932,13 +5940,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R62">
-        <v>252.7175321</v>
+        <v>7.8974229</v>
       </c>
       <c r="S62">
-        <v>278.206511627907</v>
+        <v>124.126511627907</v>
       </c>
       <c r="T62">
-        <v>1196.288</v>
+        <v>533.7440000000001</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -4953,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>2138.17783421031</v>
+        <v>774.4830126753041</v>
       </c>
       <c r="Z62">
         <v>800</v>
@@ -4962,48 +5970,48 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>5123.74944969697</v>
+        <v>2470.60738181818</v>
       </c>
       <c r="AC62">
-        <v>3924.704252121214</v>
+        <v>2656.515812121214</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B63">
-        <v>6150</v>
+        <v>5997</v>
       </c>
       <c r="C63">
-        <v>6.86442885</v>
+        <v>12.2970332</v>
       </c>
       <c r="D63">
-        <v>2521.584000000001</v>
+        <v>1731.864</v>
       </c>
       <c r="E63">
-        <v>6218.53812</v>
+        <v>3464.51415</v>
       </c>
       <c r="F63">
-        <v>996.4751999999999</v>
+        <v>696.5592</v>
       </c>
       <c r="G63">
         <v>1.04989998</v>
       </c>
       <c r="H63">
-        <v>4062.98453291436</v>
+        <v>3942.2435847357</v>
       </c>
       <c r="I63">
-        <v>5184.71028969697</v>
+        <v>2246.33233181818</v>
       </c>
       <c r="J63">
-        <v>1405.3092345275</v>
+        <v>1180.211578055</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>6840.7655053429</v>
+        <v>4493.49875983779</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5012,22 +6020,22 @@
         <v>1250</v>
       </c>
       <c r="O63">
-        <v>1000</v>
+        <v>999.999999999997</v>
       </c>
       <c r="P63">
-        <v>1218.181818181818</v>
+        <v>1218.181818181814</v>
       </c>
       <c r="Q63">
-        <v>812.121212121212</v>
+        <v>812.1212121212096</v>
       </c>
       <c r="R63">
-        <v>236.1373073</v>
+        <v>4.6250101</v>
       </c>
       <c r="S63">
-        <v>284.089302325582</v>
+        <v>100.433488372093</v>
       </c>
       <c r="T63">
-        <v>1221.584000000003</v>
+        <v>431.8639999999999</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -5042,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>1995.012589653</v>
+        <v>634.045157761065</v>
       </c>
       <c r="Z63">
         <v>800</v>
@@ -5051,48 +6059,48 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>5184.71028969697</v>
+        <v>2246.33233181818</v>
       </c>
       <c r="AC63">
-        <v>3921.390272121212</v>
+        <v>2544.37828712121</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B64">
-        <v>6200</v>
+        <v>5840</v>
       </c>
       <c r="C64">
-        <v>6.1818829</v>
+        <v>13.7499312</v>
       </c>
       <c r="D64">
-        <v>2546.880000000001</v>
+        <v>1629.984</v>
       </c>
       <c r="E64">
-        <v>6211.91016</v>
+        <v>3240.2391</v>
       </c>
       <c r="F64">
-        <v>1004.064</v>
+        <v>710.9952</v>
       </c>
       <c r="G64">
         <v>1.04989998</v>
       </c>
       <c r="H64">
-        <v>4134.26425814942</v>
+        <v>3764.85495557709</v>
       </c>
       <c r="I64">
-        <v>5185.67112969697</v>
+        <v>2022.05728181818</v>
       </c>
       <c r="J64">
-        <v>1390.206439525</v>
+        <v>1175.722532795</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>6494.7162231585</v>
+        <v>4153.31764451714</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -5101,22 +6109,22 @@
         <v>1250</v>
       </c>
       <c r="O64">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="P64">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q64">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R64">
-        <v>219.5570824</v>
+        <v>1.3525973</v>
       </c>
       <c r="S64">
-        <v>289.972093023256</v>
+        <v>76.7404651162791</v>
       </c>
       <c r="T64">
-        <v>1246.880000000001</v>
+        <v>329.9840000000001</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -5131,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>1852.1336755848</v>
+        <v>493.888178556653</v>
       </c>
       <c r="Z64">
         <v>800</v>
@@ -5140,48 +6148,48 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>5185.67112969697</v>
+        <v>2022.05728181818</v>
       </c>
       <c r="AC64">
-        <v>3918.076292121211</v>
+        <v>2432.240762121214</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B65">
-        <v>6150</v>
+        <v>5920</v>
       </c>
       <c r="C65">
-        <v>5.28425385</v>
+        <v>14.58450715</v>
       </c>
       <c r="D65">
-        <v>2521.632</v>
+        <v>1540.848</v>
       </c>
       <c r="E65">
-        <v>6205.2822</v>
+        <v>3015.96405</v>
       </c>
       <c r="F65">
-        <v>996.4896</v>
+        <v>684.2543999999999</v>
       </c>
       <c r="G65">
         <v>1.04989998</v>
       </c>
       <c r="H65">
-        <v>4090.43587001959</v>
+        <v>3905.59898544783</v>
       </c>
       <c r="I65">
-        <v>5171.46876969697</v>
+        <v>1797.78223181818</v>
       </c>
       <c r="J65">
-        <v>1377.8696183525</v>
+        <v>1174.32036236375</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>6149.53206417955</v>
+        <v>3813.9869819848</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -5199,13 +6207,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R65">
-        <v>205.6733258</v>
+        <v>0.711204375</v>
       </c>
       <c r="S65">
-        <v>284.100465116279</v>
+        <v>133.256521725316</v>
       </c>
       <c r="T65">
-        <v>1221.632</v>
+        <v>573.0030434188587</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -5214,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>500</v>
+        <v>167.844956581143</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1709.54051934474</v>
+        <v>354.011513310651</v>
       </c>
       <c r="Z65">
         <v>800</v>
@@ -5229,48 +6237,48 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>5171.46876969697</v>
+        <v>1797.78223181818</v>
       </c>
       <c r="AC65">
-        <v>3914.762312121215</v>
+        <v>2320.103237121213</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B66">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="C66">
-        <v>4.3866248</v>
+        <v>15.4190831</v>
       </c>
       <c r="D66">
-        <v>2496.384</v>
+        <v>1551.712</v>
       </c>
       <c r="E66">
-        <v>6198.654240000001</v>
+        <v>3138.62</v>
       </c>
       <c r="F66">
-        <v>988.9151999999999</v>
+        <v>675.5136</v>
       </c>
       <c r="G66">
         <v>1.04989998</v>
       </c>
       <c r="H66">
-        <v>4046.60748198477</v>
+        <v>4030.63938946285</v>
       </c>
       <c r="I66">
-        <v>5157.26640969697</v>
+        <v>1920.43818181818</v>
       </c>
       <c r="J66">
-        <v>1365.532797085</v>
+        <v>1172.9181919325</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>5805.21086559804</v>
+        <v>3475.50464610878</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5279,22 +6287,22 @@
         <v>1250</v>
       </c>
       <c r="O66">
-        <v>999.999999999997</v>
+        <v>1000</v>
       </c>
       <c r="P66">
-        <v>1218.181818181814</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q66">
-        <v>812.1212121212096</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R66">
-        <v>191.7895691</v>
+        <v>0.06981145</v>
       </c>
       <c r="S66">
-        <v>278.228837209302</v>
+        <v>174.816744186049</v>
       </c>
       <c r="T66">
-        <v>1196.383999999999</v>
+        <v>751.7120000000107</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -5303,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>500</v>
+        <v>-1.21644916362129e-11</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1567.23254941716</v>
+        <v>306.679891233712</v>
       </c>
       <c r="Z66">
         <v>800</v>
@@ -5318,48 +6326,48 @@
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>5157.26640969697</v>
+        <v>1920.43818181818</v>
       </c>
       <c r="AC66">
-        <v>3911.44833212121</v>
+        <v>2381.431212121213</v>
       </c>
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B67">
-        <v>6050</v>
+        <v>6100</v>
       </c>
       <c r="C67">
-        <v>3.88972595</v>
+        <v>16.5040318</v>
       </c>
       <c r="D67">
-        <v>2470.704</v>
+        <v>1562.576</v>
       </c>
       <c r="E67">
-        <v>6192.026279999999</v>
+        <v>3243.049199999999</v>
       </c>
       <c r="F67">
-        <v>921.2112</v>
+        <v>648.7728</v>
       </c>
       <c r="G67">
         <v>1.04989998</v>
       </c>
       <c r="H67">
-        <v>4006.05946504785</v>
+        <v>4134.3560883759</v>
       </c>
       <c r="I67">
-        <v>5082.93444969697</v>
+        <v>2024.86738181818</v>
       </c>
       <c r="J67">
-        <v>1349.8101163475</v>
+        <v>1171.85433022875</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>5461.750470013</v>
+        <v>3137.86851607246</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -5368,22 +6376,22 @@
         <v>1250</v>
       </c>
       <c r="O67">
-        <v>999.999999999999</v>
+        <v>1000</v>
       </c>
       <c r="P67">
-        <v>1218.181818181817</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q67">
-        <v>812.1212121212111</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R67">
-        <v>174.74248</v>
+        <v>0.034905725</v>
       </c>
       <c r="S67">
-        <v>272.256744186047</v>
+        <v>177.343255813954</v>
       </c>
       <c r="T67">
-        <v>1170.704000000002</v>
+        <v>762.5760000000021</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -5392,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>1425.20919542944</v>
+        <v>306.066531451248</v>
       </c>
       <c r="Z67">
         <v>800</v>
@@ -5407,48 +6415,48 @@
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>5082.93444969697</v>
+        <v>2024.86738181818</v>
       </c>
       <c r="AC67">
-        <v>3908.134352121211</v>
+        <v>2433.645812121213</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B68">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="C68">
-        <v>3.3928271</v>
+        <v>17.5889805</v>
       </c>
       <c r="D68">
-        <v>2445.024</v>
+        <v>1573.44</v>
       </c>
       <c r="E68">
-        <v>6185.398319999999</v>
+        <v>2959.7544</v>
       </c>
       <c r="F68">
-        <v>913.5071999999999</v>
+        <v>722.032</v>
       </c>
       <c r="G68">
         <v>1.04989998</v>
       </c>
       <c r="H68">
-        <v>3965.51144801593</v>
+        <v>4288.07278728895</v>
       </c>
       <c r="I68">
-        <v>5068.60248969697</v>
+        <v>1741.57258181818</v>
       </c>
       <c r="J68">
-        <v>1334.087435705</v>
+        <v>1170.790468525</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>5119.14872541691</v>
+        <v>2801.07647636122</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -5466,13 +6474,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R68">
-        <v>157.695391</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>266.284651162791</v>
+        <v>179.869767441859</v>
       </c>
       <c r="T68">
-        <v>1145.024000000001</v>
+        <v>773.4399999999937</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -5481,13 +6489,13 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>500</v>
+        <v>8.64019966684282e-12</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>1283.46988814969</v>
+        <v>305.454398388346</v>
       </c>
       <c r="Z68">
         <v>800</v>
@@ -5496,72 +6504,72 @@
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>5068.60248969697</v>
+        <v>1741.57258181818</v>
       </c>
       <c r="AC68">
-        <v>3904.820372121212</v>
+        <v>2291.998412121213</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B69">
-        <v>4945</v>
+        <v>5850</v>
       </c>
       <c r="C69">
-        <v>3.7841914</v>
+        <v>18.5862904</v>
       </c>
       <c r="D69">
-        <v>2374.968</v>
+        <v>1585.303999999996</v>
       </c>
       <c r="E69">
-        <v>6178.77036</v>
+        <v>2976.4596</v>
       </c>
       <c r="F69">
-        <v>910.4903999999999</v>
+        <v>717</v>
       </c>
       <c r="G69">
         <v>1.04989998</v>
       </c>
       <c r="H69">
-        <v>3510.31192041651</v>
+        <v>3891.91725494977</v>
       </c>
       <c r="I69">
-        <v>5058.95772969697</v>
+        <v>1758.27778181818</v>
       </c>
       <c r="J69">
-        <v>717.180265629996</v>
+        <v>1169.84302412</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>4777.40348518232</v>
+        <v>2465.12641674927</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>624.999999999995</v>
+        <v>1250</v>
       </c>
       <c r="O69">
-        <v>1000.00000000001</v>
+        <v>1000</v>
       </c>
       <c r="P69">
-        <v>1218.18181818183</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q69">
-        <v>812.1212121212201</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R69">
-        <v>133.7107868</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>249.992558139535</v>
+        <v>182.628837209307</v>
       </c>
       <c r="T69">
-        <v>1074.968000000001</v>
+        <v>785.3040000000201</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -5570,69 +6578,69 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>500</v>
+        <v>-2.250999386888e-11</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>1142.01405948451</v>
+        <v>304.843489591567</v>
       </c>
       <c r="Z69">
         <v>800</v>
       </c>
       <c r="AA69">
-        <v>-1.2732925824821e-11</v>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <v>5058.95772969697</v>
+        <v>1758.27778181818</v>
       </c>
       <c r="AC69">
-        <v>3901.506392121217</v>
+        <v>2300.351012121213</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>4590</v>
+        <v>5950</v>
       </c>
       <c r="C70">
-        <v>4.1755557</v>
+        <v>19.5836003</v>
       </c>
       <c r="D70">
-        <v>2304.912</v>
+        <v>1580</v>
       </c>
       <c r="E70">
-        <v>6172.1424</v>
+        <v>3053.1648</v>
       </c>
       <c r="F70">
-        <v>871.4735999999999</v>
+        <v>711.968</v>
       </c>
       <c r="G70">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H70">
-        <v>3877.20541607291</v>
+        <v>3991.56953656407</v>
       </c>
       <c r="I70">
-        <v>5013.31296969697</v>
+        <v>1834.98298181818</v>
       </c>
       <c r="J70">
-        <v>100.273095554996</v>
+        <v>1168.895579715</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>4600.98629225884</v>
+        <v>2130.01623228634</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>-4.54747350886464e-12</v>
+        <v>1250</v>
       </c>
       <c r="O70">
         <v>1000</v>
@@ -5644,13 +6652,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R70">
-        <v>109.7261826</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>349.97953488372</v>
+        <v>181.395348837211</v>
       </c>
       <c r="T70">
-        <v>1504.911999999996</v>
+        <v>780.0000000000073</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -5659,13 +6667,13 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>5.22959453519434e-12</v>
+        <v>-8.86757334228605e-12</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>1000.84114247665</v>
+        <v>304.23380261239</v>
       </c>
       <c r="Z70">
         <v>800</v>
@@ -5674,54 +6682,54 @@
         <v>0</v>
       </c>
       <c r="AB70">
-        <v>5013.31296969697</v>
+        <v>1834.98298181818</v>
       </c>
       <c r="AC70">
-        <v>3898.192412121212</v>
+        <v>2338.703612121213</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B71">
-        <v>4820</v>
+        <v>6150</v>
       </c>
       <c r="C71">
-        <v>4.19094265</v>
+        <v>19.48325045</v>
       </c>
       <c r="D71">
-        <v>2234.880000000001</v>
+        <v>1574.696000000004</v>
       </c>
       <c r="E71">
-        <v>5898.4968</v>
+        <v>3169.87</v>
       </c>
       <c r="F71">
-        <v>790.4640000000001</v>
+        <v>706.936</v>
       </c>
       <c r="G71">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H71">
-        <v>4763.54570175545</v>
+        <v>4190.17904141587</v>
       </c>
       <c r="I71">
-        <v>4680.31498181818</v>
+        <v>1951.68818181818</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1168.9909120725</v>
       </c>
       <c r="K71">
-        <v>544.509625970005</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>4589.48382652819</v>
+        <v>1795.74382328458</v>
       </c>
       <c r="M71">
-        <v>625.000000000005</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O71">
         <v>1000</v>
@@ -5733,13 +6741,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R71">
-        <v>84.68131667999999</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>333.693023255814</v>
+        <v>180.161860465117</v>
       </c>
       <c r="T71">
-        <v>1434.88</v>
+        <v>774.6960000000031</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -5748,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1.59161572810262e-12</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>998.839460191693</v>
+        <v>303.625335007167</v>
       </c>
       <c r="Z71">
         <v>800</v>
@@ -5763,54 +6771,54 @@
         <v>0</v>
       </c>
       <c r="AB71">
-        <v>4680.31498181818</v>
+        <v>1951.68818181818</v>
       </c>
       <c r="AC71">
-        <v>3761.369612121213</v>
+        <v>2397.056212121213</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B72">
-        <v>5050</v>
+        <v>5750</v>
       </c>
       <c r="C72">
-        <v>4.2063296</v>
+        <v>19.3829006</v>
       </c>
       <c r="D72">
-        <v>2164.848</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="E72">
-        <v>5624.8512</v>
+        <v>3102.57520000001</v>
       </c>
       <c r="F72">
-        <v>769.4544</v>
+        <v>701.904</v>
       </c>
       <c r="G72">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H72">
-        <v>5660.71881494614</v>
+        <v>3788.78854626768</v>
       </c>
       <c r="I72">
-        <v>4406.66938181818</v>
+        <v>1884.39338181819</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1169.08624443002</v>
       </c>
       <c r="K72">
-        <v>1194.56987885</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>4726.44761696187</v>
+        <v>1462.30709530531</v>
       </c>
       <c r="M72">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1250.00000000002</v>
       </c>
       <c r="O72">
         <v>1000</v>
@@ -5822,13 +6830,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R72">
-        <v>59.63645075</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>317.406511627907</v>
+        <v>178.928372093052</v>
       </c>
       <c r="T72">
-        <v>1364.848</v>
+        <v>769.3920000001235</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -5837,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>-1.16529008664656e-10</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>996.84178127131</v>
+        <v>303.018084337153</v>
       </c>
       <c r="Z72">
         <v>800</v>
@@ -5852,54 +6860,54 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>4406.66938181818</v>
+        <v>1884.39338181819</v>
       </c>
       <c r="AC72">
-        <v>3624.546812121213</v>
+        <v>2363.408812121224</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B73">
-        <v>5150</v>
+        <v>5500</v>
       </c>
       <c r="C73">
-        <v>4.99691885</v>
+        <v>19.49077665</v>
       </c>
       <c r="D73">
-        <v>2128.944</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="E73">
-        <v>5351.205599999999</v>
+        <v>3135.28040000001</v>
       </c>
       <c r="F73">
-        <v>738.2543999999999</v>
+        <v>696.8720000000001</v>
       </c>
       <c r="G73">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="H73">
-        <v>5696.68172642164</v>
+        <v>4131.34586572448</v>
       </c>
       <c r="I73">
-        <v>4133.02378181818</v>
+        <v>1917.09858181819</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>575.233762182523</v>
       </c>
       <c r="K73">
-        <v>1142.06353777498</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>5011.50649791947</v>
+        <v>1129.70395914599</v>
       </c>
       <c r="M73">
-        <v>1185.68594660498</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>625.000000000024</v>
       </c>
       <c r="O73">
         <v>1000</v>
@@ -5911,13 +6919,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R73">
-        <v>48.61932768</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>309.056744186047</v>
+        <v>177.694883720957</v>
       </c>
       <c r="T73">
-        <v>1328.944000000002</v>
+        <v>764.088000000115</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -5926,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>-1.02772901300341e-10</v>
       </c>
       <c r="X73">
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>994.848097708767</v>
+        <v>302.412048168511</v>
       </c>
       <c r="Z73">
         <v>800</v>
@@ -5941,54 +6949,54 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>4133.02378181818</v>
+        <v>1917.09858181819</v>
       </c>
       <c r="AC73">
-        <v>3487.724012121213</v>
+        <v>2379.761412121223</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B74">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="C74">
-        <v>5.7875081</v>
+        <v>19.5986527</v>
       </c>
       <c r="D74">
-        <v>2093.04</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="E74">
-        <v>4585.889399999999</v>
+        <v>3167.98560000002</v>
       </c>
       <c r="F74">
-        <v>707.0544</v>
+        <v>691.84</v>
       </c>
       <c r="G74">
         <v>0.65550003</v>
       </c>
       <c r="H74">
-        <v>5142.44890463927</v>
+        <v>4975.91462585313</v>
       </c>
       <c r="I74">
-        <v>3367.70758181818</v>
+        <v>1949.8037818182</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>528.871250104977</v>
+        <v>19.5986527000065</v>
       </c>
       <c r="L74">
-        <v>5280.57814399335</v>
+        <v>962.406015037591</v>
       </c>
       <c r="M74">
-        <v>560.6859466049769</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>-6.45172804070171e-12</v>
       </c>
       <c r="O74">
         <v>1000</v>
@@ -6000,13 +7008,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R74">
-        <v>37.6022046</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>300.706976744186</v>
+        <v>176.461395348841</v>
       </c>
       <c r="T74">
-        <v>1293.04</v>
+        <v>758.7840000000162</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -6015,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>-1.36424205265939e-12</v>
+        <v>0</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>992.858401513349</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Z74">
         <v>800</v>
@@ -6030,54 +7038,54 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>3367.70758181818</v>
+        <v>1949.8037818182</v>
       </c>
       <c r="AC74">
-        <v>3105.065912121213</v>
+        <v>2396.114012121223</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B75">
-        <v>5250</v>
+        <v>6075</v>
       </c>
       <c r="C75">
-        <v>6.7020294</v>
+        <v>19.47187745</v>
       </c>
       <c r="D75">
-        <v>2065.272</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="E75">
-        <v>4361.614350000001</v>
+        <v>3200.69080000003</v>
       </c>
       <c r="F75">
-        <v>705.8543999999999</v>
+        <v>686.808</v>
       </c>
       <c r="G75">
         <v>0.65550003</v>
       </c>
       <c r="H75">
-        <v>4499.92024613131</v>
+        <v>5310.12313454442</v>
       </c>
       <c r="I75">
-        <v>3143.43253181818</v>
+        <v>1982.50898181821</v>
       </c>
       <c r="J75">
-        <v>79.04152131054821</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>29.5771406078942</v>
       </c>
       <c r="L75">
-        <v>5400.53961095205</v>
+        <v>959.999999999999</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>10.1052631578942</v>
       </c>
       <c r="N75">
-        <v>62.1622967295244</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>1000</v>
@@ -6089,13 +7097,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R75">
-        <v>27.74133405</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>294.249302325581</v>
+        <v>175.227906976749</v>
       </c>
       <c r="T75">
-        <v>1265.271999999998</v>
+        <v>753.4800000000207</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -6110,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>990.872684710323</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Z75">
         <v>800</v>
@@ -6119,54 +7127,54 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>3143.43253181818</v>
+        <v>1982.50898181821</v>
       </c>
       <c r="AC75">
-        <v>2992.928387121214</v>
+        <v>2412.466612121224</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B76">
-        <v>5250</v>
+        <v>6400</v>
       </c>
       <c r="C76">
-        <v>7.6165507</v>
+        <v>19.3451022</v>
       </c>
       <c r="D76">
-        <v>2037.504</v>
+        <v>1548.176000000024</v>
       </c>
       <c r="E76">
-        <v>4137.3393</v>
+        <v>3353.39600000004</v>
       </c>
       <c r="F76">
-        <v>704.6544</v>
+        <v>681.7760000000001</v>
       </c>
       <c r="G76">
         <v>0.65550003</v>
       </c>
       <c r="H76">
-        <v>3846.58746888652</v>
+        <v>5633.69452412215</v>
       </c>
       <c r="I76">
-        <v>2919.15748181818</v>
+        <v>2135.21418181822</v>
       </c>
       <c r="J76">
-        <v>662.554899053048</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>29.4503653578997</v>
       </c>
       <c r="L76">
-        <v>5370.67976278532</v>
+        <v>959.999999999999</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>10.1052631578997</v>
       </c>
       <c r="N76">
-        <v>687.162296729524</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>1000</v>
@@ -6178,13 +7186,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R76">
-        <v>17.8804635</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>227.754636132924</v>
+        <v>173.994418604657</v>
       </c>
       <c r="T76">
-        <v>979.3449353715731</v>
+        <v>748.1760000000251</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -6193,13 +7201,13 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>258.159064628427</v>
+        <v>0</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>988.890939340902</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Z76">
         <v>800</v>
@@ -6208,143 +7216,143 @@
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>2919.15748181818</v>
+        <v>2135.21418181822</v>
       </c>
       <c r="AC76">
-        <v>2880.790862121213</v>
+        <v>2488.819212121234</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B77">
-        <v>5775</v>
+        <v>6025</v>
       </c>
       <c r="C77">
-        <v>9.230342950000001</v>
+        <v>19.38959065</v>
       </c>
       <c r="D77">
-        <v>1935.624</v>
+        <v>1542.872000000028</v>
       </c>
       <c r="E77">
-        <v>3913.064249999999</v>
+        <v>3386.10120000004</v>
       </c>
       <c r="F77">
-        <v>703.4544</v>
+        <v>676.744</v>
       </c>
       <c r="G77">
         <v>0.65550003</v>
       </c>
       <c r="H77">
-        <v>3759.23484139041</v>
+        <v>5364.43813435223</v>
       </c>
       <c r="I77">
-        <v>2694.88243181818</v>
+        <v>2167.91938181822</v>
       </c>
       <c r="J77">
-        <v>1190.9756702375</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>29.4948538078946</v>
       </c>
       <c r="L77">
-        <v>5176.42088002848</v>
+        <v>960</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>10.1052631578946</v>
       </c>
       <c r="N77">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>999.999999999997</v>
+        <v>1000</v>
       </c>
       <c r="P77">
-        <v>1218.181818181814</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q77">
-        <v>812.1212121212096</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R77">
-        <v>12.8889432</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>147.819534883721</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>635.6240000000003</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>276.669182718912</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="W77">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>827.3408814900693</v>
       </c>
       <c r="Y77">
-        <v>915.202306176546</v>
+        <v>300</v>
       </c>
       <c r="Z77">
-        <v>800</v>
+        <v>715.5311185099592</v>
       </c>
       <c r="AA77">
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>2694.88243181818</v>
+        <v>2167.91938181822</v>
       </c>
       <c r="AC77">
-        <v>2768.653337121209</v>
+        <v>2505.171812121234</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B78">
-        <v>5800</v>
+        <v>5650</v>
       </c>
       <c r="C78">
-        <v>10.8441352</v>
+        <v>19.4340791</v>
       </c>
       <c r="D78">
-        <v>1833.744</v>
+        <v>1537.568000000032</v>
       </c>
       <c r="E78">
-        <v>3688.7892</v>
+        <v>3318.80640000005</v>
       </c>
       <c r="F78">
-        <v>702.2543999999999</v>
+        <v>671.712</v>
       </c>
       <c r="G78">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H78">
-        <v>3765.6322138943</v>
+        <v>5528.45547616402</v>
       </c>
       <c r="I78">
-        <v>2470.60738181818</v>
+        <v>2100.62458181823</v>
       </c>
       <c r="J78">
-        <v>1184.700623315</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>334.763668768646</v>
       </c>
       <c r="L78">
-        <v>4834.53245940736</v>
+        <v>960</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>315.329589668647</v>
       </c>
       <c r="N78">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>1000</v>
@@ -6356,173 +7364,173 @@
         <v>812.121212121212</v>
       </c>
       <c r="R78">
-        <v>7.8974229</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>124.126511627907</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>533.7440000000001</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V78">
-        <v>0</v>
+        <v>5.3386773547107</v>
       </c>
       <c r="W78">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>1494.661322645289</v>
       </c>
       <c r="Y78">
-        <v>774.4830126753041</v>
+        <v>300</v>
       </c>
       <c r="Z78">
-        <v>800</v>
+        <v>42.90667735474273</v>
       </c>
       <c r="AA78">
         <v>0</v>
       </c>
       <c r="AB78">
-        <v>2470.60738181818</v>
+        <v>2100.62458181823</v>
       </c>
       <c r="AC78">
-        <v>2656.515812121214</v>
+        <v>2471.524412121233</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B79">
-        <v>5997</v>
+        <v>5750</v>
       </c>
       <c r="C79">
-        <v>12.2970332</v>
+        <v>19.46635825</v>
       </c>
       <c r="D79">
-        <v>1731.864</v>
+        <v>1532.264000000036</v>
       </c>
       <c r="E79">
-        <v>3464.51415</v>
+        <v>3451.51160000006</v>
       </c>
       <c r="F79">
-        <v>696.5592</v>
+        <v>666.6800000000001</v>
       </c>
       <c r="G79">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H79">
-        <v>3942.2435847357</v>
+        <v>4969.29955458385</v>
       </c>
       <c r="I79">
-        <v>2246.33233181818</v>
+        <v>2233.32978181824</v>
       </c>
       <c r="J79">
-        <v>1180.211578055</v>
+        <v>58.4294712904124</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>4493.49875983779</v>
+        <v>1032.4907775463</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1250</v>
+        <v>80.9710648714868</v>
       </c>
       <c r="O79">
-        <v>999.999999999997</v>
+        <v>1000</v>
       </c>
       <c r="P79">
-        <v>1218.181818181814</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="Q79">
-        <v>812.1212121212096</v>
+        <v>812.121212121212</v>
       </c>
       <c r="R79">
-        <v>4.6250101</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>100.433488372093</v>
+        <v>0</v>
       </c>
       <c r="T79">
-        <v>431.8639999999999</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>245.561462435142</v>
       </c>
       <c r="V79">
         <v>0</v>
       </c>
       <c r="W79">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>736.6843873054261</v>
       </c>
       <c r="Y79">
-        <v>634.045157761065</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Z79">
-        <v>800</v>
+        <v>795.5796126946088</v>
       </c>
       <c r="AA79">
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>2246.33233181818</v>
+        <v>2233.32978181824</v>
       </c>
       <c r="AC79">
-        <v>2544.37828712121</v>
+        <v>2537.877012121243</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B80">
-        <v>5840</v>
+        <v>5800</v>
       </c>
       <c r="C80">
-        <v>13.7499312</v>
+        <v>19.4986374</v>
       </c>
       <c r="D80">
-        <v>1629.984</v>
+        <v>1526.96000000004</v>
       </c>
       <c r="E80">
-        <v>3240.2391</v>
+        <v>3584.21680000007</v>
       </c>
       <c r="F80">
-        <v>710.9952</v>
+        <v>661.648</v>
       </c>
       <c r="G80">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H80">
-        <v>3764.85495557709</v>
+        <v>4422.2871939021</v>
       </c>
       <c r="I80">
-        <v>2022.05728181818</v>
+        <v>2366.03498181825</v>
       </c>
       <c r="J80">
-        <v>1175.722532795</v>
+        <v>652.148806097912</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>4153.31764451714</v>
+        <v>1008.60137563626</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>1250</v>
+        <v>705.971064871487</v>
       </c>
       <c r="O80">
         <v>1000</v>
@@ -6534,28 +7542,28 @@
         <v>812.121212121212</v>
       </c>
       <c r="R80">
-        <v>1.3525973</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>76.7404651162791</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>329.9840000000001</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>242.320000000013</v>
       </c>
       <c r="V80">
         <v>0</v>
       </c>
       <c r="W80">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>726.960000000039</v>
       </c>
       <c r="Y80">
-        <v>493.888178556653</v>
+        <v>300</v>
       </c>
       <c r="Z80">
         <v>800</v>
@@ -6564,48 +7572,48 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>2022.05728181818</v>
+        <v>2366.03498181825</v>
       </c>
       <c r="AC80">
-        <v>2432.240762121214</v>
+        <v>2604.229612121254</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B81">
-        <v>5920</v>
+        <v>5850</v>
       </c>
       <c r="C81">
-        <v>14.58450715</v>
+        <v>19.4986374</v>
       </c>
       <c r="D81">
-        <v>1540.848</v>
+        <v>1521.656000000044</v>
       </c>
       <c r="E81">
-        <v>3015.96405</v>
+        <v>3616.92200000008</v>
       </c>
       <c r="F81">
-        <v>684.2543999999999</v>
+        <v>656.616</v>
       </c>
       <c r="G81">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="H81">
-        <v>3905.59898544783</v>
+        <v>3755.14900785559</v>
       </c>
       <c r="I81">
-        <v>1797.78223181818</v>
+        <v>2398.74018181826</v>
       </c>
       <c r="J81">
-        <v>1174.32036236375</v>
+        <v>1168.97629447</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>3813.9869819848</v>
+        <v>960</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -6623,13 +7631,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="R81">
-        <v>0.711204375</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>133.256521725316</v>
+        <v>51.5479069767544</v>
       </c>
       <c r="T81">
-        <v>573.0030434188587</v>
+        <v>221.6560000000439</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -6638,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>167.844956581143</v>
+        <v>500</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>354.011513310651</v>
+        <v>300</v>
       </c>
       <c r="Z81">
         <v>800</v>
@@ -6653,1433 +7661,9 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>1797.78223181818</v>
+        <v>2398.74018181826</v>
       </c>
       <c r="AC81">
-        <v>2320.103237121213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>6000</v>
-      </c>
-      <c r="C82">
-        <v>15.4190831</v>
-      </c>
-      <c r="D82">
-        <v>1551.712</v>
-      </c>
-      <c r="E82">
-        <v>3138.62</v>
-      </c>
-      <c r="F82">
-        <v>675.5136</v>
-      </c>
-      <c r="G82">
-        <v>1.04989998</v>
-      </c>
-      <c r="H82">
-        <v>4030.63938946285</v>
-      </c>
-      <c r="I82">
-        <v>1920.43818181818</v>
-      </c>
-      <c r="J82">
-        <v>1172.9181919325</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>3475.50464610878</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>1250</v>
-      </c>
-      <c r="O82">
-        <v>1000</v>
-      </c>
-      <c r="P82">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q82">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R82">
-        <v>0.06981145</v>
-      </c>
-      <c r="S82">
-        <v>174.816744186049</v>
-      </c>
-      <c r="T82">
-        <v>751.7120000000107</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>-1.21644916362129e-11</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>306.679891233712</v>
-      </c>
-      <c r="Z82">
-        <v>800</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>1920.43818181818</v>
-      </c>
-      <c r="AC82">
-        <v>2381.431212121213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>6100</v>
-      </c>
-      <c r="C83">
-        <v>16.5040318</v>
-      </c>
-      <c r="D83">
-        <v>1562.576</v>
-      </c>
-      <c r="E83">
-        <v>3243.049199999999</v>
-      </c>
-      <c r="F83">
-        <v>648.7728</v>
-      </c>
-      <c r="G83">
-        <v>1.04989998</v>
-      </c>
-      <c r="H83">
-        <v>4134.3560883759</v>
-      </c>
-      <c r="I83">
-        <v>2024.86738181818</v>
-      </c>
-      <c r="J83">
-        <v>1171.85433022875</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>3137.86851607246</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>1250</v>
-      </c>
-      <c r="O83">
-        <v>1000</v>
-      </c>
-      <c r="P83">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q83">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R83">
-        <v>0.034905725</v>
-      </c>
-      <c r="S83">
-        <v>177.343255813954</v>
-      </c>
-      <c r="T83">
-        <v>762.5760000000021</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>306.066531451248</v>
-      </c>
-      <c r="Z83">
-        <v>800</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>2024.86738181818</v>
-      </c>
-      <c r="AC83">
-        <v>2433.645812121213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>6250</v>
-      </c>
-      <c r="C84">
-        <v>17.5889805</v>
-      </c>
-      <c r="D84">
-        <v>1573.44</v>
-      </c>
-      <c r="E84">
-        <v>2959.7544</v>
-      </c>
-      <c r="F84">
-        <v>722.032</v>
-      </c>
-      <c r="G84">
-        <v>1.04989998</v>
-      </c>
-      <c r="H84">
-        <v>4288.07278728895</v>
-      </c>
-      <c r="I84">
-        <v>1741.57258181818</v>
-      </c>
-      <c r="J84">
-        <v>1170.790468525</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>2801.07647636122</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1250</v>
-      </c>
-      <c r="O84">
-        <v>1000</v>
-      </c>
-      <c r="P84">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q84">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>179.869767441859</v>
-      </c>
-      <c r="T84">
-        <v>773.4399999999937</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>8.64019966684282e-12</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>305.454398388346</v>
-      </c>
-      <c r="Z84">
-        <v>800</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>1741.57258181818</v>
-      </c>
-      <c r="AC84">
-        <v>2291.998412121213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>5850</v>
-      </c>
-      <c r="C85">
-        <v>18.5862904</v>
-      </c>
-      <c r="D85">
-        <v>1585.303999999996</v>
-      </c>
-      <c r="E85">
-        <v>2976.4596</v>
-      </c>
-      <c r="F85">
-        <v>717</v>
-      </c>
-      <c r="G85">
-        <v>1.04989998</v>
-      </c>
-      <c r="H85">
-        <v>3891.91725494977</v>
-      </c>
-      <c r="I85">
-        <v>1758.27778181818</v>
-      </c>
-      <c r="J85">
-        <v>1169.84302412</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>2465.12641674927</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>1250</v>
-      </c>
-      <c r="O85">
-        <v>1000</v>
-      </c>
-      <c r="P85">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q85">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>182.628837209307</v>
-      </c>
-      <c r="T85">
-        <v>785.3040000000201</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>-2.250999386888e-11</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>304.843489591567</v>
-      </c>
-      <c r="Z85">
-        <v>800</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>1758.27778181818</v>
-      </c>
-      <c r="AC85">
-        <v>2300.351012121213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>5950</v>
-      </c>
-      <c r="C86">
-        <v>19.5836003</v>
-      </c>
-      <c r="D86">
-        <v>1580</v>
-      </c>
-      <c r="E86">
-        <v>3053.1648</v>
-      </c>
-      <c r="F86">
-        <v>711.968</v>
-      </c>
-      <c r="G86">
-        <v>1.04989998</v>
-      </c>
-      <c r="H86">
-        <v>3991.56953656407</v>
-      </c>
-      <c r="I86">
-        <v>1834.98298181818</v>
-      </c>
-      <c r="J86">
-        <v>1168.895579715</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>2130.01623228634</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>1250</v>
-      </c>
-      <c r="O86">
-        <v>1000</v>
-      </c>
-      <c r="P86">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q86">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>181.395348837211</v>
-      </c>
-      <c r="T86">
-        <v>780.0000000000073</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>-8.86757334228605e-12</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>304.23380261239</v>
-      </c>
-      <c r="Z86">
-        <v>800</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>1834.98298181818</v>
-      </c>
-      <c r="AC86">
-        <v>2338.703612121213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>6150</v>
-      </c>
-      <c r="C87">
-        <v>19.48325045</v>
-      </c>
-      <c r="D87">
-        <v>1574.696000000004</v>
-      </c>
-      <c r="E87">
-        <v>3169.87</v>
-      </c>
-      <c r="F87">
-        <v>706.936</v>
-      </c>
-      <c r="G87">
-        <v>1.04989998</v>
-      </c>
-      <c r="H87">
-        <v>4190.17904141587</v>
-      </c>
-      <c r="I87">
-        <v>1951.68818181818</v>
-      </c>
-      <c r="J87">
-        <v>1168.9909120725</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>1795.74382328458</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>1250</v>
-      </c>
-      <c r="O87">
-        <v>1000</v>
-      </c>
-      <c r="P87">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q87">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>180.161860465117</v>
-      </c>
-      <c r="T87">
-        <v>774.6960000000031</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>1.59161572810262e-12</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>303.625335007167</v>
-      </c>
-      <c r="Z87">
-        <v>800</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <v>1951.68818181818</v>
-      </c>
-      <c r="AC87">
-        <v>2397.056212121213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>5750</v>
-      </c>
-      <c r="C88">
-        <v>19.3829006</v>
-      </c>
-      <c r="D88">
-        <v>1569.392000000008</v>
-      </c>
-      <c r="E88">
-        <v>3102.57520000001</v>
-      </c>
-      <c r="F88">
-        <v>701.904</v>
-      </c>
-      <c r="G88">
-        <v>1.04989998</v>
-      </c>
-      <c r="H88">
-        <v>3788.78854626768</v>
-      </c>
-      <c r="I88">
-        <v>1884.39338181819</v>
-      </c>
-      <c r="J88">
-        <v>1169.08624443002</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>1462.30709530531</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1250.00000000002</v>
-      </c>
-      <c r="O88">
-        <v>1000</v>
-      </c>
-      <c r="P88">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q88">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>178.928372093052</v>
-      </c>
-      <c r="T88">
-        <v>769.3920000001235</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>-1.16529008664656e-10</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>303.018084337153</v>
-      </c>
-      <c r="Z88">
-        <v>800</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-      <c r="AB88">
-        <v>1884.39338181819</v>
-      </c>
-      <c r="AC88">
-        <v>2363.408812121224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>5500</v>
-      </c>
-      <c r="C89">
-        <v>19.49077665</v>
-      </c>
-      <c r="D89">
-        <v>1564.088000000012</v>
-      </c>
-      <c r="E89">
-        <v>3135.28040000001</v>
-      </c>
-      <c r="F89">
-        <v>696.8720000000001</v>
-      </c>
-      <c r="G89">
-        <v>1.04989998</v>
-      </c>
-      <c r="H89">
-        <v>4131.34586572448</v>
-      </c>
-      <c r="I89">
-        <v>1917.09858181819</v>
-      </c>
-      <c r="J89">
-        <v>575.233762182523</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>1129.70395914599</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>625.000000000024</v>
-      </c>
-      <c r="O89">
-        <v>1000</v>
-      </c>
-      <c r="P89">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q89">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>177.694883720957</v>
-      </c>
-      <c r="T89">
-        <v>764.088000000115</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>-1.02772901300341e-10</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>302.412048168511</v>
-      </c>
-      <c r="Z89">
-        <v>800</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
-      <c r="AB89">
-        <v>1917.09858181819</v>
-      </c>
-      <c r="AC89">
-        <v>2379.761412121223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>5750</v>
-      </c>
-      <c r="C90">
-        <v>19.5986527</v>
-      </c>
-      <c r="D90">
-        <v>1558.784000000016</v>
-      </c>
-      <c r="E90">
-        <v>3167.98560000002</v>
-      </c>
-      <c r="F90">
-        <v>691.84</v>
-      </c>
-      <c r="G90">
-        <v>0.65550003</v>
-      </c>
-      <c r="H90">
-        <v>4975.91462585313</v>
-      </c>
-      <c r="I90">
-        <v>1949.8037818182</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>19.5986527000065</v>
-      </c>
-      <c r="L90">
-        <v>962.406015037591</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>-6.45172804070171e-12</v>
-      </c>
-      <c r="O90">
-        <v>1000</v>
-      </c>
-      <c r="P90">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q90">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>176.461395348841</v>
-      </c>
-      <c r="T90">
-        <v>758.7840000000162</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>301.807224072202</v>
-      </c>
-      <c r="Z90">
-        <v>800</v>
-      </c>
-      <c r="AA90">
-        <v>0</v>
-      </c>
-      <c r="AB90">
-        <v>1949.8037818182</v>
-      </c>
-      <c r="AC90">
-        <v>2396.114012121223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>6075</v>
-      </c>
-      <c r="C91">
-        <v>19.47187745</v>
-      </c>
-      <c r="D91">
-        <v>1553.48000000002</v>
-      </c>
-      <c r="E91">
-        <v>3200.69080000003</v>
-      </c>
-      <c r="F91">
-        <v>686.808</v>
-      </c>
-      <c r="G91">
-        <v>0.65550003</v>
-      </c>
-      <c r="H91">
-        <v>5310.12313454442</v>
-      </c>
-      <c r="I91">
-        <v>1982.50898181821</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>29.5771406078942</v>
-      </c>
-      <c r="L91">
-        <v>959.999999999999</v>
-      </c>
-      <c r="M91">
-        <v>10.1052631578942</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>1000</v>
-      </c>
-      <c r="P91">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q91">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>175.227906976749</v>
-      </c>
-      <c r="T91">
-        <v>753.4800000000207</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>301.203609624058</v>
-      </c>
-      <c r="Z91">
-        <v>800</v>
-      </c>
-      <c r="AA91">
-        <v>0</v>
-      </c>
-      <c r="AB91">
-        <v>1982.50898181821</v>
-      </c>
-      <c r="AC91">
-        <v>2412.466612121224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>6400</v>
-      </c>
-      <c r="C92">
-        <v>19.3451022</v>
-      </c>
-      <c r="D92">
-        <v>1548.176000000024</v>
-      </c>
-      <c r="E92">
-        <v>3353.39600000004</v>
-      </c>
-      <c r="F92">
-        <v>681.7760000000001</v>
-      </c>
-      <c r="G92">
-        <v>0.65550003</v>
-      </c>
-      <c r="H92">
-        <v>5633.69452412215</v>
-      </c>
-      <c r="I92">
-        <v>2135.21418181822</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>29.4503653578997</v>
-      </c>
-      <c r="L92">
-        <v>959.999999999999</v>
-      </c>
-      <c r="M92">
-        <v>10.1052631578997</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>1000</v>
-      </c>
-      <c r="P92">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q92">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>173.994418604657</v>
-      </c>
-      <c r="T92">
-        <v>748.1760000000251</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>300.60120240481</v>
-      </c>
-      <c r="Z92">
-        <v>800</v>
-      </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
-      <c r="AB92">
-        <v>2135.21418181822</v>
-      </c>
-      <c r="AC92">
-        <v>2488.819212121234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>6025</v>
-      </c>
-      <c r="C93">
-        <v>19.38959065</v>
-      </c>
-      <c r="D93">
-        <v>1542.872000000028</v>
-      </c>
-      <c r="E93">
-        <v>3386.10120000004</v>
-      </c>
-      <c r="F93">
-        <v>676.744</v>
-      </c>
-      <c r="G93">
-        <v>0.65550003</v>
-      </c>
-      <c r="H93">
-        <v>5364.43813435223</v>
-      </c>
-      <c r="I93">
-        <v>2167.91938181822</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>29.4948538078946</v>
-      </c>
-      <c r="L93">
-        <v>960</v>
-      </c>
-      <c r="M93">
-        <v>10.1052631578946</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>1000</v>
-      </c>
-      <c r="P93">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q93">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>276.669182718912</v>
-      </c>
-      <c r="V93">
-        <v>2.66666666666677</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>827.3408814900693</v>
-      </c>
-      <c r="Y93">
-        <v>300</v>
-      </c>
-      <c r="Z93">
-        <v>715.5311185099592</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-      <c r="AB93">
-        <v>2167.91938181822</v>
-      </c>
-      <c r="AC93">
-        <v>2505.171812121234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>5650</v>
-      </c>
-      <c r="C94">
-        <v>19.4340791</v>
-      </c>
-      <c r="D94">
-        <v>1537.568000000032</v>
-      </c>
-      <c r="E94">
-        <v>3318.80640000005</v>
-      </c>
-      <c r="F94">
-        <v>671.712</v>
-      </c>
-      <c r="G94">
-        <v>0.65550003</v>
-      </c>
-      <c r="H94">
-        <v>5528.45547616402</v>
-      </c>
-      <c r="I94">
-        <v>2100.62458181823</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>334.763668768646</v>
-      </c>
-      <c r="L94">
-        <v>960</v>
-      </c>
-      <c r="M94">
-        <v>315.329589668647</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>1000</v>
-      </c>
-      <c r="P94">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q94">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>500</v>
-      </c>
-      <c r="V94">
-        <v>5.3386773547107</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>1494.661322645289</v>
-      </c>
-      <c r="Y94">
-        <v>300</v>
-      </c>
-      <c r="Z94">
-        <v>42.90667735474273</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94">
-        <v>2100.62458181823</v>
-      </c>
-      <c r="AC94">
-        <v>2471.524412121233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>5750</v>
-      </c>
-      <c r="C95">
-        <v>19.46635825</v>
-      </c>
-      <c r="D95">
-        <v>1532.264000000036</v>
-      </c>
-      <c r="E95">
-        <v>3451.51160000006</v>
-      </c>
-      <c r="F95">
-        <v>666.6800000000001</v>
-      </c>
-      <c r="G95">
-        <v>0.65550003</v>
-      </c>
-      <c r="H95">
-        <v>4969.29955458385</v>
-      </c>
-      <c r="I95">
-        <v>2233.32978181824</v>
-      </c>
-      <c r="J95">
-        <v>58.4294712904124</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>1032.4907775463</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>80.9710648714868</v>
-      </c>
-      <c r="O95">
-        <v>1000</v>
-      </c>
-      <c r="P95">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q95">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>245.561462435142</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>736.6843873054261</v>
-      </c>
-      <c r="Y95">
-        <v>300.60120240481</v>
-      </c>
-      <c r="Z95">
-        <v>795.5796126946088</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-      <c r="AB95">
-        <v>2233.32978181824</v>
-      </c>
-      <c r="AC95">
-        <v>2537.877012121243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>5800</v>
-      </c>
-      <c r="C96">
-        <v>19.4986374</v>
-      </c>
-      <c r="D96">
-        <v>1526.96000000004</v>
-      </c>
-      <c r="E96">
-        <v>3584.21680000007</v>
-      </c>
-      <c r="F96">
-        <v>661.648</v>
-      </c>
-      <c r="G96">
-        <v>0.65550003</v>
-      </c>
-      <c r="H96">
-        <v>4422.2871939021</v>
-      </c>
-      <c r="I96">
-        <v>2366.03498181825</v>
-      </c>
-      <c r="J96">
-        <v>652.148806097912</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>1008.60137563626</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>705.971064871487</v>
-      </c>
-      <c r="O96">
-        <v>1000</v>
-      </c>
-      <c r="P96">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q96">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>242.320000000013</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>726.960000000039</v>
-      </c>
-      <c r="Y96">
-        <v>300</v>
-      </c>
-      <c r="Z96">
-        <v>800</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-      <c r="AB96">
-        <v>2366.03498181825</v>
-      </c>
-      <c r="AC96">
-        <v>2604.229612121254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>5850</v>
-      </c>
-      <c r="C97">
-        <v>19.4986374</v>
-      </c>
-      <c r="D97">
-        <v>1521.656000000044</v>
-      </c>
-      <c r="E97">
-        <v>3616.92200000008</v>
-      </c>
-      <c r="F97">
-        <v>656.616</v>
-      </c>
-      <c r="G97">
-        <v>0.65550003</v>
-      </c>
-      <c r="H97">
-        <v>3755.14900785559</v>
-      </c>
-      <c r="I97">
-        <v>2398.74018181826</v>
-      </c>
-      <c r="J97">
-        <v>1168.97629447</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>960</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>1250</v>
-      </c>
-      <c r="O97">
-        <v>1000</v>
-      </c>
-      <c r="P97">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="Q97">
-        <v>812.121212121212</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>51.5479069767544</v>
-      </c>
-      <c r="T97">
-        <v>221.6560000000439</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>500</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>300</v>
-      </c>
-      <c r="Z97">
-        <v>800</v>
-      </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
-      <c r="AB97">
-        <v>2398.74018181826</v>
-      </c>
-      <c r="AC97">
         <v>2620.582212121254</v>
       </c>
     </row>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -570,25 +570,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1267.34145175</v>
+        <v>1258.21917321279</v>
       </c>
       <c r="K2">
         <v>4272.60620642495</v>
       </c>
       <c r="L2">
-        <v>1250</v>
+        <v>1240.87772146279</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>863.767611940299</v>
+        <v>612.943151732039</v>
       </c>
       <c r="O2">
-        <v>1052.226</v>
+        <v>746.6762030190292</v>
       </c>
       <c r="P2">
-        <v>701.4840000000004</v>
+        <v>497.7841353460195</v>
       </c>
       <c r="Q2">
         <v>2.77500605</v>
@@ -600,16 +600,16 @@
         <v>581.2799999999991</v>
       </c>
       <c r="T2">
-        <v>166.666666666664</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>499.999999999993</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>1111.79846646574</v>
@@ -618,13 +618,13 @@
         <v>800</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>305.549796980971</v>
       </c>
       <c r="AA2">
         <v>2503.1816</v>
       </c>
       <c r="AB2">
-        <v>2479.1878</v>
+        <v>2275.48793534602</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -659,7 +659,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="K3">
-        <v>4558.79969090888</v>
+        <v>4556.6331497563</v>
       </c>
       <c r="L3">
         <v>1250</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>860.04156716418</v>
+        <v>618.492447756283</v>
       </c>
       <c r="O3">
-        <v>1047.687000000001</v>
+        <v>753.4362545394719</v>
       </c>
       <c r="P3">
-        <v>698.4580000000007</v>
+        <v>502.2908363596479</v>
       </c>
       <c r="Q3">
         <v>5.9601545</v>
@@ -686,31 +686,31 @@
         <v>583.28</v>
       </c>
       <c r="T3">
-        <v>166.666666666669</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>500.000000000006</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1222.07486953281</v>
+        <v>1109.57486953281</v>
       </c>
       <c r="Y3">
         <v>800</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>294.250745460529</v>
       </c>
       <c r="AA3">
         <v>2534.7206</v>
       </c>
       <c r="AB3">
-        <v>2489.6618</v>
+        <v>2293.494636359648</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -745,7 +745,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="K4">
-        <v>4844.27769168161</v>
+        <v>4842.11656688191</v>
       </c>
       <c r="L4">
         <v>1250</v>
@@ -754,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>847.696119402986</v>
+        <v>606.300062258253</v>
       </c>
       <c r="O4">
-        <v>1032.648000000001</v>
+        <v>738.5837122055079</v>
       </c>
       <c r="P4">
-        <v>688.4320000000007</v>
+        <v>492.3891414703387</v>
       </c>
       <c r="Q4">
         <v>9.14530295</v>
@@ -772,10 +772,10 @@
         <v>485.2799999999984</v>
       </c>
       <c r="T4">
-        <v>166.666666666663</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>499.999999999989</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1332.13071979375</v>
+        <v>1107.35571979375</v>
       </c>
       <c r="Y4">
         <v>800</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>294.064287794492</v>
       </c>
       <c r="AA4">
         <v>2556.7596</v>
       </c>
       <c r="AB4">
-        <v>2483.1358</v>
+        <v>2287.092941470339</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -831,7 +831,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="K5">
-        <v>5129.04199745241</v>
+        <v>5126.8862754647</v>
       </c>
       <c r="L5">
         <v>1250</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>827.962611940299</v>
+        <v>586.830825562926</v>
       </c>
       <c r="O5">
-        <v>1008.609</v>
+        <v>714.8666420493823</v>
       </c>
       <c r="P5">
-        <v>672.4060000000003</v>
+        <v>476.5777613662549</v>
       </c>
       <c r="Q5">
         <v>13.94484173</v>
@@ -858,10 +858,10 @@
         <v>487.2799999999993</v>
       </c>
       <c r="T5">
-        <v>166.666666666671</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>500.000000000013</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1441.96645835416</v>
+        <v>1105.14100835416</v>
       </c>
       <c r="Y5">
         <v>800</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>293.742357950618</v>
       </c>
       <c r="AA5">
         <v>2527.7986</v>
       </c>
       <c r="AB5">
-        <v>2440.6098</v>
+        <v>2244.781561366255</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -917,7 +917,7 @@
         <v>1251.4827966</v>
       </c>
       <c r="K6">
-        <v>5413.09439245878</v>
+        <v>5410.94405977604</v>
       </c>
       <c r="L6">
         <v>1250</v>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>808.229104477613</v>
+        <v>567.361588867089</v>
       </c>
       <c r="O6">
-        <v>984.570000000001</v>
+        <v>691.1495718926355</v>
       </c>
       <c r="P6">
-        <v>656.3800000000007</v>
+        <v>460.766381261757</v>
       </c>
       <c r="Q6">
         <v>18.7443805</v>
@@ -944,31 +944,31 @@
         <v>489.2800000000004</v>
       </c>
       <c r="T6">
-        <v>166.666666666664</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>499.999999999992</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1551.58252543745</v>
+        <v>1102.93072633745</v>
       </c>
       <c r="Y6">
         <v>800</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>293.420428107365</v>
       </c>
       <c r="AA6">
         <v>2578.8376</v>
       </c>
       <c r="AB6">
-        <v>2438.083800000001</v>
+        <v>2242.470181261757</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1003,7 +1003,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="K7">
-        <v>5696.43665647763</v>
+        <v>5694.2916996266</v>
       </c>
       <c r="L7">
         <v>1250</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>792.189626865672</v>
+        <v>551.724073034092</v>
       </c>
       <c r="O7">
-        <v>965.0310000000002</v>
+        <v>672.1002344233483</v>
       </c>
       <c r="P7">
-        <v>643.3540000000003</v>
+        <v>448.0668229488989</v>
       </c>
       <c r="Q7">
         <v>26.91668605</v>
@@ -1030,31 +1030,31 @@
         <v>491.2800000000014</v>
       </c>
       <c r="T7">
-        <v>166.666666666668</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>500.000000000003</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1660.97936038657</v>
+        <v>1100.72486488478</v>
       </c>
       <c r="Y7">
         <v>800</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>292.930765576652</v>
       </c>
       <c r="AA7">
         <v>2525.3766</v>
       </c>
       <c r="AB7">
-        <v>2388.5578</v>
+        <v>2193.270622948899</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1089,7 +1089,7 @@
         <v>1236.208249</v>
       </c>
       <c r="K8">
-        <v>5979.07056483644</v>
+        <v>5976.93097037753</v>
       </c>
       <c r="L8">
         <v>1250</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>781.07552238806</v>
+        <v>541.011930335426</v>
       </c>
       <c r="O8">
-        <v>951.4920000000001</v>
+        <v>659.0508969540642</v>
       </c>
       <c r="P8">
-        <v>634.3280000000001</v>
+        <v>439.3672646360428</v>
       </c>
       <c r="Q8">
         <v>35.0889916</v>
@@ -1116,10 +1116,10 @@
         <v>493.2799999999981</v>
       </c>
       <c r="T8">
-        <v>166.66666666667</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>500.00000000001</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1128,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>1770.1574016658</v>
+        <v>1098.52341515501</v>
       </c>
       <c r="Y8">
         <v>800</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>292.441103045937</v>
       </c>
       <c r="AA8">
         <v>2565.9156</v>
       </c>
       <c r="AB8">
-        <v>2393.031800000001</v>
+        <v>2198.071064636043</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1175,7 +1175,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="K9">
-        <v>6260.99788842435</v>
+        <v>6258.86364295159</v>
       </c>
       <c r="L9">
         <v>1250</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>783.506194029851</v>
+        <v>543.732687158799</v>
       </c>
       <c r="O9">
-        <v>954.453</v>
+        <v>662.3652734479913</v>
       </c>
       <c r="P9">
-        <v>636.3020000000001</v>
+        <v>441.5768489653276</v>
       </c>
       <c r="Q9">
         <v>47.99538765</v>
@@ -1202,31 +1202,31 @@
         <v>495.2799999999991</v>
       </c>
       <c r="T9">
-        <v>166.666666666666</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>499.999999999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1879.11708686247</v>
+        <v>1096.3263683247</v>
       </c>
       <c r="Y9">
         <v>800</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>292.087726552009</v>
       </c>
       <c r="AA9">
         <v>2489.9546</v>
       </c>
       <c r="AB9">
-        <v>2358.5058</v>
+        <v>2163.780648965327</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1261,7 +1261,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="K10">
-        <v>6542.22039370329</v>
+        <v>6540.09148384421</v>
       </c>
       <c r="L10">
         <v>1250</v>
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>785.936865671643</v>
+        <v>546.453443982172</v>
       </c>
       <c r="O10">
-        <v>957.4140000000012</v>
+        <v>665.6796499419185</v>
       </c>
       <c r="P10">
-        <v>638.2760000000009</v>
+        <v>443.7864332946123</v>
       </c>
       <c r="Q10">
         <v>60.9017837</v>
@@ -1288,31 +1288,31 @@
         <v>497.2800000000001</v>
       </c>
       <c r="T10">
-        <v>166.666666666664</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>499.999999999991</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1987.85885268875</v>
+        <v>1094.13371558805</v>
       </c>
       <c r="Y10">
         <v>800</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>291.734350058082</v>
       </c>
       <c r="AA10">
         <v>2513.9936</v>
       </c>
       <c r="AB10">
-        <v>2373.979800000001</v>
+        <v>2179.490233294612</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1347,7 +1347,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="K11">
-        <v>6822.73984271903</v>
+        <v>6820.6162551346</v>
       </c>
       <c r="L11">
         <v>1250</v>
@@ -1356,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>770.796268656717</v>
+        <v>531.907131916195</v>
       </c>
       <c r="O11">
-        <v>938.9700000000004</v>
+        <v>647.9595970615464</v>
       </c>
       <c r="P11">
-        <v>625.9800000000004</v>
+        <v>431.9730647076976</v>
       </c>
       <c r="Q11">
         <v>74.39721408</v>
@@ -1374,10 +1374,10 @@
         <v>499.2800000000011</v>
       </c>
       <c r="T11">
-        <v>166.666666666662</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>499.999999999986</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>2096.38313498337</v>
+        <v>1091.94544815687</v>
       </c>
       <c r="Y11">
         <v>800</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>291.010402938453</v>
       </c>
       <c r="AA11">
         <v>2459.4376</v>
       </c>
       <c r="AB11">
-        <v>2325.1838</v>
+        <v>2131.176864707698</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1433,7 +1433,7 @@
         <v>1202.60218405</v>
       </c>
       <c r="K12">
-        <v>7102.55799311223</v>
+        <v>7100.43971449677</v>
       </c>
       <c r="L12">
         <v>1250</v>
@@ -1442,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>748.447388059702</v>
+        <v>603.803130016777</v>
       </c>
       <c r="O12">
-        <v>911.7450000000005</v>
+        <v>735.54199474771</v>
       </c>
       <c r="P12">
-        <v>607.8300000000003</v>
+        <v>490.3613298318067</v>
       </c>
       <c r="Q12">
         <v>87.89264445000001</v>
@@ -1460,31 +1460,31 @@
         <v>501.2800000000021</v>
       </c>
       <c r="T12">
-        <v>166.666666666664</v>
+        <v>89.1910416658832</v>
       </c>
       <c r="U12">
-        <v>499.999999999993</v>
+        <v>267.573124997649</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>-9.663381206337363e-13</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="X12">
-        <v>2204.6903687134</v>
+        <v>1089.76155726056</v>
       </c>
       <c r="Y12">
         <v>800</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>176.203005252291</v>
       </c>
       <c r="AA12">
         <v>2413.6626</v>
       </c>
       <c r="AB12">
-        <v>2270.5338</v>
+        <v>2153.065129831806</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1519,7 +1519,7 @@
         <v>1182.2661073</v>
       </c>
       <c r="K13">
-        <v>7381.67659812945</v>
+        <v>7379.56361521053</v>
       </c>
       <c r="L13">
         <v>1250</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>750.7253731343289</v>
+        <v>688.5008411711721</v>
       </c>
       <c r="O13">
-        <v>914.5200000000006</v>
+        <v>838.7192065176095</v>
       </c>
       <c r="P13">
-        <v>609.6800000000004</v>
+        <v>559.1461376784063</v>
       </c>
       <c r="Q13">
         <v>110.5464674</v>
@@ -1546,31 +1546,31 @@
         <v>503.2799999999988</v>
       </c>
       <c r="T13">
-        <v>166.666666666665</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U13">
-        <v>499.999999999996</v>
+        <v>500</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>-1.023181539494544e-12</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X13">
-        <v>2312.78098797597</v>
+        <v>1147.78598727051</v>
       </c>
       <c r="Y13">
         <v>800</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>75.8007934823906</v>
       </c>
       <c r="AA13">
         <v>2437.8876</v>
       </c>
       <c r="AB13">
-        <v>2285.8838</v>
+        <v>2235.349937678407</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1605,7 +1605,7 @@
         <v>1161.9300305</v>
       </c>
       <c r="K14">
-        <v>7660.09740663413</v>
+        <v>7657.9897061725</v>
       </c>
       <c r="L14">
         <v>1250</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>753.003358208956</v>
+        <v>691.8491460773751</v>
       </c>
       <c r="O14">
-        <v>917.2950000000006</v>
+        <v>842.7980506760749</v>
       </c>
       <c r="P14">
-        <v>611.5300000000005</v>
+        <v>561.8653671173832</v>
       </c>
       <c r="Q14">
         <v>133.2002904</v>
@@ -1632,31 +1632,31 @@
         <v>505.2799999999998</v>
       </c>
       <c r="T14">
-        <v>166.666666666668</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U14">
-        <v>500.000000000005</v>
+        <v>500</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>-1.023181539494544e-12</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X14">
-        <v>2420.65542600002</v>
+        <v>1257.99041529597</v>
       </c>
       <c r="Y14">
         <v>800</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>74.49694932392531</v>
       </c>
       <c r="AA14">
         <v>2462.1126</v>
       </c>
       <c r="AB14">
-        <v>2301.2338</v>
+        <v>2251.569167117384</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1691,7 +1691,7 @@
         <v>1132.7777633</v>
       </c>
       <c r="K15">
-        <v>7937.82216311754</v>
+        <v>7935.71973190707</v>
       </c>
       <c r="L15">
         <v>1250</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>755.2813432835831</v>
+        <v>695.661461004636</v>
       </c>
       <c r="O15">
-        <v>920.070000000001</v>
+        <v>847.4421434056471</v>
       </c>
       <c r="P15">
-        <v>613.3800000000007</v>
+        <v>564.9614289370982</v>
       </c>
       <c r="Q15">
         <v>160.9459877</v>
@@ -1718,31 +1718,31 @@
         <v>407.2799999999998</v>
       </c>
       <c r="T15">
-        <v>166.666666666666</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U15">
-        <v>499.999999999999</v>
+        <v>500</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>-9.663381206337363e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X15">
-        <v>2528.31411514802</v>
+        <v>1367.97443446537</v>
       </c>
       <c r="Y15">
         <v>800</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>72.6278565943535</v>
       </c>
       <c r="AA15">
         <v>2386.3376</v>
       </c>
       <c r="AB15">
-        <v>2266.583800000001</v>
+        <v>2218.165228937098</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1777,7 +1777,7 @@
         <v>1103.6254961</v>
       </c>
       <c r="K16">
-        <v>8214.85260770975</v>
+        <v>8212.7554325773</v>
       </c>
       <c r="L16">
         <v>1250</v>
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>757.559328358209</v>
+        <v>699.473775931889</v>
       </c>
       <c r="O16">
-        <v>922.8449999999997</v>
+        <v>852.08623613521</v>
       </c>
       <c r="P16">
-        <v>615.2299999999999</v>
+        <v>568.0574907568067</v>
       </c>
       <c r="Q16">
         <v>188.691685</v>
@@ -1804,31 +1804,31 @@
         <v>409.2799999999999</v>
       </c>
       <c r="T16">
-        <v>166.666666666671</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U16">
-        <v>500.000000000014</v>
+        <v>500</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>-9.663381206337363e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X16">
-        <v>2635.75748691772</v>
+        <v>1477.73848559644</v>
       </c>
       <c r="Y16">
         <v>800</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>70.75876386479069</v>
       </c>
       <c r="AA16">
         <v>2410.5626</v>
       </c>
       <c r="AB16">
-        <v>2281.9338</v>
+        <v>2234.761290756806</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1860,25 +1860,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>553.410838071053</v>
+        <v>557.798397484996</v>
       </c>
       <c r="K17">
-        <v>8491.19047619047</v>
+        <v>8489.09854399586</v>
       </c>
       <c r="L17">
-        <v>715.9473684210531</v>
+        <v>720.334927834997</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>759.837313432836</v>
+        <v>718.7925373134329</v>
       </c>
       <c r="O17">
-        <v>925.62</v>
+        <v>875.6199999999999</v>
       </c>
       <c r="P17">
-        <v>617.08</v>
+        <v>583.7466666666667</v>
       </c>
       <c r="Q17">
         <v>203.3171886</v>
@@ -1890,31 +1890,31 @@
         <v>411.2800000000001</v>
       </c>
       <c r="T17">
-        <v>166.666666666662</v>
+        <v>151.137667315157</v>
       </c>
       <c r="U17">
-        <v>499.999999999987</v>
+        <v>453.413001945471</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>-9.663381206337363e-13</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="X17">
-        <v>2742.98597194389</v>
+        <v>1587.28300862525</v>
       </c>
       <c r="Y17">
         <v>800</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA17">
         <v>2434.7876</v>
       </c>
       <c r="AB17">
-        <v>2297.2838</v>
+        <v>2263.950466666667</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1943,28 +1943,28 @@
         <v>2069.22578181818</v>
       </c>
       <c r="I18">
-        <v>83.3636288649985</v>
+        <v>83.36362886500341</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8640</v>
+        <v>8638.95534299668</v>
       </c>
       <c r="L18">
-        <v>90.94736842105419</v>
+        <v>95.33492783499661</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1000.00000000001</v>
+        <v>1000</v>
       </c>
       <c r="O18">
-        <v>1218.18181818183</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P18">
-        <v>812.1212121212201</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q18">
         <v>217.9426921</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2850</v>
+        <v>1686.12636804573</v>
       </c>
       <c r="Y18">
         <v>800</v>
@@ -2000,7 +2000,7 @@
         <v>2069.22578181818</v>
       </c>
       <c r="AB18">
-        <v>2455.825012121218</v>
+        <v>2455.825012121214</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2029,7 +2029,7 @@
         <v>1996.22578181818</v>
       </c>
       <c r="I19">
-        <v>185.896566532499</v>
+        <v>185.896566532497</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2038,10 +2038,10 @@
         <v>8640</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.78402981750301</v>
       </c>
       <c r="M19">
-        <v>-1.33582034322899e-12</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1000</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>2844.3</v>
+        <v>1682.75411530964</v>
       </c>
       <c r="Y19">
         <v>800</v>
@@ -2086,7 +2086,7 @@
         <v>1996.22578181818</v>
       </c>
       <c r="AB19">
-        <v>2419.325012121212</v>
+        <v>2419.325012121214</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2115,19 +2115,19 @@
         <v>1923.22578181818</v>
       </c>
       <c r="I20">
-        <v>202.029504105004</v>
+        <v>202.029504105001</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8618.4</v>
+        <v>8620.723707081661</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.6331317949985</v>
       </c>
       <c r="M20">
-        <v>3.69482222595252e-12</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1000</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2838.6114</v>
+        <v>1679.38860707902</v>
       </c>
       <c r="Y20">
         <v>800</v>
@@ -2172,7 +2172,7 @@
         <v>1923.22578181818</v>
       </c>
       <c r="AB20">
-        <v>2382.825012121212</v>
+        <v>2382.825012121214</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2201,19 +2201,19 @@
         <v>1850.22578181818</v>
       </c>
       <c r="I21">
-        <v>209.637268455</v>
+        <v>209.637268454998</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8596.853999999999</v>
+        <v>8601.697266615271</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.0335404450022</v>
       </c>
       <c r="M21">
-        <v>-2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2832.9341772</v>
+        <v>1676.02982986486</v>
       </c>
       <c r="Y21">
         <v>800</v>
@@ -2258,7 +2258,7 @@
         <v>1850.22578181818</v>
       </c>
       <c r="AB21">
-        <v>2346.325012121212</v>
+        <v>2346.325012121214</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2287,19 +2287,19 @@
         <v>1977.22578181818</v>
       </c>
       <c r="I22">
-        <v>217.245032709996</v>
+        <v>217.245032709994</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8575.361865000001</v>
+        <v>8582.813489304421</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.4339490900061</v>
       </c>
       <c r="M22">
-        <v>-4.03588273911737e-12</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1000</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2827.2683088456</v>
+        <v>1672.67777020513</v>
       </c>
       <c r="Y22">
         <v>800</v>
@@ -2344,7 +2344,7 @@
         <v>1977.22578181818</v>
       </c>
       <c r="AB22">
-        <v>2409.825012121212</v>
+        <v>2409.825012121214</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2373,19 +2373,19 @@
         <v>2062.32018181818</v>
       </c>
       <c r="I23">
-        <v>231.133860095</v>
+        <v>231.133860094998</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8553.923460337501</v>
+        <v>8564.072018490029</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.1649400050022</v>
       </c>
       <c r="M23">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2821.61377222791</v>
+        <v>1669.33241466472</v>
       </c>
       <c r="Y23">
         <v>800</v>
@@ -2430,7 +2430,7 @@
         <v>2062.32018181818</v>
       </c>
       <c r="AB23">
-        <v>2452.372212121212</v>
+        <v>2452.372212121214</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2459,19 +2459,19 @@
         <v>2029.09018181818</v>
       </c>
       <c r="I24">
-        <v>245.022687575001</v>
+        <v>245.022687575</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8532.53865168666</v>
+        <v>8545.551011695001</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.8959309250004</v>
       </c>
       <c r="M24">
-        <v>9.663381206337361e-13</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1000</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>2815.97054468345</v>
+        <v>1665.99374983539</v>
       </c>
       <c r="Y24">
         <v>800</v>
@@ -2516,7 +2516,7 @@
         <v>2029.09018181818</v>
       </c>
       <c r="AB24">
-        <v>2435.757212121212</v>
+        <v>2435.757212121213</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2545,19 +2545,19 @@
         <v>2195.86018181818</v>
       </c>
       <c r="I25">
-        <v>255.229344029995</v>
+        <v>255.229344029994</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8511.20730505744</v>
+        <v>8527.24991776044</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.4331233700058</v>
       </c>
       <c r="M25">
-        <v>-4.83169060316868e-12</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1000</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2810.33860359408</v>
+        <v>1662.66176233572</v>
       </c>
       <c r="Y25">
         <v>800</v>
@@ -2602,7 +2602,7 @@
         <v>2195.86018181818</v>
       </c>
       <c r="AB25">
-        <v>2519.142212121212</v>
+        <v>2519.142212121213</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2631,19 +2631,19 @@
         <v>2362.63018181818</v>
       </c>
       <c r="I26">
-        <v>265.436000484996</v>
+        <v>265.436000484994</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>8489.929286794801</v>
+        <v>8509.122159766421</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>13.9703158150057</v>
       </c>
       <c r="M26">
-        <v>-4.49063009000383e-12</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1000</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>2804.7179263869</v>
+        <v>1659.33643881105</v>
       </c>
       <c r="Y26">
         <v>800</v>
@@ -2688,7 +2688,7 @@
         <v>2362.63018181818</v>
       </c>
       <c r="AB26">
-        <v>2602.527212121212</v>
+        <v>2602.527212121213</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2717,19 +2717,19 @@
         <v>2529.40018181818</v>
       </c>
       <c r="I27">
-        <v>272.414141742501</v>
+        <v>272.4141417425</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>8468.704463577809</v>
+        <v>8491.16730437307</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>14.3375864075004</v>
       </c>
       <c r="M27">
-        <v>1.25055521493778e-12</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1000</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>2799.10849053412</v>
+        <v>1656.01776593343</v>
       </c>
       <c r="Y27">
         <v>800</v>
@@ -2774,7 +2774,7 @@
         <v>2529.40018181818</v>
       </c>
       <c r="AB27">
-        <v>2685.912212121212</v>
+        <v>2685.912212121214</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2803,19 +2803,19 @@
         <v>2500.45258181818</v>
       </c>
       <c r="I28">
-        <v>279.392282999997</v>
+        <v>279.392282999995</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>8447.53270241887</v>
+        <v>8473.34456288392</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>14.7048570000052</v>
       </c>
       <c r="M28">
-        <v>-3.35376171278767e-12</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1000</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2793.51027355305</v>
+        <v>1652.70573040156</v>
       </c>
       <c r="Y28">
         <v>800</v>
@@ -2860,7 +2860,7 @@
         <v>2500.45258181818</v>
       </c>
       <c r="AB28">
-        <v>2671.438412121212</v>
+        <v>2671.438412121213</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2889,19 +2889,19 @@
         <v>2658.88408181818</v>
       </c>
       <c r="I29">
-        <v>281.307604837502</v>
+        <v>281.307604837499</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>8426.413870662829</v>
+        <v>8455.653605014209</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>14.8056634125006</v>
       </c>
       <c r="M29">
-        <v>1.87583282240666e-12</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1000</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2787.92325300595</v>
+        <v>1649.40031894076</v>
       </c>
       <c r="Y29">
         <v>800</v>
@@ -2946,7 +2946,7 @@
         <v>2658.88408181818</v>
       </c>
       <c r="AB29">
-        <v>2750.654162121212</v>
+        <v>2750.654162121214</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2975,19 +2975,19 @@
         <v>2817.31558181818</v>
       </c>
       <c r="I30">
-        <v>283.222926674996</v>
+        <v>283.222926674993</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>8405.347835986169</v>
+        <v>8438.030816062141</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>14.9064698250065</v>
       </c>
       <c r="M30">
-        <v>-4.2632564145606e-12</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1000</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>2782.34740649994</v>
+        <v>1646.10151830288</v>
       </c>
       <c r="Y30">
         <v>800</v>
@@ -3032,7 +3032,7 @@
         <v>2817.31558181818</v>
       </c>
       <c r="AB30">
-        <v>2829.869912121212</v>
+        <v>2829.869912121214</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3061,19 +3061,19 @@
         <v>2975.74708181818</v>
       </c>
       <c r="I31">
-        <v>289.571484074995</v>
+        <v>289.571484074994</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>8384.334466396211</v>
+        <v>8420.476025605431</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>15.2406044250058</v>
       </c>
       <c r="M31">
-        <v>-4.83169060316868e-12</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1000</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2776.78271168694</v>
+        <v>1642.80931526627</v>
       </c>
       <c r="Y31">
         <v>800</v>
@@ -3118,7 +3118,7 @@
         <v>2975.74708181818</v>
       </c>
       <c r="AB31">
-        <v>2909.085662121212</v>
+        <v>2909.085662121213</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3147,19 +3147,19 @@
         <v>3134.17858181818</v>
       </c>
       <c r="I32">
-        <v>295.920041474996</v>
+        <v>295.920041474994</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>8363.37363023022</v>
+        <v>8403.04447909235</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>15.5747390250055</v>
       </c>
       <c r="M32">
-        <v>-4.32009983342141e-12</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1000</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>2771.22914626356</v>
+        <v>1639.52369663574</v>
       </c>
       <c r="Y32">
         <v>800</v>
@@ -3204,7 +3204,7 @@
         <v>3134.17858181818</v>
       </c>
       <c r="AB32">
-        <v>2988.301412121212</v>
+        <v>2988.301412121213</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3233,28 +3233,28 @@
         <v>3307.87526969697</v>
       </c>
       <c r="I33">
-        <v>302.968472614997</v>
+        <v>315.499596993106</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>8342.465196154641</v>
+        <v>8385.73586841306</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>3.41458470689378</v>
       </c>
       <c r="M33">
-        <v>-3.5242919693701e-12</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1000</v>
+        <v>987.46887562189</v>
       </c>
       <c r="O33">
-        <v>1218.181818181818</v>
+        <v>1202.916630303029</v>
       </c>
       <c r="P33">
-        <v>812.121212121212</v>
+        <v>801.9444202020196</v>
       </c>
       <c r="Q33">
         <v>354.1797816</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>2765.68668797104</v>
+        <v>1636.24464924247</v>
       </c>
       <c r="Y33">
         <v>800</v>
@@ -3290,7 +3290,7 @@
         <v>3307.87526969697</v>
       </c>
       <c r="AB33">
-        <v>3067.517162121212</v>
+        <v>3057.34037020202</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3319,28 +3319,28 @@
         <v>4009.65548969697</v>
       </c>
       <c r="I34">
-        <v>238.166407809551</v>
+        <v>261.337540936195</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>8321.609033164261</v>
+        <v>8365.582492609919</v>
       </c>
       <c r="L34">
-        <v>75.6321008952096</v>
+        <v>64.996041863805</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>997.394695315697</v>
+        <v>974.223562189053</v>
       </c>
       <c r="O34">
-        <v>1215.008083384576</v>
+        <v>1186.781430303028</v>
       </c>
       <c r="P34">
-        <v>810.0053889230508</v>
+        <v>791.1876202020187</v>
       </c>
       <c r="Q34">
         <v>358.4033757</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>2760.15531459509</v>
+        <v>1632.97215994398</v>
       </c>
       <c r="Y34">
         <v>800</v>
@@ -3376,7 +3376,7 @@
         <v>4009.65548969697</v>
       </c>
       <c r="AB34">
-        <v>3408.223848923051</v>
+        <v>3389.406080202019</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3405,28 +3405,28 @@
         <v>4140.59684969697</v>
       </c>
       <c r="I35">
-        <v>1.76214598468505e-12</v>
+        <v>37.6209751243796</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>8318.76763454396</v>
+        <v>8360.105096321049</v>
       </c>
       <c r="L35">
-        <v>327.363872199998</v>
+        <v>289.74289707562</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1000</v>
+        <v>962.379024875622</v>
       </c>
       <c r="O35">
-        <v>1218.181818181818</v>
+        <v>1172.35263030303</v>
       </c>
       <c r="P35">
-        <v>812.121212121212</v>
+        <v>781.5684202020202</v>
       </c>
       <c r="Q35">
         <v>355.4887467</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2754.6350039659</v>
+        <v>1629.70621562409</v>
       </c>
       <c r="Y35">
         <v>800</v>
@@ -3462,7 +3462,7 @@
         <v>4140.59684969697</v>
       </c>
       <c r="AB35">
-        <v>3468.595952121212</v>
+        <v>3438.04316020202</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3491,28 +3491,28 @@
         <v>4231.53820969697</v>
       </c>
       <c r="I36">
-        <v>-4.60431692772545e-12</v>
+        <v>16.6296915422835</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>8375.719635105101</v>
+        <v>8408.0187716357</v>
       </c>
       <c r="L36">
-        <v>328.394161600005</v>
+        <v>311.764470057716</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1000</v>
+        <v>983.370308457712</v>
       </c>
       <c r="O36">
-        <v>1218.181818181818</v>
+        <v>1197.923830303031</v>
       </c>
       <c r="P36">
-        <v>812.121212121212</v>
+        <v>798.6158868686871</v>
       </c>
       <c r="Q36">
         <v>352.5741177</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2749.12573395797</v>
+        <v>1626.44680319285</v>
       </c>
       <c r="Y36">
         <v>800</v>
@@ -3548,7 +3548,7 @@
         <v>4231.53820969697</v>
       </c>
       <c r="AB36">
-        <v>3526.852232121212</v>
+        <v>3513.346906868687</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3577,28 +3577,28 @@
         <v>4359.51316969697</v>
       </c>
       <c r="I37">
-        <v>8.5265128291212e-13</v>
+        <v>26.03912437811</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>8432.77394939734</v>
+        <v>8461.042786345321</v>
       </c>
       <c r="L37">
-        <v>328.359252999999</v>
+        <v>302.32012862189</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1000</v>
+        <v>973.960875621891</v>
       </c>
       <c r="O37">
-        <v>1218.181818181818</v>
+        <v>1186.461430303031</v>
       </c>
       <c r="P37">
-        <v>812.121212121212</v>
+        <v>790.9742868686872</v>
       </c>
       <c r="Q37">
         <v>347.5825974</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2743.62748249006</v>
+        <v>1623.19390958646</v>
       </c>
       <c r="Y37">
         <v>800</v>
@@ -3634,7 +3634,7 @@
         <v>4359.51316969697</v>
       </c>
       <c r="AB37">
-        <v>3585.108512121212</v>
+        <v>3563.961586868687</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3663,28 +3663,28 @@
         <v>4480.28812969697</v>
       </c>
       <c r="I38">
-        <v>-2.89901436190121e-12</v>
+        <v>29.538109452733</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>8489.67733711135</v>
+        <v>8511.691209927159</v>
       </c>
       <c r="L38">
-        <v>328.324344300003</v>
+        <v>298.786234847267</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1000</v>
+        <v>970.461890547264</v>
       </c>
       <c r="O38">
-        <v>1218.181818181818</v>
+        <v>1182.19903030303</v>
       </c>
       <c r="P38">
-        <v>812.121212121212</v>
+        <v>788.132686868687</v>
       </c>
       <c r="Q38">
         <v>342.591077</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2738.14022752508</v>
+        <v>1619.94752176729</v>
       </c>
       <c r="Y38">
         <v>800</v>
@@ -3720,7 +3720,7 @@
         <v>4480.28812969697</v>
       </c>
       <c r="AB38">
-        <v>3643.364792121212</v>
+        <v>3619.376266868687</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3749,28 +3749,28 @@
         <v>4601.06308969697</v>
       </c>
       <c r="I39">
-        <v>-2.55795384873636e-12</v>
+        <v>33.0370945273603</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>8546.430175539819</v>
+        <v>8561.373712678571</v>
       </c>
       <c r="L39">
-        <v>324.834954000003</v>
+        <v>291.79785947264</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1000</v>
+        <v>966.962905472637</v>
       </c>
       <c r="O39">
-        <v>1218.181818181818</v>
+        <v>1177.93663030303</v>
       </c>
       <c r="P39">
-        <v>812.121212121212</v>
+        <v>785.2910868686869</v>
       </c>
       <c r="Q39">
         <v>335.3874057</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2732.66394707003</v>
+        <v>1616.70762672375</v>
       </c>
       <c r="Y39">
         <v>800</v>
@@ -3806,7 +3806,7 @@
         <v>4601.06308969697</v>
       </c>
       <c r="AB39">
-        <v>3701.621072121212</v>
+        <v>3674.790946868687</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3835,28 +3835,28 @@
         <v>4721.83804969697</v>
       </c>
       <c r="I40">
-        <v>70.67223665583001</v>
+        <v>174.069014265648</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>8602.21240167597</v>
+        <v>8609.27227002162</v>
       </c>
       <c r="L40">
-        <v>246.953735541232</v>
+        <v>147.276549334352</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>999.999999999998</v>
+        <v>963.46392039801</v>
       </c>
       <c r="O40">
-        <v>1218.181818181815</v>
+        <v>1173.67423030303</v>
       </c>
       <c r="P40">
-        <v>812.1212121212103</v>
+        <v>782.4494868686868</v>
       </c>
       <c r="Q40">
         <v>328.1837343</v>
@@ -3868,19 +3868,19 @@
         <v>1594.047999999998</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>63.6768552455519</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>191.030565736656</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="X40">
-        <v>2727.19861917589</v>
+        <v>1613.4742114703</v>
       </c>
       <c r="Y40">
         <v>800</v>
@@ -3892,7 +3892,7 @@
         <v>4721.83804969697</v>
       </c>
       <c r="AB40">
-        <v>3759.87735212121</v>
+        <v>3730.205626868687</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3921,28 +3921,28 @@
         <v>4842.61300969697</v>
       </c>
       <c r="I41">
-        <v>653.13819218333</v>
+        <v>787.191072715648</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>8639.358382862831</v>
+        <v>8622.72726981348</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>378.046264458768</v>
+        <v>477.723450665648</v>
       </c>
       <c r="N41">
-        <v>1000</v>
+        <v>959.964935323382</v>
       </c>
       <c r="O41">
-        <v>1218.181818181818</v>
+        <v>1169.411830303029</v>
       </c>
       <c r="P41">
-        <v>812.121212121212</v>
+        <v>779.6078868686858</v>
       </c>
       <c r="Q41">
         <v>317.7163766</v>
@@ -3954,19 +3954,19 @@
         <v>1604.416</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>89.5407770054285</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>268.622331016286</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="X41">
-        <v>2721.74422193753</v>
+        <v>1653.22914033811</v>
       </c>
       <c r="Y41">
         <v>800</v>
@@ -3978,7 +3978,7 @@
         <v>4842.61300969697</v>
       </c>
       <c r="AB41">
-        <v>3818.133632121212</v>
+        <v>3785.620306868686</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4007,37 +4007,37 @@
         <v>4962.26956969697</v>
       </c>
       <c r="I42">
-        <v>1235.60414771083</v>
+        <v>1400.31313116565</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8518.274127837571</v>
+        <v>8475.45375409535</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1003.04626445877</v>
+        <v>1102.72345066565</v>
       </c>
       <c r="N42">
-        <v>1000</v>
+        <v>957.384039800995</v>
       </c>
       <c r="O42">
-        <v>1218.181818181818</v>
+        <v>1166.26783030303</v>
       </c>
       <c r="P42">
-        <v>812.121212121212</v>
+        <v>777.5118868686867</v>
       </c>
       <c r="Q42">
         <v>307.2490189</v>
       </c>
       <c r="R42">
-        <v>259.252093023257</v>
+        <v>375.531162790698</v>
       </c>
       <c r="S42">
-        <v>1114.784000000005</v>
+        <v>1614.784000000001</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>499.999999999994</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>2716.30073349366</v>
+        <v>1710.3627065361</v>
       </c>
       <c r="Y42">
         <v>800</v>
@@ -4064,7 +4064,7 @@
         <v>4962.26956969697</v>
       </c>
       <c r="AB42">
-        <v>3876.389912121212</v>
+        <v>3841.780586868687</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4093,13 +4093,13 @@
         <v>5103.71812969697</v>
       </c>
       <c r="I43">
-        <v>1465.6544538525</v>
+        <v>1542.79416195</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>8233.01889923936</v>
+        <v>8164.074737956</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>1250</v>
       </c>
       <c r="N43">
-        <v>1000</v>
+        <v>936.914189054726</v>
       </c>
       <c r="O43">
-        <v>1218.181818181818</v>
+        <v>1141.33183030303</v>
       </c>
       <c r="P43">
-        <v>812.121212121212</v>
+        <v>760.8878868686865</v>
       </c>
       <c r="Q43">
         <v>302.9468869</v>
       </c>
       <c r="R43">
-        <v>262.768372093019</v>
+        <v>276.15303604752</v>
       </c>
       <c r="S43">
-        <v>1129.903999999982</v>
+        <v>1187.458055004336</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>500.000000000017</v>
+        <v>442.445944995663</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>2571.97924313779</v>
+        <v>1706.94198112303</v>
       </c>
       <c r="Y43">
         <v>800</v>
@@ -4150,7 +4150,7 @@
         <v>5103.71812969697</v>
       </c>
       <c r="AB43">
-        <v>3934.646192121212</v>
+        <v>3883.412866868687</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4179,13 +4179,13 @@
         <v>5089.62616969697</v>
       </c>
       <c r="I44">
-        <v>1461.098711135</v>
+        <v>1537.9986433</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>7883.48898357021</v>
+        <v>7814.71718269005</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4194,22 +4194,22 @@
         <v>1250</v>
       </c>
       <c r="N44">
-        <v>1000</v>
+        <v>943.041353233829</v>
       </c>
       <c r="O44">
-        <v>1218.181818181818</v>
+        <v>1148.795830303028</v>
       </c>
       <c r="P44">
-        <v>812.121212121212</v>
+        <v>765.8638868686853</v>
       </c>
       <c r="Q44">
         <v>298.6447548</v>
       </c>
       <c r="R44">
-        <v>266.284651162791</v>
+        <v>285.276351542628</v>
       </c>
       <c r="S44">
-        <v>1145.024000000001</v>
+        <v>1226.6883116333</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>500</v>
+        <v>418.3356883667</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>2427.94639576262</v>
+        <v>1580.6264457731</v>
       </c>
       <c r="Y44">
         <v>800</v>
@@ -4236,7 +4236,7 @@
         <v>5089.62616969697</v>
       </c>
       <c r="AB44">
-        <v>3931.332212121212</v>
+        <v>3885.074886868686</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4265,13 +4265,13 @@
         <v>5086.68780969697</v>
       </c>
       <c r="I45">
-        <v>1440.7553703325</v>
+        <v>1516.58460035</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>7534.83289269023</v>
+        <v>7466.23302131228</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>1250</v>
       </c>
       <c r="N45">
-        <v>1000</v>
+        <v>940.012577114427</v>
       </c>
       <c r="O45">
-        <v>1218.181818181818</v>
+        <v>1145.106230303029</v>
       </c>
       <c r="P45">
-        <v>812.121212121212</v>
+        <v>763.4041535353526</v>
       </c>
       <c r="Q45">
         <v>275.6811435</v>
       </c>
       <c r="R45">
-        <v>272.245581395353</v>
+        <v>287.333016759093</v>
       </c>
       <c r="S45">
-        <v>1170.656000000018</v>
+        <v>1235.5319720641</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>499.999999999984</v>
+        <v>435.124027935901</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>2284.2016140822</v>
+        <v>1461.26083500191</v>
       </c>
       <c r="Y45">
         <v>800</v>
@@ -4322,7 +4322,7 @@
         <v>5086.68780969697</v>
       </c>
       <c r="AB45">
-        <v>3928.018232121212</v>
+        <v>3879.301173535353</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4351,13 +4351,13 @@
         <v>5123.74944969697</v>
       </c>
       <c r="I46">
-        <v>1420.412029435</v>
+        <v>1495.1705573</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>7187.04844203745</v>
+        <v>7118.62007033794</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4366,22 +4366,22 @@
         <v>1250</v>
       </c>
       <c r="N46">
-        <v>1000</v>
+        <v>925.241472135002</v>
       </c>
       <c r="O46">
-        <v>1218.181818181818</v>
+        <v>1127.112338782639</v>
       </c>
       <c r="P46">
-        <v>812.121212121212</v>
+        <v>751.4082258550925</v>
       </c>
       <c r="Q46">
         <v>252.7175321</v>
       </c>
       <c r="R46">
-        <v>278.206511627905</v>
+        <v>278.206511627907</v>
       </c>
       <c r="S46">
-        <v>1196.287999999991</v>
+        <v>1196.288</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4390,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>500.000000000009</v>
+        <v>500</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>2140.74432196515</v>
+        <v>1337.47052779416</v>
       </c>
       <c r="Y46">
         <v>800</v>
@@ -4408,7 +4408,7 @@
         <v>5123.74944969697</v>
       </c>
       <c r="AB46">
-        <v>3924.704252121212</v>
+        <v>3863.991265855093</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4437,13 +4437,13 @@
         <v>5184.71028969697</v>
       </c>
       <c r="I47">
-        <v>1405.3092345275</v>
+        <v>1479.27287845</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>6840.1334525113</v>
+        <v>6771.87615174105</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4452,22 +4452,22 @@
         <v>1250</v>
       </c>
       <c r="N47">
-        <v>1000</v>
+        <v>926.036356077501</v>
       </c>
       <c r="O47">
-        <v>1218.181818181818</v>
+        <v>1128.080651948955</v>
       </c>
       <c r="P47">
-        <v>812.121212121212</v>
+        <v>752.0537679659703</v>
       </c>
       <c r="Q47">
         <v>236.1373073</v>
       </c>
       <c r="R47">
-        <v>284.089302325581</v>
+        <v>284.089302325582</v>
       </c>
       <c r="S47">
-        <v>1221.583999999998</v>
+        <v>1221.584000000003</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>500.000000000003</v>
+        <v>500</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1997.57394443233</v>
+        <v>1195.90669784968</v>
       </c>
       <c r="Y47">
         <v>800</v>
@@ -4494,7 +4494,7 @@
         <v>5184.71028969697</v>
       </c>
       <c r="AB47">
-        <v>3921.390272121212</v>
+        <v>3861.32282796597</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4523,13 +4523,13 @@
         <v>5185.67112969697</v>
       </c>
       <c r="I48">
-        <v>1390.206439525</v>
+        <v>1463.3751995</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>6494.08575045897</v>
+        <v>6425.99909294064</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4538,22 +4538,22 @@
         <v>1250</v>
       </c>
       <c r="N48">
-        <v>1000</v>
+        <v>926.831240024999</v>
       </c>
       <c r="O48">
-        <v>1218.181818181818</v>
+        <v>1129.048965121362</v>
       </c>
       <c r="P48">
-        <v>812.121212121212</v>
+        <v>752.6993100809082</v>
       </c>
       <c r="Q48">
         <v>219.5570824</v>
       </c>
       <c r="R48">
-        <v>289.972093023257</v>
+        <v>289.972093023256</v>
       </c>
       <c r="S48">
-        <v>1246.880000000005</v>
+        <v>1246.880000000001</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4562,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>499.999999999995</v>
+        <v>500</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1854.68990765458</v>
+        <v>1054.62599556509</v>
       </c>
       <c r="Y48">
         <v>800</v>
@@ -4580,7 +4580,7 @@
         <v>5185.67112969697</v>
       </c>
       <c r="AB48">
-        <v>3918.076292121212</v>
+        <v>3858.654390080908</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4609,13 +4609,13 @@
         <v>5171.46876969697</v>
       </c>
       <c r="I49">
-        <v>1377.8696183525</v>
+        <v>1450.38907195</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>6148.90316766178</v>
+        <v>6080.98672678724</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4624,22 +4624,22 @@
         <v>1250</v>
       </c>
       <c r="N49">
-        <v>1000</v>
+        <v>927.480546402503</v>
       </c>
       <c r="O49">
-        <v>1218.181818181818</v>
+        <v>1129.839938344867</v>
       </c>
       <c r="P49">
-        <v>812.121212121212</v>
+        <v>753.2266255632447</v>
       </c>
       <c r="Q49">
         <v>205.6733258</v>
       </c>
       <c r="R49">
-        <v>284.100465116276</v>
+        <v>284.100465116279</v>
       </c>
       <c r="S49">
-        <v>1221.631999999987</v>
+        <v>1221.632</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4648,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>500.000000000014</v>
+        <v>500</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1712.09163895038</v>
+        <v>913.627854685072</v>
       </c>
       <c r="Y49">
         <v>800</v>
@@ -4666,7 +4666,7 @@
         <v>5171.46876969697</v>
       </c>
       <c r="AB49">
-        <v>3914.762312121212</v>
+        <v>3855.867725563245</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4695,13 +4695,13 @@
         <v>5157.26640969697</v>
       </c>
       <c r="I50">
-        <v>1365.532797085</v>
+        <v>1437.4029443</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5804.58354132157</v>
+        <v>5736.83689154922</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4710,22 +4710,22 @@
         <v>1250</v>
       </c>
       <c r="N50">
-        <v>1000</v>
+        <v>928.129852784998</v>
       </c>
       <c r="O50">
-        <v>1218.181818181818</v>
+        <v>1130.630911574452</v>
       </c>
       <c r="P50">
-        <v>812.121212121212</v>
+        <v>753.7539410496346</v>
       </c>
       <c r="Q50">
         <v>191.7895691</v>
       </c>
       <c r="R50">
-        <v>278.228837209305</v>
+        <v>278.228837209302</v>
       </c>
       <c r="S50">
-        <v>1196.384000000012</v>
+        <v>1196.383999999999</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>499.999999999989</v>
+        <v>500</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1569.77856678359</v>
+        <v>772.9117100868129</v>
       </c>
       <c r="Y50">
         <v>800</v>
@@ -4752,7 +4752,7 @@
         <v>5157.26640969697</v>
       </c>
       <c r="AB50">
-        <v>3911.448332121212</v>
+        <v>3853.081061049634</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4781,13 +4781,13 @@
         <v>5082.93444969697</v>
       </c>
       <c r="I51">
-        <v>1349.8101163475</v>
+        <v>1420.85275405</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>5461.12471404721</v>
+        <v>5393.54743089929</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>174.74248</v>
       </c>
       <c r="R51">
-        <v>272.256744186048</v>
+        <v>339.91639914081</v>
       </c>
       <c r="S51">
-        <v>1170.704000000007</v>
+        <v>1461.640516305483</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4820,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>499.999999999994</v>
+        <v>209.063483694519</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1427.75012076113</v>
+        <v>632.476997777751</v>
       </c>
       <c r="Y51">
         <v>800</v>
@@ -4867,13 +4867,13 @@
         <v>5068.60248969697</v>
       </c>
       <c r="I52">
-        <v>1334.087435705</v>
+        <v>1404.3025639</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>5118.52453384104</v>
+        <v>5051.11619390099</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>157.695391</v>
       </c>
       <c r="R52">
-        <v>266.284651162791</v>
+        <v>333.156201824695</v>
       </c>
       <c r="S52">
-        <v>1145.024000000001</v>
+        <v>1432.571667846189</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4906,13 +4906,13 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>500</v>
+        <v>212.45233215381</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1286.00573163072</v>
+        <v>573.138853867051</v>
       </c>
       <c r="Y52">
         <v>800</v>
@@ -4953,19 +4953,19 @@
         <v>5058.95772969697</v>
       </c>
       <c r="I53">
-        <v>717.180265629998</v>
+        <v>798.3711735077341</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>4776.78085408539</v>
+        <v>4709.54103499519</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>624.999999999998</v>
+        <v>668.4445781077339</v>
       </c>
       <c r="N53">
         <v>1000</v>
@@ -4980,10 +4980,10 @@
         <v>133.7107868</v>
       </c>
       <c r="R53">
-        <v>249.992558139531</v>
+        <v>327.317232308804</v>
       </c>
       <c r="S53">
-        <v>1074.967999999983</v>
+        <v>1407.464098927857</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4992,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>500.000000000015</v>
+        <v>167.503901072145</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1144.54483127857</v>
+        <v>512.9780394499249</v>
       </c>
       <c r="Y53">
         <v>800</v>
@@ -5039,28 +5039,28 @@
         <v>5013.31296969697</v>
       </c>
       <c r="I54">
-        <v>100.273095554997</v>
+        <v>148.995205007734</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>4600.36521773965</v>
+        <v>4521.86071448461</v>
       </c>
       <c r="L54">
-        <v>2.81374923361e-12</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>43.4445781077335</v>
       </c>
       <c r="N54">
-        <v>1000</v>
+        <v>951.277890547264</v>
       </c>
       <c r="O54">
-        <v>1218.181818181818</v>
+        <v>1158.82943030303</v>
       </c>
       <c r="P54">
-        <v>812.121212121212</v>
+        <v>772.5529535353536</v>
       </c>
       <c r="Q54">
         <v>109.7261826</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1003.36685272712</v>
+        <v>465.423221962096</v>
       </c>
       <c r="Y54">
         <v>800</v>
@@ -5096,7 +5096,7 @@
         <v>5013.31296969697</v>
       </c>
       <c r="AB54">
-        <v>3898.192412121212</v>
+        <v>3858.624153535353</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5128,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>544.509625970003</v>
+        <v>501.065047862266</v>
       </c>
       <c r="K55">
-        <v>4588.8643046953</v>
+        <v>4499.12327898584</v>
       </c>
       <c r="L55">
-        <v>625.000000000003</v>
+        <v>581.5554218922661</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5158,31 +5158,31 @@
         <v>1434.88</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>68.6695042615051</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>206.008512784515</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X55">
-        <v>1001.36011902167</v>
+        <v>464.492375518172</v>
       </c>
       <c r="Y55">
         <v>800</v>
       </c>
       <c r="Z55">
-        <v>2.04636307898909e-12</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>4680.31498181818</v>
       </c>
       <c r="AB55">
-        <v>3761.369612121212</v>
+        <v>3761.369612121213</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5214,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1194.56987885</v>
+        <v>1151.12530074227</v>
       </c>
       <c r="K56">
-        <v>4725.82964393356</v>
+        <v>4625.99488348779</v>
       </c>
       <c r="L56">
-        <v>1250</v>
+        <v>1206.55542189227</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5244,19 +5244,19 @@
         <v>1364.848</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>101.253978090069</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>303.761934270208</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="X56">
-        <v>999.357398783626</v>
+        <v>509.915306143651</v>
       </c>
       <c r="Y56">
         <v>800</v>
@@ -5300,13 +5300,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1142.06353777498</v>
+        <v>1148.37537450945</v>
       </c>
       <c r="K57">
-        <v>5010.89006982373</v>
+        <v>4900.98680897848</v>
       </c>
       <c r="L57">
-        <v>1185.68594660498</v>
+        <v>1191.99778333945</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5330,19 +5330,19 @@
         <v>1328.944000000002</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>51.2350195398476</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>153.705058619543</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="X57">
-        <v>997.358683986059</v>
+        <v>577.2419107421611</v>
       </c>
       <c r="Y57">
         <v>800</v>
@@ -5386,25 +5386,25 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>528.871250104977</v>
+        <v>535.183086839452</v>
       </c>
       <c r="K58">
-        <v>5279.96325696785</v>
+        <v>5171.83381549916</v>
       </c>
       <c r="L58">
-        <v>560.6859466049769</v>
+        <v>566.997783339452</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>999.999999999996</v>
+        <v>1000</v>
       </c>
       <c r="O58">
-        <v>1218.181818181813</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P58">
-        <v>812.1212121212088</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q58">
         <v>37.6022046</v>
@@ -5416,19 +5416,19 @@
         <v>1293.04</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>20.4985640175463</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>61.4956920526388</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="X58">
-        <v>995.363966618086</v>
+        <v>610.671065110073</v>
       </c>
       <c r="Y58">
         <v>800</v>
@@ -5440,7 +5440,7 @@
         <v>3367.70758181818</v>
       </c>
       <c r="AB58">
-        <v>3105.065912121209</v>
+        <v>3105.065912121213</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5469,19 +5469,19 @@
         <v>3143.43253181818</v>
       </c>
       <c r="I59">
-        <v>79.04152131055081</v>
+        <v>79.04152131054811</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>5399.92626114411</v>
+        <v>5293.56620450353</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>62.1622967295271</v>
+        <v>58.0022166605481</v>
       </c>
       <c r="N59">
         <v>1000</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>993.37323868485</v>
+        <v>623.286253691697</v>
       </c>
       <c r="Y59">
         <v>800</v>
@@ -5526,7 +5526,7 @@
         <v>3143.43253181818</v>
       </c>
       <c r="AB59">
-        <v>2992.928387121212</v>
+        <v>2992.928387121214</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5555,19 +5555,19 @@
         <v>2919.15748181818</v>
       </c>
       <c r="I60">
-        <v>662.554899053051</v>
+        <v>693.266129460548</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>5370.0679463519</v>
+        <v>5265.06854776581</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>687.162296729527</v>
+        <v>683.002216660548</v>
       </c>
       <c r="N60">
         <v>1000</v>
@@ -5582,10 +5582,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R60">
-        <v>227.754636132925</v>
+        <v>257.003426997208</v>
       </c>
       <c r="S60">
-        <v>979.3449353715774</v>
+        <v>1105.114736087994</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5594,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>258.159064628424</v>
+        <v>132.389263912006</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>991.386492207481</v>
+        <v>622.039681184314</v>
       </c>
       <c r="Y60">
         <v>800</v>
@@ -5641,13 +5641,13 @@
         <v>2694.88243181818</v>
       </c>
       <c r="I61">
-        <v>1190.9756702375</v>
+        <v>1253.65860025</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5175.81059313615</v>
+        <v>5072.16845095941</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>12.8889432</v>
       </c>
       <c r="R61">
-        <v>147.819534883724</v>
+        <v>207.517563467057</v>
       </c>
       <c r="S61">
-        <v>635.6240000000132</v>
+        <v>892.325522908345</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>499.999999999986</v>
+        <v>243.298477091653</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>917.692867937392</v>
+        <v>584.020806290832</v>
       </c>
       <c r="Y61">
         <v>800</v>
@@ -5727,13 +5727,13 @@
         <v>2470.60738181818</v>
       </c>
       <c r="I62">
-        <v>1184.700623315</v>
+        <v>1247.0532877</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>4833.92369823226</v>
+        <v>4730.54066141096</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         <v>7.8974229</v>
       </c>
       <c r="R62">
-        <v>124.126511627905</v>
+        <v>183.510001518381</v>
       </c>
       <c r="S62">
-        <v>533.7439999999915</v>
+        <v>789.0930065290382</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5766,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>500.000000000009</v>
+        <v>244.650993470961</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>776.968593312632</v>
+        <v>515.269854375013</v>
       </c>
       <c r="Y62">
         <v>800</v>
@@ -5813,13 +5813,13 @@
         <v>2246.33233181818</v>
       </c>
       <c r="I63">
-        <v>1180.211578055</v>
+        <v>1242.3279769</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>4492.89152056562</v>
+        <v>4389.76694133638</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5840,10 +5840,10 @@
         <v>4.6250101</v>
       </c>
       <c r="R63">
-        <v>100.433488372096</v>
+        <v>159.591963462572</v>
       </c>
       <c r="S63">
-        <v>431.8640000000128</v>
+        <v>686.2454428890596</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5852,13 +5852,13 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>499.999999999989</v>
+        <v>245.618557110942</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63">
-        <v>636.525767237116</v>
+        <v>446.280705368774</v>
       </c>
       <c r="Y63">
         <v>800</v>
@@ -5899,13 +5899,13 @@
         <v>2022.05728181818</v>
       </c>
       <c r="I64">
-        <v>1175.722532795</v>
+        <v>1237.6026661</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4152.71192334316</v>
+        <v>4049.84515556199</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R64">
-        <v>76.7404651162763</v>
+        <v>135.673925406753</v>
       </c>
       <c r="S64">
-        <v>329.983999999988</v>
+        <v>583.3978792490378</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5938,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>500.000000000012</v>
+        <v>246.586120750964</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>496.363826813756</v>
+        <v>377.160766982775</v>
       </c>
       <c r="Y64">
         <v>800</v>
@@ -5985,19 +5985,19 @@
         <v>1797.78223181818</v>
       </c>
       <c r="I65">
-        <v>1174.32036236375</v>
+        <v>1215.30575873821</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>3813.38277511375</v>
+        <v>3710.77317425203</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1250</v>
+        <v>1229.17906151321</v>
       </c>
       <c r="N65">
         <v>1000</v>
@@ -6012,10 +6012,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R65">
-        <v>133.256521725314</v>
+        <v>172.29023255814</v>
       </c>
       <c r="S65">
-        <v>573.0030434188502</v>
+        <v>740.8480000000019</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6024,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>167.844956581149</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>356.482210271236</v>
+        <v>307.910300795763</v>
       </c>
       <c r="Y65">
         <v>800</v>
@@ -6042,7 +6042,7 @@
         <v>1797.78223181818</v>
       </c>
       <c r="AB65">
-        <v>2320.103237121212</v>
+        <v>2320.103237121213</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>3474.90194975491</v>
+        <v>3378.02806723397</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1250</v>
+        <v>1188.2674635825</v>
       </c>
       <c r="N66">
         <v>1000</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>309.145646800374</v>
+        <v>307.294480194172</v>
       </c>
       <c r="Y66">
         <v>800</v>
@@ -6128,7 +6128,7 @@
         <v>1920.43818181818</v>
       </c>
       <c r="AB66">
-        <v>2381.431212121212</v>
+        <v>2381.431212121213</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6163,13 +6163,13 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3137.26732645947</v>
+        <v>3056.88103296523</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1250</v>
+        <v>1188.32345630375</v>
       </c>
       <c r="N67">
         <v>1000</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>308.527355506774</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y67">
         <v>800</v>
@@ -6214,7 +6214,7 @@
         <v>2024.86738181818</v>
       </c>
       <c r="AB67">
-        <v>2433.645812121212</v>
+        <v>2433.645812121213</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6249,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2800.47678972227</v>
+        <v>2736.52213135552</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1250</v>
+        <v>1188.379449025</v>
       </c>
       <c r="N68">
         <v>1000</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>307.91030079576</v>
+        <v>306.066531451316</v>
       </c>
       <c r="Y68">
         <v>800</v>
@@ -6300,7 +6300,7 @@
         <v>1741.57258181818</v>
       </c>
       <c r="AB68">
-        <v>2291.998412121212</v>
+        <v>2291.998412121213</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6329,19 +6329,19 @@
         <v>1758.27778181818</v>
       </c>
       <c r="I69">
-        <v>1169.84302412</v>
+        <v>1169.84302411999</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2464.52822932691</v>
+        <v>2416.94939207318</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1250</v>
+        <v>1188.42931451999</v>
       </c>
       <c r="N69">
         <v>1000</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>307.294480194168</v>
+        <v>305.454398388413</v>
       </c>
       <c r="Y69">
         <v>800</v>
@@ -6386,7 +6386,7 @@
         <v>1758.27778181818</v>
       </c>
       <c r="AB69">
-        <v>2300.351012121212</v>
+        <v>2300.351012121214</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6421,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2129.41954033254</v>
+        <v>2098.16246214037</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1250</v>
+        <v>1188.479180015</v>
       </c>
       <c r="N70">
         <v>1000</v>
@@ -6460,19 +6460,19 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>306.67989123378</v>
+        <v>304.843489591636</v>
       </c>
       <c r="Y70">
         <v>800</v>
       </c>
       <c r="Z70">
-        <v>2.38742359215394e-12</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>1834.98298181818</v>
       </c>
       <c r="AB70">
-        <v>2338.703612121212</v>
+        <v>2338.703612121214</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6507,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1795.14862306066</v>
+        <v>1780.1593770337</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1250</v>
+        <v>1188.4741625225</v>
       </c>
       <c r="N71">
         <v>1000</v>
@@ -6546,19 +6546,19 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>306.066531451312</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y71">
         <v>800</v>
       </c>
       <c r="Z71">
-        <v>2.1600499167107e-12</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>1951.68818181818</v>
       </c>
       <c r="AB71">
-        <v>2397.056212121212</v>
+        <v>2397.056212121213</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6587,19 +6587,19 @@
         <v>1884.39338181819</v>
       </c>
       <c r="I72">
-        <v>1168.01861087992</v>
+        <v>1169.08624442999</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1461.71338308195</v>
+        <v>1462.95262003256</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1248.87617521044</v>
+        <v>1188.46914502999</v>
       </c>
       <c r="N72">
         <v>1000</v>
@@ -6614,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>177.91157823581</v>
+        <v>178.928372093025</v>
       </c>
       <c r="S72">
-        <v>765.019786413983</v>
+        <v>769.3920000000074</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6626,25 +6626,25 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>4.37221358602479</v>
+        <v>0</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>305.45439838841</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y72">
         <v>800</v>
       </c>
       <c r="Z72">
-        <v>2.61479726759717e-12</v>
+        <v>0</v>
       </c>
       <c r="AA72">
         <v>1884.39338181819</v>
       </c>
       <c r="AB72">
-        <v>2363.408812121222</v>
+        <v>2363.408812121224</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6673,19 +6673,19 @@
         <v>1917.09858181819</v>
       </c>
       <c r="I73">
-        <v>574.166128632421</v>
+        <v>575.233762182498</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1129.40747456887</v>
+        <v>1146.5402003167</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>623.876175210443</v>
+        <v>594.724538832498</v>
       </c>
       <c r="N73">
         <v>1000</v>
@@ -6700,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>176.678089863715</v>
+        <v>177.694883720933</v>
       </c>
       <c r="S73">
-        <v>759.7157864139745</v>
+        <v>764.0880000000119</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6712,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>4.3722135860382</v>
+        <v>0</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73">
-        <v>303.628985817737</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y73">
         <v>800</v>
@@ -6730,7 +6730,7 @@
         <v>1917.09858181819</v>
       </c>
       <c r="AB73">
-        <v>2379.761412121222</v>
+        <v>2379.761412121224</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6762,16 +6762,16 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>19.5986527000047</v>
+        <v>20.6301607368491</v>
       </c>
       <c r="K74">
-        <v>962.406015037593</v>
+        <v>987.167392228404</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1.03150803684912</v>
       </c>
       <c r="M74">
-        <v>-4.66826577394386e-12</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1000</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>301.807224072202</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y74">
         <v>800</v>
@@ -6816,7 +6816,7 @@
         <v>1949.8037818182</v>
       </c>
       <c r="AB74">
-        <v>2396.114012121222</v>
+        <v>2396.114012121224</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>29.5771406078923</v>
+        <v>31.133832218836</v>
       </c>
       <c r="K75">
-        <v>960</v>
+        <v>984.9444569065849</v>
       </c>
       <c r="L75">
-        <v>10.1052631578923</v>
+        <v>11.661954768836</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>301.203609624058</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y75">
         <v>800</v>
@@ -6902,7 +6902,7 @@
         <v>1982.50898181821</v>
       </c>
       <c r="AB75">
-        <v>2412.466612121222</v>
+        <v>2412.466612121224</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6934,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>29.4503653578975</v>
+        <v>31.0003845872628</v>
       </c>
       <c r="K76">
-        <v>959.999999999999</v>
+        <v>985.251810021917</v>
       </c>
       <c r="L76">
-        <v>10.1052631578975</v>
+        <v>11.6552823872628</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>300.60120240481</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y76">
         <v>800</v>
@@ -6988,7 +6988,7 @@
         <v>2135.21418181822</v>
       </c>
       <c r="AB76">
-        <v>2488.819212121232</v>
+        <v>2488.819212121234</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7020,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>130.250533060971</v>
+        <v>138.039157608039</v>
       </c>
       <c r="K77">
-        <v>960</v>
+        <v>985.556810063837</v>
       </c>
       <c r="L77">
-        <v>110.860942410971</v>
+        <v>118.649566958039</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -7050,19 +7050,19 @@
         <v>742.8720000000294</v>
       </c>
       <c r="T77">
-        <v>0.888888888888923</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>2.66666666666677</v>
+        <v>0</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>-8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y77">
         <v>800</v>
@@ -7106,25 +7106,25 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>310.312178897316</v>
+        <v>255.906811175825</v>
       </c>
       <c r="K78">
-        <v>983.929473822606</v>
+        <v>1011.27219019121</v>
       </c>
       <c r="L78">
-        <v>290.878099797315</v>
+        <v>236.472732075825</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>650.1612737029041</v>
+        <v>579.423686039449</v>
       </c>
       <c r="O78">
-        <v>792.0146425108102</v>
+        <v>705.8433993571467</v>
       </c>
       <c r="P78">
-        <v>528.0097616738734</v>
+        <v>470.5622662380978</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -7154,13 +7154,13 @@
         <v>800</v>
       </c>
       <c r="Z78">
-        <v>426.16717567101</v>
+        <v>512.338418824673</v>
       </c>
       <c r="AA78">
         <v>2100.62458181823</v>
       </c>
       <c r="AB78">
-        <v>2187.412961673893</v>
+        <v>2129.965466238118</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7189,28 +7189,28 @@
         <v>2233.32978181824</v>
       </c>
       <c r="I79">
-        <v>298.92276485505</v>
+        <v>369.060909674175</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1050.55319883991</v>
+        <v>1064.90628358374</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>334.121900202685</v>
+        <v>388.527267924175</v>
       </c>
       <c r="N79">
-        <v>680.586331723899</v>
+        <v>610.448186904774</v>
       </c>
       <c r="O79">
-        <v>829.0778950091131</v>
+        <v>743.6368822294519</v>
       </c>
       <c r="P79">
-        <v>552.7185966727421</v>
+        <v>495.7579214863013</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -7240,13 +7240,13 @@
         <v>800</v>
       </c>
       <c r="Z79">
-        <v>389.103923172707</v>
+        <v>474.544935952368</v>
       </c>
       <c r="AA79">
         <v>2233.32978181824</v>
       </c>
       <c r="AB79">
-        <v>2278.474396672772</v>
+        <v>2221.513721486331</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7275,7 +7275,7 @@
         <v>2366.03498181825</v>
       </c>
       <c r="I80">
-        <v>892.64209966255</v>
+        <v>994.028630524175</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -7287,16 +7287,16 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>959.121900202685</v>
+        <v>1013.52726792418</v>
       </c>
       <c r="N80">
-        <v>560.491171551639</v>
+        <v>459.104640690014</v>
       </c>
       <c r="O80">
-        <v>682.7801544356328</v>
+        <v>559.2729259314714</v>
       </c>
       <c r="P80">
-        <v>455.1867696237553</v>
+        <v>372.8486172876476</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -7326,13 +7326,13 @@
         <v>800</v>
       </c>
       <c r="Z80">
-        <v>535.401663746188</v>
+        <v>658.908892250349</v>
       </c>
       <c r="AA80">
         <v>2366.03498181825</v>
       </c>
       <c r="AB80">
-        <v>2247.295169623795</v>
+        <v>2164.957017287688</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7361,7 +7361,7 @@
         <v>2398.74018181826</v>
       </c>
       <c r="I81">
-        <v>1168.97629447</v>
+        <v>1230.5013626</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -7376,13 +7376,13 @@
         <v>1250</v>
       </c>
       <c r="N81">
-        <v>1000</v>
+        <v>938.474931870002</v>
       </c>
       <c r="O81">
-        <v>1218.181818181818</v>
+        <v>1143.233098823457</v>
       </c>
       <c r="P81">
-        <v>812.121212121212</v>
+        <v>762.1553992156379</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -7412,13 +7412,13 @@
         <v>800</v>
       </c>
       <c r="Z81">
-        <v>50</v>
+        <v>74.94871935836321</v>
       </c>
       <c r="AA81">
         <v>2398.74018181826</v>
       </c>
       <c r="AB81">
-        <v>2620.582212121254</v>
+        <v>2570.616399215678</v>
       </c>
     </row>
   </sheetData>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>交流负荷</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>中品位热功率</t>
-  </si>
-  <si>
-    <t>低品位热功率</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,11 +534,8 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -561,73 +555,70 @@
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>5907.21648659703</v>
+        <v>6697.82321087163</v>
       </c>
       <c r="H2">
-        <v>2503.1816</v>
+        <v>3494.49850909091</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1258.21917321279</v>
+        <v>1267.34145175</v>
       </c>
       <c r="K2">
-        <v>4272.60620642495</v>
+        <v>5910.93188741002</v>
       </c>
       <c r="L2">
-        <v>1240.87772146279</v>
+        <v>1250</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>612.943151732039</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O2">
-        <v>746.6762030190292</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P2">
-        <v>497.7841353460195</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q2">
         <v>2.77500605</v>
       </c>
       <c r="R2">
-        <v>135.181395348837</v>
+        <v>178.981088006495</v>
       </c>
       <c r="S2">
-        <v>581.2799999999991</v>
+        <v>769.6186784279286</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>169.064633431132</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>496.882643206173</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>10.311257087223</v>
       </c>
       <c r="X2">
         <v>1111.79846646574</v>
       </c>
       <c r="Y2">
-        <v>800</v>
+        <v>601.3500644848481</v>
       </c>
       <c r="Z2">
-        <v>305.549796980971</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2503.1816</v>
-      </c>
-      <c r="AB2">
-        <v>2275.48793534602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>3494.49850909091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -647,10 +638,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>5920.86965820302</v>
+        <v>6706.95651624373</v>
       </c>
       <c r="H3">
-        <v>2534.7206</v>
+        <v>3521.49850909091</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -659,7 +650,7 @@
         <v>1264.43326875</v>
       </c>
       <c r="K3">
-        <v>4556.6331497563</v>
+        <v>6193.0295576915</v>
       </c>
       <c r="L3">
         <v>1250</v>
@@ -668,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>618.492447756283</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O3">
-        <v>753.4362545394719</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P3">
-        <v>502.2908363596479</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q3">
         <v>5.9601545</v>
       </c>
       <c r="R3">
-        <v>135.646511627907</v>
+        <v>180.839519887245</v>
       </c>
       <c r="S3">
-        <v>583.28</v>
+        <v>777.6099355151534</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>500.000000000004</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -698,22 +689,19 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1109.57486953281</v>
+        <v>1221.3734642542</v>
       </c>
       <c r="Y3">
-        <v>800</v>
+        <v>605.670064484848</v>
       </c>
       <c r="Z3">
-        <v>294.250745460529</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2534.7206</v>
-      </c>
-      <c r="AB3">
-        <v>2293.494636359648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>3521.49850909091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>18</v>
       </c>
@@ -733,10 +721,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>5268.72362814291</v>
+        <v>6042.37261231349</v>
       </c>
       <c r="H4">
-        <v>2556.7596</v>
+        <v>3528.49850909091</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -745,7 +733,7 @@
         <v>1261.52508575</v>
       </c>
       <c r="K4">
-        <v>4842.11656688191</v>
+        <v>6474.42198379727</v>
       </c>
       <c r="L4">
         <v>1250</v>
@@ -754,28 +742,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>606.300062258253</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O4">
-        <v>738.5837122055079</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P4">
-        <v>492.3891414703387</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q4">
         <v>9.14530295</v>
       </c>
       <c r="R4">
-        <v>112.855813953488</v>
+        <v>157.788357096547</v>
       </c>
       <c r="S4">
-        <v>485.2799999999984</v>
+        <v>678.4899355151521</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>166.666666666661</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>499.999999999983</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -784,22 +772,19 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1107.35571979375</v>
+        <v>1331.43071732569</v>
       </c>
       <c r="Y4">
-        <v>800</v>
+        <v>606.790064484848</v>
       </c>
       <c r="Z4">
-        <v>294.064287794492</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2556.7596</v>
-      </c>
-      <c r="AB4">
-        <v>2287.092941470339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>3528.49850909091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -819,10 +804,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>5243.66009235126</v>
+        <v>5999.69853750094</v>
       </c>
       <c r="H5">
-        <v>2527.7986</v>
+        <v>3475.49850909091</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -831,7 +816,7 @@
         <v>1256.50394117</v>
       </c>
       <c r="K5">
-        <v>5126.8862754647</v>
+        <v>6755.11092883778</v>
       </c>
       <c r="L5">
         <v>1250</v>
@@ -840,52 +825,49 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>586.830825562926</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O5">
-        <v>714.8666420493823</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P5">
-        <v>476.5777613662549</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q5">
         <v>13.94484173</v>
       </c>
       <c r="R5">
-        <v>113.320930232558</v>
+        <v>160.225566398873</v>
       </c>
       <c r="S5">
-        <v>487.2799999999993</v>
+        <v>688.9699355151539</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>500.000000000005</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X5">
-        <v>1105.14100835416</v>
+        <v>1441.26785589104</v>
       </c>
       <c r="Y5">
-        <v>800</v>
+        <v>598.3100644848481</v>
       </c>
       <c r="Z5">
-        <v>293.742357950618</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2527.7986</v>
-      </c>
-      <c r="AB5">
-        <v>2244.781561366255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>3475.49850909091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -905,10 +887,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>5218.59655657012</v>
+        <v>5954.21888130303</v>
       </c>
       <c r="H6">
-        <v>2578.8376</v>
+        <v>3502.49850909091</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -917,7 +899,7 @@
         <v>1251.4827966</v>
       </c>
       <c r="K6">
-        <v>5410.94405977604</v>
+        <v>7035.09815151568</v>
       </c>
       <c r="L6">
         <v>1250</v>
@@ -926,52 +908,49 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>567.361588867089</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O6">
-        <v>691.1495718926355</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P6">
-        <v>460.766381261757</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q6">
         <v>18.7443805</v>
       </c>
       <c r="R6">
-        <v>113.786046511628</v>
+        <v>159.686031515152</v>
       </c>
       <c r="S6">
-        <v>489.2800000000004</v>
+        <v>686.6499355151535</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X6">
-        <v>1102.93072633745</v>
+        <v>1550.88532017926</v>
       </c>
       <c r="Y6">
-        <v>800</v>
+        <v>602.630064484848</v>
       </c>
       <c r="Z6">
-        <v>293.420428107365</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2578.8376</v>
-      </c>
-      <c r="AB6">
-        <v>2242.470181261757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>3502.49850909091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>21</v>
       </c>
@@ -991,10 +970,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>4982.08517069614</v>
+        <v>5704.63007261931</v>
       </c>
       <c r="H7">
-        <v>2525.3766</v>
+        <v>3429.49850909091</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1003,7 +982,7 @@
         <v>1243.8455228</v>
       </c>
       <c r="K7">
-        <v>5694.2916996266</v>
+        <v>7314.38540613689</v>
       </c>
       <c r="L7">
         <v>1250</v>
@@ -1012,52 +991,49 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>551.724073034092</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O7">
-        <v>672.1002344233483</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P7">
-        <v>448.0668229488989</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q7">
         <v>26.91668605</v>
       </c>
       <c r="R7">
-        <v>114.251162790698</v>
+        <v>162.867426863989</v>
       </c>
       <c r="S7">
-        <v>491.2800000000014</v>
+        <v>700.3299355151527</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X7">
-        <v>1100.72486488478</v>
+        <v>1660.2835495389</v>
       </c>
       <c r="Y7">
-        <v>800</v>
+        <v>590.950064484848</v>
       </c>
       <c r="Z7">
-        <v>292.930765576652</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>2525.3766</v>
-      </c>
-      <c r="AB7">
-        <v>2193.270622948899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>3429.49850909091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -1077,10 +1053,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>4740.64841168783</v>
+        <v>5451.5342871914</v>
       </c>
       <c r="H8">
-        <v>2565.9156</v>
+        <v>3456.49850909091</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1089,7 +1065,7 @@
         <v>1236.208249</v>
       </c>
       <c r="K8">
-        <v>5976.93097037753</v>
+        <v>7592.97444262155</v>
       </c>
       <c r="L8">
         <v>1250</v>
@@ -1098,52 +1074,49 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>541.011930335426</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O8">
-        <v>659.0508969540642</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P8">
-        <v>439.3672646360428</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q8">
         <v>35.0889916</v>
       </c>
       <c r="R8">
-        <v>114.716279069767</v>
+        <v>162.327891980268</v>
       </c>
       <c r="S8">
-        <v>493.2799999999981</v>
+        <v>698.0099355151524</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>166.666666666663</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>499.99999999999</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X8">
-        <v>1098.52341515501</v>
+        <v>1769.46298243982</v>
       </c>
       <c r="Y8">
-        <v>800</v>
+        <v>595.270064484848</v>
       </c>
       <c r="Z8">
-        <v>292.441103045937</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>2565.9156</v>
-      </c>
-      <c r="AB8">
-        <v>2198.071064636043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>3456.49850909091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>23</v>
       </c>
@@ -1163,10 +1136,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>4885.40440850748</v>
+        <v>5601.57113385768</v>
       </c>
       <c r="H9">
-        <v>2489.9546</v>
+        <v>3383.49850909091</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1175,7 +1148,7 @@
         <v>1230.69663055</v>
       </c>
       <c r="K9">
-        <v>6258.86364295159</v>
+        <v>7870.867006515</v>
       </c>
       <c r="L9">
         <v>1250</v>
@@ -1184,52 +1157,49 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>543.732687158799</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O9">
-        <v>662.3652734479913</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P9">
-        <v>441.5768489653276</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q9">
         <v>47.99538765</v>
       </c>
       <c r="R9">
-        <v>115.181395348837</v>
+        <v>165.509287329105</v>
       </c>
       <c r="S9">
-        <v>495.2799999999991</v>
+        <v>711.6899355151515</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>499.999999999994</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X9">
-        <v>1096.3263683247</v>
+        <v>1878.42405647494</v>
       </c>
       <c r="Y9">
-        <v>800</v>
+        <v>583.590064484848</v>
       </c>
       <c r="Z9">
-        <v>292.087726552009</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2489.9546</v>
-      </c>
-      <c r="AB9">
-        <v>2163.780648965327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>3383.49850909091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>24</v>
       </c>
@@ -1249,10 +1219,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>5030.16040532713</v>
+        <v>5748.10100377977</v>
       </c>
       <c r="H10">
-        <v>2513.9936</v>
+        <v>3410.49850909091</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1261,7 +1231,7 @@
         <v>1225.1850121</v>
       </c>
       <c r="K10">
-        <v>6540.09148384421</v>
+        <v>8148.06483899871</v>
       </c>
       <c r="L10">
         <v>1250</v>
@@ -1270,52 +1240,49 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>546.453443982172</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O10">
-        <v>665.6796499419185</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P10">
-        <v>443.7864332946123</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q10">
         <v>60.9017837</v>
       </c>
       <c r="R10">
-        <v>115.646511627907</v>
+        <v>164.969752445384</v>
       </c>
       <c r="S10">
-        <v>497.2800000000001</v>
+        <v>709.3699355151512</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>166.666666666661</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>499.999999999984</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X10">
-        <v>1094.13371558805</v>
+        <v>1987.16720836199</v>
       </c>
       <c r="Y10">
-        <v>800</v>
+        <v>587.910064484848</v>
       </c>
       <c r="Z10">
-        <v>291.734350058082</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>2513.9936</v>
-      </c>
-      <c r="AB10">
-        <v>2179.490233294612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>3410.49850909091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -1335,10 +1302,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>4936.40367545613</v>
+        <v>5642.35805486605</v>
       </c>
       <c r="H11">
-        <v>2459.4376</v>
+        <v>3337.49850909091</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1347,7 +1314,7 @@
         <v>1213.89359807</v>
       </c>
       <c r="K11">
-        <v>6820.6162551346</v>
+        <v>8424.56967690121</v>
       </c>
       <c r="L11">
         <v>1250</v>
@@ -1356,28 +1323,28 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>531.907131916195</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O11">
-        <v>647.9595970615464</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P11">
-        <v>431.9730647076976</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q11">
         <v>74.39721408</v>
       </c>
       <c r="R11">
-        <v>116.111627906977</v>
+        <v>168.151147794221</v>
       </c>
       <c r="S11">
-        <v>499.2800000000011</v>
+        <v>723.0499355151503</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>166.666666666663</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>499.999999999989</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1386,22 +1353,19 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1091.94544815687</v>
+        <v>2095.69287394526</v>
       </c>
       <c r="Y11">
-        <v>800</v>
+        <v>576.2300644848481</v>
       </c>
       <c r="Z11">
-        <v>291.010402938453</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>2459.4376</v>
-      </c>
-      <c r="AB11">
-        <v>2131.176864707698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>3337.49850909091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1421,10 +1385,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>4849.85522917775</v>
+        <v>5536.61510596233</v>
       </c>
       <c r="H12">
-        <v>2413.6626</v>
+        <v>3264.49850909091</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1433,7 +1397,7 @@
         <v>1202.60218405</v>
       </c>
       <c r="K12">
-        <v>7100.43971449677</v>
+        <v>8700.38325270896</v>
       </c>
       <c r="L12">
         <v>1250</v>
@@ -1442,52 +1406,49 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>603.803130016777</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O12">
-        <v>735.54199474771</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P12">
-        <v>490.3613298318067</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q12">
         <v>87.89264445000001</v>
       </c>
       <c r="R12">
-        <v>116.576744186047</v>
+        <v>171.332543143059</v>
       </c>
       <c r="S12">
-        <v>501.2800000000021</v>
+        <v>736.7299355151537</v>
       </c>
       <c r="T12">
-        <v>89.1910416658832</v>
+        <v>166.666666666664</v>
       </c>
       <c r="U12">
-        <v>267.573124997649</v>
+        <v>499.999999999991</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>6.252776074688882e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X12">
-        <v>1089.76155726056</v>
+        <v>2204.00148819737</v>
       </c>
       <c r="Y12">
-        <v>800</v>
+        <v>564.550064484848</v>
       </c>
       <c r="Z12">
-        <v>176.203005252291</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>2413.6626</v>
-      </c>
-      <c r="AB12">
-        <v>2153.065129831806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>3264.49850909091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1507,10 +1468,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>4819.1592196172</v>
+        <v>5508.32051758443</v>
       </c>
       <c r="H13">
-        <v>2437.8876</v>
+        <v>3291.49850909091</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1519,7 +1480,7 @@
         <v>1182.2661073</v>
       </c>
       <c r="K13">
-        <v>7379.56361521053</v>
+        <v>8975.50729457719</v>
       </c>
       <c r="L13">
         <v>1250</v>
@@ -1528,28 +1489,28 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>688.5008411711721</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O13">
-        <v>838.7192065176095</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P13">
-        <v>559.1461376784063</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q13">
         <v>110.5464674</v>
       </c>
       <c r="R13">
-        <v>117.041860465116</v>
+        <v>170.793008259338</v>
       </c>
       <c r="S13">
-        <v>503.2799999999988</v>
+        <v>734.4099355151534</v>
       </c>
       <c r="T13">
-        <v>166.666666666667</v>
+        <v>166.66666666667</v>
       </c>
       <c r="U13">
-        <v>500</v>
+        <v>500.000000000009</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1558,22 +1519,19 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="X13">
-        <v>1147.78598727051</v>
+        <v>2312.09348522097</v>
       </c>
       <c r="Y13">
-        <v>800</v>
+        <v>568.8700644848481</v>
       </c>
       <c r="Z13">
-        <v>75.8007934823906</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>2437.8876</v>
-      </c>
-      <c r="AB13">
-        <v>2235.349937678407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>3291.49850909091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1593,10 +1551,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>4788.46321000402</v>
+        <v>5480.02592915652</v>
       </c>
       <c r="H14">
-        <v>2462.1126</v>
+        <v>3318.49850909091</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1605,7 +1563,7 @@
         <v>1161.9300305</v>
       </c>
       <c r="K14">
-        <v>7657.9897061725</v>
+        <v>9249.94352634075</v>
       </c>
       <c r="L14">
         <v>1250</v>
@@ -1614,52 +1572,49 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>691.8491460773751</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O14">
-        <v>842.7980506760749</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P14">
-        <v>561.8653671173832</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q14">
         <v>133.2002904</v>
       </c>
       <c r="R14">
-        <v>117.506976744186</v>
+        <v>170.253473375617</v>
       </c>
       <c r="S14">
-        <v>505.2799999999998</v>
+        <v>732.0899355151531</v>
       </c>
       <c r="T14">
         <v>166.666666666667</v>
       </c>
       <c r="U14">
-        <v>500</v>
+        <v>500.000000000002</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1.023181539494544e-12</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="X14">
-        <v>1257.99041529597</v>
+        <v>2419.96929825053</v>
       </c>
       <c r="Y14">
-        <v>800</v>
+        <v>573.190064484848</v>
       </c>
       <c r="Z14">
-        <v>74.49694932392531</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>2462.1126</v>
-      </c>
-      <c r="AB14">
-        <v>2251.569167117384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>3318.49850909091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1679,10 +1634,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>5041.56839531862</v>
+        <v>5739.50352242164</v>
       </c>
       <c r="H15">
-        <v>2386.3376</v>
+        <v>3245.49850909091</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1691,7 +1646,7 @@
         <v>1132.7777633</v>
       </c>
       <c r="K15">
-        <v>7935.71973190707</v>
+        <v>9523.693667524891</v>
       </c>
       <c r="L15">
         <v>1250</v>
@@ -1700,28 +1655,28 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>695.661461004636</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O15">
-        <v>847.4421434056471</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P15">
-        <v>564.9614289370982</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q15">
         <v>160.9459877</v>
       </c>
       <c r="R15">
-        <v>94.7162790697674</v>
+        <v>150.179054770966</v>
       </c>
       <c r="S15">
-        <v>407.2799999999998</v>
+        <v>645.7699355151537</v>
       </c>
       <c r="T15">
-        <v>166.666666666667</v>
+        <v>166.666666666671</v>
       </c>
       <c r="U15">
-        <v>500</v>
+        <v>500.000000000012</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1730,22 +1685,19 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="X15">
-        <v>1367.97443446537</v>
+        <v>2527.62935965403</v>
       </c>
       <c r="Y15">
-        <v>800</v>
+        <v>561.510064484848</v>
       </c>
       <c r="Z15">
-        <v>72.6278565943535</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>2386.3376</v>
-      </c>
-      <c r="AB15">
-        <v>2218.165228937098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>3245.49850909091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -1765,10 +1717,10 @@
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>5319.09218528439</v>
+        <v>6019.89274359373</v>
       </c>
       <c r="H16">
-        <v>2410.5626</v>
+        <v>3272.49850909091</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1777,7 +1729,7 @@
         <v>1103.6254961</v>
       </c>
       <c r="K16">
-        <v>8212.7554325773</v>
+        <v>9796.759433356079</v>
       </c>
       <c r="L16">
         <v>1250</v>
@@ -1786,52 +1738,49 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>699.473775931889</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O16">
-        <v>852.08623613521</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P16">
-        <v>568.0574907568067</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q16">
         <v>188.691685</v>
       </c>
       <c r="R16">
-        <v>95.1813953488372</v>
+        <v>149.639519887245</v>
       </c>
       <c r="S16">
-        <v>409.2799999999999</v>
+        <v>643.4499355151535</v>
       </c>
       <c r="T16">
-        <v>166.666666666667</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U16">
-        <v>500</v>
+        <v>500.000000000004</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1477.73848559644</v>
+        <v>2635.07410093472</v>
       </c>
       <c r="Y16">
-        <v>800</v>
+        <v>565.8300644848481</v>
       </c>
       <c r="Z16">
-        <v>70.75876386479069</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>2410.5626</v>
-      </c>
-      <c r="AB16">
-        <v>2234.761290756806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>3272.49850909091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -1851,73 +1800,70 @@
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>4838.12924806178</v>
+        <v>6103.27220551582</v>
       </c>
       <c r="H17">
-        <v>2434.7876</v>
+        <v>3299.49850909091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>557.798397484996</v>
+        <v>1087.46346965</v>
       </c>
       <c r="K17">
-        <v>8489.09854399586</v>
+        <v>10069.1425347727</v>
       </c>
       <c r="L17">
-        <v>720.334927834997</v>
+        <v>1250</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>718.7925373134329</v>
+        <v>49.9999999999993</v>
       </c>
       <c r="O17">
-        <v>875.6199999999999</v>
+        <v>60.90909090909004</v>
       </c>
       <c r="P17">
-        <v>583.7466666666667</v>
+        <v>40.60606060606003</v>
       </c>
       <c r="Q17">
         <v>203.3171886</v>
       </c>
       <c r="R17">
-        <v>95.646511627907</v>
+        <v>149.099985003524</v>
       </c>
       <c r="S17">
-        <v>411.2800000000001</v>
+        <v>641.1299355151532</v>
       </c>
       <c r="T17">
-        <v>151.137667315157</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U17">
-        <v>453.413001945471</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>-5.684341886080801e-14</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X17">
-        <v>1587.28300862525</v>
+        <v>2742.30395273286</v>
       </c>
       <c r="Y17">
-        <v>800</v>
+        <v>570.150064484848</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>2434.7876</v>
-      </c>
-      <c r="AB17">
-        <v>2263.950466666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>3299.49850909091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>32</v>
       </c>
@@ -1937,43 +1883,43 @@
         <v>0.65550003</v>
       </c>
       <c r="G18">
-        <v>3857.55358043732</v>
+        <v>4837.21865260233</v>
       </c>
       <c r="H18">
-        <v>2069.22578181818</v>
+        <v>2617.4076</v>
       </c>
       <c r="I18">
-        <v>83.36362886500341</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>446.3014433</v>
       </c>
       <c r="K18">
-        <v>8638.95534299668</v>
+        <v>10340.8446784358</v>
       </c>
       <c r="L18">
-        <v>95.33492783499661</v>
+        <v>625</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1000</v>
+        <v>550.000000000001</v>
       </c>
       <c r="O18">
-        <v>1218.181818181818</v>
+        <v>670.0000000000011</v>
       </c>
       <c r="P18">
-        <v>812.121212121212</v>
+        <v>446.6666666666674</v>
       </c>
       <c r="Q18">
         <v>217.9426921</v>
       </c>
       <c r="R18">
-        <v>96.11162790697669</v>
+        <v>96.1116279069811</v>
       </c>
       <c r="S18">
-        <v>413.2799999999997</v>
+        <v>413.2800000000187</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1982,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-1.89288584806491e-11</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1686.12636804573</v>
+        <v>2849.31934482739</v>
       </c>
       <c r="Y18">
         <v>800</v>
@@ -1997,13 +1943,10 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>2069.22578181818</v>
-      </c>
-      <c r="AB18">
-        <v>2455.825012121214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>2617.4076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -2023,22 +1966,22 @@
         <v>0.65550003</v>
       </c>
       <c r="G19">
-        <v>3760.50901486285</v>
+        <v>3750.72498504535</v>
       </c>
       <c r="H19">
         <v>1996.22578181818</v>
       </c>
       <c r="I19">
-        <v>185.896566532497</v>
+        <v>195.68059635</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8640</v>
+        <v>10463.4300667397</v>
       </c>
       <c r="L19">
-        <v>9.78402981750301</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2056,10 +1999,10 @@
         <v>238.2141986</v>
       </c>
       <c r="R19">
-        <v>96.5767441860465</v>
+        <v>96.5767441860494</v>
       </c>
       <c r="S19">
-        <v>415.2799999999999</v>
+        <v>415.2800000000124</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2068,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>-1.23918653116561e-11</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1682.75411530964</v>
+        <v>2843.62070613774</v>
       </c>
       <c r="Y19">
         <v>800</v>
@@ -2085,11 +2028,8 @@
       <c r="AA19">
         <v>1996.22578181818</v>
       </c>
-      <c r="AB19">
-        <v>2419.325012121214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -2109,25 +2049,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G20">
-        <v>3774.71086798802</v>
+        <v>3764.07773619302</v>
       </c>
       <c r="H20">
         <v>1923.22578181818</v>
       </c>
       <c r="I20">
-        <v>202.029504105001</v>
+        <v>212.662635900109</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8620.723707081661</v>
+        <v>10437.2714915728</v>
       </c>
       <c r="L20">
-        <v>10.6331317949985</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.09309894469334e-10</v>
       </c>
       <c r="N20">
         <v>1000</v>
@@ -2160,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1679.38860707902</v>
+        <v>2837.93346472547</v>
       </c>
       <c r="Y20">
         <v>800</v>
@@ -2171,11 +2111,8 @@
       <c r="AA20">
         <v>1923.22578181818</v>
       </c>
-      <c r="AB20">
-        <v>2382.825012121214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>35</v>
       </c>
@@ -2195,25 +2132,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G21">
-        <v>4052.22896410314</v>
+        <v>4041.19542365814</v>
       </c>
       <c r="H21">
         <v>1850.22578181818</v>
       </c>
       <c r="I21">
-        <v>209.637268454998</v>
+        <v>220.670808899998</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8601.697266615271</v>
+        <v>10411.1783128439</v>
       </c>
       <c r="L21">
-        <v>11.0335404450022</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-1.93267624126747e-12</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -2246,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1676.02982986486</v>
+        <v>2832.25759779602</v>
       </c>
       <c r="Y21">
         <v>800</v>
@@ -2257,11 +2194,8 @@
       <c r="AA21">
         <v>1850.22578181818</v>
       </c>
-      <c r="AB21">
-        <v>2346.325012121214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>36</v>
       </c>
@@ -2281,25 +2215,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G22">
-        <v>4109.74706031326</v>
+        <v>4098.31311122326</v>
       </c>
       <c r="H22">
         <v>1977.22578181818</v>
       </c>
       <c r="I22">
-        <v>217.245032709994</v>
+        <v>228.678981799993</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8582.813489304421</v>
+        <v>10385.1503670618</v>
       </c>
       <c r="L22">
-        <v>11.4339490900061</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-6.62225829728413e-12</v>
       </c>
       <c r="N22">
         <v>1000</v>
@@ -2332,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1672.67777020513</v>
+        <v>2826.59308260043</v>
       </c>
       <c r="Y22">
         <v>800</v>
@@ -2343,11 +2277,8 @@
       <c r="AA22">
         <v>1977.22578181818</v>
       </c>
-      <c r="AB22">
-        <v>2409.825012121214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>37</v>
       </c>
@@ -2367,25 +2298,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G23">
-        <v>4087.34102362593</v>
+        <v>4075.17608362093</v>
       </c>
       <c r="H23">
         <v>2062.32018181818</v>
       </c>
       <c r="I23">
-        <v>231.133860094998</v>
+        <v>243.298800099998</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8564.072018490029</v>
+        <v>10359.1874911441</v>
       </c>
       <c r="L23">
-        <v>12.1649400050022</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.81898940354586e-12</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -2418,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1669.33241466472</v>
+        <v>2820.93989643522</v>
       </c>
       <c r="Y23">
         <v>800</v>
@@ -2429,11 +2360,8 @@
       <c r="AA23">
         <v>2062.32018181818</v>
       </c>
-      <c r="AB23">
-        <v>2452.372212121214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>38</v>
       </c>
@@ -2453,25 +2381,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G24">
-        <v>4189.42196358779</v>
+        <v>4176.52603266279</v>
       </c>
       <c r="H24">
         <v>2029.09018181818</v>
       </c>
       <c r="I24">
-        <v>245.022687575</v>
+        <v>257.918618499999</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8545.551011695001</v>
+        <v>10333.2895224162</v>
       </c>
       <c r="L24">
-        <v>12.8959309250004</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-9.09494701772928e-13</v>
       </c>
       <c r="N24">
         <v>1000</v>
@@ -2504,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1665.99374983539</v>
+        <v>2815.29801664235</v>
       </c>
       <c r="Y24">
         <v>800</v>
@@ -2515,11 +2443,8 @@
       <c r="AA24">
         <v>2029.09018181818</v>
       </c>
-      <c r="AB24">
-        <v>2435.757212121213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>39</v>
       </c>
@@ -2539,25 +2464,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G25">
-        <v>4020.79186527233</v>
+        <v>4007.35874190233</v>
       </c>
       <c r="H25">
         <v>2195.86018181818</v>
       </c>
       <c r="I25">
-        <v>255.229344029994</v>
+        <v>268.662467399994</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8527.24991776044</v>
+        <v>10307.4562986102</v>
       </c>
       <c r="L25">
-        <v>13.4331233700058</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-5.85487214266323e-12</v>
       </c>
       <c r="N25">
         <v>1000</v>
@@ -2590,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1662.66176233572</v>
+        <v>2809.66742060907</v>
       </c>
       <c r="Y25">
         <v>800</v>
@@ -2601,11 +2526,8 @@
       <c r="AA25">
         <v>2195.86018181818</v>
       </c>
-      <c r="AB25">
-        <v>2519.142212121213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>40</v>
       </c>
@@ -2625,25 +2547,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G26">
-        <v>4100.99897625919</v>
+        <v>4087.02866044419</v>
       </c>
       <c r="H26">
         <v>2362.63018181818</v>
       </c>
       <c r="I26">
-        <v>265.436000484994</v>
+        <v>279.406316299995</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>8509.122159766421</v>
+        <v>10281.6876578637</v>
       </c>
       <c r="L26">
-        <v>13.9703158150057</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-5.22959453519434e-12</v>
       </c>
       <c r="N26">
         <v>1000</v>
@@ -2676,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1659.33643881105</v>
+        <v>2804.04808576785</v>
       </c>
       <c r="Y26">
         <v>800</v>
@@ -2687,11 +2609,8 @@
       <c r="AA26">
         <v>2362.63018181818</v>
       </c>
-      <c r="AB26">
-        <v>2602.527212121213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>41</v>
       </c>
@@ -2711,25 +2630,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G27">
-        <v>4284.45804430401</v>
+        <v>4270.12045789651</v>
       </c>
       <c r="H27">
         <v>2529.40018181818</v>
       </c>
       <c r="I27">
-        <v>272.4141417425</v>
+        <v>286.751728150001</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>8491.16730437307</v>
+        <v>10255.983438719</v>
       </c>
       <c r="L27">
-        <v>14.3375864075004</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>5.11590769747272e-13</v>
       </c>
       <c r="N27">
         <v>1000</v>
@@ -2762,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1656.01776593343</v>
+        <v>2798.43998959632</v>
       </c>
       <c r="Y27">
         <v>800</v>
@@ -2773,11 +2692,8 @@
       <c r="AA27">
         <v>2529.40018181818</v>
       </c>
-      <c r="AB27">
-        <v>2685.912212121214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>42</v>
       </c>
@@ -2797,25 +2713,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G28">
-        <v>4667.91711234884</v>
+        <v>4653.21225534884</v>
       </c>
       <c r="H28">
         <v>2500.45258181818</v>
       </c>
       <c r="I28">
-        <v>279.392282999995</v>
+        <v>294.097139999995</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>8473.34456288392</v>
+        <v>10230.3434801222</v>
       </c>
       <c r="L28">
-        <v>14.7048570000052</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-4.60431692772545e-12</v>
       </c>
       <c r="N28">
         <v>1000</v>
@@ -2848,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>1652.70573040156</v>
+        <v>2792.84310961712</v>
       </c>
       <c r="Y28">
         <v>800</v>
@@ -2859,11 +2775,8 @@
       <c r="AA28">
         <v>2500.45258181818</v>
       </c>
-      <c r="AB28">
-        <v>2671.438412121213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>43</v>
       </c>
@@ -2883,25 +2796,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G29">
-        <v>4396.63369748808</v>
+        <v>4381.82803407558</v>
       </c>
       <c r="H29">
         <v>2658.88408181818</v>
       </c>
       <c r="I29">
-        <v>281.307604837499</v>
+        <v>296.113268249999</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>8455.653605014209</v>
+        <v>10204.7676214219</v>
       </c>
       <c r="L29">
-        <v>14.8056634125006</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-6.25277607468888e-13</v>
       </c>
       <c r="N29">
         <v>1000</v>
@@ -2934,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1649.40031894076</v>
+        <v>2787.25742339789</v>
       </c>
       <c r="Y29">
         <v>800</v>
@@ -2945,11 +2858,8 @@
       <c r="AA29">
         <v>2658.88408181818</v>
       </c>
-      <c r="AB29">
-        <v>2750.654162121214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>44</v>
       </c>
@@ -2969,25 +2879,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G30">
-        <v>4325.35028262733</v>
+        <v>4310.44381280232</v>
       </c>
       <c r="H30">
         <v>2817.31558181818</v>
       </c>
       <c r="I30">
-        <v>283.222926674993</v>
+        <v>298.129396500003</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>8438.030816062141</v>
+        <v>10179.2557023684</v>
       </c>
       <c r="L30">
-        <v>14.9064698250065</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.29691829392686e-12</v>
       </c>
       <c r="N30">
         <v>1000</v>
@@ -3020,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1646.10151830288</v>
+        <v>2781.68290855109</v>
       </c>
       <c r="Y30">
         <v>800</v>
@@ -3031,11 +2941,8 @@
       <c r="AA30">
         <v>2817.31558181818</v>
       </c>
-      <c r="AB30">
-        <v>2829.869912121214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -3055,25 +2962,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G31">
-        <v>4650.80572522733</v>
+        <v>4635.56512080233</v>
       </c>
       <c r="H31">
         <v>2975.74708181818</v>
       </c>
       <c r="I31">
-        <v>289.571484074994</v>
+        <v>304.812088499994</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>8420.476025605431</v>
+        <v>10153.8075631124</v>
       </c>
       <c r="L31">
-        <v>15.2406044250058</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-5.62749846721999e-12</v>
       </c>
       <c r="N31">
         <v>1000</v>
@@ -3106,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1642.80931526627</v>
+        <v>2776.11954273399</v>
       </c>
       <c r="Y31">
         <v>800</v>
@@ -3117,11 +3024,8 @@
       <c r="AA31">
         <v>2975.74708181818</v>
       </c>
-      <c r="AB31">
-        <v>2909.085662121213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>46</v>
       </c>
@@ -3141,25 +3045,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G32">
-        <v>4576.26116782733</v>
+        <v>4560.68642880233</v>
       </c>
       <c r="H32">
         <v>3134.17858181818</v>
       </c>
       <c r="I32">
-        <v>295.920041474994</v>
+        <v>311.494780499994</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>8403.04447909235</v>
+        <v>10128.4230442047</v>
       </c>
       <c r="L32">
-        <v>15.5747390250055</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-5.62749846721999e-12</v>
       </c>
       <c r="N32">
         <v>1000</v>
@@ -3192,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1639.52369663574</v>
+        <v>2770.56730364852</v>
       </c>
       <c r="Y32">
         <v>800</v>
@@ -3203,11 +3107,8 @@
       <c r="AA32">
         <v>3134.17858181818</v>
       </c>
-      <c r="AB32">
-        <v>2988.301412121213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -3227,34 +3128,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G33">
-        <v>4457.34603901291</v>
+        <v>4441.40032992791</v>
       </c>
       <c r="H33">
-        <v>3307.87526969697</v>
+        <v>3292.61008181818</v>
       </c>
       <c r="I33">
-        <v>315.499596993106</v>
+        <v>318.914181699995</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>8385.73586841306</v>
+        <v>10103.1019865942</v>
       </c>
       <c r="L33">
-        <v>3.41458470689378</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-4.9453774408903e-12</v>
       </c>
       <c r="N33">
-        <v>987.46887562189</v>
+        <v>1000</v>
       </c>
       <c r="O33">
-        <v>1202.916630303029</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P33">
-        <v>801.9444202020196</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q33">
         <v>354.1797816</v>
@@ -3278,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1636.24464924247</v>
+        <v>2765.02616904123</v>
       </c>
       <c r="Y33">
         <v>800</v>
@@ -3287,13 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3307.87526969697</v>
-      </c>
-      <c r="AB33">
-        <v>3057.34037020202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>3292.61008181818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -3313,34 +3211,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>4412.88671082824</v>
+        <v>4322.11423115349</v>
       </c>
       <c r="H34">
-        <v>4009.65548969697</v>
+        <v>3978.25510181818</v>
       </c>
       <c r="I34">
-        <v>261.337540936195</v>
+        <v>326.333582799998</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>8365.582492609919</v>
+        <v>10077.8442316277</v>
       </c>
       <c r="L34">
-        <v>64.996041863805</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-2.50111042987555e-12</v>
       </c>
       <c r="N34">
-        <v>974.223562189053</v>
+        <v>1000</v>
       </c>
       <c r="O34">
-        <v>1186.781430303028</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P34">
-        <v>791.1876202020187</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q34">
         <v>358.4033757</v>
@@ -3364,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>1632.97215994398</v>
+        <v>2759.49611670314</v>
       </c>
       <c r="Y34">
         <v>800</v>
@@ -3373,13 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>4009.65548969697</v>
-      </c>
-      <c r="AB34">
-        <v>3389.406080202019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>3978.25510181818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>49</v>
       </c>
@@ -3399,34 +3294,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>4510.19218604651</v>
+        <v>4182.82831384651</v>
       </c>
       <c r="H35">
-        <v>4140.59684969697</v>
+        <v>4094.76766181818</v>
       </c>
       <c r="I35">
-        <v>37.6209751243796</v>
+        <v>327.363872199999</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>8360.105096321049</v>
+        <v>10052.6496210486</v>
       </c>
       <c r="L35">
-        <v>289.74289707562</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-6.25277607468888e-13</v>
       </c>
       <c r="N35">
-        <v>962.379024875622</v>
+        <v>1000</v>
       </c>
       <c r="O35">
-        <v>1172.35263030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P35">
-        <v>781.5684202020202</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q35">
         <v>355.4887467</v>
@@ -3450,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>1629.70621562409</v>
+        <v>2753.97712446974</v>
       </c>
       <c r="Y35">
         <v>800</v>
@@ -3459,13 +3354,10 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>4140.59684969697</v>
-      </c>
-      <c r="AB35">
-        <v>3438.04316020202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>4094.76766181818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>50</v>
       </c>
@@ -3485,34 +3377,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>4371.93655813954</v>
+        <v>4043.54239653953</v>
       </c>
       <c r="H36">
-        <v>4231.53820969697</v>
+        <v>4211.28022181818</v>
       </c>
       <c r="I36">
-        <v>16.6296915422835</v>
+        <v>328.394161600003</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>8408.0187716357</v>
+        <v>10027.517996996</v>
       </c>
       <c r="L36">
-        <v>311.764470057716</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2.8421709430404e-12</v>
       </c>
       <c r="N36">
-        <v>983.370308457712</v>
+        <v>1000</v>
       </c>
       <c r="O36">
-        <v>1197.923830303031</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P36">
-        <v>798.6158868686871</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q36">
         <v>352.5741177</v>
@@ -3536,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>1626.44680319285</v>
+        <v>2748.4691702208</v>
       </c>
       <c r="Y36">
         <v>800</v>
@@ -3545,13 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>4231.53820969697</v>
-      </c>
-      <c r="AB36">
-        <v>3513.346906868687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>4211.28022181818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -3571,34 +3460,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4481.26641860465</v>
+        <v>4534.49377540206</v>
       </c>
       <c r="H37">
-        <v>4359.51316969697</v>
+        <v>4327.79278181818</v>
       </c>
       <c r="I37">
-        <v>26.03912437811</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>53.2273567974113</v>
       </c>
       <c r="K37">
-        <v>8461.042786345321</v>
+        <v>10002.4492020035</v>
       </c>
       <c r="L37">
-        <v>302.32012862189</v>
+        <v>381.586609797411</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>973.960875621891</v>
+        <v>1000</v>
       </c>
       <c r="O37">
-        <v>1186.461430303031</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P37">
-        <v>790.9742868686872</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q37">
         <v>347.5825974</v>
@@ -3622,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>1623.19390958646</v>
+        <v>2742.97223188036</v>
       </c>
       <c r="Y37">
         <v>800</v>
@@ -3631,13 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>4359.51316969697</v>
-      </c>
-      <c r="AB37">
-        <v>3563.961586868687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>4327.79278181818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>52</v>
       </c>
@@ -3657,34 +3543,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>4490.59627906977</v>
+        <v>5168.85854456717</v>
       </c>
       <c r="H38">
-        <v>4480.28812969697</v>
+        <v>4444.30534181818</v>
       </c>
       <c r="I38">
-        <v>29.538109452733</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>678.262265497404</v>
       </c>
       <c r="K38">
-        <v>8511.691209927159</v>
+        <v>10068.0698988254</v>
       </c>
       <c r="L38">
-        <v>298.786234847267</v>
+        <v>1006.5866097974</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>970.461890547264</v>
+        <v>1000</v>
       </c>
       <c r="O38">
-        <v>1182.19903030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P38">
-        <v>788.132686868687</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q38">
         <v>342.591077</v>
@@ -3708,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>1619.94752176729</v>
+        <v>2737.4862874166</v>
       </c>
       <c r="Y38">
         <v>800</v>
@@ -3717,13 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>4480.28812969697</v>
-      </c>
-      <c r="AB38">
-        <v>3619.376266868687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>4444.30534181818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>53</v>
       </c>
@@ -3743,34 +3626,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G39">
-        <v>4549.92027906977</v>
+        <v>4850.08532506977</v>
       </c>
       <c r="H39">
-        <v>4601.06308969697</v>
+        <v>4560.81790181818</v>
       </c>
       <c r="I39">
-        <v>33.0370945273603</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>300.165046000004</v>
       </c>
       <c r="K39">
-        <v>8561.373712678571</v>
+        <v>10281.9640439052</v>
       </c>
       <c r="L39">
-        <v>291.79785947264</v>
+        <v>625.000000000004</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>966.962905472637</v>
+        <v>1000</v>
       </c>
       <c r="O39">
-        <v>1177.93663030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P39">
-        <v>785.2910868686869</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q39">
         <v>335.3874057</v>
@@ -3794,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1616.70762672375</v>
+        <v>2732.01131484176</v>
       </c>
       <c r="Y39">
         <v>800</v>
@@ -3803,13 +3686,10 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>4601.06308969697</v>
-      </c>
-      <c r="AB39">
-        <v>3674.790946868687</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>4560.81790181818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>54</v>
       </c>
@@ -3829,58 +3709,58 @@
         <v>0.65550003</v>
       </c>
       <c r="G40">
-        <v>4538.57204241394</v>
+        <v>4287.89871546977</v>
       </c>
       <c r="H40">
-        <v>4721.83804969697</v>
+        <v>4677.33046181818</v>
       </c>
       <c r="I40">
-        <v>174.069014265648</v>
+        <v>321.345563599996</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>8609.27227002162</v>
+        <v>10404.6966337954</v>
       </c>
       <c r="L40">
-        <v>147.276549334352</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-4.2632564145606e-12</v>
       </c>
       <c r="N40">
-        <v>963.46392039801</v>
+        <v>1000</v>
       </c>
       <c r="O40">
-        <v>1173.67423030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P40">
-        <v>782.4494868686868</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q40">
         <v>328.1837343</v>
       </c>
       <c r="R40">
-        <v>370.708837209302</v>
+        <v>370.708837209281</v>
       </c>
       <c r="S40">
-        <v>1594.047999999998</v>
+        <v>1594.047999999908</v>
       </c>
       <c r="T40">
-        <v>63.6768552455519</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>191.030565736656</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>9.331415640190241e-11</v>
       </c>
       <c r="W40">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1613.4742114703</v>
+        <v>2726.54729221208</v>
       </c>
       <c r="Y40">
         <v>800</v>
@@ -3889,13 +3769,10 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>4721.83804969697</v>
-      </c>
-      <c r="AB40">
-        <v>3730.205626868687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>4677.33046181818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>55</v>
       </c>
@@ -3915,58 +3792,58 @@
         <v>0.65550003</v>
       </c>
       <c r="G41">
-        <v>3958.63780781667</v>
+        <v>3677.30837795</v>
       </c>
       <c r="H41">
-        <v>4842.61300969697</v>
+        <v>4793.84302181818</v>
       </c>
       <c r="I41">
-        <v>787.191072715648</v>
+        <v>934.467622049996</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>8622.72726981348</v>
+        <v>10378.6848922109</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>477.723450665648</v>
+        <v>624.999999999996</v>
       </c>
       <c r="N41">
-        <v>959.964935323382</v>
+        <v>1000</v>
       </c>
       <c r="O41">
-        <v>1169.411830303029</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P41">
-        <v>779.6078868686858</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q41">
         <v>317.7163766</v>
       </c>
       <c r="R41">
-        <v>373.12</v>
+        <v>373.119999999997</v>
       </c>
       <c r="S41">
-        <v>1604.416</v>
+        <v>1604.415999999987</v>
       </c>
       <c r="T41">
-        <v>89.5407770054285</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>268.622331016286</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1.47792889038101e-11</v>
       </c>
       <c r="W41">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>1653.22914033811</v>
+        <v>2721.09419762763</v>
       </c>
       <c r="Y41">
         <v>800</v>
@@ -3975,13 +3852,10 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>4842.61300969697</v>
-      </c>
-      <c r="AB41">
-        <v>3785.620306868686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>4793.84302181818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>56</v>
       </c>
@@ -4001,43 +3875,43 @@
         <v>1.04989998</v>
       </c>
       <c r="G42">
-        <v>3856.61054996359</v>
+        <v>3544.62501717442</v>
       </c>
       <c r="H42">
-        <v>4962.26956969697</v>
+        <v>4910.35558181818</v>
       </c>
       <c r="I42">
-        <v>1400.31313116565</v>
+        <v>1547.5896805</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8475.45375409535</v>
+        <v>10188.2644957699</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1102.72345066565</v>
+        <v>1250</v>
       </c>
       <c r="N42">
-        <v>957.384039800995</v>
+        <v>999.999999999999</v>
       </c>
       <c r="O42">
-        <v>1166.26783030303</v>
+        <v>1218.181818181817</v>
       </c>
       <c r="P42">
-        <v>777.5118868686867</v>
+        <v>812.1212121212111</v>
       </c>
       <c r="Q42">
         <v>307.2490189</v>
       </c>
       <c r="R42">
-        <v>375.531162790698</v>
+        <v>259.252093023256</v>
       </c>
       <c r="S42">
-        <v>1614.784000000001</v>
+        <v>1114.784000000001</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4046,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>1710.3627065361</v>
+        <v>2715.65200923237</v>
       </c>
       <c r="Y42">
         <v>800</v>
@@ -4061,13 +3935,10 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>4962.26956969697</v>
-      </c>
-      <c r="AB42">
-        <v>3841.780586868687</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>4910.35558181818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>57</v>
       </c>
@@ -4087,10 +3958,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G43">
-        <v>3680.25233684517</v>
+        <v>3603.11262874767</v>
       </c>
       <c r="H43">
-        <v>5103.71812969697</v>
+        <v>5026.86814181818</v>
       </c>
       <c r="I43">
         <v>1542.79416195</v>
@@ -4099,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>8164.074737956</v>
+        <v>9833.846466109409</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4108,22 +3979,22 @@
         <v>1250</v>
       </c>
       <c r="N43">
-        <v>936.914189054726</v>
+        <v>1000</v>
       </c>
       <c r="O43">
-        <v>1141.33183030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P43">
-        <v>760.8878868686865</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q43">
         <v>302.9468869</v>
       </c>
       <c r="R43">
-        <v>276.15303604752</v>
+        <v>262.768372093023</v>
       </c>
       <c r="S43">
-        <v>1187.458055004336</v>
+        <v>1129.903999999999</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4132,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>442.445944995663</v>
+        <v>500</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>1706.94198112303</v>
+        <v>2571.33181632502</v>
       </c>
       <c r="Y43">
         <v>800</v>
@@ -4147,13 +4018,10 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>5103.71812969697</v>
-      </c>
-      <c r="AB43">
-        <v>3883.412866868687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>5026.86814181818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>58</v>
       </c>
@@ -4173,10 +4041,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G44">
-        <v>3738.50017258593</v>
+        <v>3661.60024042093</v>
       </c>
       <c r="H44">
-        <v>5089.62616969697</v>
+        <v>5020.24018181818</v>
       </c>
       <c r="I44">
         <v>1537.9986433</v>
@@ -4185,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>7814.71718269005</v>
+        <v>9480.31448152309</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4194,22 +4062,22 @@
         <v>1250</v>
       </c>
       <c r="N44">
-        <v>943.041353233829</v>
+        <v>1000</v>
       </c>
       <c r="O44">
-        <v>1148.795830303028</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P44">
-        <v>765.8638868686853</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q44">
         <v>298.6447548</v>
       </c>
       <c r="R44">
-        <v>285.276351542628</v>
+        <v>266.284651162791</v>
       </c>
       <c r="S44">
-        <v>1226.6883116333</v>
+        <v>1145.024000000001</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4218,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>418.3356883667</v>
+        <v>500</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>1580.6264457731</v>
+        <v>2427.30026380348</v>
       </c>
       <c r="Y44">
         <v>800</v>
@@ -4233,13 +4101,10 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>5089.62616969697</v>
-      </c>
-      <c r="AB44">
-        <v>3885.074886868686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>5020.24018181818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>59</v>
       </c>
@@ -4259,10 +4124,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G45">
-        <v>3915.10249013262</v>
+        <v>3839.27326011512</v>
       </c>
       <c r="H45">
-        <v>5086.68780969697</v>
+        <v>5013.61222181818</v>
       </c>
       <c r="I45">
         <v>1516.58460035</v>
@@ -4271,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>7466.23302131228</v>
+        <v>9127.66632689823</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4280,22 +4145,22 @@
         <v>1250</v>
       </c>
       <c r="N45">
-        <v>940.012577114427</v>
+        <v>999.999999999996</v>
       </c>
       <c r="O45">
-        <v>1145.106230303029</v>
+        <v>1218.181818181813</v>
       </c>
       <c r="P45">
-        <v>763.4041535353526</v>
+        <v>812.1212121212088</v>
       </c>
       <c r="Q45">
         <v>275.6811435</v>
       </c>
       <c r="R45">
-        <v>287.333016759093</v>
+        <v>272.245581395349</v>
       </c>
       <c r="S45">
-        <v>1235.5319720641</v>
+        <v>1170.656000000001</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4304,13 +4169,13 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>435.124027935901</v>
+        <v>500</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>1461.26083500191</v>
+        <v>2283.55677438698</v>
       </c>
       <c r="Y45">
         <v>800</v>
@@ -4319,13 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>5086.68780969697</v>
-      </c>
-      <c r="AB45">
-        <v>3879.301173535353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>5013.61222181818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>60</v>
       </c>
@@ -4345,10 +4207,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G46">
-        <v>3991.7048077743</v>
+        <v>3916.9462799093</v>
       </c>
       <c r="H46">
-        <v>5123.74944969697</v>
+        <v>5006.98426181818</v>
       </c>
       <c r="I46">
         <v>1495.1705573</v>
@@ -4357,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>7118.62007033794</v>
+        <v>8775.89979265993</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4366,13 +4228,13 @@
         <v>1250</v>
       </c>
       <c r="N46">
-        <v>925.241472135002</v>
+        <v>1000</v>
       </c>
       <c r="O46">
-        <v>1127.112338782639</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P46">
-        <v>751.4082258550925</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q46">
         <v>252.7175321</v>
@@ -4396,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>1337.47052779416</v>
+        <v>2140.10077194932</v>
       </c>
       <c r="Y46">
         <v>800</v>
@@ -4405,13 +4267,10 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>5123.74944969697</v>
-      </c>
-      <c r="AB46">
-        <v>3863.991265855093</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>5006.98426181818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>61</v>
       </c>
@@ -4431,10 +4290,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G47">
-        <v>4062.98453291436</v>
+        <v>3989.02088899186</v>
       </c>
       <c r="H47">
-        <v>5184.71028969697</v>
+        <v>5000.35630181818</v>
       </c>
       <c r="I47">
         <v>1479.27287845</v>
@@ -4443,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>6771.87615174105</v>
+        <v>8425.01267475723</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4452,13 +4311,13 @@
         <v>1250</v>
       </c>
       <c r="N47">
-        <v>926.036356077501</v>
+        <v>1000</v>
       </c>
       <c r="O47">
-        <v>1128.080651948955</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P47">
-        <v>752.0537679659703</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q47">
         <v>236.1373073</v>
@@ -4482,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1195.90669784968</v>
+        <v>1996.93168151653</v>
       </c>
       <c r="Y47">
         <v>800</v>
@@ -4491,13 +4350,10 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>5184.71028969697</v>
-      </c>
-      <c r="AB47">
-        <v>3861.32282796597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>5000.35630181818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -4517,10 +4373,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G48">
-        <v>4134.26425814942</v>
+        <v>4061.09549817442</v>
       </c>
       <c r="H48">
-        <v>5185.67112969697</v>
+        <v>4993.72834181818</v>
       </c>
       <c r="I48">
         <v>1463.3751995</v>
@@ -4529,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>6425.99909294064</v>
+        <v>8075.00277464928</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4538,13 +4394,13 @@
         <v>1250</v>
       </c>
       <c r="N48">
-        <v>926.831240024999</v>
+        <v>999.999999999999</v>
       </c>
       <c r="O48">
-        <v>1129.048965121362</v>
+        <v>1218.181818181817</v>
       </c>
       <c r="P48">
-        <v>752.6993100809082</v>
+        <v>812.1212121212111</v>
       </c>
       <c r="Q48">
         <v>219.5570824</v>
@@ -4568,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1054.62599556509</v>
+        <v>1854.04892926461</v>
       </c>
       <c r="Y48">
         <v>800</v>
@@ -4577,13 +4433,10 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>5185.67112969697</v>
-      </c>
-      <c r="AB48">
-        <v>3858.654390080908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>4993.72834181818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -4603,10 +4456,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G49">
-        <v>4090.43587001959</v>
+        <v>4017.91641642209</v>
       </c>
       <c r="H49">
-        <v>5171.46876969697</v>
+        <v>4987.10038181818</v>
       </c>
       <c r="I49">
         <v>1450.38907195</v>
@@ -4615,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>6080.98672678724</v>
+        <v>7725.86789929161</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4624,13 +4477,13 @@
         <v>1250</v>
       </c>
       <c r="N49">
-        <v>927.480546402503</v>
+        <v>1000</v>
       </c>
       <c r="O49">
-        <v>1129.839938344867</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P49">
-        <v>753.2266255632447</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q49">
         <v>205.6733258</v>
@@ -4654,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>913.627854685072</v>
+        <v>1711.45194251719</v>
       </c>
       <c r="Y49">
         <v>800</v>
@@ -4663,13 +4516,10 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>5171.46876969697</v>
-      </c>
-      <c r="AB49">
-        <v>3855.867725563245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+        <v>4987.10038181818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -4689,10 +4539,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G50">
-        <v>4046.60748198477</v>
+        <v>3974.73733476977</v>
       </c>
       <c r="H50">
-        <v>5157.26640969697</v>
+        <v>4980.47242181818</v>
       </c>
       <c r="I50">
         <v>1437.4029443</v>
@@ -4701,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5736.83689154922</v>
+        <v>7377.60586112233</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4710,13 +4560,13 @@
         <v>1250</v>
       </c>
       <c r="N50">
-        <v>928.129852784998</v>
+        <v>999.999999999998</v>
       </c>
       <c r="O50">
-        <v>1130.630911574452</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="P50">
-        <v>753.7539410496346</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="Q50">
         <v>191.7895691</v>
@@ -4740,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>772.9117100868129</v>
+        <v>1569.14014974327</v>
       </c>
       <c r="Y50">
         <v>800</v>
@@ -4749,13 +4599,10 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>5157.26640969697</v>
-      </c>
-      <c r="AB50">
-        <v>3853.081061049634</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>4980.47242181818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>65</v>
       </c>
@@ -4775,10 +4622,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G51">
-        <v>4006.05946504785</v>
+        <v>3935.01682734535</v>
       </c>
       <c r="H51">
-        <v>5082.93444969697</v>
+        <v>4973.84446181818</v>
       </c>
       <c r="I51">
         <v>1420.85275405</v>
@@ -4787,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>5393.54743089929</v>
+        <v>7030.21447804847</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4796,22 +4643,22 @@
         <v>1250</v>
       </c>
       <c r="N51">
-        <v>1000</v>
+        <v>999.999999999999</v>
       </c>
       <c r="O51">
-        <v>1218.181818181818</v>
+        <v>1218.181818181817</v>
       </c>
       <c r="P51">
-        <v>812.121212121212</v>
+        <v>812.1212121212111</v>
       </c>
       <c r="Q51">
         <v>174.74248</v>
       </c>
       <c r="R51">
-        <v>339.91639914081</v>
+        <v>272.256744186047</v>
       </c>
       <c r="S51">
-        <v>1461.640516305483</v>
+        <v>1170.704000000002</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4820,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>209.063483694519</v>
+        <v>500</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>632.476997777751</v>
+        <v>1427.11298055489</v>
       </c>
       <c r="Y51">
         <v>800</v>
@@ -4835,13 +4682,10 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>5082.93444969697</v>
-      </c>
-      <c r="AB51">
-        <v>3908.134352121212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>4973.84446181818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>66</v>
       </c>
@@ -4861,10 +4705,10 @@
         <v>1.04989998</v>
       </c>
       <c r="G52">
-        <v>3965.51144801593</v>
+        <v>3895.29631982093</v>
       </c>
       <c r="H52">
-        <v>5068.60248969697</v>
+        <v>4967.21650181818</v>
       </c>
       <c r="I52">
         <v>1404.3025639</v>
@@ -4873,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>5051.11619390099</v>
+        <v>6683.6915734323</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4894,10 +4738,10 @@
         <v>157.695391</v>
       </c>
       <c r="R52">
-        <v>333.156201824695</v>
+        <v>266.284651162791</v>
       </c>
       <c r="S52">
-        <v>1432.571667846189</v>
+        <v>1145.024000000001</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4906,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>212.45233215381</v>
+        <v>500</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>573.138853867051</v>
+        <v>1285.36986570489</v>
       </c>
       <c r="Y52">
         <v>800</v>
@@ -4921,13 +4765,10 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>5068.60248969697</v>
-      </c>
-      <c r="AB52">
-        <v>3904.820372121212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>4967.21650181818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>67</v>
       </c>
@@ -4947,25 +4788,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G53">
-        <v>3510.31192041651</v>
+        <v>2847.56559064651</v>
       </c>
       <c r="H53">
-        <v>5058.95772969697</v>
+        <v>4960.58854181818</v>
       </c>
       <c r="I53">
-        <v>798.3711735077341</v>
+        <v>1379.9265954</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>4709.54103499519</v>
+        <v>6338.03497607766</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>668.4445781077339</v>
+        <v>1250</v>
       </c>
       <c r="N53">
         <v>1000</v>
@@ -4980,10 +4821,10 @@
         <v>133.7107868</v>
       </c>
       <c r="R53">
-        <v>327.317232308804</v>
+        <v>249.992558139535</v>
       </c>
       <c r="S53">
-        <v>1407.464098927857</v>
+        <v>1074.968000000001</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4992,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>167.503901072145</v>
+        <v>500</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>512.9780394499249</v>
+        <v>1143.9102370846</v>
       </c>
       <c r="Y53">
         <v>800</v>
@@ -5007,13 +4848,10 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>5058.95772969697</v>
-      </c>
-      <c r="AB53">
-        <v>3901.506392121212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+        <v>4960.58854181818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>68</v>
       </c>
@@ -5033,34 +4871,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G54">
-        <v>3877.20541607291</v>
+        <v>3246.92788472791</v>
       </c>
       <c r="H54">
-        <v>5013.31296969697</v>
+        <v>4953.96058181818</v>
       </c>
       <c r="I54">
-        <v>148.995205007734</v>
+        <v>730.550626899996</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>4521.86071448461</v>
+        <v>5993.24252021642</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>43.4445781077335</v>
+        <v>624.999999999996</v>
       </c>
       <c r="N54">
-        <v>951.277890547264</v>
+        <v>1000</v>
       </c>
       <c r="O54">
-        <v>1158.82943030303</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P54">
-        <v>772.5529535353536</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q54">
         <v>109.7261826</v>
@@ -5084,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>465.423221962096</v>
+        <v>1002.73352772154</v>
       </c>
       <c r="Y54">
         <v>800</v>
@@ -5093,13 +4931,10 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>5013.31296969697</v>
-      </c>
-      <c r="AB54">
-        <v>3858.624153535353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+        <v>4953.96058181818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>69</v>
       </c>
@@ -5119,25 +4954,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G55">
-        <v>4763.54570175545</v>
+        <v>4109.88730038861</v>
       </c>
       <c r="H55">
         <v>4680.31498181818</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>80.4903740299934</v>
       </c>
       <c r="J55">
-        <v>501.065047862266</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>4499.12327898584</v>
+        <v>5813.78572970535</v>
       </c>
       <c r="L55">
-        <v>581.5554218922661</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>-6.59383658785373e-12</v>
       </c>
       <c r="N55">
         <v>1000</v>
@@ -5158,19 +4993,19 @@
         <v>1434.88</v>
       </c>
       <c r="T55">
-        <v>68.6695042615051</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>206.008512784515</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>464.492375518172</v>
+        <v>1000.72806066609</v>
       </c>
       <c r="Y55">
         <v>800</v>
@@ -5181,11 +5016,8 @@
       <c r="AA55">
         <v>4680.31498181818</v>
       </c>
-      <c r="AB55">
-        <v>3761.369612121213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>70</v>
       </c>
@@ -5205,7 +5037,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G56">
-        <v>5660.71881494614</v>
+        <v>4972.8467160593</v>
       </c>
       <c r="H56">
         <v>4406.66938181818</v>
@@ -5214,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1151.12530074227</v>
+        <v>569.569878849999</v>
       </c>
       <c r="K56">
-        <v>4625.99488348779</v>
+        <v>5799.25126538109</v>
       </c>
       <c r="L56">
-        <v>1206.55542189227</v>
+        <v>624.999999999999</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5244,19 +5076,19 @@
         <v>1364.848</v>
       </c>
       <c r="T56">
-        <v>101.253978090069</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>303.761934270208</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>509.915306143651</v>
+        <v>998.726604544762</v>
       </c>
       <c r="Y56">
         <v>800</v>
@@ -5267,11 +5099,8 @@
       <c r="AA56">
         <v>4406.66938181818</v>
       </c>
-      <c r="AB56">
-        <v>3624.546812121213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>71</v>
       </c>
@@ -5291,7 +5120,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G57">
-        <v>5696.68172642164</v>
+        <v>5244.13622445856</v>
       </c>
       <c r="H57">
         <v>4133.02378181818</v>
@@ -5300,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1148.37537450945</v>
+        <v>749.626643063212</v>
       </c>
       <c r="K57">
-        <v>4900.98680897848</v>
+        <v>5933.19063721764</v>
       </c>
       <c r="L57">
-        <v>1191.99778333945</v>
+        <v>793.249051893212</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5330,19 +5159,19 @@
         <v>1328.944000000002</v>
       </c>
       <c r="T57">
-        <v>51.2350195398476</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>153.705058619543</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>577.2419107421611</v>
+        <v>996.729151335673</v>
       </c>
       <c r="Y57">
         <v>800</v>
@@ -5353,11 +5182,8 @@
       <c r="AA57">
         <v>4133.02378181818</v>
       </c>
-      <c r="AB57">
-        <v>3487.724012121213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -5377,7 +5203,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G58">
-        <v>5142.44890463927</v>
+        <v>4722.17668097461</v>
       </c>
       <c r="H58">
         <v>3367.70758181818</v>
@@ -5386,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>535.183086839452</v>
+        <v>136.434355393212</v>
       </c>
       <c r="K58">
-        <v>5171.83381549916</v>
+        <v>6106.75431044923</v>
       </c>
       <c r="L58">
-        <v>566.997783339452</v>
+        <v>168.249051893212</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5410,25 +5236,25 @@
         <v>37.6022046</v>
       </c>
       <c r="R58">
-        <v>300.706976744186</v>
+        <v>300.706976744189</v>
       </c>
       <c r="S58">
-        <v>1293.04</v>
+        <v>1293.040000000012</v>
       </c>
       <c r="T58">
-        <v>20.4985640175463</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>61.4956920526388</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>-1.29602995002642e-11</v>
       </c>
       <c r="W58">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="X58">
-        <v>610.671065110073</v>
+        <v>994.735693033001</v>
       </c>
       <c r="Y58">
         <v>800</v>
@@ -5439,11 +5265,8 @@
       <c r="AA58">
         <v>3367.70758181818</v>
       </c>
-      <c r="AB58">
-        <v>3105.065912121213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -5463,25 +5286,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G59">
-        <v>4499.92024613131</v>
+        <v>4435.82943953605</v>
       </c>
       <c r="H59">
         <v>3143.43253181818</v>
       </c>
       <c r="I59">
-        <v>79.04152131054811</v>
+        <v>143.132327905808</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>5293.56620450353</v>
+        <v>6131.44657449775</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>58.0022166605481</v>
+        <v>122.093023255808</v>
       </c>
       <c r="N59">
         <v>1000</v>
@@ -5514,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>623.286253691697</v>
+        <v>992.746221646939</v>
       </c>
       <c r="Y59">
         <v>800</v>
@@ -5525,11 +5348,8 @@
       <c r="AA59">
         <v>3143.43253181818</v>
       </c>
-      <c r="AB59">
-        <v>2992.928387121214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -5549,25 +5369,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G60">
-        <v>3846.58746888652</v>
+        <v>3814.82427324652</v>
       </c>
       <c r="H60">
         <v>2919.15748181818</v>
       </c>
       <c r="I60">
-        <v>693.266129460548</v>
+        <v>757.356936055808</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>5265.06854776581</v>
+        <v>6083.98821509945</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>683.002216660548</v>
+        <v>747.093023255808</v>
       </c>
       <c r="N60">
         <v>1000</v>
@@ -5582,10 +5402,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R60">
-        <v>257.003426997208</v>
+        <v>287.791627906981</v>
       </c>
       <c r="S60">
-        <v>1105.114736087994</v>
+        <v>1237.504000000018</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5594,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>132.389263912006</v>
+        <v>-1.81898940354586e-11</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>622.039681184314</v>
+        <v>990.760729203645</v>
       </c>
       <c r="Y60">
         <v>800</v>
@@ -5611,11 +5431,8 @@
       <c r="AA60">
         <v>2919.15748181818</v>
       </c>
-      <c r="AB60">
-        <v>2880.790862121212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>75</v>
       </c>
@@ -5635,7 +5452,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G61">
-        <v>3759.23484139041</v>
+        <v>3696.55191137791</v>
       </c>
       <c r="H61">
         <v>2694.88243181818</v>
@@ -5647,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5072.16845095941</v>
+        <v>5872.17481738912</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5656,22 +5473,22 @@
         <v>1250</v>
       </c>
       <c r="N61">
-        <v>1000</v>
+        <v>999.999999999997</v>
       </c>
       <c r="O61">
-        <v>1218.181818181818</v>
+        <v>1218.181818181814</v>
       </c>
       <c r="P61">
-        <v>812.121212121212</v>
+        <v>812.1212121212096</v>
       </c>
       <c r="Q61">
         <v>12.8889432</v>
       </c>
       <c r="R61">
-        <v>207.517563467057</v>
+        <v>147.819534883721</v>
       </c>
       <c r="S61">
-        <v>892.325522908345</v>
+        <v>635.6240000000003</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5680,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>243.298477091653</v>
+        <v>500</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>584.020806290832</v>
+        <v>988.779207745243</v>
       </c>
       <c r="Y61">
         <v>800</v>
@@ -5697,11 +5514,8 @@
       <c r="AA61">
         <v>2694.88243181818</v>
       </c>
-      <c r="AB61">
-        <v>2768.653337121212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>76</v>
       </c>
@@ -5721,7 +5535,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>3765.6322138943</v>
+        <v>3703.2795495093</v>
       </c>
       <c r="H62">
         <v>2470.60738181818</v>
@@ -5733,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>4730.54066141096</v>
+        <v>5528.54701192459</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5754,10 +5568,10 @@
         <v>7.8974229</v>
       </c>
       <c r="R62">
-        <v>183.510001518381</v>
+        <v>124.126511627907</v>
       </c>
       <c r="S62">
-        <v>789.0930065290382</v>
+        <v>533.7440000000001</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5766,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>244.650993470961</v>
+        <v>500</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>515.269854375013</v>
+        <v>847.9127604408631</v>
       </c>
       <c r="Y62">
         <v>800</v>
@@ -5783,11 +5597,8 @@
       <c r="AA62">
         <v>2470.60738181818</v>
       </c>
-      <c r="AB62">
-        <v>2656.515812121212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>77</v>
       </c>
@@ -5807,7 +5618,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>3942.2435847357</v>
+        <v>3880.1271858907</v>
       </c>
       <c r="H63">
         <v>2246.33233181818</v>
@@ -5819,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>4389.76694133638</v>
+        <v>5185.77827597373</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5828,22 +5639,22 @@
         <v>1250</v>
       </c>
       <c r="N63">
-        <v>1000</v>
+        <v>999.999999999998</v>
       </c>
       <c r="O63">
-        <v>1218.181818181818</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="P63">
-        <v>812.121212121212</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="Q63">
         <v>4.6250101</v>
       </c>
       <c r="R63">
-        <v>159.591963462572</v>
+        <v>100.433488372093</v>
       </c>
       <c r="S63">
-        <v>686.2454428890596</v>
+        <v>431.8639999999999</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5852,13 +5663,13 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>245.618557110942</v>
+        <v>500</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63">
-        <v>446.280705368774</v>
+        <v>707.328046031093</v>
       </c>
       <c r="Y63">
         <v>800</v>
@@ -5869,11 +5680,8 @@
       <c r="AA63">
         <v>2246.33233181818</v>
       </c>
-      <c r="AB63">
-        <v>2544.378287121212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>78</v>
       </c>
@@ -5893,7 +5701,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>3764.85495557709</v>
+        <v>3702.97482227209</v>
       </c>
       <c r="H64">
         <v>2022.05728181818</v>
@@ -5905,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4049.84515556199</v>
+        <v>4843.86646186274</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5926,10 +5734,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R64">
-        <v>135.673925406753</v>
+        <v>76.7404651162791</v>
       </c>
       <c r="S64">
-        <v>583.3978792490378</v>
+        <v>329.9840000000001</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5938,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>246.586120750964</v>
+        <v>500</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>377.160766982775</v>
+        <v>567.024501050142</v>
       </c>
       <c r="Y64">
         <v>800</v>
@@ -5955,11 +5763,8 @@
       <c r="AA64">
         <v>2022.05728181818</v>
       </c>
-      <c r="AB64">
-        <v>2432.240762121212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>79</v>
       </c>
@@ -5979,25 +5784,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>3905.59898544783</v>
+        <v>3781.38168112186</v>
       </c>
       <c r="H65">
         <v>1797.78223181818</v>
       </c>
       <c r="I65">
-        <v>1215.30575873821</v>
+        <v>1236.126697225</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>3710.77317425203</v>
+        <v>4502.80942728703</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1229.17906151321</v>
+        <v>1250</v>
       </c>
       <c r="N65">
         <v>1000</v>
@@ -6012,10 +5817,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R65">
-        <v>172.29023255814</v>
+        <v>73.81750318748659</v>
       </c>
       <c r="S65">
-        <v>740.8480000000019</v>
+        <v>317.4152637061923</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -6024,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>423.432736293808</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>307.910300795763</v>
+        <v>427.001563159152</v>
       </c>
       <c r="Y65">
         <v>800</v>
@@ -6041,11 +5846,8 @@
       <c r="AA65">
         <v>1797.78223181818</v>
       </c>
-      <c r="AB65">
-        <v>2320.103237121213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>80</v>
       </c>
@@ -6065,25 +5867,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>4030.63938946285</v>
+        <v>3968.90685304535</v>
       </c>
       <c r="H66">
         <v>1920.43818181818</v>
       </c>
       <c r="I66">
-        <v>1172.9181919325</v>
+        <v>1234.65072835</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>3378.02806723397</v>
+        <v>4162.60503529776</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1188.2674635825</v>
+        <v>1250</v>
       </c>
       <c r="N66">
         <v>1000</v>
@@ -6098,10 +5900,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R66">
-        <v>174.816744186047</v>
+        <v>174.816744186049</v>
       </c>
       <c r="S66">
-        <v>751.712000000002</v>
+        <v>751.7120000000107</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -6110,13 +5912,13 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>-1.02318153949454e-11</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>307.294480194172</v>
+        <v>308.527355506776</v>
       </c>
       <c r="Y66">
         <v>800</v>
@@ -6127,11 +5929,8 @@
       <c r="AA66">
         <v>1920.43818181818</v>
       </c>
-      <c r="AB66">
-        <v>2381.431212121213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>81</v>
       </c>
@@ -6151,25 +5950,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>4134.3560883759</v>
+        <v>4072.67954467965</v>
       </c>
       <c r="H67">
         <v>2024.86738181818</v>
       </c>
       <c r="I67">
-        <v>1171.85433022875</v>
+        <v>1233.530873925</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3056.88103296523</v>
+        <v>3823.25115428847</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1188.32345630375</v>
+        <v>1250</v>
       </c>
       <c r="N67">
         <v>1000</v>
@@ -6184,10 +5983,10 @@
         <v>0.034905725</v>
       </c>
       <c r="R67">
-        <v>177.343255813954</v>
+        <v>177.343255813953</v>
       </c>
       <c r="S67">
-        <v>762.5760000000021</v>
+        <v>762.5759999999979</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -6196,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1.81898940354586e-12</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>306.679891233784</v>
+        <v>307.910300795766</v>
       </c>
       <c r="Y67">
         <v>800</v>
@@ -6213,11 +6012,8 @@
       <c r="AA67">
         <v>2024.86738181818</v>
       </c>
-      <c r="AB67">
-        <v>2433.645812121213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>82</v>
       </c>
@@ -6237,25 +6033,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G68">
-        <v>4288.07278728895</v>
+        <v>4226.45223631395</v>
       </c>
       <c r="H68">
         <v>1741.57258181818</v>
       </c>
       <c r="I68">
-        <v>1170.790468525</v>
+        <v>1232.4110195</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2736.52213135552</v>
+        <v>3484.74565798169</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1188.379449025</v>
+        <v>1250</v>
       </c>
       <c r="N68">
         <v>1000</v>
@@ -6270,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>179.869767441861</v>
+        <v>179.869767441859</v>
       </c>
       <c r="S68">
-        <v>773.4400000000022</v>
+        <v>773.4399999999937</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6282,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>4.88853402202949e-12</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>306.066531451316</v>
+        <v>307.294480194174</v>
       </c>
       <c r="Y68">
         <v>800</v>
@@ -6299,11 +6095,8 @@
       <c r="AA68">
         <v>1741.57258181818</v>
       </c>
-      <c r="AB68">
-        <v>2291.998412121213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>83</v>
       </c>
@@ -6323,25 +6116,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>3891.91725494977</v>
+        <v>3830.34656946977</v>
       </c>
       <c r="H69">
         <v>1758.27778181818</v>
       </c>
       <c r="I69">
-        <v>1169.84302411999</v>
+        <v>1231.4137096</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2416.94939207318</v>
+        <v>3147.08642541568</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1188.42931451999</v>
+        <v>1250</v>
       </c>
       <c r="N69">
         <v>1000</v>
@@ -6356,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>182.628837209301</v>
+        <v>182.628837209306</v>
       </c>
       <c r="S69">
-        <v>785.3039999999943</v>
+        <v>785.3040000000158</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6368,13 +6161,13 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>-2.05773176276125e-11</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69">
-        <v>305.454398388413</v>
+        <v>306.679891233784</v>
       </c>
       <c r="Y69">
         <v>800</v>
@@ -6385,11 +6178,8 @@
       <c r="AA69">
         <v>1758.27778181818</v>
       </c>
-      <c r="AB69">
-        <v>2300.351012121214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28">
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>84</v>
       </c>
@@ -6409,25 +6199,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G70">
-        <v>3991.56953656407</v>
+        <v>3930.04871657907</v>
       </c>
       <c r="H70">
         <v>1834.98298181818</v>
       </c>
       <c r="I70">
-        <v>1168.895579715</v>
+        <v>1230.4163997</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2098.16246214037</v>
+        <v>2810.27134093109</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1188.479180015</v>
+        <v>1250</v>
       </c>
       <c r="N70">
         <v>1000</v>
@@ -6442,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>181.395348837209</v>
+        <v>181.395348837211</v>
       </c>
       <c r="S70">
-        <v>779.9999999999987</v>
+        <v>780.0000000000073</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6454,13 +6244,13 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>-6.93489710101858e-12</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>304.843489591636</v>
+        <v>306.066531451322</v>
       </c>
       <c r="Y70">
         <v>800</v>
@@ -6471,11 +6261,8 @@
       <c r="AA70">
         <v>1834.98298181818</v>
       </c>
-      <c r="AB70">
-        <v>2338.703612121214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>85</v>
       </c>
@@ -6495,25 +6282,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G71">
-        <v>4190.17904141587</v>
+        <v>4128.65320393837</v>
       </c>
       <c r="H71">
         <v>1951.68818181818</v>
       </c>
       <c r="I71">
-        <v>1168.9909120725</v>
+        <v>1230.51674955</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1780.1593770337</v>
+        <v>2474.29829415771</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1188.4741625225</v>
+        <v>1250</v>
       </c>
       <c r="N71">
         <v>1000</v>
@@ -6528,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>180.161860465117</v>
+        <v>180.161860465116</v>
       </c>
       <c r="S71">
-        <v>774.6960000000031</v>
+        <v>774.6959999999988</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6540,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>5.34328137291595e-12</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71">
-        <v>304.233802612453</v>
+        <v>305.454398388421</v>
       </c>
       <c r="Y71">
         <v>800</v>
@@ -6557,11 +6344,8 @@
       <c r="AA71">
         <v>1951.68818181818</v>
       </c>
-      <c r="AB71">
-        <v>2397.056212121213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>86</v>
       </c>
@@ -6581,25 +6365,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G72">
-        <v>3788.78854626768</v>
+        <v>3727.25769129768</v>
       </c>
       <c r="H72">
         <v>1884.39338181819</v>
       </c>
       <c r="I72">
-        <v>1169.08624442999</v>
+        <v>1230.6170994</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1462.95262003256</v>
+        <v>2139.16518000127</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1188.46914502999</v>
+        <v>1250</v>
       </c>
       <c r="N72">
         <v>1000</v>
@@ -6614,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>178.928372093025</v>
+        <v>178.928372093031</v>
       </c>
       <c r="S72">
-        <v>769.3920000000074</v>
+        <v>769.3920000000332</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6626,13 +6410,13 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>-2.52384779741988e-11</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>303.625335007228</v>
+        <v>304.843489591643</v>
       </c>
       <c r="Y72">
         <v>800</v>
@@ -6643,11 +6427,8 @@
       <c r="AA72">
         <v>1884.39338181819</v>
       </c>
-      <c r="AB72">
-        <v>2363.408812121224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>87</v>
       </c>
@@ -6667,25 +6448,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G73">
-        <v>4131.34586572448</v>
+        <v>3476.07040455698</v>
       </c>
       <c r="H73">
         <v>1917.09858181819</v>
       </c>
       <c r="I73">
-        <v>575.233762182498</v>
+        <v>1230.50922334999</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1146.5402003167</v>
+        <v>1804.86989863021</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>594.724538832498</v>
+        <v>1249.99999999999</v>
       </c>
       <c r="N73">
         <v>1000</v>
@@ -6700,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>177.694883720933</v>
+        <v>177.694883720926</v>
       </c>
       <c r="S73">
-        <v>764.0880000000119</v>
+        <v>764.0879999999817</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6712,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>2.97967788009416e-11</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73">
-        <v>303.018084337214</v>
+        <v>304.233802612467</v>
       </c>
       <c r="Y73">
         <v>800</v>
@@ -6729,11 +6510,8 @@
       <c r="AA73">
         <v>1917.09858181819</v>
       </c>
-      <c r="AB73">
-        <v>2379.761412121224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>88</v>
       </c>
@@ -6753,25 +6531,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>4975.91462585313</v>
+        <v>4349.88311781628</v>
       </c>
       <c r="H74">
         <v>1949.8037818182</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>605.401347299991</v>
       </c>
       <c r="J74">
-        <v>20.6301607368491</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>987.167392228404</v>
+        <v>1471.41035546258</v>
       </c>
       <c r="L74">
-        <v>1.03150803684912</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>624.999999999991</v>
       </c>
       <c r="N74">
         <v>1000</v>
@@ -6786,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>176.461395348841</v>
+        <v>176.461395348831</v>
       </c>
       <c r="S74">
-        <v>758.7840000000162</v>
+        <v>758.7839999999733</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6798,13 +6576,13 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>4.1154635255225e-11</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74">
-        <v>302.412048168539</v>
+        <v>303.625335007233</v>
       </c>
       <c r="Y74">
         <v>800</v>
@@ -6815,11 +6593,8 @@
       <c r="AA74">
         <v>1949.8037818182</v>
       </c>
-      <c r="AB74">
-        <v>2396.114012121224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>89</v>
       </c>
@@ -6839,7 +6614,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5310.12313454442</v>
+        <v>5298.46117977559</v>
       </c>
       <c r="H75">
         <v>1982.50898181821</v>
@@ -6848,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>31.133832218836</v>
+        <v>19.47187745</v>
       </c>
       <c r="K75">
-        <v>984.9444569065849</v>
+        <v>1303.2581453634</v>
       </c>
       <c r="L75">
-        <v>11.661954768836</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6872,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>175.227906976749</v>
+        <v>175.227906976754</v>
       </c>
       <c r="S75">
-        <v>753.4800000000207</v>
+        <v>753.4800000000422</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6884,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>-2.23963070311584e-11</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75">
-        <v>301.807224072202</v>
+        <v>303.018084337208</v>
       </c>
       <c r="Y75">
         <v>800</v>
@@ -6901,11 +6676,8 @@
       <c r="AA75">
         <v>1982.50898181821</v>
       </c>
-      <c r="AB75">
-        <v>2412.466612121224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>90</v>
       </c>
@@ -6925,7 +6697,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5633.69452412215</v>
+        <v>5635.72345226121</v>
       </c>
       <c r="H76">
         <v>2135.21418181822</v>
@@ -6934,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>31.0003845872628</v>
+        <v>33.0293127263221</v>
       </c>
       <c r="K76">
-        <v>985.251810021917</v>
+        <v>1300</v>
       </c>
       <c r="L76">
-        <v>11.6552823872628</v>
+        <v>13.6842105263221</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6976,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>301.203609624058</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y76">
         <v>800</v>
@@ -6987,11 +6759,8 @@
       <c r="AA76">
         <v>2135.21418181822</v>
       </c>
-      <c r="AB76">
-        <v>2488.819212121234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>91</v>
       </c>
@@ -7011,7 +6780,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5364.43813435223</v>
+        <v>5259.47277792051</v>
       </c>
       <c r="H77">
         <v>2167.91938181822</v>
@@ -7020,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>138.039157608039</v>
+        <v>33.0738011763196</v>
       </c>
       <c r="K77">
-        <v>985.556810063837</v>
+        <v>1300</v>
       </c>
       <c r="L77">
-        <v>118.649566958039</v>
+        <v>13.6842105263196</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -7062,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>300.60120240481</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y77">
         <v>800</v>
@@ -7073,11 +6842,8 @@
       <c r="AA77">
         <v>2167.91938181822</v>
       </c>
-      <c r="AB77">
-        <v>2505.171812121234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>92</v>
       </c>
@@ -7097,7 +6863,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G78">
-        <v>5528.45547616402</v>
+        <v>4883.22210357981</v>
       </c>
       <c r="H78">
         <v>2100.62458181823</v>
@@ -7106,25 +6872,25 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>255.906811175825</v>
+        <v>33.1182896263157</v>
       </c>
       <c r="K78">
-        <v>1011.27219019121</v>
+        <v>1300</v>
       </c>
       <c r="L78">
-        <v>236.472732075825</v>
+        <v>13.6842105263157</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>579.423686039449</v>
+        <v>1000</v>
       </c>
       <c r="O78">
-        <v>705.8433993571467</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P78">
-        <v>470.5622662380978</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -7136,34 +6902,31 @@
         <v>737.5680000000339</v>
       </c>
       <c r="T78">
-        <v>1.77955911823654</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>5.33867735470962</v>
+        <v>0</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>300</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y78">
         <v>800</v>
       </c>
       <c r="Z78">
-        <v>512.338418824673</v>
+        <v>0</v>
       </c>
       <c r="AA78">
         <v>2100.62458181823</v>
       </c>
-      <c r="AB78">
-        <v>2129.965466238118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>93</v>
       </c>
@@ -7183,34 +6946,34 @@
         <v>0.65550003</v>
       </c>
       <c r="G79">
-        <v>4969.29955458385</v>
+        <v>4981.95921993912</v>
       </c>
       <c r="H79">
         <v>2233.32978181824</v>
       </c>
       <c r="I79">
-        <v>369.060909674175</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>33.1505687763221</v>
       </c>
       <c r="K79">
-        <v>1064.90628358374</v>
+        <v>1300</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>13.6842105263221</v>
       </c>
       <c r="M79">
-        <v>388.527267924175</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>610.448186904774</v>
+        <v>1000</v>
       </c>
       <c r="O79">
-        <v>743.6368822294519</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P79">
-        <v>495.7579214863013</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -7240,16 +7003,13 @@
         <v>800</v>
       </c>
       <c r="Z79">
-        <v>474.544935952368</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>2233.32978181824</v>
       </c>
-      <c r="AB79">
-        <v>2221.513721486331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>94</v>
       </c>
@@ -7269,55 +7029,55 @@
         <v>0.65550003</v>
       </c>
       <c r="G80">
-        <v>4422.2871939021</v>
+        <v>5030.69633629842</v>
       </c>
       <c r="H80">
         <v>2366.03498181825</v>
       </c>
       <c r="I80">
-        <v>994.028630524175</v>
+        <v>43.7396637015922</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>1013.52726792418</v>
+        <v>63.2383011015922</v>
       </c>
       <c r="N80">
-        <v>459.104640690014</v>
+        <v>1000</v>
       </c>
       <c r="O80">
-        <v>559.2729259314714</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P80">
-        <v>372.8486172876476</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>52.7813953488465</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>226.9600000000399</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>242.320000000013</v>
       </c>
       <c r="U80">
         <v>0</v>
       </c>
       <c r="V80">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>726.960000000039</v>
       </c>
       <c r="X80">
         <v>300</v>
@@ -7326,16 +7086,13 @@
         <v>800</v>
       </c>
       <c r="Z80">
-        <v>658.908892250349</v>
+        <v>0</v>
       </c>
       <c r="AA80">
         <v>2366.03498181825</v>
       </c>
-      <c r="AB80">
-        <v>2164.957017287688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28">
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>95</v>
       </c>
@@ -7355,43 +7112,43 @@
         <v>0.65550003</v>
       </c>
       <c r="G81">
-        <v>3755.14900785559</v>
+        <v>5065.71696298141</v>
       </c>
       <c r="H81">
         <v>2398.74018181826</v>
       </c>
       <c r="I81">
-        <v>1230.5013626</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>19.4986374</v>
       </c>
       <c r="K81">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>938.474931870002</v>
+        <v>999.999999999996</v>
       </c>
       <c r="O81">
-        <v>1143.233098823457</v>
+        <v>1218.181818181813</v>
       </c>
       <c r="P81">
-        <v>762.1553992156379</v>
+        <v>812.1212121212088</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>51.5479069767544</v>
+        <v>167.826976744196</v>
       </c>
       <c r="S81">
-        <v>221.6560000000439</v>
+        <v>721.6560000000428</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7400,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -7412,13 +7169,10 @@
         <v>800</v>
       </c>
       <c r="Z81">
-        <v>74.94871935836321</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>2398.74018181826</v>
-      </c>
-      <c r="AB81">
-        <v>2570.616399215678</v>
       </c>
     </row>
   </sheetData>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -555,7 +555,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>6697.82321087163</v>
+        <v>6704.94343638256</v>
       </c>
       <c r="H2">
         <v>3494.49850909091</v>
@@ -576,40 +576,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O2">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P2">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q2">
         <v>2.77500605</v>
       </c>
       <c r="R2">
-        <v>178.981088006495</v>
+        <v>186.535703933001</v>
       </c>
       <c r="S2">
-        <v>769.6186784279286</v>
+        <v>802.1035269119043</v>
       </c>
       <c r="T2">
-        <v>169.064633431132</v>
+        <v>169.064633431341</v>
       </c>
       <c r="U2">
-        <v>496.882643206173</v>
+        <v>496.882643205929</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>10.311257087223</v>
+        <v>10.31125708809401</v>
       </c>
       <c r="X2">
         <v>1111.79846646574</v>
       </c>
       <c r="Y2">
-        <v>601.3500644848481</v>
+        <v>568.865216</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>6706.95651624373</v>
+        <v>6714.07674175465</v>
       </c>
       <c r="H3">
         <v>3521.49850909091</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O3">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P3">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q3">
         <v>5.9601545</v>
       </c>
       <c r="R3">
-        <v>180.839519887245</v>
+        <v>188.394135813954</v>
       </c>
       <c r="S3">
-        <v>777.6099355151534</v>
+        <v>810.0947840000022</v>
       </c>
       <c r="T3">
-        <v>166.666666666668</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U3">
-        <v>500.000000000004</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X3">
-        <v>1221.3734642542</v>
+        <v>1221.37346425415</v>
       </c>
       <c r="Y3">
-        <v>605.670064484848</v>
+        <v>573.1852160000001</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>6042.37261231349</v>
+        <v>6049.49283782442</v>
       </c>
       <c r="H4">
         <v>3528.49850909091</v>
@@ -742,40 +742,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O4">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P4">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q4">
         <v>9.14530295</v>
       </c>
       <c r="R4">
-        <v>157.788357096547</v>
+        <v>165.342973023256</v>
       </c>
       <c r="S4">
-        <v>678.4899355151521</v>
+        <v>710.9747840000008</v>
       </c>
       <c r="T4">
-        <v>166.666666666661</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U4">
-        <v>499.999999999983</v>
+        <v>500.000000000003</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="X4">
-        <v>1331.43071732569</v>
+        <v>1331.43071732564</v>
       </c>
       <c r="Y4">
-        <v>606.790064484848</v>
+        <v>574.3052160000001</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>5999.69853750094</v>
+        <v>6006.81876301186</v>
       </c>
       <c r="H5">
         <v>3475.49850909091</v>
@@ -825,28 +825,28 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O5">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P5">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q5">
         <v>13.94484173</v>
       </c>
       <c r="R5">
-        <v>160.225566398873</v>
+        <v>167.780182325581</v>
       </c>
       <c r="S5">
-        <v>688.9699355151539</v>
+        <v>721.4547839999982</v>
       </c>
       <c r="T5">
-        <v>166.666666666668</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U5">
-        <v>500.000000000005</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>-1.023181539494544e-12</v>
       </c>
       <c r="X5">
-        <v>1441.26785589104</v>
+        <v>1441.26785589099</v>
       </c>
       <c r="Y5">
-        <v>598.3100644848481</v>
+        <v>565.8252160000001</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>5954.21888130303</v>
+        <v>5961.33910681395</v>
       </c>
       <c r="H6">
         <v>3502.49850909091</v>
@@ -908,40 +908,40 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O6">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P6">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q6">
         <v>18.7443805</v>
       </c>
       <c r="R6">
-        <v>159.686031515152</v>
+        <v>167.24064744186</v>
       </c>
       <c r="S6">
-        <v>686.6499355151535</v>
+        <v>719.134783999998</v>
       </c>
       <c r="T6">
-        <v>166.666666666665</v>
+        <v>166.666666666662</v>
       </c>
       <c r="U6">
-        <v>499.999999999996</v>
+        <v>499.999999999987</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-1.023181539494544e-12</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="X6">
-        <v>1550.88532017926</v>
+        <v>1550.8853201792</v>
       </c>
       <c r="Y6">
-        <v>602.630064484848</v>
+        <v>570.145216</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>5704.63007261931</v>
+        <v>5711.75029813023</v>
       </c>
       <c r="H7">
         <v>3429.49850909091</v>
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O7">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P7">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q7">
         <v>26.91668605</v>
       </c>
       <c r="R7">
-        <v>162.867426863989</v>
+        <v>170.422042790698</v>
       </c>
       <c r="S7">
-        <v>700.3299355151527</v>
+        <v>732.8147840000013</v>
       </c>
       <c r="T7">
-        <v>166.666666666667</v>
+        <v>166.666666666663</v>
       </c>
       <c r="U7">
-        <v>500</v>
+        <v>499.999999999989</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1660.2835495389</v>
+        <v>1660.28354953884</v>
       </c>
       <c r="Y7">
-        <v>590.950064484848</v>
+        <v>558.4652159999999</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>5451.5342871914</v>
+        <v>5458.65451270233</v>
       </c>
       <c r="H8">
         <v>3456.49850909091</v>
@@ -1074,40 +1074,40 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O8">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P8">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q8">
         <v>35.0889916</v>
       </c>
       <c r="R8">
-        <v>162.327891980268</v>
+        <v>169.882507906977</v>
       </c>
       <c r="S8">
-        <v>698.0099355151524</v>
+        <v>730.494784000001</v>
       </c>
       <c r="T8">
-        <v>166.666666666663</v>
+        <v>166.66666666667</v>
       </c>
       <c r="U8">
-        <v>499.99999999999</v>
+        <v>500.00000000001</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1769.46298243982</v>
+        <v>1769.46298243976</v>
       </c>
       <c r="Y8">
-        <v>595.270064484848</v>
+        <v>562.7852160000001</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>5601.57113385768</v>
+        <v>5608.6913593686</v>
       </c>
       <c r="H9">
         <v>3383.49850909091</v>
@@ -1157,40 +1157,40 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O9">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P9">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q9">
         <v>47.99538765</v>
       </c>
       <c r="R9">
-        <v>165.509287329105</v>
+        <v>173.063903255814</v>
       </c>
       <c r="S9">
-        <v>711.6899355151515</v>
+        <v>744.1747840000003</v>
       </c>
       <c r="T9">
-        <v>166.666666666665</v>
+        <v>166.666666666662</v>
       </c>
       <c r="U9">
-        <v>499.999999999994</v>
+        <v>499.999999999986</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1878.42405647494</v>
+        <v>1878.42405647489</v>
       </c>
       <c r="Y9">
-        <v>583.590064484848</v>
+        <v>551.105216</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>5748.10100377977</v>
+        <v>5755.2212292907</v>
       </c>
       <c r="H10">
         <v>3410.49850909091</v>
@@ -1240,40 +1240,40 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O10">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P10">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q10">
         <v>60.9017837</v>
       </c>
       <c r="R10">
-        <v>164.969752445384</v>
+        <v>172.524368372093</v>
       </c>
       <c r="S10">
-        <v>709.3699355151512</v>
+        <v>741.8547839999999</v>
       </c>
       <c r="T10">
-        <v>166.666666666661</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U10">
-        <v>499.999999999984</v>
+        <v>499.999999999995</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1987.16720836199</v>
+        <v>1987.16720836193</v>
       </c>
       <c r="Y10">
-        <v>587.910064484848</v>
+        <v>555.425216</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>5642.35805486605</v>
+        <v>5649.47828037698</v>
       </c>
       <c r="H11">
         <v>3337.49850909091</v>
@@ -1323,40 +1323,40 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O11">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P11">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q11">
         <v>74.39721408</v>
       </c>
       <c r="R11">
-        <v>168.151147794221</v>
+        <v>175.70576372093</v>
       </c>
       <c r="S11">
-        <v>723.0499355151503</v>
+        <v>755.534783999999</v>
       </c>
       <c r="T11">
-        <v>166.666666666663</v>
+        <v>166.66666666667</v>
       </c>
       <c r="U11">
-        <v>499.999999999989</v>
+        <v>500.000000000009</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X11">
-        <v>2095.69287394526</v>
+        <v>2095.69287394521</v>
       </c>
       <c r="Y11">
-        <v>576.2300644848481</v>
+        <v>543.745216</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>5536.61510596233</v>
+        <v>5543.73533147326</v>
       </c>
       <c r="H12">
         <v>3264.49850909091</v>
@@ -1406,40 +1406,40 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O12">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P12">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q12">
         <v>87.89264445000001</v>
       </c>
       <c r="R12">
-        <v>171.332543143059</v>
+        <v>178.887159069767</v>
       </c>
       <c r="S12">
-        <v>736.7299355151537</v>
+        <v>769.2147839999981</v>
       </c>
       <c r="T12">
-        <v>166.666666666664</v>
+        <v>166.66666666667</v>
       </c>
       <c r="U12">
-        <v>499.999999999991</v>
+        <v>500.000000000011</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1.023181539494544e-12</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X12">
-        <v>2204.00148819737</v>
+        <v>2204.00148819732</v>
       </c>
       <c r="Y12">
-        <v>564.550064484848</v>
+        <v>532.065216</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>5508.32051758443</v>
+        <v>5515.44074309535</v>
       </c>
       <c r="H13">
         <v>3291.49850909091</v>
@@ -1489,40 +1489,40 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O13">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P13">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q13">
         <v>110.5464674</v>
       </c>
       <c r="R13">
-        <v>170.793008259338</v>
+        <v>178.347624186047</v>
       </c>
       <c r="S13">
-        <v>734.4099355151534</v>
+        <v>766.8947840000021</v>
       </c>
       <c r="T13">
-        <v>166.66666666667</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U13">
-        <v>500.000000000009</v>
+        <v>500.000000000001</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2312.09348522097</v>
+        <v>2312.09348522093</v>
       </c>
       <c r="Y13">
-        <v>568.8700644848481</v>
+        <v>536.385216</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>5480.02592915652</v>
+        <v>5487.14615466744</v>
       </c>
       <c r="H14">
         <v>3318.49850909091</v>
@@ -1572,40 +1572,40 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O14">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P14">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q14">
         <v>133.2002904</v>
       </c>
       <c r="R14">
-        <v>170.253473375617</v>
+        <v>177.808089302326</v>
       </c>
       <c r="S14">
-        <v>732.0899355151531</v>
+        <v>764.5747840000018</v>
       </c>
       <c r="T14">
-        <v>166.666666666667</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U14">
-        <v>500.000000000002</v>
+        <v>499.999999999994</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>-9.663381206337363e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X14">
-        <v>2419.96929825053</v>
+        <v>2419.96929825048</v>
       </c>
       <c r="Y14">
-        <v>573.190064484848</v>
+        <v>540.7052160000001</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>5739.50352242164</v>
+        <v>5746.62374793256</v>
       </c>
       <c r="H15">
         <v>3245.49850909091</v>
@@ -1655,40 +1655,40 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O15">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P15">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q15">
         <v>160.9459877</v>
       </c>
       <c r="R15">
-        <v>150.179054770966</v>
+        <v>157.733670697674</v>
       </c>
       <c r="S15">
-        <v>645.7699355151537</v>
+        <v>678.2547839999982</v>
       </c>
       <c r="T15">
-        <v>166.666666666671</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U15">
-        <v>500.000000000012</v>
+        <v>500.000000000003</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1.023181539494544e-12</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="X15">
-        <v>2527.62935965403</v>
+        <v>2527.62935965398</v>
       </c>
       <c r="Y15">
-        <v>561.510064484848</v>
+        <v>529.025216</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>6019.89274359373</v>
+        <v>6027.01296910465</v>
       </c>
       <c r="H16">
         <v>3272.49850909091</v>
@@ -1738,40 +1738,40 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O16">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P16">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q16">
         <v>188.691685</v>
       </c>
       <c r="R16">
-        <v>149.639519887245</v>
+        <v>157.194135813953</v>
       </c>
       <c r="S16">
-        <v>643.4499355151535</v>
+        <v>675.9347839999979</v>
       </c>
       <c r="T16">
-        <v>166.666666666668</v>
+        <v>166.666666666665</v>
       </c>
       <c r="U16">
-        <v>500.000000000004</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X16">
-        <v>2635.07410093472</v>
+        <v>2635.07410093468</v>
       </c>
       <c r="Y16">
-        <v>565.8300644848481</v>
+        <v>533.3452160000001</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>6103.27220551582</v>
+        <v>6110.39243102674</v>
       </c>
       <c r="H17">
         <v>3299.49850909091</v>
@@ -1821,40 +1821,40 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>49.9999999999993</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="O17">
-        <v>60.90909090909004</v>
+        <v>60.90909090909017</v>
       </c>
       <c r="P17">
-        <v>40.60606060606003</v>
+        <v>40.60606060606011</v>
       </c>
       <c r="Q17">
         <v>203.3171886</v>
       </c>
       <c r="R17">
-        <v>149.099985003524</v>
+        <v>156.654600930233</v>
       </c>
       <c r="S17">
-        <v>641.1299355151532</v>
+        <v>673.6147840000018</v>
       </c>
       <c r="T17">
-        <v>166.666666666665</v>
+        <v>166.666666666663</v>
       </c>
       <c r="U17">
-        <v>499.999999999996</v>
+        <v>499.999999999988</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>-1.023181539494544e-12</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="X17">
-        <v>2742.30395273286</v>
+        <v>2742.30395273281</v>
       </c>
       <c r="Y17">
-        <v>570.150064484848</v>
+        <v>537.665216</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G18">
-        <v>4837.21865260233</v>
+        <v>4897.27886979302</v>
       </c>
       <c r="H18">
         <v>2617.4076</v>
@@ -1904,22 +1904,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>550.000000000001</v>
+        <v>550</v>
       </c>
       <c r="O18">
-        <v>670.0000000000011</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P18">
-        <v>446.6666666666674</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q18">
         <v>217.9426921</v>
       </c>
       <c r="R18">
-        <v>96.1116279069811</v>
+        <v>159.835996279067</v>
       </c>
       <c r="S18">
-        <v>413.2800000000187</v>
+        <v>687.294783999988</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>-1.89288584806491e-11</v>
+        <v>1.14656448277877e-11</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2849.31934482739</v>
+        <v>2849.31934482734</v>
       </c>
       <c r="Y18">
-        <v>800</v>
+        <v>525.985216</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G19">
-        <v>3750.72498504535</v>
+        <v>3813.3452952593</v>
       </c>
       <c r="H19">
         <v>1996.22578181818</v>
@@ -1999,10 +1999,10 @@
         <v>238.2141986</v>
       </c>
       <c r="R19">
-        <v>96.5767441860494</v>
+        <v>163.017391627907</v>
       </c>
       <c r="S19">
-        <v>415.2800000000124</v>
+        <v>700.974784</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>-1.23918653116561e-11</v>
+        <v>8.69417465447456e-14</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>2843.62070613774</v>
+        <v>2843.62070613768</v>
       </c>
       <c r="Y19">
-        <v>800</v>
+        <v>514.3052160000001</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G20">
-        <v>3764.07773619302</v>
+        <v>3829.25813943023</v>
       </c>
       <c r="H20">
         <v>1923.22578181818</v>
       </c>
       <c r="I20">
-        <v>212.662635900109</v>
+        <v>212.662635900001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.09309894469334e-10</v>
+        <v>6.25277607468888e-13</v>
       </c>
       <c r="N20">
         <v>1000</v>
@@ -2082,10 +2082,10 @@
         <v>258.485705</v>
       </c>
       <c r="R20">
-        <v>120.70511627907</v>
+        <v>189.862042790698</v>
       </c>
       <c r="S20">
-        <v>519.0320000000009</v>
+        <v>816.4067840000014</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2837.93346472547</v>
+        <v>2837.9334647254</v>
       </c>
       <c r="Y20">
-        <v>800</v>
+        <v>502.625216</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G21">
-        <v>4041.19542365814</v>
+        <v>4108.9359199186</v>
       </c>
       <c r="H21">
         <v>1850.22578181818</v>
       </c>
       <c r="I21">
-        <v>220.670808899998</v>
+        <v>220.670808900003</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1.93267624126747e-12</v>
+        <v>3.06954461848363e-12</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -2165,10 +2165,10 @@
         <v>265.5497535</v>
       </c>
       <c r="R21">
-        <v>135.110697674419</v>
+        <v>206.983903255814</v>
       </c>
       <c r="S21">
-        <v>580.9760000000016</v>
+        <v>890.0307840000002</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2832.25759779602</v>
+        <v>2832.25759779595</v>
       </c>
       <c r="Y21">
-        <v>800</v>
+        <v>490.945216</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G22">
-        <v>4098.31311122326</v>
+        <v>4161.5997470186</v>
       </c>
       <c r="H22">
         <v>1977.22578181818</v>
       </c>
       <c r="I22">
-        <v>228.678981799993</v>
+        <v>228.678981800002</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-6.62225829728413e-12</v>
+        <v>2.47268872044515e-12</v>
       </c>
       <c r="N22">
         <v>1000</v>
@@ -2248,10 +2248,10 @@
         <v>272.6138019</v>
       </c>
       <c r="R22">
-        <v>149.516279069767</v>
+        <v>216.663903255814</v>
       </c>
       <c r="S22">
-        <v>642.919999999998</v>
+        <v>931.6547840000002</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2826.59308260043</v>
+        <v>2826.59308260036</v>
       </c>
       <c r="Y22">
-        <v>800</v>
+        <v>511.265216</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G23">
-        <v>4075.17608362093</v>
+        <v>4135.47847859767</v>
       </c>
       <c r="H23">
         <v>2062.32018181818</v>
       </c>
       <c r="I23">
-        <v>243.298800099998</v>
+        <v>243.298800100003</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1.81898940354586e-12</v>
+        <v>3.06954461848363e-12</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -2331,10 +2331,10 @@
         <v>286.3972045</v>
       </c>
       <c r="R23">
-        <v>141.404651162791</v>
+        <v>205.385972093023</v>
       </c>
       <c r="S23">
-        <v>608.0400000000012</v>
+        <v>883.159679999999</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2820.93989643522</v>
+        <v>2820.93989643516</v>
       </c>
       <c r="Y23">
-        <v>800</v>
+        <v>524.8803200000001</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2381,25 +2381,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G24">
-        <v>4176.52603266279</v>
+        <v>4237.99379601163</v>
       </c>
       <c r="H24">
         <v>2029.09018181818</v>
       </c>
       <c r="I24">
-        <v>257.918618499999</v>
+        <v>257.918618499996</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10333.2895224162</v>
+        <v>10333.2895224163</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-9.09494701772928e-13</v>
+        <v>-3.63797880709171e-12</v>
       </c>
       <c r="N24">
         <v>1000</v>
@@ -2414,10 +2414,10 @@
         <v>300.1806072</v>
       </c>
       <c r="R24">
-        <v>156.613953488372</v>
+        <v>221.831739534884</v>
       </c>
       <c r="S24">
-        <v>673.4399999999996</v>
+        <v>953.8764800000012</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>2815.29801664235</v>
+        <v>2815.29801664229</v>
       </c>
       <c r="Y24">
-        <v>800</v>
+        <v>519.56352</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2464,13 +2464,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G25">
-        <v>4007.35874190233</v>
+        <v>4062.97792013488</v>
       </c>
       <c r="H25">
         <v>2195.86018181818</v>
       </c>
       <c r="I25">
-        <v>268.662467399994</v>
+        <v>268.662467400003</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-5.85487214266323e-12</v>
+        <v>3.12638803734444e-12</v>
       </c>
       <c r="N25">
         <v>1000</v>
@@ -2497,10 +2497,10 @@
         <v>310.2596386</v>
       </c>
       <c r="R25">
-        <v>148.591627906977</v>
+        <v>207.604018604651</v>
       </c>
       <c r="S25">
-        <v>638.9440000000011</v>
+        <v>892.6972799999993</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2809.66742060907</v>
+        <v>2809.66742060901</v>
       </c>
       <c r="Y25">
-        <v>800</v>
+        <v>546.24672</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G26">
-        <v>4087.02866044419</v>
+        <v>4136.79925356046</v>
       </c>
       <c r="H26">
         <v>2362.63018181818</v>
       </c>
       <c r="I26">
-        <v>279.406316299995</v>
+        <v>279.406316300003</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-5.22959453519434e-12</v>
+        <v>2.8421709430404e-12</v>
       </c>
       <c r="N26">
         <v>1000</v>
@@ -2580,10 +2580,10 @@
         <v>320.33867</v>
       </c>
       <c r="R26">
-        <v>187.080930232558</v>
+        <v>239.887925581395</v>
       </c>
       <c r="S26">
-        <v>804.4479999999993</v>
+        <v>1031.518079999998</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>2804.04808576785</v>
+        <v>2804.04808576779</v>
       </c>
       <c r="Y26">
-        <v>800</v>
+        <v>572.92992</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2630,13 +2630,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G27">
-        <v>4270.12045789651</v>
+        <v>4314.04246589651</v>
       </c>
       <c r="H27">
         <v>2529.40018181818</v>
       </c>
       <c r="I27">
-        <v>286.751728150001</v>
+        <v>286.75172815</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>5.11590769747272e-13</v>
+        <v>-4.19962572180597e-13</v>
       </c>
       <c r="N27">
         <v>1000</v>
@@ -2663,10 +2663,10 @@
         <v>327.3678127</v>
       </c>
       <c r="R27">
-        <v>225.592558139535</v>
+        <v>272.194158139535</v>
       </c>
       <c r="S27">
-        <v>970.0480000000005</v>
+        <v>1170.43488</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>2798.43998959632</v>
+        <v>2798.43998959625</v>
       </c>
       <c r="Y27">
-        <v>800</v>
+        <v>599.61312</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G28">
-        <v>4653.21225534884</v>
+        <v>4698.14944894884</v>
       </c>
       <c r="H28">
         <v>2500.45258181818</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-4.60431692772545e-12</v>
+        <v>-4.71800376544707e-12</v>
       </c>
       <c r="N28">
         <v>1000</v>
@@ -2746,10 +2746,10 @@
         <v>334.3969554</v>
       </c>
       <c r="R28">
-        <v>264.104186046512</v>
+        <v>311.782906046512</v>
       </c>
       <c r="S28">
-        <v>1135.648000000002</v>
+        <v>1340.666496000001</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2792.84310961712</v>
+        <v>2792.84310961706</v>
       </c>
       <c r="Y28">
-        <v>800</v>
+        <v>594.9815040000001</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G29">
-        <v>4381.82803407558</v>
+        <v>4421.20907181512</v>
       </c>
       <c r="H29">
         <v>2658.88408181818</v>
       </c>
       <c r="I29">
-        <v>296.113268249999</v>
+        <v>296.113268249994</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-6.25277607468888e-13</v>
+        <v>-6.08224581810646e-12</v>
       </c>
       <c r="N29">
         <v>1000</v>
@@ -2829,10 +2829,10 @@
         <v>336.1116997</v>
       </c>
       <c r="R29">
-        <v>269.467906976744</v>
+        <v>311.251501395349</v>
       </c>
       <c r="S29">
-        <v>1158.711999999999</v>
+        <v>1338.381456000001</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2787.25742339789</v>
+        <v>2787.25742339783</v>
       </c>
       <c r="Y29">
-        <v>800</v>
+        <v>620.330544</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G30">
-        <v>4310.44381280232</v>
+        <v>4344.2686946814</v>
       </c>
       <c r="H30">
         <v>2817.31558181818</v>
       </c>
       <c r="I30">
-        <v>298.129396500003</v>
+        <v>298.129396499993</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>3.29691829392686e-12</v>
+        <v>-6.82121026329696e-12</v>
       </c>
       <c r="N30">
         <v>1000</v>
@@ -2912,10 +2912,10 @@
         <v>337.826444</v>
       </c>
       <c r="R30">
-        <v>274.831627906977</v>
+        <v>310.720096744186</v>
       </c>
       <c r="S30">
-        <v>1181.776000000001</v>
+        <v>1336.096416</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>2781.68290855109</v>
+        <v>2781.68290855103</v>
       </c>
       <c r="Y30">
-        <v>800</v>
+        <v>645.679584</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2962,43 +2962,43 @@
         <v>0.65550003</v>
       </c>
       <c r="G31">
-        <v>4635.56512080233</v>
+        <v>4663.83384682093</v>
       </c>
       <c r="H31">
         <v>2975.74708181818</v>
       </c>
       <c r="I31">
-        <v>304.812088499994</v>
+        <v>304.812088500002</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>10153.8075631124</v>
+        <v>10153.8075631125</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-5.62749846721999e-12</v>
+        <v>1.64845914696343e-12</v>
       </c>
       <c r="N31">
-        <v>1000</v>
+        <v>999.999999999998</v>
       </c>
       <c r="O31">
-        <v>1218.181818181818</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="P31">
-        <v>812.121212121212</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="Q31">
         <v>343.8913157</v>
       </c>
       <c r="R31">
-        <v>281.311627906977</v>
+        <v>311.304971162791</v>
       </c>
       <c r="S31">
-        <v>1209.640000000001</v>
+        <v>1338.611376000001</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2776.11954273399</v>
+        <v>2776.11954273393</v>
       </c>
       <c r="Y31">
-        <v>800</v>
+        <v>671.028624</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G32">
-        <v>4560.68642880233</v>
+        <v>4583.39899896047</v>
       </c>
       <c r="H32">
         <v>3134.17858181818</v>
@@ -3078,10 +3078,10 @@
         <v>349.9561874</v>
       </c>
       <c r="R32">
-        <v>287.791627906977</v>
+        <v>311.889845581395</v>
       </c>
       <c r="S32">
-        <v>1237.504000000001</v>
+        <v>1341.126335999998</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>2770.56730364852</v>
+        <v>2770.56730364846</v>
       </c>
       <c r="Y32">
-        <v>800</v>
+        <v>696.3776640000001</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3128,13 +3128,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G33">
-        <v>4441.40032992791</v>
+        <v>4458.55674422558</v>
       </c>
       <c r="H33">
         <v>3292.61008181818</v>
       </c>
       <c r="I33">
-        <v>318.914181699995</v>
+        <v>318.914181700001</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-4.9453774408903e-12</v>
+        <v>8.5265128291212e-13</v>
       </c>
       <c r="N33">
         <v>1000</v>
@@ -3161,10 +3161,10 @@
         <v>354.1797816</v>
       </c>
       <c r="R33">
-        <v>300.299534883721</v>
+        <v>318.502626976744</v>
       </c>
       <c r="S33">
-        <v>1291.288</v>
+        <v>1369.561295999999</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3179,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>2765.02616904123</v>
+        <v>2765.02616904116</v>
       </c>
       <c r="Y33">
-        <v>800</v>
+        <v>721.726704</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-2.50111042987555e-12</v>
+        <v>-1.93267624126747e-12</v>
       </c>
       <c r="N34">
         <v>1000</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>2759.49611670314</v>
+        <v>2759.49611670308</v>
       </c>
       <c r="Y34">
         <v>800</v>
@@ -3300,7 +3300,7 @@
         <v>4094.76766181818</v>
       </c>
       <c r="I35">
-        <v>327.363872199999</v>
+        <v>327.3638722</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-6.25277607468888e-13</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1000</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2753.97712446974</v>
+        <v>2753.97712446967</v>
       </c>
       <c r="Y35">
         <v>800</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>2.8421709430404e-12</v>
+        <v>2.79975048120398e-12</v>
       </c>
       <c r="N36">
         <v>1000</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2748.4691702208</v>
+        <v>2748.46917022074</v>
       </c>
       <c r="Y36">
         <v>800</v>
@@ -3460,7 +3460,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4534.49377540206</v>
+        <v>4619.19706773185</v>
       </c>
       <c r="H37">
         <v>4327.79278181818</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>53.2273567974113</v>
+        <v>137.930649127201</v>
       </c>
       <c r="K37">
         <v>10002.4492020035</v>
       </c>
       <c r="L37">
-        <v>381.586609797411</v>
+        <v>466.289902127202</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2742.97223188036</v>
+        <v>2742.97223188029</v>
       </c>
       <c r="Y37">
         <v>800</v>
@@ -3543,7 +3543,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>5168.85854456717</v>
+        <v>5253.56183689697</v>
       </c>
       <c r="H38">
         <v>4444.30534181818</v>
@@ -3552,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>678.262265497404</v>
+        <v>762.965557827205</v>
       </c>
       <c r="K38">
-        <v>10068.0698988254</v>
+        <v>10088.1869307537</v>
       </c>
       <c r="L38">
-        <v>1006.5866097974</v>
+        <v>1091.2899021272</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2737.4862874166</v>
+        <v>2737.48628741653</v>
       </c>
       <c r="Y38">
         <v>800</v>
@@ -3638,7 +3638,7 @@
         <v>300.165046000004</v>
       </c>
       <c r="K39">
-        <v>10281.9640439052</v>
+        <v>10322.147815182</v>
       </c>
       <c r="L39">
         <v>625.000000000004</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2732.01131484176</v>
+        <v>2732.0113148417</v>
       </c>
       <c r="Y39">
         <v>800</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10404.6966337954</v>
+        <v>10444.7799456441</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>328.1837343</v>
       </c>
       <c r="R40">
-        <v>370.708837209281</v>
+        <v>370.708837209302</v>
       </c>
       <c r="S40">
-        <v>1594.047999999908</v>
+        <v>1594.047999999998</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>9.331415640190241e-11</v>
+        <v>1.36424205265939e-12</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2726.54729221208</v>
+        <v>2726.54729221202</v>
       </c>
       <c r="Y40">
         <v>800</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>10378.6848922109</v>
+        <v>10418.66799578</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>2721.09419762763</v>
+        <v>2721.09419762759</v>
       </c>
       <c r="Y41">
         <v>800</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>10188.2644957699</v>
+        <v>10228.14764158</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>2715.65200923237</v>
+        <v>2715.65200923233</v>
       </c>
       <c r="Y42">
         <v>800</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>9833.846466109409</v>
+        <v>9873.629904055</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>2571.33181632502</v>
+        <v>2571.33181632498</v>
       </c>
       <c r="Y43">
         <v>800</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>9480.31448152309</v>
+        <v>9519.99846087381</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>2427.30026380348</v>
+        <v>2427.30026380344</v>
       </c>
       <c r="Y44">
         <v>800</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>9127.66632689823</v>
+        <v>9167.251096300581</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>2283.55677438698</v>
+        <v>2283.55677438695</v>
       </c>
       <c r="Y45">
         <v>800</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>8775.89979265993</v>
+        <v>8815.38560013877</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>2140.10077194932</v>
+        <v>2140.10077194928</v>
       </c>
       <c r="Y46">
         <v>800</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>8425.01267475723</v>
+        <v>8464.39976771737</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1996.93168151653</v>
+        <v>1996.9316815165</v>
       </c>
       <c r="Y47">
         <v>800</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>8075.00277464928</v>
+        <v>8114.29139987703</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1854.04892926461</v>
+        <v>1854.04892926457</v>
       </c>
       <c r="Y48">
         <v>800</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>7725.86789929161</v>
+        <v>7765.05830295628</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1711.45194251719</v>
+        <v>1711.45194251716</v>
       </c>
       <c r="Y49">
         <v>800</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>7377.60586112233</v>
+        <v>7416.69828877784</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1569.14014974327</v>
+        <v>1569.14014974323</v>
       </c>
       <c r="Y50">
         <v>800</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>7030.21447804847</v>
+        <v>7069.20917463484</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1427.11298055489</v>
+        <v>1427.11298055486</v>
       </c>
       <c r="Y51">
         <v>800</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>6683.6915734323</v>
+        <v>6722.5887832772</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1285.36986570489</v>
+        <v>1285.36986570486</v>
       </c>
       <c r="Y52">
         <v>800</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>6338.03497607766</v>
+        <v>6376.83494289796</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1143.9102370846</v>
+        <v>1143.91023708456</v>
       </c>
       <c r="Y53">
         <v>800</v>
@@ -4877,19 +4877,19 @@
         <v>4953.96058181818</v>
       </c>
       <c r="I54">
-        <v>730.550626899996</v>
+        <v>730.5506268999929</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>5993.24252021642</v>
+        <v>6031.94548711966</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>624.999999999996</v>
+        <v>624.999999999993</v>
       </c>
       <c r="N54">
         <v>1000</v>
@@ -4904,10 +4904,10 @@
         <v>109.7261826</v>
       </c>
       <c r="R54">
-        <v>349.979534883721</v>
+        <v>349.979534883719</v>
       </c>
       <c r="S54">
-        <v>1504.912</v>
+        <v>1504.911999999992</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>7.50333128962666e-12</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1002.73352772154</v>
+        <v>1002.7335277215</v>
       </c>
       <c r="Y54">
         <v>800</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>5813.78572970535</v>
+        <v>5852.39193919134</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1000.72806066609</v>
+        <v>1000.72806066606</v>
       </c>
       <c r="Y55">
         <v>800</v>
@@ -5049,7 +5049,7 @@
         <v>569.569878849999</v>
       </c>
       <c r="K56">
-        <v>5799.25126538109</v>
+        <v>5837.76095934336</v>
       </c>
       <c r="L56">
         <v>624.999999999999</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>998.726604544762</v>
+        <v>998.726604544725</v>
       </c>
       <c r="Y56">
         <v>800</v>
@@ -5120,7 +5120,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G57">
-        <v>5244.13622445856</v>
+        <v>5206.01764048181</v>
       </c>
       <c r="H57">
         <v>4133.02378181818</v>
@@ -5129,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>749.626643063212</v>
+        <v>711.508059086462</v>
       </c>
       <c r="K57">
-        <v>5933.19063721764</v>
+        <v>5971.604056945</v>
       </c>
       <c r="L57">
-        <v>793.249051893212</v>
+        <v>755.130467916462</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>996.729151335673</v>
+        <v>996.729151335635</v>
       </c>
       <c r="Y57">
         <v>800</v>
@@ -5203,7 +5203,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G58">
-        <v>4722.17668097461</v>
+        <v>4698.58085943507</v>
       </c>
       <c r="H58">
         <v>3367.70758181818</v>
@@ -5212,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>136.434355393212</v>
+        <v>98.3157714164623</v>
       </c>
       <c r="K58">
-        <v>6106.75431044923</v>
+        <v>6136.0185329328</v>
       </c>
       <c r="L58">
-        <v>168.249051893212</v>
+        <v>130.130467916462</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5236,10 +5236,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R58">
-        <v>300.706976744189</v>
+        <v>316.115743255818</v>
       </c>
       <c r="S58">
-        <v>1293.040000000012</v>
+        <v>1359.297696000017</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5248,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>-1.29602995002642e-11</v>
+        <v>-1.61435309564695e-11</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>994.735693033001</v>
+        <v>994.735693032964</v>
       </c>
       <c r="Y58">
-        <v>800</v>
+        <v>733.742304</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G59">
-        <v>4435.82943953605</v>
+        <v>4420.09889184302</v>
       </c>
       <c r="H59">
         <v>3143.43253181818</v>
       </c>
       <c r="I59">
-        <v>143.132327905808</v>
+        <v>181.250911882559</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6131.44657449775</v>
+        <v>6151.58447273063</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>122.093023255808</v>
+        <v>160.211607232559</v>
       </c>
       <c r="N59">
         <v>1000</v>
@@ -5319,10 +5319,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R59">
-        <v>294.249302325581</v>
+        <v>318.003186976744</v>
       </c>
       <c r="S59">
-        <v>1265.271999999998</v>
+        <v>1367.413703999999</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>992.746221646939</v>
+        <v>992.746221646902</v>
       </c>
       <c r="Y59">
-        <v>800</v>
+        <v>697.858296</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -5369,25 +5369,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G60">
-        <v>3814.82427324652</v>
+        <v>3806.9589994</v>
       </c>
       <c r="H60">
         <v>2919.15748181818</v>
       </c>
       <c r="I60">
-        <v>757.356936055808</v>
+        <v>795.475520032559</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6083.98821509945</v>
+        <v>6094.04456227708</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>747.093023255808</v>
+        <v>785.211607232559</v>
       </c>
       <c r="N60">
         <v>1000</v>
@@ -5402,10 +5402,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R60">
-        <v>287.791627906981</v>
+        <v>319.890630697676</v>
       </c>
       <c r="S60">
-        <v>1237.504000000018</v>
+        <v>1375.529712000007</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5414,16 +5414,16 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>-1.81898940354586e-11</v>
+        <v>-8.64019966684282e-12</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>990.760729203645</v>
+        <v>990.760729203608</v>
       </c>
       <c r="Y60">
-        <v>800</v>
+        <v>661.974288</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>3696.55191137791</v>
       </c>
       <c r="H61">
-        <v>2694.88243181818</v>
+        <v>2912.26958181816</v>
       </c>
       <c r="I61">
         <v>1253.65860025</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5872.17481738912</v>
+        <v>5872.17481738913</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>988.779207745243</v>
+        <v>988.779207745204</v>
       </c>
       <c r="Y61">
         <v>800</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>2694.88243181818</v>
+        <v>2912.26958181816</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5535,7 +5535,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>3703.2795495093</v>
+        <v>3749.26340733256</v>
       </c>
       <c r="H62">
         <v>2470.60738181818</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>5528.54701192459</v>
+        <v>5528.54701192461</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5556,22 +5556,22 @@
         <v>1250</v>
       </c>
       <c r="N62">
-        <v>1000</v>
+        <v>999.999999999998</v>
       </c>
       <c r="O62">
-        <v>1218.181818181818</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="P62">
-        <v>812.121212121212</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="Q62">
         <v>7.8974229</v>
       </c>
       <c r="R62">
-        <v>124.126511627907</v>
+        <v>172.915750697675</v>
       </c>
       <c r="S62">
-        <v>533.7440000000001</v>
+        <v>743.5377280000025</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>847.9127604408631</v>
+        <v>847.9127604408239</v>
       </c>
       <c r="Y62">
-        <v>800</v>
+        <v>590.206271999996</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>3880.1271858907</v>
+        <v>3933.97631756046</v>
       </c>
       <c r="H63">
         <v>2246.33233181818</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5185.77827597373</v>
+        <v>5185.77827597375</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5639,22 +5639,22 @@
         <v>1250</v>
       </c>
       <c r="N63">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="O63">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P63">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q63">
         <v>4.6250101</v>
       </c>
       <c r="R63">
-        <v>100.433488372093</v>
+        <v>157.567845581395</v>
       </c>
       <c r="S63">
-        <v>431.8639999999999</v>
+        <v>677.5417359999985</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>707.328046031093</v>
+        <v>707.328046031054</v>
       </c>
       <c r="Y63">
-        <v>800</v>
+        <v>554.3222640000024</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>3702.97482227209</v>
+        <v>3764.68922778837</v>
       </c>
       <c r="H64">
         <v>2022.05728181818</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4843.86646186274</v>
+        <v>4843.86646186276</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5734,10 +5734,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R64">
-        <v>76.7404651162791</v>
+        <v>142.219940465116</v>
       </c>
       <c r="S64">
-        <v>329.9840000000001</v>
+        <v>611.5457439999988</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>567.024501050142</v>
+        <v>567.024501050103</v>
       </c>
       <c r="Y64">
-        <v>800</v>
+        <v>518.438256</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>3781.38168112186</v>
+        <v>3850.96136048465</v>
       </c>
       <c r="H65">
         <v>1797.78223181818</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4502.80942728703</v>
+        <v>4502.80942728705</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5817,10 +5817,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R65">
-        <v>73.81750318748659</v>
+        <v>147.642096675858</v>
       </c>
       <c r="S65">
-        <v>317.4152637061923</v>
+        <v>634.8610157061894</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>423.432736293808</v>
+        <v>423.432736293812</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>427.001563159152</v>
+        <v>427.001563159113</v>
       </c>
       <c r="Y65">
-        <v>800</v>
+        <v>482.554248</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>3968.90685304535</v>
+        <v>4034.18501676628</v>
       </c>
       <c r="H66">
         <v>1920.43818181818</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>4162.60503529776</v>
+        <v>4162.60503529778</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5900,10 +5900,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R66">
-        <v>174.816744186049</v>
+        <v>244.077395348841</v>
       </c>
       <c r="S66">
-        <v>751.7120000000107</v>
+        <v>1049.532800000016</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5912,16 +5912,16 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>-1.02318153949454e-11</v>
+        <v>-1.45519152283669e-11</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>308.527355506776</v>
+        <v>308.527355506736</v>
       </c>
       <c r="Y66">
-        <v>800</v>
+        <v>502.1792</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>4072.67954467965</v>
+        <v>4134.29540064244</v>
       </c>
       <c r="H67">
         <v>2024.86738181818</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3823.25115428847</v>
+        <v>3823.25115428848</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0.034905725</v>
       </c>
       <c r="R67">
-        <v>177.343255813953</v>
+        <v>242.718169302325</v>
       </c>
       <c r="S67">
-        <v>762.5759999999979</v>
+        <v>1043.688127999998</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5995,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>1.81898940354586e-12</v>
+        <v>3.18323145620525e-12</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>307.910300795766</v>
+        <v>307.910300795727</v>
       </c>
       <c r="Y67">
-        <v>800</v>
+        <v>518.887872</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G68">
-        <v>4226.45223631395</v>
+        <v>4298.00317503023</v>
       </c>
       <c r="H68">
         <v>1741.57258181818</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3484.74565798169</v>
+        <v>3484.74565798171</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>179.869767441859</v>
+        <v>255.785882790696</v>
       </c>
       <c r="S68">
-        <v>773.4399999999937</v>
+        <v>1099.879295999993</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6078,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>4.88853402202949e-12</v>
+        <v>8.191847200578189e-12</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>307.294480194174</v>
+        <v>307.294480194135</v>
       </c>
       <c r="Y68">
-        <v>800</v>
+        <v>473.560704</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>3830.34656946977</v>
+        <v>3901.31166070698</v>
       </c>
       <c r="H69">
         <v>1758.27778181818</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>3147.08642541568</v>
+        <v>3147.0864254157</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>182.628837209306</v>
+        <v>257.923363720935</v>
       </c>
       <c r="S69">
-        <v>785.3040000000158</v>
+        <v>1109.070464000021</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>-2.05773176276125e-11</v>
+        <v>-2.31921148952097e-11</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69">
-        <v>306.679891233784</v>
+        <v>306.679891233744</v>
       </c>
       <c r="Y69">
-        <v>800</v>
+        <v>476.233536</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G70">
-        <v>3930.04871657907</v>
+        <v>3998.3237742907</v>
       </c>
       <c r="H70">
         <v>1834.98298181818</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2810.27134093109</v>
+        <v>2810.27134093111</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>181.395348837211</v>
+        <v>253.835728372096</v>
       </c>
       <c r="S70">
-        <v>780.0000000000073</v>
+        <v>1091.493632000013</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6244,16 +6244,16 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>-6.93489710101858e-12</v>
+        <v>-1.31876731757075e-11</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>306.066531451322</v>
+        <v>306.066531451283</v>
       </c>
       <c r="Y70">
-        <v>800</v>
+        <v>488.5063680000001</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G71">
-        <v>4128.65320393837</v>
+        <v>4192.83543742674</v>
       </c>
       <c r="H71">
         <v>1951.68818181818</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2474.29829415771</v>
+        <v>2474.29829415773</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>180.161860465116</v>
+        <v>248.259720930231</v>
       </c>
       <c r="S71">
-        <v>774.6959999999988</v>
+        <v>1067.516799999993</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>5.34328137291595e-12</v>
+        <v>1.25055521493778e-11</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71">
-        <v>305.454398388421</v>
+        <v>305.454398388384</v>
       </c>
       <c r="Y71">
-        <v>800</v>
+        <v>507.1792</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G72">
-        <v>3727.25769129768</v>
+        <v>3793.79993777209</v>
       </c>
       <c r="H72">
         <v>1884.39338181819</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2139.16518000127</v>
+        <v>2139.16518000128</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6398,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>178.928372093031</v>
+        <v>249.530225116278</v>
       </c>
       <c r="S72">
-        <v>769.3920000000332</v>
+        <v>1072.979967999995</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6410,16 +6410,16 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>-2.52384779741988e-11</v>
+        <v>1.04591890703887e-11</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>304.843489591643</v>
+        <v>304.843489591604</v>
       </c>
       <c r="Y72">
-        <v>800</v>
+        <v>496.4120320000017</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -6448,25 +6448,25 @@
         <v>1.04989998</v>
       </c>
       <c r="G73">
-        <v>3476.07040455698</v>
+        <v>3541.46568727326</v>
       </c>
       <c r="H73">
         <v>1917.09858181819</v>
       </c>
       <c r="I73">
-        <v>1230.50922334999</v>
+        <v>1230.50922335001</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1804.86989863021</v>
+        <v>1804.86989863023</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1249.99999999999</v>
+        <v>1250.00000000001</v>
       </c>
       <c r="N73">
         <v>1000</v>
@@ -6481,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>177.694883720926</v>
+        <v>247.079799069783</v>
       </c>
       <c r="S73">
-        <v>764.0879999999817</v>
+        <v>1062.443136000067</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6493,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>2.97967788009416e-11</v>
+        <v>-5.79802872380242e-11</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73">
-        <v>304.233802612467</v>
+        <v>304.233802612418</v>
       </c>
       <c r="Y73">
-        <v>800</v>
+        <v>501.6448640000016</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -6531,25 +6531,25 @@
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>4349.88311781628</v>
+        <v>4414.13143677442</v>
       </c>
       <c r="H74">
         <v>1949.8037818182</v>
       </c>
       <c r="I74">
-        <v>605.401347299991</v>
+        <v>605.401347300011</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1471.41035546258</v>
+        <v>1471.41035546259</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>624.999999999991</v>
+        <v>625.000000000011</v>
       </c>
       <c r="N74">
         <v>1000</v>
@@ -6564,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>176.461395348831</v>
+        <v>244.629373023269</v>
       </c>
       <c r="S74">
-        <v>758.7839999999733</v>
+        <v>1051.906304000057</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6576,16 +6576,16 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>4.1154635255225e-11</v>
+        <v>-4.25188773078844e-11</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74">
-        <v>303.625335007233</v>
+        <v>303.625335007209</v>
       </c>
       <c r="Y74">
-        <v>800</v>
+        <v>506.8776960000032</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5298.46117977559</v>
+        <v>5361.56253497559</v>
       </c>
       <c r="H75">
         <v>1982.50898181821</v>
@@ -6626,7 +6626,7 @@
         <v>19.47187745</v>
       </c>
       <c r="K75">
-        <v>1303.2581453634</v>
+        <v>1303.25814536341</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6647,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>175.227906976754</v>
+        <v>242.178946976754</v>
       </c>
       <c r="S75">
-        <v>753.4800000000422</v>
+        <v>1041.369472000042</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6659,16 +6659,16 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>-2.23963070311584e-11</v>
+        <v>-2.70574673777446e-11</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75">
-        <v>303.018084337208</v>
+        <v>303.018084337206</v>
       </c>
       <c r="Y75">
-        <v>800</v>
+        <v>512.1105280000048</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5635.72345226121</v>
+        <v>5693.46947161004</v>
       </c>
       <c r="H76">
         <v>2135.21418181822</v>
@@ -6706,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>33.0293127263221</v>
+        <v>33.0293127263169</v>
       </c>
       <c r="K76">
         <v>1300</v>
       </c>
       <c r="L76">
-        <v>13.6842105263221</v>
+        <v>13.6842105263169</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6730,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>173.994418604657</v>
+        <v>235.263404651167</v>
       </c>
       <c r="S76">
-        <v>748.1760000000251</v>
+        <v>1011.632640000018</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>302.412048168539</v>
       </c>
       <c r="Y76">
-        <v>800</v>
+        <v>536.5433600000064</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5259.47277792051</v>
+        <v>5316.07183351121</v>
       </c>
       <c r="H77">
         <v>2167.91938181822</v>
@@ -6789,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>33.0738011763196</v>
+        <v>33.0738011763226</v>
       </c>
       <c r="K77">
         <v>1300</v>
       </c>
       <c r="L77">
-        <v>13.6842105263196</v>
+        <v>13.6842105263226</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>172.760930232565</v>
+        <v>232.812978604656</v>
       </c>
       <c r="S77">
-        <v>742.8720000000294</v>
+        <v>1001.095808000021</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>301.807224072202</v>
       </c>
       <c r="Y77">
-        <v>800</v>
+        <v>541.7761920000064</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G78">
-        <v>4883.22210357981</v>
+        <v>4942.18117215655</v>
       </c>
       <c r="H78">
         <v>2100.62458181823</v>
@@ -6872,13 +6872,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>33.1182896263157</v>
+        <v>33.118289626313</v>
       </c>
       <c r="K78">
         <v>1300</v>
       </c>
       <c r="L78">
-        <v>13.6842105263157</v>
+        <v>13.684210526313</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6896,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>171.527441860473</v>
+        <v>234.083482790703</v>
       </c>
       <c r="S78">
-        <v>737.5680000000339</v>
+        <v>1006.558976000023</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>301.203609624058</v>
       </c>
       <c r="Y78">
-        <v>800</v>
+        <v>531.009024000008</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G79">
-        <v>4981.95921993912</v>
+        <v>5036.26434801353</v>
       </c>
       <c r="H79">
         <v>2233.32978181824</v>
@@ -6955,13 +6955,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>33.1505687763221</v>
+        <v>33.1505687763159</v>
       </c>
       <c r="K79">
         <v>1300</v>
       </c>
       <c r="L79">
-        <v>13.6842105263221</v>
+        <v>13.6842105263159</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>170.29395348838</v>
+        <v>227.912126511634</v>
       </c>
       <c r="S79">
-        <v>732.264000000034</v>
+        <v>980.0221440000262</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>300.60120240481</v>
       </c>
       <c r="Y79">
-        <v>800</v>
+        <v>552.2418560000095</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7029,13 +7029,13 @@
         <v>0.65550003</v>
       </c>
       <c r="G80">
-        <v>5030.69633629842</v>
+        <v>5080.34752387051</v>
       </c>
       <c r="H80">
         <v>2366.03498181825</v>
       </c>
       <c r="I80">
-        <v>43.7396637015922</v>
+        <v>67.7092025294987</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>63.2383011015922</v>
+        <v>87.2078399294987</v>
       </c>
       <c r="N80">
         <v>1000</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>242.320000000013</v>
+        <v>317.828437333343</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -7077,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>726.960000000039</v>
+        <v>953.485312000029</v>
       </c>
       <c r="X80">
         <v>300</v>
       </c>
       <c r="Y80">
-        <v>800</v>
+        <v>573.4746880000112</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G81">
-        <v>5065.71696298141</v>
+        <v>5114.22118679536</v>
       </c>
       <c r="H81">
         <v>2398.74018181826</v>
@@ -7133,22 +7133,22 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>999.999999999996</v>
+        <v>999.999999999998</v>
       </c>
       <c r="O81">
-        <v>1218.181818181813</v>
+        <v>1218.181818181815</v>
       </c>
       <c r="P81">
-        <v>812.1212121212088</v>
+        <v>812.1212121212103</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>167.826976744196</v>
+        <v>219.290344186055</v>
       </c>
       <c r="S81">
-        <v>721.6560000000428</v>
+        <v>942.9484800000364</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>300</v>
       </c>
       <c r="Y81">
-        <v>800</v>
+        <v>578.707520000008</v>
       </c>
       <c r="Z81">
         <v>0</v>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -576,40 +576,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O2">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P2">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q2">
         <v>2.77500605</v>
       </c>
       <c r="R2">
-        <v>186.535703933001</v>
+        <v>188.933670697674</v>
       </c>
       <c r="S2">
-        <v>802.1035269119043</v>
+        <v>812.4147839999981</v>
       </c>
       <c r="T2">
-        <v>169.064633431341</v>
+        <v>166.666666666669</v>
       </c>
       <c r="U2">
-        <v>496.882643205929</v>
+        <v>500.000000000007</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>10.31125708809401</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="X2">
         <v>1111.79846646574</v>
       </c>
       <c r="Y2">
-        <v>568.865216</v>
+        <v>568.8652160000008</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O3">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P3">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q3">
         <v>5.9601545</v>
       </c>
       <c r="R3">
-        <v>188.394135813954</v>
+        <v>188.394135813953</v>
       </c>
       <c r="S3">
-        <v>810.0947840000022</v>
+        <v>810.0947839999978</v>
       </c>
       <c r="T3">
-        <v>166.666666666665</v>
+        <v>166.666666666666</v>
       </c>
       <c r="U3">
-        <v>499.999999999996</v>
+        <v>499.999999999998</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1221.37346425415</v>
+        <v>1222.07486953281</v>
       </c>
       <c r="Y3">
-        <v>573.1852160000001</v>
+        <v>573.1852160000008</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -742,40 +742,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O4">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P4">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q4">
         <v>9.14530295</v>
       </c>
       <c r="R4">
-        <v>165.342973023256</v>
+        <v>165.342973023251</v>
       </c>
       <c r="S4">
-        <v>710.9747840000008</v>
+        <v>710.9747839999793</v>
       </c>
       <c r="T4">
-        <v>166.666666666668</v>
+        <v>166.666666666673</v>
       </c>
       <c r="U4">
-        <v>500.000000000003</v>
+        <v>500</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>9.663381206337363e-13</v>
+        <v>1.898570189950988e-11</v>
       </c>
       <c r="X4">
-        <v>1331.43071732564</v>
+        <v>1332.13071979375</v>
       </c>
       <c r="Y4">
-        <v>574.3052160000001</v>
+        <v>574.3052160000009</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -825,40 +825,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O5">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P5">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q5">
         <v>13.94484173</v>
       </c>
       <c r="R5">
-        <v>167.780182325581</v>
+        <v>167.780182325582</v>
       </c>
       <c r="S5">
-        <v>721.4547839999982</v>
+        <v>721.4547840000025</v>
       </c>
       <c r="T5">
-        <v>166.666666666665</v>
+        <v>166.666666666666</v>
       </c>
       <c r="U5">
-        <v>499.999999999996</v>
+        <v>500</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.023181539494544e-12</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="X5">
-        <v>1441.26785589099</v>
+        <v>1441.96645835416</v>
       </c>
       <c r="Y5">
-        <v>565.8252160000001</v>
+        <v>565.8252160000009</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -908,40 +908,40 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O6">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P6">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q6">
         <v>18.7443805</v>
       </c>
       <c r="R6">
-        <v>167.24064744186</v>
+        <v>167.240647441868</v>
       </c>
       <c r="S6">
-        <v>719.134783999998</v>
+        <v>719.1347840000324</v>
       </c>
       <c r="T6">
-        <v>166.666666666662</v>
+        <v>166.666666666655</v>
       </c>
       <c r="U6">
-        <v>499.999999999987</v>
+        <v>500</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-9.663381206337363e-13</v>
+        <v>-3.501554601825774e-11</v>
       </c>
       <c r="X6">
-        <v>1550.8853201792</v>
+        <v>1551.58252543745</v>
       </c>
       <c r="Y6">
-        <v>570.145216</v>
+        <v>570.1452160000008</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O7">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P7">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q7">
         <v>26.91668605</v>
       </c>
       <c r="R7">
-        <v>170.422042790698</v>
+        <v>170.422042790704</v>
       </c>
       <c r="S7">
-        <v>732.8147840000013</v>
+        <v>732.8147840000272</v>
       </c>
       <c r="T7">
-        <v>166.666666666663</v>
+        <v>166.666666666657</v>
       </c>
       <c r="U7">
-        <v>499.999999999989</v>
+        <v>500</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-2.899014361901209e-11</v>
       </c>
       <c r="X7">
-        <v>1660.28354953884</v>
+        <v>1660.97936038658</v>
       </c>
       <c r="Y7">
-        <v>558.4652159999999</v>
+        <v>558.4652160000009</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O8">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P8">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q8">
         <v>35.0889916</v>
@@ -1092,10 +1092,10 @@
         <v>730.494784000001</v>
       </c>
       <c r="T8">
-        <v>166.66666666667</v>
+        <v>166.666666666671</v>
       </c>
       <c r="U8">
-        <v>500.00000000001</v>
+        <v>500.000000000013</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>1769.46298243976</v>
+        <v>1770.1574016658</v>
       </c>
       <c r="Y8">
-        <v>562.7852160000001</v>
+        <v>562.7852160000008</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O9">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P9">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q9">
         <v>47.99538765</v>
@@ -1175,10 +1175,10 @@
         <v>744.1747840000003</v>
       </c>
       <c r="T9">
-        <v>166.666666666662</v>
+        <v>166.666666666663</v>
       </c>
       <c r="U9">
-        <v>499.999999999986</v>
+        <v>499.999999999989</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1878.42405647489</v>
+        <v>1879.11708686248</v>
       </c>
       <c r="Y9">
-        <v>551.105216</v>
+        <v>551.1052160000008</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1240,40 +1240,40 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O10">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P10">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q10">
         <v>60.9017837</v>
       </c>
       <c r="R10">
-        <v>172.524368372093</v>
+        <v>172.524368372087</v>
       </c>
       <c r="S10">
-        <v>741.8547839999999</v>
+        <v>741.8547839999741</v>
       </c>
       <c r="T10">
-        <v>166.666666666665</v>
+        <v>166.666666666675</v>
       </c>
       <c r="U10">
-        <v>499.999999999995</v>
+        <v>500</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2.501110429875553e-11</v>
       </c>
       <c r="X10">
-        <v>1987.16720836193</v>
+        <v>1987.85885268875</v>
       </c>
       <c r="Y10">
-        <v>555.425216</v>
+        <v>555.4252160000009</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O11">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P11">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q11">
         <v>74.39721408</v>
@@ -1341,10 +1341,10 @@
         <v>755.534783999999</v>
       </c>
       <c r="T11">
-        <v>166.66666666667</v>
+        <v>166.666666666671</v>
       </c>
       <c r="U11">
-        <v>500.000000000009</v>
+        <v>500.000000000012</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="X11">
-        <v>2095.69287394521</v>
+        <v>2096.38313498337</v>
       </c>
       <c r="Y11">
-        <v>543.745216</v>
+        <v>543.7452160000008</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O12">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P12">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q12">
         <v>87.89264445000001</v>
@@ -1424,22 +1424,22 @@
         <v>769.2147839999981</v>
       </c>
       <c r="T12">
-        <v>166.66666666667</v>
+        <v>166.666666666671</v>
       </c>
       <c r="U12">
-        <v>500.000000000011</v>
+        <v>500.000000000013</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2204.00148819732</v>
+        <v>2204.69036871341</v>
       </c>
       <c r="Y12">
-        <v>532.065216</v>
+        <v>532.0652160000008</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1489,40 +1489,40 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O13">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P13">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q13">
         <v>110.5464674</v>
       </c>
       <c r="R13">
-        <v>178.347624186047</v>
+        <v>178.347624186046</v>
       </c>
       <c r="S13">
-        <v>766.8947840000021</v>
+        <v>766.8947839999978</v>
       </c>
       <c r="T13">
-        <v>166.666666666667</v>
+        <v>166.666666666668</v>
       </c>
       <c r="U13">
-        <v>500.000000000001</v>
+        <v>500.000000000003</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="X13">
-        <v>2312.09348522093</v>
+        <v>2312.78098797598</v>
       </c>
       <c r="Y13">
-        <v>536.385216</v>
+        <v>536.3852160000008</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1572,40 +1572,40 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O14">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P14">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q14">
         <v>133.2002904</v>
       </c>
       <c r="R14">
-        <v>177.808089302326</v>
+        <v>177.808089302325</v>
       </c>
       <c r="S14">
-        <v>764.5747840000018</v>
+        <v>764.5747839999974</v>
       </c>
       <c r="T14">
         <v>166.666666666665</v>
       </c>
       <c r="U14">
-        <v>499.999999999994</v>
+        <v>499.999999999996</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1.023181539494544e-12</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X14">
-        <v>2419.96929825048</v>
+        <v>2420.65542600003</v>
       </c>
       <c r="Y14">
-        <v>540.7052160000001</v>
+        <v>540.7052160000009</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O15">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P15">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q15">
         <v>160.9459877</v>
@@ -1673,22 +1673,22 @@
         <v>678.2547839999982</v>
       </c>
       <c r="T15">
-        <v>166.666666666668</v>
+        <v>166.666666666669</v>
       </c>
       <c r="U15">
-        <v>500.000000000003</v>
+        <v>500.000000000006</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>9.663381206337363e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="X15">
-        <v>2527.62935965398</v>
+        <v>2528.31411514803</v>
       </c>
       <c r="Y15">
-        <v>529.025216</v>
+        <v>529.0252160000008</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O16">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P16">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q16">
         <v>188.691685</v>
@@ -1756,22 +1756,22 @@
         <v>675.9347839999979</v>
       </c>
       <c r="T16">
-        <v>166.666666666665</v>
+        <v>166.666666666666</v>
       </c>
       <c r="U16">
-        <v>499.999999999996</v>
+        <v>499.999999999999</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>-1.023181539494544e-12</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="X16">
-        <v>2635.07410093468</v>
+        <v>2635.75748691774</v>
       </c>
       <c r="Y16">
-        <v>533.3452160000001</v>
+        <v>533.3452160000008</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1821,40 +1821,40 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>49.9999999999994</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="O17">
-        <v>60.90909090909017</v>
+        <v>60.90909090909102</v>
       </c>
       <c r="P17">
-        <v>40.60606060606011</v>
+        <v>40.60606060606068</v>
       </c>
       <c r="Q17">
         <v>203.3171886</v>
       </c>
       <c r="R17">
-        <v>156.654600930233</v>
+        <v>156.654600930232</v>
       </c>
       <c r="S17">
-        <v>673.6147840000018</v>
+        <v>673.6147839999976</v>
       </c>
       <c r="T17">
         <v>166.666666666663</v>
       </c>
       <c r="U17">
-        <v>499.999999999988</v>
+        <v>499.99999999999</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>9.663381206337363e-13</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X17">
-        <v>2742.30395273281</v>
+        <v>2742.9859719439</v>
       </c>
       <c r="Y17">
-        <v>537.665216</v>
+        <v>537.6652160000008</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1892,34 +1892,34 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>446.3014433</v>
+        <v>446.301443299997</v>
       </c>
       <c r="K18">
         <v>10340.8446784358</v>
       </c>
       <c r="L18">
-        <v>625</v>
+        <v>624.999999999997</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>550</v>
+        <v>550.000000000001</v>
       </c>
       <c r="O18">
-        <v>669.9999999999999</v>
+        <v>670.0000000000011</v>
       </c>
       <c r="P18">
-        <v>446.6666666666666</v>
+        <v>446.6666666666674</v>
       </c>
       <c r="Q18">
         <v>217.9426921</v>
       </c>
       <c r="R18">
-        <v>159.835996279067</v>
+        <v>159.83599627907</v>
       </c>
       <c r="S18">
-        <v>687.294783999988</v>
+        <v>687.294784000001</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1.14656448277877e-11</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2849.31934482734</v>
+        <v>2850.00000000001</v>
       </c>
       <c r="Y18">
         <v>525.985216</v>
@@ -1972,7 +1972,7 @@
         <v>1996.22578181818</v>
       </c>
       <c r="I19">
-        <v>195.68059635</v>
+        <v>195.680596350003</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>10463.4300667397</v>
       </c>
       <c r="L19">
-        <v>5.6843418860808e-14</v>
+        <v>-2.55795384873636e-12</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>8.69417465447456e-14</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>2843.62070613768</v>
+        <v>2844.30000000001</v>
       </c>
       <c r="Y19">
-        <v>514.3052160000001</v>
+        <v>514.3052159999984</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>1923.22578181818</v>
       </c>
       <c r="I20">
-        <v>212.662635900001</v>
+        <v>212.662635900003</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>10437.2714915728</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-2.89901436190121e-12</v>
       </c>
       <c r="M20">
-        <v>6.25277607468888e-13</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1000</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2837.9334647254</v>
+        <v>2838.61140000001</v>
       </c>
       <c r="Y20">
-        <v>502.625216</v>
+        <v>502.6252159999984</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>1850.22578181818</v>
       </c>
       <c r="I21">
-        <v>220.670808900003</v>
+        <v>220.670808900005</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>10411.1783128439</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-4.9453774408903e-12</v>
       </c>
       <c r="M21">
-        <v>3.06954461848363e-12</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2832.25759779595</v>
+        <v>2832.93417720001</v>
       </c>
       <c r="Y21">
-        <v>490.945216</v>
+        <v>490.9452159999985</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>1977.22578181818</v>
       </c>
       <c r="I22">
-        <v>228.678981800002</v>
+        <v>228.678981800005</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>10385.1503670618</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-4.80326889373828e-12</v>
       </c>
       <c r="M22">
-        <v>2.47268872044515e-12</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1000</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2826.59308260036</v>
+        <v>2827.26830884561</v>
       </c>
       <c r="Y22">
-        <v>511.265216</v>
+        <v>511.2652159999984</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>2062.32018181818</v>
       </c>
       <c r="I23">
-        <v>243.298800100003</v>
+        <v>243.298800100005</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         <v>10359.1874911441</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-5.00222085975111e-12</v>
       </c>
       <c r="M23">
-        <v>3.06954461848363e-12</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -2331,10 +2331,10 @@
         <v>286.3972045</v>
       </c>
       <c r="R23">
-        <v>205.385972093023</v>
+        <v>205.385972093024</v>
       </c>
       <c r="S23">
-        <v>883.159679999999</v>
+        <v>883.1596800000032</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2820.93989643516</v>
+        <v>2821.61377222792</v>
       </c>
       <c r="Y23">
-        <v>524.8803200000001</v>
+        <v>524.8803199999976</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>2029.09018181818</v>
       </c>
       <c r="I24">
-        <v>257.918618499996</v>
+        <v>257.918618499998</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>10333.2895224163</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.04636307898909e-12</v>
       </c>
       <c r="M24">
-        <v>-3.63797880709171e-12</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1000</v>
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>2815.29801664229</v>
+        <v>2815.97054468346</v>
       </c>
       <c r="Y24">
-        <v>519.56352</v>
+        <v>519.5635199999984</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>2195.86018181818</v>
       </c>
       <c r="I25">
-        <v>268.662467400003</v>
+        <v>268.662467400004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>10307.4562986102</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-3.86535248253495e-12</v>
       </c>
       <c r="M25">
-        <v>3.12638803734444e-12</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1000</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2809.66742060901</v>
+        <v>2810.3386035941</v>
       </c>
       <c r="Y25">
-        <v>546.24672</v>
+        <v>546.2467199999984</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>2362.63018181818</v>
       </c>
       <c r="I26">
-        <v>279.406316300003</v>
+        <v>279.406316300006</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2562,10 +2562,10 @@
         <v>10281.6876578637</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-5.6843418860808e-12</v>
       </c>
       <c r="M26">
-        <v>2.8421709430404e-12</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1000</v>
@@ -2580,10 +2580,10 @@
         <v>320.33867</v>
       </c>
       <c r="R26">
-        <v>239.887925581395</v>
+        <v>239.887925581396</v>
       </c>
       <c r="S26">
-        <v>1031.518079999998</v>
+        <v>1031.518080000003</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>2804.04808576779</v>
+        <v>2804.71792638691</v>
       </c>
       <c r="Y26">
-        <v>572.92992</v>
+        <v>572.9299199999984</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>2529.40018181818</v>
       </c>
       <c r="I27">
-        <v>286.75172815</v>
+        <v>286.751728150002</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>10255.983438719</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-1.81898940354586e-12</v>
       </c>
       <c r="M27">
-        <v>-4.19962572180597e-13</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1000</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>2798.43998959625</v>
+        <v>2799.10849053413</v>
       </c>
       <c r="Y27">
-        <v>599.61312</v>
+        <v>599.6131199999985</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>2500.45258181818</v>
       </c>
       <c r="I28">
-        <v>294.097139999995</v>
+        <v>294.097139999998</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>10230.3434801222</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.98951966012828e-12</v>
       </c>
       <c r="M28">
-        <v>-4.71800376544707e-12</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1000</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2792.84310961706</v>
+        <v>2793.51027355307</v>
       </c>
       <c r="Y28">
-        <v>594.9815040000001</v>
+        <v>594.9815039999984</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>2658.88408181818</v>
       </c>
       <c r="I29">
-        <v>296.113268249994</v>
+        <v>296.113268249996</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>10204.7676214219</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3.5242919693701e-12</v>
       </c>
       <c r="M29">
-        <v>-6.08224581810646e-12</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1000</v>
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2787.25742339783</v>
+        <v>2787.92325300596</v>
       </c>
       <c r="Y29">
-        <v>620.330544</v>
+        <v>620.3305439999984</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>2817.31558181818</v>
       </c>
       <c r="I30">
-        <v>298.129396499993</v>
+        <v>298.129396499996</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>10179.2557023684</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4.2632564145606e-12</v>
       </c>
       <c r="M30">
-        <v>-6.82121026329696e-12</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1000</v>
@@ -2912,10 +2912,10 @@
         <v>337.826444</v>
       </c>
       <c r="R30">
-        <v>310.720096744186</v>
+        <v>310.720096744187</v>
       </c>
       <c r="S30">
-        <v>1336.096416</v>
+        <v>1336.096416000004</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>2781.68290855103</v>
+        <v>2782.34740649995</v>
       </c>
       <c r="Y30">
-        <v>645.679584</v>
+        <v>645.6795839999977</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>2975.74708181818</v>
       </c>
       <c r="I31">
-        <v>304.812088500002</v>
+        <v>304.8120885</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2977,19 +2977,19 @@
         <v>10153.8075631125</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-2.27373675443232e-13</v>
       </c>
       <c r="M31">
-        <v>1.64845914696343e-12</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="O31">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P31">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q31">
         <v>343.8913157</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2776.11954273393</v>
+        <v>2776.78271168695</v>
       </c>
       <c r="Y31">
-        <v>671.028624</v>
+        <v>671.0286239999984</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>3134.17858181818</v>
       </c>
       <c r="I32">
-        <v>311.494780499994</v>
+        <v>311.494780499996</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>10128.4230442047</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>4.2632564145606e-12</v>
       </c>
       <c r="M32">
-        <v>-5.62749846721999e-12</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1000</v>
@@ -3078,10 +3078,10 @@
         <v>349.9561874</v>
       </c>
       <c r="R32">
-        <v>311.889845581395</v>
+        <v>311.889845581396</v>
       </c>
       <c r="S32">
-        <v>1341.126335999998</v>
+        <v>1341.126336000003</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>2770.56730364846</v>
+        <v>2771.22914626357</v>
       </c>
       <c r="Y32">
-        <v>696.3776640000001</v>
+        <v>696.3776639999984</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>3292.61008181818</v>
       </c>
       <c r="I33">
-        <v>318.914181700001</v>
+        <v>318.914181700002</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3143,10 +3143,10 @@
         <v>10103.1019865942</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1.93267624126747e-12</v>
       </c>
       <c r="M33">
-        <v>8.5265128291212e-13</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1000</v>
@@ -3179,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>2765.02616904116</v>
+        <v>2765.68668797105</v>
       </c>
       <c r="Y33">
-        <v>721.726704</v>
+        <v>721.7267039999984</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-1.93267624126747e-12</v>
+        <v>-2.1032064978499e-12</v>
       </c>
       <c r="N34">
         <v>1000</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>2759.49611670308</v>
+        <v>2760.15531459511</v>
       </c>
       <c r="Y34">
         <v>800</v>
@@ -3300,7 +3300,7 @@
         <v>4094.76766181818</v>
       </c>
       <c r="I35">
-        <v>327.3638722</v>
+        <v>327.363872200001</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1.36424205265939e-12</v>
       </c>
       <c r="N35">
         <v>1000</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2753.97712446967</v>
+        <v>2754.63500396592</v>
       </c>
       <c r="Y35">
         <v>800</v>
@@ -3383,7 +3383,7 @@
         <v>4211.28022181818</v>
       </c>
       <c r="I36">
-        <v>328.394161600003</v>
+        <v>328.394161600005</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>2.79975048120398e-12</v>
+        <v>5.17275111633353e-12</v>
       </c>
       <c r="N36">
         <v>1000</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2748.46917022074</v>
+        <v>2749.12573395798</v>
       </c>
       <c r="Y36">
         <v>800</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>137.930649127201</v>
+        <v>137.930649127202</v>
       </c>
       <c r="K37">
         <v>10002.4492020035</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2742.97223188029</v>
+        <v>2743.62748249007</v>
       </c>
       <c r="Y37">
         <v>800</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2737.48628741653</v>
+        <v>2738.14022752509</v>
       </c>
       <c r="Y38">
         <v>800</v>
@@ -3635,25 +3635,25 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>300.165046000004</v>
+        <v>300.165046000031</v>
       </c>
       <c r="K39">
         <v>10322.147815182</v>
       </c>
       <c r="L39">
-        <v>625.000000000004</v>
+        <v>625.000000000031</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1000</v>
+        <v>1000.00000000003</v>
       </c>
       <c r="O39">
-        <v>1218.181818181818</v>
+        <v>1218.181818181854</v>
       </c>
       <c r="P39">
-        <v>812.121212121212</v>
+        <v>812.1212121212363</v>
       </c>
       <c r="Q39">
         <v>335.3874057</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2732.0113148417</v>
+        <v>2732.66394707004</v>
       </c>
       <c r="Y39">
         <v>800</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-4.2632564145606e-12</v>
+        <v>-4.09272615797818e-12</v>
       </c>
       <c r="N40">
         <v>1000</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>1.36424205265939e-12</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2726.54729221202</v>
+        <v>2727.1986191759</v>
       </c>
       <c r="Y40">
         <v>800</v>
@@ -3798,7 +3798,7 @@
         <v>4793.84302181818</v>
       </c>
       <c r="I41">
-        <v>934.467622049996</v>
+        <v>934.46762205</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>624.999999999996</v>
+        <v>625</v>
       </c>
       <c r="N41">
         <v>1000</v>
@@ -3825,10 +3825,10 @@
         <v>317.7163766</v>
       </c>
       <c r="R41">
-        <v>373.119999999997</v>
+        <v>373.12</v>
       </c>
       <c r="S41">
-        <v>1604.415999999987</v>
+        <v>1604.416</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3837,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>1.47792889038101e-11</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>2721.09419762759</v>
+        <v>2721.74422193755</v>
       </c>
       <c r="Y41">
         <v>800</v>
@@ -3896,22 +3896,22 @@
         <v>1250</v>
       </c>
       <c r="N42">
-        <v>999.999999999999</v>
+        <v>1000</v>
       </c>
       <c r="O42">
-        <v>1218.181818181817</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P42">
-        <v>812.1212121212111</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q42">
         <v>307.2490189</v>
       </c>
       <c r="R42">
-        <v>259.252093023256</v>
+        <v>259.252093023257</v>
       </c>
       <c r="S42">
-        <v>1114.784000000001</v>
+        <v>1114.784000000005</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3920,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>500</v>
+        <v>499.999999999994</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>2715.65200923233</v>
+        <v>2716.30073349367</v>
       </c>
       <c r="Y42">
         <v>800</v>
@@ -3991,10 +3991,10 @@
         <v>302.9468869</v>
       </c>
       <c r="R43">
-        <v>262.768372093023</v>
+        <v>262.768372093019</v>
       </c>
       <c r="S43">
-        <v>1129.903999999999</v>
+        <v>1129.903999999982</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4003,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>500</v>
+        <v>500.000000000018</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>2571.33181632498</v>
+        <v>2571.9792431378</v>
       </c>
       <c r="Y43">
         <v>800</v>
@@ -4074,10 +4074,10 @@
         <v>298.6447548</v>
       </c>
       <c r="R44">
-        <v>266.284651162791</v>
+        <v>266.28465116279</v>
       </c>
       <c r="S44">
-        <v>1145.024000000001</v>
+        <v>1145.023999999997</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4086,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>500</v>
+        <v>500.000000000002</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>2427.30026380344</v>
+        <v>2427.94639576263</v>
       </c>
       <c r="Y44">
         <v>800</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>9167.251096300581</v>
+        <v>9167.25109630057</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4145,22 +4145,22 @@
         <v>1250</v>
       </c>
       <c r="N45">
-        <v>999.999999999996</v>
+        <v>1000</v>
       </c>
       <c r="O45">
-        <v>1218.181818181813</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P45">
-        <v>812.1212121212088</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q45">
         <v>275.6811435</v>
       </c>
       <c r="R45">
-        <v>272.245581395349</v>
+        <v>272.245581395353</v>
       </c>
       <c r="S45">
-        <v>1170.656000000001</v>
+        <v>1170.656000000018</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4169,13 +4169,13 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>500</v>
+        <v>499.999999999984</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>2283.55677438695</v>
+        <v>2284.20161408221</v>
       </c>
       <c r="Y45">
         <v>800</v>
@@ -4240,10 +4240,10 @@
         <v>252.7175321</v>
       </c>
       <c r="R46">
-        <v>278.206511627907</v>
+        <v>278.206511627905</v>
       </c>
       <c r="S46">
-        <v>1196.288</v>
+        <v>1196.287999999991</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4252,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>500</v>
+        <v>500.00000000001</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>2140.10077194928</v>
+        <v>2140.74432196516</v>
       </c>
       <c r="Y46">
         <v>800</v>
@@ -4323,10 +4323,10 @@
         <v>236.1373073</v>
       </c>
       <c r="R47">
-        <v>284.089302325582</v>
+        <v>284.089302325581</v>
       </c>
       <c r="S47">
-        <v>1221.584000000003</v>
+        <v>1221.583999999998</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>500</v>
+        <v>500.000000000003</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1996.9316815165</v>
+        <v>1997.57394443234</v>
       </c>
       <c r="Y47">
         <v>800</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>8114.29139987703</v>
+        <v>8114.29139987702</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4394,22 +4394,22 @@
         <v>1250</v>
       </c>
       <c r="N48">
-        <v>999.999999999999</v>
+        <v>1000</v>
       </c>
       <c r="O48">
-        <v>1218.181818181817</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P48">
-        <v>812.1212121212111</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q48">
         <v>219.5570824</v>
       </c>
       <c r="R48">
-        <v>289.972093023256</v>
+        <v>289.972093023257</v>
       </c>
       <c r="S48">
-        <v>1246.880000000001</v>
+        <v>1246.880000000005</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4418,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>500</v>
+        <v>499.999999999995</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1854.04892926457</v>
+        <v>1854.68990765459</v>
       </c>
       <c r="Y48">
         <v>800</v>
@@ -4489,10 +4489,10 @@
         <v>205.6733258</v>
       </c>
       <c r="R49">
-        <v>284.100465116279</v>
+        <v>284.100465116276</v>
       </c>
       <c r="S49">
-        <v>1221.632</v>
+        <v>1221.631999999987</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4501,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>500</v>
+        <v>500.000000000012</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1711.45194251716</v>
+        <v>1712.09163895039</v>
       </c>
       <c r="Y49">
         <v>800</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>7416.69828877784</v>
+        <v>7416.69828877783</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4560,22 +4560,22 @@
         <v>1250</v>
       </c>
       <c r="N50">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="O50">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P50">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q50">
         <v>191.7895691</v>
       </c>
       <c r="R50">
-        <v>278.228837209302</v>
+        <v>278.228837209305</v>
       </c>
       <c r="S50">
-        <v>1196.383999999999</v>
+        <v>1196.384000000012</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4584,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>500</v>
+        <v>499.999999999991</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1569.14014974323</v>
+        <v>1569.7785667836</v>
       </c>
       <c r="Y50">
         <v>800</v>
@@ -4643,22 +4643,22 @@
         <v>1250</v>
       </c>
       <c r="N51">
-        <v>999.999999999999</v>
+        <v>1000</v>
       </c>
       <c r="O51">
-        <v>1218.181818181817</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P51">
-        <v>812.1212121212111</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q51">
         <v>174.74248</v>
       </c>
       <c r="R51">
-        <v>272.256744186047</v>
+        <v>272.256744186048</v>
       </c>
       <c r="S51">
-        <v>1170.704000000002</v>
+        <v>1170.704000000007</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>500</v>
+        <v>499.999999999995</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1427.11298055486</v>
+        <v>1427.75012076114</v>
       </c>
       <c r="Y51">
         <v>800</v>
@@ -4738,10 +4738,10 @@
         <v>157.695391</v>
       </c>
       <c r="R52">
-        <v>266.284651162791</v>
+        <v>266.28465116279</v>
       </c>
       <c r="S52">
-        <v>1145.024000000001</v>
+        <v>1145.023999999997</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4750,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>500</v>
+        <v>500.000000000001</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1285.36986570486</v>
+        <v>1286.00573163073</v>
       </c>
       <c r="Y52">
         <v>800</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>6376.83494289796</v>
+        <v>6376.83494289795</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>133.7107868</v>
       </c>
       <c r="R53">
-        <v>249.992558139535</v>
+        <v>249.99255813953</v>
       </c>
       <c r="S53">
-        <v>1074.968000000001</v>
+        <v>1074.967999999979</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>500</v>
+        <v>500.00000000002</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1143.91023708456</v>
+        <v>1144.54483127858</v>
       </c>
       <c r="Y53">
         <v>800</v>
@@ -4877,7 +4877,7 @@
         <v>4953.96058181818</v>
       </c>
       <c r="I54">
-        <v>730.5506268999929</v>
+        <v>730.550626899997</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>624.999999999993</v>
+        <v>624.999999999997</v>
       </c>
       <c r="N54">
         <v>1000</v>
@@ -4904,10 +4904,10 @@
         <v>109.7261826</v>
       </c>
       <c r="R54">
-        <v>349.979534883719</v>
+        <v>349.979534883721</v>
       </c>
       <c r="S54">
-        <v>1504.911999999992</v>
+        <v>1504.912</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>7.50333128962666e-12</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1002.7335277215</v>
+        <v>1003.36685272713</v>
       </c>
       <c r="Y54">
         <v>800</v>
@@ -4960,19 +4960,19 @@
         <v>4680.31498181818</v>
       </c>
       <c r="I55">
-        <v>80.4903740299934</v>
+        <v>80.4903740299947</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>5852.39193919134</v>
+        <v>5852.39193919133</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>-6.59383658785373e-12</v>
+        <v>-5.28643795405515e-12</v>
       </c>
       <c r="N55">
         <v>1000</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1000.72806066606</v>
+        <v>1001.36011902168</v>
       </c>
       <c r="Y55">
         <v>800</v>
@@ -5046,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>569.569878849999</v>
+        <v>569.569878849998</v>
       </c>
       <c r="K56">
         <v>5837.76095934336</v>
       </c>
       <c r="L56">
-        <v>624.999999999999</v>
+        <v>624.999999999998</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>998.726604544725</v>
+        <v>999.357398783633</v>
       </c>
       <c r="Y56">
         <v>800</v>
@@ -5129,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>711.508059086462</v>
+        <v>711.508059086465</v>
       </c>
       <c r="K57">
         <v>5971.604056945</v>
       </c>
       <c r="L57">
-        <v>755.130467916462</v>
+        <v>755.130467916465</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>996.729151335635</v>
+        <v>997.358683986065</v>
       </c>
       <c r="Y57">
         <v>800</v>
@@ -5212,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>98.3157714164623</v>
+        <v>98.3157714164651</v>
       </c>
       <c r="K58">
         <v>6136.0185329328</v>
       </c>
       <c r="L58">
-        <v>130.130467916462</v>
+        <v>130.130467916465</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5236,10 +5236,10 @@
         <v>37.6022046</v>
       </c>
       <c r="R58">
-        <v>316.115743255818</v>
+        <v>316.115743255814</v>
       </c>
       <c r="S58">
-        <v>1359.297696000017</v>
+        <v>1359.297696</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5248,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>-1.61435309564695e-11</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>994.735693032964</v>
+        <v>995.3639666180929</v>
       </c>
       <c r="Y58">
-        <v>733.742304</v>
+        <v>733.7423039999993</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5292,19 +5292,19 @@
         <v>3143.43253181818</v>
       </c>
       <c r="I59">
-        <v>181.250911882559</v>
+        <v>181.250911882562</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6151.58447273063</v>
+        <v>6151.58447273062</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>160.211607232559</v>
+        <v>160.211607232562</v>
       </c>
       <c r="N59">
         <v>1000</v>
@@ -5319,10 +5319,10 @@
         <v>27.74133405</v>
       </c>
       <c r="R59">
-        <v>318.003186976744</v>
+        <v>318.003186976745</v>
       </c>
       <c r="S59">
-        <v>1367.413703999999</v>
+        <v>1367.413704000003</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>992.746221646902</v>
+        <v>993.373238684857</v>
       </c>
       <c r="Y59">
-        <v>697.858296</v>
+        <v>697.8582959999976</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6094.04456227708</v>
+        <v>6094.04456227707</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5402,10 +5402,10 @@
         <v>17.8804635</v>
       </c>
       <c r="R60">
-        <v>319.890630697676</v>
+        <v>319.890630697675</v>
       </c>
       <c r="S60">
-        <v>1375.529712000007</v>
+        <v>1375.529712000003</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5414,16 +5414,16 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>-8.64019966684282e-12</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>990.760729203608</v>
+        <v>991.386492207487</v>
       </c>
       <c r="Y60">
-        <v>661.974288</v>
+        <v>661.9742879999985</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>1250</v>
       </c>
       <c r="N61">
-        <v>999.999999999997</v>
+        <v>1000</v>
       </c>
       <c r="O61">
-        <v>1218.181818181814</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P61">
-        <v>812.1212121212096</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q61">
         <v>12.8889432</v>
       </c>
       <c r="R61">
-        <v>147.819534883721</v>
+        <v>147.819534883724</v>
       </c>
       <c r="S61">
-        <v>635.6240000000003</v>
+        <v>635.6240000000132</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5497,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>500</v>
+        <v>499.999999999987</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>988.779207745204</v>
+        <v>989.403719223072</v>
       </c>
       <c r="Y61">
         <v>800</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>5528.54701192461</v>
+        <v>5528.5470119246</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5556,22 +5556,22 @@
         <v>1250</v>
       </c>
       <c r="N62">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="O62">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P62">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q62">
         <v>7.8974229</v>
       </c>
       <c r="R62">
-        <v>172.915750697675</v>
+        <v>172.915750697676</v>
       </c>
       <c r="S62">
-        <v>743.5377280000025</v>
+        <v>743.5377280000068</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5586,13 +5586,13 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>847.9127604408239</v>
+        <v>848.536022895741</v>
       </c>
       <c r="Y62">
-        <v>590.206271999996</v>
+        <v>590.2062719999929</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-6.48014975013211e-12</v>
       </c>
       <c r="AA62">
         <v>2470.60738181818</v>
@@ -5618,7 +5618,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>3933.97631756046</v>
+        <v>3933.97631756047</v>
       </c>
       <c r="H63">
         <v>2246.33233181818</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5185.77827597375</v>
+        <v>5185.77827597374</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>4.6250101</v>
       </c>
       <c r="R63">
-        <v>157.567845581395</v>
+        <v>157.567845581396</v>
       </c>
       <c r="S63">
-        <v>677.5417359999985</v>
+        <v>677.5417360000027</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>707.328046031054</v>
+        <v>707.95006196106</v>
       </c>
       <c r="Y63">
-        <v>554.3222640000024</v>
+        <v>554.3222639999976</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4843.86646186276</v>
+        <v>4843.86646186275</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5734,10 +5734,10 @@
         <v>1.3525973</v>
       </c>
       <c r="R64">
-        <v>142.219940465116</v>
+        <v>142.219940465117</v>
       </c>
       <c r="S64">
-        <v>611.5457439999988</v>
+        <v>611.5457440000031</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>567.024501050103</v>
+        <v>567.645272948249</v>
       </c>
       <c r="Y64">
-        <v>518.438256</v>
+        <v>518.4382559999984</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>3850.96136048465</v>
+        <v>3851.50597088914</v>
       </c>
       <c r="H65">
         <v>1797.78223181818</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4502.80942728705</v>
+        <v>4502.80942728704</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5817,10 +5817,10 @@
         <v>0.711204375</v>
       </c>
       <c r="R65">
-        <v>147.642096675858</v>
+        <v>148.160773251562</v>
       </c>
       <c r="S65">
-        <v>634.8610157061894</v>
+        <v>637.0913249817166</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>423.432736293812</v>
+        <v>421.202427018285</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>427.001563159113</v>
+        <v>427.621093513464</v>
       </c>
       <c r="Y65">
-        <v>482.554248</v>
+        <v>482.5542479999984</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>4162.60503529778</v>
+        <v>4162.60503529777</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5900,10 +5900,10 @@
         <v>0.06981145</v>
       </c>
       <c r="R66">
-        <v>244.077395348841</v>
+        <v>244.077395348838</v>
       </c>
       <c r="S66">
-        <v>1049.532800000016</v>
+        <v>1049.532800000003</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5912,16 +5912,16 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>-1.45519152283669e-11</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>308.527355506736</v>
+        <v>309.765177154691</v>
       </c>
       <c r="Y66">
-        <v>502.1792</v>
+        <v>502.1791999999984</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0.034905725</v>
       </c>
       <c r="R67">
-        <v>242.718169302325</v>
+        <v>242.718169302326</v>
       </c>
       <c r="S67">
-        <v>1043.688127999998</v>
+        <v>1043.688128000002</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5995,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>3.18323145620525e-12</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>307.910300795727</v>
+        <v>309.145646800382</v>
       </c>
       <c r="Y67">
-        <v>518.887872</v>
+        <v>518.8878719999984</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3484.74565798171</v>
+        <v>3484.7456579817</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>255.785882790696</v>
+        <v>255.785882790698</v>
       </c>
       <c r="S68">
-        <v>1099.879295999993</v>
+        <v>1099.879296000001</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6078,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>8.191847200578189e-12</v>
+        <v>0</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>307.294480194135</v>
+        <v>308.527355506781</v>
       </c>
       <c r="Y68">
-        <v>473.560704</v>
+        <v>473.5607039999985</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>3147.0864254157</v>
+        <v>3147.08642541569</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>257.923363720935</v>
+        <v>257.92336372093</v>
       </c>
       <c r="S69">
-        <v>1109.070464000021</v>
+        <v>1109.070463999999</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>-2.31921148952097e-11</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69">
-        <v>306.679891233744</v>
+        <v>307.910300795767</v>
       </c>
       <c r="Y69">
-        <v>476.233536</v>
+        <v>476.2335359999984</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2810.27134093111</v>
+        <v>2810.2713409311</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>253.835728372096</v>
+        <v>253.835728372093</v>
       </c>
       <c r="S70">
-        <v>1091.493632000013</v>
+        <v>1091.493632</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6244,16 +6244,16 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>-1.31876731757075e-11</v>
+        <v>0</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>306.066531451283</v>
+        <v>307.294480194176</v>
       </c>
       <c r="Y70">
-        <v>488.5063680000001</v>
+        <v>488.5063679999984</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -6288,19 +6288,19 @@
         <v>1951.68818181818</v>
       </c>
       <c r="I71">
-        <v>1230.51674955</v>
+        <v>1230.51674955001</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2474.29829415773</v>
+        <v>2474.29829415772</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1250</v>
+        <v>1250.00000000001</v>
       </c>
       <c r="N71">
         <v>1000</v>
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>248.259720930231</v>
+        <v>248.259720930234</v>
       </c>
       <c r="S71">
-        <v>1067.516799999993</v>
+        <v>1067.516800000006</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>1.25055521493778e-11</v>
+        <v>0</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71">
-        <v>305.454398388384</v>
+        <v>306.679891233787</v>
       </c>
       <c r="Y71">
-        <v>507.1792</v>
+        <v>507.1791999999984</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>1884.39338181819</v>
       </c>
       <c r="I72">
-        <v>1230.6170994</v>
+        <v>1230.61709940001</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1250</v>
+        <v>1250.00000000001</v>
       </c>
       <c r="N72">
         <v>1000</v>
@@ -6398,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>249.530225116278</v>
+        <v>249.530225116281</v>
       </c>
       <c r="S72">
-        <v>1072.979967999995</v>
+        <v>1072.979968000008</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6410,16 +6410,16 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>1.04591890703887e-11</v>
+        <v>0</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>304.843489591604</v>
+        <v>306.06653145132</v>
       </c>
       <c r="Y72">
-        <v>496.4120320000017</v>
+        <v>496.4120319999992</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -6454,19 +6454,19 @@
         <v>1917.09858181819</v>
       </c>
       <c r="I73">
-        <v>1230.50922335001</v>
+        <v>1230.50922335</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1804.86989863023</v>
+        <v>1804.86989863022</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1250.00000000001</v>
+        <v>1250</v>
       </c>
       <c r="N73">
         <v>1000</v>
@@ -6481,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>247.079799069783</v>
+        <v>247.07979906977</v>
       </c>
       <c r="S73">
-        <v>1062.443136000067</v>
+        <v>1062.443136000011</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6493,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="V73">
-        <v>-5.79802872380242e-11</v>
+        <v>0</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73">
-        <v>304.233802612418</v>
+        <v>305.454398388417</v>
       </c>
       <c r="Y73">
-        <v>501.6448640000016</v>
+        <v>501.644864</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>1949.8037818182</v>
       </c>
       <c r="I74">
-        <v>605.401347300011</v>
+        <v>605.401347299999</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>625.000000000011</v>
+        <v>624.999999999999</v>
       </c>
       <c r="N74">
         <v>1000</v>
@@ -6564,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>244.629373023269</v>
+        <v>244.629373023256</v>
       </c>
       <c r="S74">
-        <v>1051.906304000057</v>
+        <v>1051.906304000001</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6576,16 +6576,16 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>-4.25188773078844e-11</v>
+        <v>1.37585942638907e-11</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74">
-        <v>303.625335007209</v>
+        <v>304.84348959164</v>
       </c>
       <c r="Y74">
-        <v>506.8776960000032</v>
+        <v>506.8776960000009</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>19.47187745</v>
+        <v>19.4718774500044</v>
       </c>
       <c r="K75">
         <v>1303.25814536341</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>4.39825953435502e-12</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6647,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>242.178946976754</v>
+        <v>242.178946976748</v>
       </c>
       <c r="S75">
-        <v>1041.369472000042</v>
+        <v>1041.369472000016</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6659,16 +6659,16 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>-2.70574673777446e-11</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75">
-        <v>303.018084337206</v>
+        <v>304.233802612453</v>
       </c>
       <c r="Y75">
-        <v>512.1105280000048</v>
+        <v>512.1105280000024</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -6706,13 +6706,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>33.0293127263169</v>
+        <v>33.0293127263144</v>
       </c>
       <c r="K76">
         <v>1300</v>
       </c>
       <c r="L76">
-        <v>13.6842105263169</v>
+        <v>13.6842105263144</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>302.412048168539</v>
+        <v>303.625335007228</v>
       </c>
       <c r="Y76">
-        <v>536.5433600000064</v>
+        <v>536.5433600000041</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -6789,34 +6789,34 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>33.0738011763226</v>
+        <v>33.0738011763158</v>
       </c>
       <c r="K77">
         <v>1300</v>
       </c>
       <c r="L77">
-        <v>13.6842105263226</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1000</v>
+        <v>999.999999999996</v>
       </c>
       <c r="O77">
-        <v>1218.181818181818</v>
+        <v>1218.181818181813</v>
       </c>
       <c r="P77">
-        <v>812.121212121212</v>
+        <v>812.1212121212088</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>232.812978604656</v>
+        <v>232.812978604657</v>
       </c>
       <c r="S77">
-        <v>1001.095808000021</v>
+        <v>1001.095808000025</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6831,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>301.807224072202</v>
+        <v>303.018084337214</v>
       </c>
       <c r="Y77">
-        <v>541.7761920000064</v>
+        <v>541.7761920000016</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -6872,13 +6872,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>33.118289626313</v>
+        <v>33.1182896263158</v>
       </c>
       <c r="K78">
         <v>1300</v>
       </c>
       <c r="L78">
-        <v>13.684210526313</v>
+        <v>13.6842105263158</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6914,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>301.203609624058</v>
+        <v>302.412048168539</v>
       </c>
       <c r="Y78">
-        <v>531.009024000008</v>
+        <v>531.0090240000104</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -6955,13 +6955,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>33.1505687763159</v>
+        <v>33.1505687763193</v>
       </c>
       <c r="K79">
         <v>1300</v>
       </c>
       <c r="L79">
-        <v>13.6842105263159</v>
+        <v>13.6842105263193</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>227.912126511634</v>
+        <v>227.912126511633</v>
       </c>
       <c r="S79">
-        <v>980.0221440000262</v>
+        <v>980.0221440000219</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6997,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>300.60120240481</v>
+        <v>301.807224072202</v>
       </c>
       <c r="Y79">
-        <v>552.2418560000095</v>
+        <v>552.241856000012</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7035,19 +7035,19 @@
         <v>2366.03498181825</v>
       </c>
       <c r="I80">
-        <v>67.7092025294987</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>33.1828479263157</v>
       </c>
       <c r="K80">
         <v>1300</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>13.6842105263157</v>
       </c>
       <c r="M80">
-        <v>87.2078399294987</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1000</v>
@@ -7062,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>221.740770232565</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>953.4853120000295</v>
       </c>
       <c r="T80">
-        <v>317.828437333343</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -7077,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>953.485312000029</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>300</v>
+        <v>301.203609624058</v>
       </c>
       <c r="Y80">
-        <v>573.4746880000112</v>
+        <v>573.4746880000088</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0.65550003</v>
       </c>
       <c r="G81">
-        <v>5114.22118679536</v>
+        <v>5127.90539732167</v>
       </c>
       <c r="H81">
         <v>2398.74018181826</v>
@@ -7121,34 +7121,34 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>19.4986374</v>
+        <v>33.1828479263124</v>
       </c>
       <c r="K81">
         <v>1300</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>13.6842105263124</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>999.999999999998</v>
+        <v>1000</v>
       </c>
       <c r="O81">
-        <v>1218.181818181815</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P81">
-        <v>812.1212121212103</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>219.290344186055</v>
+        <v>219.290344186054</v>
       </c>
       <c r="S81">
-        <v>942.9484800000364</v>
+        <v>942.9484800000322</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7163,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>300</v>
+        <v>300.60120240481</v>
       </c>
       <c r="Y81">
-        <v>578.707520000008</v>
+        <v>578.7075200000104</v>
       </c>
       <c r="Z81">
         <v>0</v>

--- a/dayin.xlsx
+++ b/dayin.xlsx
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA81"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,37 +537,37 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <v>20.1164578</v>
+        <v>19.5682133</v>
       </c>
       <c r="D2">
-        <v>1381.28</v>
+        <v>1549.28</v>
       </c>
       <c r="E2">
-        <v>3555.4076</v>
+        <v>3623.4076</v>
       </c>
       <c r="F2">
         <v>0.35220001</v>
       </c>
       <c r="G2">
-        <v>6704.94343638256</v>
+        <v>6598.81410477287</v>
       </c>
       <c r="H2">
-        <v>3494.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1267.34145175</v>
+        <v>1269.5682133</v>
       </c>
       <c r="K2">
-        <v>5910.93188741002</v>
+        <v>2470.10296103711</v>
       </c>
       <c r="L2">
         <v>1250</v>
@@ -576,81 +576,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P2">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q2">
-        <v>2.77500605</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>188.933670697674</v>
+        <v>360.297674418605</v>
       </c>
       <c r="S2">
-        <v>812.4147839999981</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="T2">
-        <v>166.666666666669</v>
+        <v>0.888888888888933</v>
       </c>
       <c r="U2">
-        <v>500.000000000007</v>
+        <v>2.6666666666668</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>-5.684341886080801e-14</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X2">
-        <v>1111.79846646574</v>
+        <v>300</v>
       </c>
       <c r="Y2">
-        <v>568.8652160000008</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>3494.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5112.5</v>
+        <v>4525</v>
       </c>
       <c r="C3">
-        <v>20.39342325</v>
+        <v>19.34694195</v>
       </c>
       <c r="D3">
-        <v>1383.28</v>
+        <v>1551.28</v>
       </c>
       <c r="E3">
-        <v>3582.4076</v>
+        <v>3650.4076</v>
       </c>
       <c r="F3">
         <v>0.35220001</v>
       </c>
       <c r="G3">
-        <v>6714.07674175465</v>
+        <v>6124.08120551589</v>
       </c>
       <c r="H3">
-        <v>3521.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1264.43326875</v>
+        <v>1269.34694195</v>
       </c>
       <c r="K3">
-        <v>6193.0295576915</v>
+        <v>2760.80270363452</v>
       </c>
       <c r="L3">
         <v>1250</v>
@@ -659,81 +659,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P3">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q3">
-        <v>5.9601545</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>188.394135813953</v>
+        <v>360.762790697674</v>
       </c>
       <c r="S3">
-        <v>810.0947839999978</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="T3">
-        <v>166.666666666666</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U3">
-        <v>499.999999999998</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X3">
-        <v>1222.07486953281</v>
+        <v>300</v>
       </c>
       <c r="Y3">
-        <v>573.1852160000008</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3521.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4475</v>
+        <v>4050</v>
       </c>
       <c r="C4">
-        <v>20.6703887</v>
+        <v>19.1256706</v>
       </c>
       <c r="D4">
-        <v>1285.28</v>
+        <v>1553.28</v>
       </c>
       <c r="E4">
-        <v>3589.4076</v>
+        <v>3677.4076</v>
       </c>
       <c r="F4">
         <v>0.35220001</v>
       </c>
       <c r="G4">
-        <v>6049.49283782442</v>
+        <v>5649.34830625891</v>
       </c>
       <c r="H4">
-        <v>3528.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1261.52508575</v>
+        <v>1269.1256706</v>
       </c>
       <c r="K4">
-        <v>6474.42198379727</v>
+        <v>3050.77569687543</v>
       </c>
       <c r="L4">
         <v>1250</v>
@@ -742,81 +742,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O4">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P4">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q4">
-        <v>9.14530295</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>165.342973023251</v>
+        <v>361.227906976744</v>
       </c>
       <c r="S4">
-        <v>710.9747839999793</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="T4">
-        <v>166.666666666673</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U4">
-        <v>500</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.898570189950988e-11</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X4">
-        <v>1332.13071979375</v>
+        <v>300</v>
       </c>
       <c r="Y4">
-        <v>574.3052160000009</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3528.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4435</v>
+        <v>4775</v>
       </c>
       <c r="C5">
-        <v>20.4487829</v>
+        <v>19.1663123</v>
       </c>
       <c r="D5">
-        <v>1287.28</v>
+        <v>1555.28</v>
       </c>
       <c r="E5">
-        <v>3536.4076</v>
+        <v>3704.4076</v>
       </c>
       <c r="F5">
         <v>0.35220001</v>
       </c>
       <c r="G5">
-        <v>6006.81876301186</v>
+        <v>6374.87732005194</v>
       </c>
       <c r="H5">
-        <v>3475.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1256.50394117</v>
+        <v>1269.1663123</v>
       </c>
       <c r="K5">
-        <v>6755.11092883778</v>
+        <v>3340.02375763324</v>
       </c>
       <c r="L5">
         <v>1250</v>
@@ -825,81 +825,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O5">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P5">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q5">
-        <v>13.94484173</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>167.780182325582</v>
+        <v>361.693023255814</v>
       </c>
       <c r="S5">
-        <v>721.4547840000025</v>
+        <v>1555.28</v>
       </c>
       <c r="T5">
-        <v>166.666666666666</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U5">
-        <v>500</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.989519660128281e-12</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X5">
-        <v>1441.96645835416</v>
+        <v>300</v>
       </c>
       <c r="Y5">
-        <v>565.8252160000009</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>3475.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>4395</v>
+        <v>5500</v>
       </c>
       <c r="C6">
-        <v>20.2271771</v>
+        <v>19.206954</v>
       </c>
       <c r="D6">
-        <v>1289.28</v>
+        <v>1557.28</v>
       </c>
       <c r="E6">
-        <v>3563.4076</v>
+        <v>3731.4076</v>
       </c>
       <c r="F6">
         <v>0.35220001</v>
       </c>
       <c r="G6">
-        <v>5961.33910681395</v>
+        <v>7100.40633384496</v>
       </c>
       <c r="H6">
-        <v>3502.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1251.4827966</v>
+        <v>1269.206954</v>
       </c>
       <c r="K6">
-        <v>7035.09815151568</v>
+        <v>3628.54869823916</v>
       </c>
       <c r="L6">
         <v>1250</v>
@@ -908,81 +908,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P6">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q6">
-        <v>18.7443805</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>167.240647441868</v>
+        <v>362.158139534884</v>
       </c>
       <c r="S6">
-        <v>719.1347840000324</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="T6">
-        <v>166.666666666655</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U6">
-        <v>500</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-3.501554601825774e-11</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X6">
-        <v>1551.58252543745</v>
+        <v>300</v>
       </c>
       <c r="Y6">
-        <v>570.1452160000008</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>3502.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>4150</v>
+        <v>5275</v>
       </c>
       <c r="C7">
-        <v>20.76220885</v>
+        <v>19.22133745</v>
       </c>
       <c r="D7">
-        <v>1291.28</v>
+        <v>1559.28</v>
       </c>
       <c r="E7">
-        <v>3490.4076</v>
+        <v>3758.4076</v>
       </c>
       <c r="F7">
         <v>0.35220001</v>
       </c>
       <c r="G7">
-        <v>5711.75029813023</v>
+        <v>6875.90908938798</v>
       </c>
       <c r="H7">
-        <v>3429.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1243.8455228</v>
+        <v>1269.22133745</v>
       </c>
       <c r="K7">
-        <v>7314.38540613689</v>
+        <v>3916.35232649356</v>
       </c>
       <c r="L7">
         <v>1250</v>
@@ -991,81 +991,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O7">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P7">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q7">
-        <v>26.91668605</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>170.422042790704</v>
+        <v>362.623255813954</v>
       </c>
       <c r="S7">
-        <v>732.8147840000272</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="T7">
-        <v>166.666666666657</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U7">
-        <v>500</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>-2.899014361901209e-11</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X7">
-        <v>1660.97936038658</v>
+        <v>300</v>
       </c>
       <c r="Y7">
-        <v>558.4652160000009</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>3429.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3905</v>
+        <v>5050</v>
       </c>
       <c r="C8">
-        <v>21.2972406</v>
+        <v>19.2357209</v>
       </c>
       <c r="D8">
-        <v>1293.28</v>
+        <v>1561.28</v>
       </c>
       <c r="E8">
-        <v>3517.4076</v>
+        <v>3785.4076</v>
       </c>
       <c r="F8">
         <v>0.35220001</v>
       </c>
       <c r="G8">
-        <v>5458.65451270233</v>
+        <v>6651.41184493101</v>
       </c>
       <c r="H8">
-        <v>3456.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1236.208249</v>
+        <v>1269.2357209</v>
       </c>
       <c r="K8">
-        <v>7592.97444262155</v>
+        <v>4203.43644567733</v>
       </c>
       <c r="L8">
         <v>1250</v>
@@ -1074,81 +1074,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O8">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P8">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q8">
-        <v>35.0889916</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>169.882507906977</v>
+        <v>363.088372093023</v>
       </c>
       <c r="S8">
-        <v>730.494784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="T8">
-        <v>166.666666666671</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U8">
-        <v>500.000000000013</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X8">
-        <v>1770.1574016658</v>
+        <v>300</v>
       </c>
       <c r="Y8">
-        <v>562.7852160000008</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>3456.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4057.5</v>
+        <v>5017.5</v>
       </c>
       <c r="C9">
-        <v>28.6920182</v>
+        <v>19.2726831</v>
       </c>
       <c r="D9">
-        <v>1295.28</v>
+        <v>1563.28</v>
       </c>
       <c r="E9">
-        <v>3444.4076</v>
+        <v>3652.4076</v>
       </c>
       <c r="F9">
         <v>0.35220001</v>
       </c>
       <c r="G9">
-        <v>5608.6913593686</v>
+        <v>6619.43717922403</v>
       </c>
       <c r="H9">
-        <v>3383.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1230.69663055</v>
+        <v>1269.2726831</v>
       </c>
       <c r="K9">
-        <v>7870.867006515</v>
+        <v>4489.80285456314</v>
       </c>
       <c r="L9">
         <v>1250</v>
@@ -1157,81 +1157,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P9">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q9">
-        <v>47.99538765</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>173.063903255814</v>
+        <v>363.553488372093</v>
       </c>
       <c r="S9">
-        <v>744.1747840000003</v>
+        <v>1563.28</v>
       </c>
       <c r="T9">
-        <v>166.666666666663</v>
+        <v>0.888888888888923</v>
       </c>
       <c r="U9">
-        <v>499.999999999989</v>
+        <v>2.66666666666677</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="X9">
-        <v>1879.11708686248</v>
+        <v>300</v>
       </c>
       <c r="Y9">
-        <v>551.1052160000008</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3383.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>4210</v>
+        <v>4985</v>
       </c>
       <c r="C10">
-        <v>36.0867958</v>
+        <v>19.3096453</v>
       </c>
       <c r="D10">
-        <v>1297.28</v>
+        <v>1523.28</v>
       </c>
       <c r="E10">
-        <v>3471.4076</v>
+        <v>3599.4076</v>
       </c>
       <c r="F10">
         <v>0.35220001</v>
       </c>
       <c r="G10">
-        <v>5755.2212292907</v>
+        <v>6629.55258673956</v>
       </c>
       <c r="H10">
-        <v>3410.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1225.1850121</v>
+        <v>1269.3096453</v>
       </c>
       <c r="K10">
-        <v>8148.06483899871</v>
+        <v>4775.45334742673</v>
       </c>
       <c r="L10">
         <v>1250</v>
@@ -1240,81 +1240,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O10">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P10">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q10">
-        <v>60.9017837</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>172.524368372087</v>
+        <v>354.251162790698</v>
       </c>
       <c r="S10">
-        <v>741.8547839999741</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="T10">
-        <v>166.666666666675</v>
+        <v>50.7421147707865</v>
       </c>
       <c r="U10">
-        <v>500</v>
+        <v>152.22634431236</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>2.501110429875553e-11</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="X10">
-        <v>1987.85885268875</v>
+        <v>300</v>
       </c>
       <c r="Y10">
-        <v>555.4252160000009</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>3410.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4112.5</v>
+        <v>4957.5</v>
       </c>
       <c r="C11">
-        <v>38.29081215</v>
+        <v>19.5021497</v>
       </c>
       <c r="D11">
-        <v>1299.28</v>
+        <v>1497.28</v>
       </c>
       <c r="E11">
-        <v>3398.4076</v>
+        <v>3566.4076</v>
       </c>
       <c r="F11">
         <v>0.35220001</v>
       </c>
       <c r="G11">
-        <v>5649.47828037698</v>
+        <v>6717.61703342093</v>
       </c>
       <c r="H11">
-        <v>3337.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1213.89359807</v>
+        <v>1269.5021497</v>
       </c>
       <c r="K11">
-        <v>8424.56967690121</v>
+        <v>5060.38971405816</v>
       </c>
       <c r="L11">
         <v>1250</v>
@@ -1323,28 +1323,28 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O11">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P11">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q11">
-        <v>74.39721408</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>175.70576372093</v>
+        <v>348.204651162791</v>
       </c>
       <c r="S11">
-        <v>755.534783999999</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="T11">
-        <v>166.666666666671</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U11">
-        <v>500.000000000012</v>
+        <v>500</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1353,51 +1353,51 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="X11">
-        <v>2096.38313498337</v>
+        <v>333.650927470281</v>
       </c>
       <c r="Y11">
-        <v>543.7452160000008</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>3337.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>4015</v>
+        <v>4930</v>
       </c>
       <c r="C12">
-        <v>40.4948285</v>
+        <v>19.6946541</v>
       </c>
       <c r="D12">
-        <v>1301.28</v>
+        <v>1496.28</v>
       </c>
       <c r="E12">
-        <v>3325.4076</v>
+        <v>3493.4076</v>
       </c>
       <c r="F12">
         <v>0.35220001</v>
       </c>
       <c r="G12">
-        <v>5543.73533147326</v>
+        <v>6690.06535177442</v>
       </c>
       <c r="H12">
-        <v>3264.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1202.60218405</v>
+        <v>1269.6946541</v>
       </c>
       <c r="K12">
-        <v>8700.38325270896</v>
+        <v>5344.61373977302</v>
       </c>
       <c r="L12">
         <v>1250</v>
@@ -1406,81 +1406,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O12">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P12">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q12">
-        <v>87.89264445000001</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>178.887159069767</v>
+        <v>347.972093023256</v>
       </c>
       <c r="S12">
-        <v>769.2147839999981</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="T12">
-        <v>166.666666666671</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U12">
-        <v>500.000000000013</v>
+        <v>500</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X12">
-        <v>2204.69036871341</v>
+        <v>445.48362561534</v>
       </c>
       <c r="Y12">
-        <v>532.0652160000008</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3264.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>4007.5</v>
+        <v>5140</v>
       </c>
       <c r="C13">
-        <v>42.8125747</v>
+        <v>19.63862545</v>
       </c>
       <c r="D13">
-        <v>1303.28</v>
+        <v>1495.28</v>
       </c>
       <c r="E13">
-        <v>3352.4076</v>
+        <v>3420.4076</v>
       </c>
       <c r="F13">
         <v>0.35220001</v>
       </c>
       <c r="G13">
-        <v>5515.44074309535</v>
+        <v>6899.76513707791</v>
       </c>
       <c r="H13">
-        <v>3291.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1182.2661073</v>
+        <v>1269.63862545</v>
       </c>
       <c r="K13">
-        <v>8975.50729457719</v>
+        <v>5628.12720542358</v>
       </c>
       <c r="L13">
         <v>1250</v>
@@ -1489,81 +1489,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O13">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P13">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q13">
-        <v>110.5464674</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>178.347624186046</v>
+        <v>347.739534883721</v>
       </c>
       <c r="S13">
-        <v>766.8947839999978</v>
+        <v>1495.28</v>
       </c>
       <c r="T13">
-        <v>166.666666666668</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U13">
-        <v>500.000000000003</v>
+        <v>500</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>9.663381206337363e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X13">
-        <v>2312.78098797598</v>
+        <v>557.09265836411</v>
       </c>
       <c r="Y13">
-        <v>536.3852160000008</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3291.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>4000</v>
+        <v>5550</v>
       </c>
       <c r="C14">
-        <v>45.1303209</v>
+        <v>19.5825968</v>
       </c>
       <c r="D14">
-        <v>1305.28</v>
+        <v>1494.28</v>
       </c>
       <c r="E14">
-        <v>3379.4076</v>
+        <v>3447.4076</v>
       </c>
       <c r="F14">
         <v>0.35220001</v>
       </c>
       <c r="G14">
-        <v>5487.14615466744</v>
+        <v>7309.4649223814</v>
       </c>
       <c r="H14">
-        <v>3318.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1161.9300305</v>
+        <v>1269.5825968</v>
       </c>
       <c r="K14">
-        <v>9249.94352634075</v>
+        <v>5910.93188741002</v>
       </c>
       <c r="L14">
         <v>1250</v>
@@ -1572,81 +1572,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O14">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P14">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q14">
-        <v>133.2002904</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>177.808089302325</v>
+        <v>347.506976744186</v>
       </c>
       <c r="S14">
-        <v>764.5747839999974</v>
+        <v>1494.28</v>
       </c>
       <c r="T14">
-        <v>166.666666666665</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U14">
-        <v>499.999999999996</v>
+        <v>500</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>-1.023181539494544e-12</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X14">
-        <v>2420.65542600003</v>
+        <v>668.478473047381</v>
       </c>
       <c r="Y14">
-        <v>540.7052160000009</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>3318.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>4310</v>
+        <v>5105</v>
       </c>
       <c r="C15">
-        <v>43.723751</v>
+        <v>19.67642385</v>
       </c>
       <c r="D15">
-        <v>1207.28</v>
+        <v>1493.28</v>
       </c>
       <c r="E15">
-        <v>3306.4076</v>
+        <v>3374.4076</v>
       </c>
       <c r="F15">
         <v>0.35220001</v>
       </c>
       <c r="G15">
-        <v>5746.62374793256</v>
+        <v>6864.19239330988</v>
       </c>
       <c r="H15">
-        <v>3245.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1132.7777633</v>
+        <v>1269.554253775</v>
       </c>
       <c r="K15">
-        <v>9523.693667524891</v>
+        <v>6193.0295576915</v>
       </c>
       <c r="L15">
         <v>1250</v>
@@ -1655,81 +1655,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O15">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P15">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q15">
-        <v>160.9459877</v>
+        <v>0.122170075</v>
       </c>
       <c r="R15">
-        <v>157.733670697674</v>
+        <v>347.274418604651</v>
       </c>
       <c r="S15">
-        <v>678.2547839999982</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="T15">
-        <v>166.666666666669</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U15">
-        <v>500.000000000006</v>
+        <v>500</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>9.094947017729282e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X15">
-        <v>2528.31411514803</v>
+        <v>779.641516101286</v>
       </c>
       <c r="Y15">
-        <v>529.0252160000008</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3245.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>4620</v>
+        <v>4860</v>
       </c>
       <c r="C16">
-        <v>42.3171811</v>
+        <v>19.7702509</v>
       </c>
       <c r="D16">
-        <v>1209.28</v>
+        <v>1377.28</v>
       </c>
       <c r="E16">
-        <v>3333.4076</v>
+        <v>3501.4076</v>
       </c>
       <c r="F16">
         <v>0.35220001</v>
       </c>
       <c r="G16">
-        <v>6027.01296910465</v>
+        <v>6590.83846888953</v>
       </c>
       <c r="H16">
-        <v>3272.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1103.6254961</v>
+        <v>1269.52591075</v>
       </c>
       <c r="K16">
-        <v>9796.759433356079</v>
+        <v>6474.42198379727</v>
       </c>
       <c r="L16">
         <v>1250</v>
@@ -1738,81 +1738,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O16">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P16">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q16">
-        <v>188.691685</v>
+        <v>0.24434015</v>
       </c>
       <c r="R16">
-        <v>157.194135813953</v>
+        <v>320.297674418605</v>
       </c>
       <c r="S16">
-        <v>675.9347839999979</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="T16">
-        <v>166.666666666666</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U16">
-        <v>499.999999999999</v>
+        <v>500</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>-9.663381206337363e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X16">
-        <v>2635.75748691774</v>
+        <v>890.5822330690841</v>
       </c>
       <c r="Y16">
-        <v>533.3452160000008</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>3272.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>4720</v>
+        <v>5355</v>
       </c>
       <c r="C17">
-        <v>40.78065825</v>
+        <v>19.94335435</v>
       </c>
       <c r="D17">
-        <v>1211.28</v>
+        <v>1379.28</v>
       </c>
       <c r="E17">
-        <v>3360.4076</v>
+        <v>3528.4076</v>
       </c>
       <c r="F17">
         <v>0.35220001</v>
       </c>
       <c r="G17">
-        <v>6110.39243102674</v>
+        <v>7084.32779146395</v>
       </c>
       <c r="H17">
-        <v>3299.49850909091</v>
+        <v>3467.49850909091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1087.46346965</v>
+        <v>1268.43368125</v>
       </c>
       <c r="K17">
-        <v>10069.1425347727</v>
+        <v>6755.11092883778</v>
       </c>
       <c r="L17">
         <v>1250</v>
@@ -1821,1433 +1821,1433 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="O17">
-        <v>60.90909090909102</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P17">
-        <v>40.60606060606068</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q17">
-        <v>203.3171886</v>
+        <v>1.5096731</v>
       </c>
       <c r="R17">
-        <v>156.654600930232</v>
+        <v>319.80064744186</v>
       </c>
       <c r="S17">
-        <v>673.6147839999976</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="T17">
-        <v>166.666666666663</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U17">
-        <v>499.99999999999</v>
+        <v>500</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>-1.023181539494544e-12</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X17">
-        <v>2742.9859719439</v>
+        <v>1001.30106860295</v>
       </c>
       <c r="Y17">
-        <v>537.6652160000008</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>3299.49850909091</v>
+        <v>3467.49850909091</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>4820</v>
+        <v>5100</v>
       </c>
       <c r="C18">
-        <v>39.2441354</v>
+        <v>20.1164578</v>
       </c>
       <c r="D18">
-        <v>1213.28</v>
+        <v>1381.28</v>
       </c>
       <c r="E18">
-        <v>3287.4076</v>
+        <v>3555.4076</v>
       </c>
       <c r="F18">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G18">
-        <v>4897.27886979302</v>
+        <v>6827.94784010349</v>
       </c>
       <c r="H18">
-        <v>2617.4076</v>
+        <v>3494.49850909091</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>446.301443299997</v>
+        <v>1267.34145175</v>
       </c>
       <c r="K18">
-        <v>10340.8446784358</v>
+        <v>7035.09815151568</v>
       </c>
       <c r="L18">
-        <v>624.999999999997</v>
+        <v>1250</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>550.000000000001</v>
+        <v>50</v>
       </c>
       <c r="O18">
-        <v>670.0000000000011</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P18">
-        <v>446.6666666666674</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q18">
-        <v>217.9426921</v>
+        <v>2.77500605</v>
       </c>
       <c r="R18">
-        <v>159.83599627907</v>
+        <v>319.442321860465</v>
       </c>
       <c r="S18">
-        <v>687.294784000001</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X18">
-        <v>2850.00000000001</v>
+        <v>1111.79846646574</v>
       </c>
       <c r="Y18">
-        <v>525.985216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>2617.4076</v>
+        <v>3494.49850909091</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>4825</v>
+        <v>5112.5</v>
       </c>
       <c r="C19">
-        <v>42.53360225</v>
+        <v>20.39342325</v>
       </c>
       <c r="D19">
-        <v>1215.28</v>
+        <v>1383.28</v>
       </c>
       <c r="E19">
-        <v>3214.4076</v>
+        <v>3582.4076</v>
       </c>
       <c r="F19">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G19">
-        <v>3813.3452952593</v>
+        <v>6836.55053989419</v>
       </c>
       <c r="H19">
-        <v>1996.22578181818</v>
+        <v>3521.49850909091</v>
       </c>
       <c r="I19">
-        <v>195.680596350003</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1264.43326875</v>
       </c>
       <c r="K19">
-        <v>10463.4300667397</v>
+        <v>7314.3854061369</v>
       </c>
       <c r="L19">
-        <v>-2.55795384873636e-12</v>
+        <v>1250</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O19">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P19">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q19">
-        <v>238.2141986</v>
+        <v>5.9601545</v>
       </c>
       <c r="R19">
-        <v>163.017391627907</v>
+        <v>318.339810232558</v>
       </c>
       <c r="S19">
-        <v>700.974784</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X19">
-        <v>2844.30000000001</v>
+        <v>1222.07486953281</v>
       </c>
       <c r="Y19">
-        <v>514.3052159999984</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>1996.22578181818</v>
+        <v>3521.49850909091</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>4830</v>
+        <v>4475</v>
       </c>
       <c r="C20">
-        <v>45.8230691</v>
+        <v>20.6703887</v>
       </c>
       <c r="D20">
-        <v>1319.032</v>
+        <v>1285.28</v>
       </c>
       <c r="E20">
-        <v>3141.4076</v>
+        <v>3589.4076</v>
       </c>
       <c r="F20">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G20">
-        <v>3829.25813943023</v>
+        <v>6170.20858852209</v>
       </c>
       <c r="H20">
-        <v>1923.22578181818</v>
+        <v>3528.49850909091</v>
       </c>
       <c r="I20">
-        <v>212.662635900003</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1261.52508575</v>
       </c>
       <c r="K20">
-        <v>10437.2714915728</v>
+        <v>7592.97444262155</v>
       </c>
       <c r="L20">
-        <v>-2.89901436190121e-12</v>
+        <v>1250</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P20">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q20">
-        <v>258.485705</v>
+        <v>9.14530295</v>
       </c>
       <c r="R20">
-        <v>189.862042790698</v>
+        <v>293.423345116279</v>
       </c>
       <c r="S20">
-        <v>816.4067840000014</v>
+        <v>1261.720384</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X20">
-        <v>2838.61140000001</v>
+        <v>1332.13071979374</v>
       </c>
       <c r="Y20">
-        <v>502.6252159999984</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1923.22578181818</v>
+        <v>3528.49850909091</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>5100</v>
+        <v>4435</v>
       </c>
       <c r="C21">
-        <v>44.8789446</v>
+        <v>20.4487829</v>
       </c>
       <c r="D21">
-        <v>1380.976</v>
+        <v>1287.28</v>
       </c>
       <c r="E21">
-        <v>3068.4076</v>
+        <v>3536.4076</v>
       </c>
       <c r="F21">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G21">
-        <v>4108.9359199186</v>
+        <v>6124.72437324442</v>
       </c>
       <c r="H21">
-        <v>1850.22578181818</v>
+        <v>3475.49850909091</v>
       </c>
       <c r="I21">
-        <v>220.670808900005</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1256.50394117</v>
       </c>
       <c r="K21">
-        <v>10411.1783128439</v>
+        <v>7870.867006515</v>
       </c>
       <c r="L21">
-        <v>-4.9453774408903e-12</v>
+        <v>1250</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O21">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P21">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q21">
-        <v>265.5497535</v>
+        <v>13.94484173</v>
       </c>
       <c r="R21">
-        <v>206.983903255814</v>
+        <v>292.878973023256</v>
       </c>
       <c r="S21">
-        <v>890.0307840000002</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X21">
-        <v>2832.93417720001</v>
+        <v>1441.96645835416</v>
       </c>
       <c r="Y21">
-        <v>490.9452159999985</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1850.22578181818</v>
+        <v>3475.49850909091</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>5150</v>
+        <v>4395</v>
       </c>
       <c r="C22">
-        <v>43.9348201</v>
+        <v>20.2271771</v>
       </c>
       <c r="D22">
-        <v>1442.92</v>
+        <v>1289.28</v>
       </c>
       <c r="E22">
-        <v>3195.4076</v>
+        <v>3563.4076</v>
       </c>
       <c r="F22">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G22">
-        <v>4161.5997470186</v>
+        <v>6076.4345765814</v>
       </c>
       <c r="H22">
-        <v>1977.22578181818</v>
+        <v>3502.49850909091</v>
       </c>
       <c r="I22">
-        <v>228.678981800005</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1251.4827966</v>
       </c>
       <c r="K22">
-        <v>10385.1503670618</v>
+        <v>8148.06483899871</v>
       </c>
       <c r="L22">
-        <v>-4.80326889373828e-12</v>
+        <v>1250</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O22">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P22">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q22">
-        <v>272.6138019</v>
+        <v>18.7443805</v>
       </c>
       <c r="R22">
-        <v>216.663903255814</v>
+        <v>289.357856744186</v>
       </c>
       <c r="S22">
-        <v>931.6547840000002</v>
+        <v>1244.238784</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X22">
-        <v>2827.26830884561</v>
+        <v>1551.58252543745</v>
       </c>
       <c r="Y22">
-        <v>511.2652159999984</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1977.22578181818</v>
+        <v>3502.49850909091</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>5150</v>
+        <v>4150</v>
       </c>
       <c r="C23">
-        <v>43.0984044</v>
+        <v>20.76220885</v>
       </c>
       <c r="D23">
-        <v>1408.04</v>
+        <v>1291.28</v>
       </c>
       <c r="E23">
-        <v>3280.502</v>
+        <v>3490.4076</v>
       </c>
       <c r="F23">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G23">
-        <v>4135.47847859767</v>
+        <v>5824.56167394419</v>
       </c>
       <c r="H23">
-        <v>2062.32018181818</v>
+        <v>3429.49850909091</v>
       </c>
       <c r="I23">
-        <v>243.298800100005</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1243.8455228</v>
       </c>
       <c r="K23">
-        <v>10359.1874911441</v>
+        <v>8424.569676901219</v>
       </c>
       <c r="L23">
-        <v>-5.00222085975111e-12</v>
+        <v>1250</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O23">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P23">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q23">
-        <v>286.3972045</v>
+        <v>26.91668605</v>
       </c>
       <c r="R23">
-        <v>205.385972093024</v>
+        <v>290.115810232558</v>
       </c>
       <c r="S23">
-        <v>883.1596800000032</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X23">
-        <v>2821.61377222792</v>
+        <v>1660.97936038657</v>
       </c>
       <c r="Y23">
-        <v>524.8803199999976</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>2062.32018181818</v>
+        <v>3429.49850909091</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>5250</v>
+        <v>3905</v>
       </c>
       <c r="C24">
-        <v>42.2619887</v>
+        <v>21.2972406</v>
       </c>
       <c r="D24">
-        <v>1473.44</v>
+        <v>1293.28</v>
       </c>
       <c r="E24">
-        <v>3247.272</v>
+        <v>3517.4076</v>
       </c>
       <c r="F24">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G24">
-        <v>4237.99379601163</v>
+        <v>5569.88318991163</v>
       </c>
       <c r="H24">
-        <v>2029.09018181818</v>
+        <v>3456.49850909091</v>
       </c>
       <c r="I24">
-        <v>257.918618499998</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1236.208249</v>
       </c>
       <c r="K24">
-        <v>10333.2895224163</v>
+        <v>8700.38325270896</v>
       </c>
       <c r="L24">
-        <v>2.04636307898909e-12</v>
+        <v>1250</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O24">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P24">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q24">
-        <v>300.1806072</v>
+        <v>35.0889916</v>
       </c>
       <c r="R24">
-        <v>221.831739534884</v>
+        <v>287.897019534884</v>
       </c>
       <c r="S24">
-        <v>953.8764800000012</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X24">
-        <v>2815.97054468346</v>
+        <v>1770.1574016658</v>
       </c>
       <c r="Y24">
-        <v>519.5635199999984</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>2029.09018181818</v>
+        <v>3456.49850909091</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>5100</v>
+        <v>4057.5</v>
       </c>
       <c r="C25">
-        <v>41.5971712</v>
+        <v>28.6920182</v>
       </c>
       <c r="D25">
-        <v>1438.944</v>
+        <v>1295.28</v>
       </c>
       <c r="E25">
-        <v>3414.041999999999</v>
+        <v>3444.4076</v>
       </c>
       <c r="F25">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G25">
-        <v>4062.97792013488</v>
+        <v>5720.26617518256</v>
       </c>
       <c r="H25">
-        <v>2195.86018181818</v>
+        <v>3383.49850909091</v>
       </c>
       <c r="I25">
-        <v>268.662467400004</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1230.69663055</v>
       </c>
       <c r="K25">
-        <v>10307.4562986102</v>
+        <v>8975.50729457719</v>
       </c>
       <c r="L25">
-        <v>-3.86535248253495e-12</v>
+        <v>1250</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O25">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P25">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q25">
-        <v>310.2596386</v>
+        <v>47.99538765</v>
       </c>
       <c r="R25">
-        <v>207.604018604651</v>
+        <v>291.445670697674</v>
       </c>
       <c r="S25">
-        <v>892.6972799999993</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X25">
-        <v>2810.3386035941</v>
+        <v>1879.11708686247</v>
       </c>
       <c r="Y25">
-        <v>546.2467199999984</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>2195.86018181818</v>
+        <v>3383.49850909091</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>5150</v>
+        <v>4210</v>
       </c>
       <c r="C26">
-        <v>40.9323537</v>
+        <v>36.0867958</v>
       </c>
       <c r="D26">
-        <v>1604.448</v>
+        <v>1297.28</v>
       </c>
       <c r="E26">
-        <v>3580.812</v>
+        <v>3471.4076</v>
       </c>
       <c r="F26">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G26">
-        <v>4136.79925356046</v>
+        <v>5867.1421837093</v>
       </c>
       <c r="H26">
-        <v>2362.63018181818</v>
+        <v>3410.49850909091</v>
       </c>
       <c r="I26">
-        <v>279.406316300006</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1225.1850121</v>
       </c>
       <c r="K26">
-        <v>10281.6876578637</v>
+        <v>9249.94352634075</v>
       </c>
       <c r="L26">
-        <v>-5.6843418860808e-12</v>
+        <v>1250</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O26">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P26">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q26">
-        <v>320.33867</v>
+        <v>60.9017837</v>
       </c>
       <c r="R26">
-        <v>239.887925581396</v>
+        <v>291.273391627907</v>
       </c>
       <c r="S26">
-        <v>1031.518080000003</v>
+        <v>1252.475584</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X26">
-        <v>2804.71792638691</v>
+        <v>1987.85885268874</v>
       </c>
       <c r="Y26">
-        <v>572.9299199999984</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>2362.63018181818</v>
+        <v>3410.49850909091</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>5300</v>
+        <v>4112.5</v>
       </c>
       <c r="C27">
-        <v>40.61608455</v>
+        <v>38.29081215</v>
       </c>
       <c r="D27">
-        <v>1770.048</v>
+        <v>1299.28</v>
       </c>
       <c r="E27">
-        <v>3747.582</v>
+        <v>3398.4076</v>
       </c>
       <c r="F27">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G27">
-        <v>4314.04246589651</v>
+        <v>5759.24314549326</v>
       </c>
       <c r="H27">
-        <v>2529.40018181818</v>
+        <v>3337.49850909091</v>
       </c>
       <c r="I27">
-        <v>286.751728150002</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1213.89359807</v>
       </c>
       <c r="K27">
-        <v>10255.983438719</v>
+        <v>9523.6936675249</v>
       </c>
       <c r="L27">
-        <v>-1.81898940354586e-12</v>
+        <v>1250</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O27">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P27">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q27">
-        <v>327.3678127</v>
+        <v>74.39721408</v>
       </c>
       <c r="R27">
-        <v>272.194158139535</v>
+        <v>292.167159069767</v>
       </c>
       <c r="S27">
-        <v>1170.43488</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X27">
-        <v>2799.10849053413</v>
+        <v>2096.38313498336</v>
       </c>
       <c r="Y27">
-        <v>599.6131199999985</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>2529.40018181818</v>
+        <v>3337.49850909091</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>5650</v>
+        <v>4015</v>
       </c>
       <c r="C28">
-        <v>40.2998154</v>
+        <v>40.4948285</v>
       </c>
       <c r="D28">
-        <v>1935.648</v>
+        <v>1301.28</v>
       </c>
       <c r="E28">
-        <v>3718.6344</v>
+        <v>3325.4076</v>
       </c>
       <c r="F28">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G28">
-        <v>4698.14944894884</v>
+        <v>5650.31761519419</v>
       </c>
       <c r="H28">
-        <v>2500.45258181818</v>
+        <v>3264.49850909091</v>
       </c>
       <c r="I28">
-        <v>294.097139999998</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1202.60218405</v>
       </c>
       <c r="K28">
-        <v>10230.3434801222</v>
+        <v>9796.75943335609</v>
       </c>
       <c r="L28">
-        <v>1.98951966012828e-12</v>
+        <v>1250</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O28">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P28">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q28">
-        <v>334.3969554</v>
+        <v>87.89264445000001</v>
       </c>
       <c r="R28">
-        <v>311.782906046512</v>
+        <v>291.971810232558</v>
       </c>
       <c r="S28">
-        <v>1340.666496000001</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X28">
-        <v>2793.51027355307</v>
+        <v>2204.6903687134</v>
       </c>
       <c r="Y28">
-        <v>594.9815039999984</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>2500.45258181818</v>
+        <v>3264.49850909091</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>5375</v>
+        <v>4007.5</v>
       </c>
       <c r="C29">
-        <v>39.99843145</v>
+        <v>42.8125747</v>
       </c>
       <c r="D29">
-        <v>1958.712</v>
+        <v>1303.28</v>
       </c>
       <c r="E29">
-        <v>3877.0659</v>
+        <v>3352.4076</v>
       </c>
       <c r="F29">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G29">
-        <v>4421.20907181512</v>
+        <v>5622.34742216512</v>
       </c>
       <c r="H29">
-        <v>2658.88408181818</v>
+        <v>3291.49850909091</v>
       </c>
       <c r="I29">
-        <v>296.113268249996</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1182.2661073</v>
       </c>
       <c r="K29">
-        <v>10204.7676214219</v>
+        <v>10069.1425347727</v>
       </c>
       <c r="L29">
-        <v>3.5242919693701e-12</v>
+        <v>1250</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O29">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P29">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q29">
-        <v>336.1116997</v>
+        <v>110.5464674</v>
       </c>
       <c r="R29">
-        <v>311.251501395349</v>
+        <v>291.776461395349</v>
       </c>
       <c r="S29">
-        <v>1338.381456000001</v>
+        <v>1254.638784</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X29">
-        <v>2787.92325300596</v>
+        <v>2312.78098797597</v>
       </c>
       <c r="Y29">
-        <v>620.3305439999984</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>2658.88408181818</v>
+        <v>3291.49850909091</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="C30">
-        <v>39.6970475</v>
+        <v>45.1303209</v>
       </c>
       <c r="D30">
-        <v>1981.776</v>
+        <v>1305.28</v>
       </c>
       <c r="E30">
-        <v>4035.4974</v>
+        <v>3379.4076</v>
       </c>
       <c r="F30">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G30">
-        <v>4344.2686946814</v>
+        <v>5594.37722908605</v>
       </c>
       <c r="H30">
-        <v>2817.31558181818</v>
+        <v>3318.49850909091</v>
       </c>
       <c r="I30">
-        <v>298.129396499996</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1161.9300305</v>
       </c>
       <c r="K30">
-        <v>10179.2557023684</v>
+        <v>10340.8446784358</v>
       </c>
       <c r="L30">
-        <v>4.2632564145606e-12</v>
+        <v>1250</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O30">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P30">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q30">
-        <v>337.826444</v>
+        <v>133.2002904</v>
       </c>
       <c r="R30">
-        <v>310.720096744187</v>
+        <v>291.58111255814</v>
       </c>
       <c r="S30">
-        <v>1336.096416000004</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X30">
-        <v>2782.34740649995</v>
+        <v>2420.65542600002</v>
       </c>
       <c r="Y30">
-        <v>645.6795839999977</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>2817.31558181818</v>
+        <v>3318.49850909091</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>5625</v>
+        <v>4310</v>
       </c>
       <c r="C31">
-        <v>39.0792272</v>
+        <v>43.723751</v>
       </c>
       <c r="D31">
-        <v>2009.64</v>
+        <v>1207.28</v>
       </c>
       <c r="E31">
-        <v>4193.928899999999</v>
+        <v>3306.4076</v>
       </c>
       <c r="F31">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G31">
-        <v>4663.83384682093</v>
+        <v>5854.1792177</v>
       </c>
       <c r="H31">
-        <v>2975.74708181818</v>
+        <v>3245.49850909091</v>
       </c>
       <c r="I31">
-        <v>304.8120885</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1132.7777633</v>
       </c>
       <c r="K31">
-        <v>10153.8075631125</v>
+        <v>10611.8675667397</v>
       </c>
       <c r="L31">
-        <v>-2.27373675443232e-13</v>
+        <v>1250</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O31">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P31">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q31">
-        <v>343.8913157</v>
+        <v>160.9459877</v>
       </c>
       <c r="R31">
-        <v>311.304971162791</v>
+        <v>271.85088</v>
       </c>
       <c r="S31">
-        <v>1338.611376000001</v>
+        <v>1168.958784</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X31">
-        <v>2776.78271168695</v>
+        <v>2528.31411514802</v>
       </c>
       <c r="Y31">
-        <v>671.0286239999984</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>2975.74708181818</v>
+        <v>3245.49850909091</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>5550</v>
+        <v>4620</v>
       </c>
       <c r="C32">
-        <v>38.4614069</v>
+        <v>42.3171811</v>
       </c>
       <c r="D32">
-        <v>2037.504</v>
+        <v>1209.28</v>
       </c>
       <c r="E32">
-        <v>4352.3604</v>
+        <v>3333.4076</v>
       </c>
       <c r="F32">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G32">
-        <v>4583.39899896047</v>
+        <v>6134.89283422093</v>
       </c>
       <c r="H32">
-        <v>3134.17858181818</v>
+        <v>3272.49850909091</v>
       </c>
       <c r="I32">
-        <v>311.494780499996</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1103.6254961</v>
       </c>
       <c r="K32">
-        <v>10128.4230442047</v>
+        <v>10882.2128978228</v>
       </c>
       <c r="L32">
-        <v>4.2632564145606e-12</v>
+        <v>1250</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O32">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P32">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q32">
-        <v>349.9561874</v>
+        <v>188.691685</v>
       </c>
       <c r="R32">
-        <v>311.889845581396</v>
+        <v>271.655531162791</v>
       </c>
       <c r="S32">
-        <v>1341.126336000003</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X32">
-        <v>2771.22914626357</v>
+        <v>2635.75748691772</v>
       </c>
       <c r="Y32">
-        <v>696.3776639999984</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>3134.17858181818</v>
+        <v>3272.49850909091</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>5425</v>
+        <v>4720</v>
       </c>
       <c r="C33">
-        <v>35.2655999</v>
+        <v>40.78065825</v>
       </c>
       <c r="D33">
-        <v>2091.288</v>
+        <v>1211.28</v>
       </c>
       <c r="E33">
-        <v>4510.791899999999</v>
+        <v>3360.4076</v>
       </c>
       <c r="F33">
-        <v>0.65550003</v>
+        <v>0.35220001</v>
       </c>
       <c r="G33">
-        <v>4458.55674422558</v>
+        <v>6218.59669149186</v>
       </c>
       <c r="H33">
-        <v>3292.61008181818</v>
+        <v>3299.49850909091</v>
       </c>
       <c r="I33">
-        <v>318.914181700002</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1087.46346965</v>
       </c>
       <c r="K33">
-        <v>10103.1019865942</v>
+        <v>11151.8823655783</v>
       </c>
       <c r="L33">
-        <v>-1.93267624126747e-12</v>
+        <v>1250</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="O33">
-        <v>1218.181818181818</v>
+        <v>60.90909090909089</v>
       </c>
       <c r="P33">
-        <v>812.121212121212</v>
+        <v>40.60606060606059</v>
       </c>
       <c r="Q33">
-        <v>354.1797816</v>
+        <v>203.3171886</v>
       </c>
       <c r="R33">
-        <v>318.502626976744</v>
+        <v>271.460182325581</v>
       </c>
       <c r="S33">
-        <v>1369.561295999999</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X33">
-        <v>2765.68668797105</v>
+        <v>2742.98597194389</v>
       </c>
       <c r="Y33">
-        <v>721.7267039999984</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3292.61008181818</v>
+        <v>3299.49850909091</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>5300</v>
+        <v>4820</v>
       </c>
       <c r="C34">
-        <v>32.0697929</v>
+        <v>39.2441354</v>
       </c>
       <c r="D34">
-        <v>2145.072</v>
+        <v>1213.28</v>
       </c>
       <c r="E34">
-        <v>5196.436919999998</v>
+        <v>3287.4076</v>
       </c>
       <c r="F34">
         <v>0.65550003</v>
       </c>
       <c r="G34">
-        <v>4322.11423115349</v>
+        <v>5005.80752560698</v>
       </c>
       <c r="H34">
-        <v>3978.25510181818</v>
+        <v>2617.4076</v>
       </c>
       <c r="I34">
-        <v>326.333582799998</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>446.3014433</v>
       </c>
       <c r="K34">
-        <v>10077.8442316277</v>
+        <v>11420.8776596643</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="M34">
-        <v>-2.1032064978499e-12</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="O34">
-        <v>1218.181818181818</v>
+        <v>669.9999999999999</v>
       </c>
       <c r="P34">
-        <v>812.121212121212</v>
+        <v>446.6666666666666</v>
       </c>
       <c r="Q34">
-        <v>358.4033757</v>
+        <v>217.9426921</v>
       </c>
       <c r="R34">
-        <v>312.807441860465</v>
+        <v>274.98576372093</v>
       </c>
       <c r="S34">
-        <v>1345.071999999999</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3262,57 +3262,57 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>2760.15531459511</v>
+        <v>2850</v>
       </c>
       <c r="Y34">
-        <v>800</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>3978.25510181818</v>
+        <v>2617.4076</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>5150</v>
+        <v>4825</v>
       </c>
       <c r="C35">
-        <v>28.1248745</v>
+        <v>42.53360225</v>
       </c>
       <c r="D35">
-        <v>2193.168</v>
+        <v>1215.28</v>
       </c>
       <c r="E35">
-        <v>5312.94948</v>
+        <v>3214.4076</v>
       </c>
       <c r="F35">
         <v>0.65550003</v>
       </c>
       <c r="G35">
-        <v>4182.82831384651</v>
+        <v>3922.19834642209</v>
       </c>
       <c r="H35">
-        <v>4094.76766181818</v>
+        <v>1996.22578181818</v>
       </c>
       <c r="I35">
-        <v>327.363872200001</v>
+        <v>195.68059635</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>10052.6496210486</v>
+        <v>11540.7629655152</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="M35">
-        <v>1.36424205265939e-12</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1000</v>
@@ -3324,13 +3324,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q35">
-        <v>355.4887467</v>
+        <v>238.2141986</v>
       </c>
       <c r="R35">
-        <v>323.992558139535</v>
+        <v>278.511345116279</v>
       </c>
       <c r="S35">
-        <v>1393.168</v>
+        <v>1197.598784</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3345,57 +3345,57 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2754.63500396592</v>
+        <v>2844.3</v>
       </c>
       <c r="Y35">
-        <v>800</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>4094.76766181818</v>
+        <v>1996.22578181818</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>5000</v>
+        <v>4830</v>
       </c>
       <c r="C36">
-        <v>24.1799561</v>
+        <v>45.8230691</v>
       </c>
       <c r="D36">
-        <v>2241.264</v>
+        <v>1319.032</v>
       </c>
       <c r="E36">
-        <v>5429.46204</v>
+        <v>3141.4076</v>
       </c>
       <c r="F36">
         <v>0.65550003</v>
       </c>
       <c r="G36">
-        <v>4043.54239653953</v>
+        <v>3313.43558594186</v>
       </c>
       <c r="H36">
-        <v>4211.28022181818</v>
+        <v>1923.22578181818</v>
       </c>
       <c r="I36">
-        <v>328.394161600005</v>
+        <v>837.6626359000001</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>10027.517996996</v>
+        <v>11511.9110581014</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>5.17275111633353e-12</v>
+        <v>625</v>
       </c>
       <c r="N36">
         <v>1000</v>
@@ -3407,13 +3407,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q36">
-        <v>352.5741177</v>
+        <v>258.485705</v>
       </c>
       <c r="R36">
-        <v>335.177674418605</v>
+        <v>305.700182325581</v>
       </c>
       <c r="S36">
-        <v>1441.264000000001</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3428,57 +3428,57 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>2749.12573395798</v>
+        <v>2838.6114</v>
       </c>
       <c r="Y36">
-        <v>800</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>4211.28022181818</v>
+        <v>1923.22578181818</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>5100</v>
       </c>
       <c r="C37">
-        <v>19.2233444</v>
+        <v>44.8789446</v>
       </c>
       <c r="D37">
-        <v>2279.472</v>
+        <v>1380.976</v>
       </c>
       <c r="E37">
-        <v>5545.9746</v>
+        <v>3068.4076</v>
       </c>
       <c r="F37">
         <v>0.65550003</v>
       </c>
       <c r="G37">
-        <v>4619.19706773185</v>
+        <v>2966.54426086744</v>
       </c>
       <c r="H37">
-        <v>4327.79278181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1470.6708089</v>
       </c>
       <c r="J37">
-        <v>137.930649127202</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>10002.4492020035</v>
+        <v>11318.6575962456</v>
       </c>
       <c r="L37">
-        <v>466.289902127202</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N37">
         <v>1000</v>
@@ -3490,13 +3490,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q37">
-        <v>347.5825974</v>
+        <v>265.5497535</v>
       </c>
       <c r="R37">
-        <v>344.063255813954</v>
+        <v>321.157209302326</v>
       </c>
       <c r="S37">
-        <v>1479.472000000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3511,57 +3511,57 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>2743.62748249007</v>
+        <v>2832.9341772</v>
       </c>
       <c r="Y37">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>4327.79278181818</v>
+        <v>1861.02426181818</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="C38">
-        <v>14.2667327</v>
+        <v>43.9348201</v>
       </c>
       <c r="D38">
-        <v>2317.68</v>
+        <v>1442.92</v>
       </c>
       <c r="E38">
-        <v>5662.487160000001</v>
+        <v>3195.4076</v>
       </c>
       <c r="F38">
         <v>0.65550003</v>
       </c>
       <c r="G38">
-        <v>5253.56183689697</v>
+        <v>3156.84733872717</v>
       </c>
       <c r="H38">
-        <v>4444.30534181818</v>
+        <v>1977.22578181818</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1343.25762730074</v>
       </c>
       <c r="J38">
-        <v>762.965557827205</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>10088.1869307537</v>
+        <v>10961.4135838339</v>
       </c>
       <c r="L38">
-        <v>1091.2899021272</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1114.57864550074</v>
       </c>
       <c r="N38">
         <v>1000</v>
@@ -3573,13 +3573,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q38">
-        <v>342.591077</v>
+        <v>272.6138019</v>
       </c>
       <c r="R38">
-        <v>352.948837209302</v>
+        <v>333.190414883721</v>
       </c>
       <c r="S38">
-        <v>1517.679999999998</v>
+        <v>1432.718784</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3594,75 +3594,75 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>2738.14022752509</v>
+        <v>2827.2683088456</v>
       </c>
       <c r="Y38">
-        <v>800</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>4444.30534181818</v>
+        <v>1977.22578181818</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>5150</v>
       </c>
       <c r="C39">
-        <v>10.5524517</v>
+        <v>43.0984044</v>
       </c>
       <c r="D39">
-        <v>2355.864</v>
+        <v>1408.04</v>
       </c>
       <c r="E39">
-        <v>5778.99972</v>
+        <v>3280.502</v>
       </c>
       <c r="F39">
         <v>0.65550003</v>
       </c>
       <c r="G39">
-        <v>4850.08532506977</v>
+        <v>3756.05046565507</v>
       </c>
       <c r="H39">
-        <v>4560.81790181818</v>
+        <v>2062.32018181818</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>732.877445600741</v>
       </c>
       <c r="J39">
-        <v>300.165046000031</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>10322.147815182</v>
+        <v>10640.6998800057</v>
       </c>
       <c r="L39">
-        <v>625.000000000031</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>489.578645500741</v>
       </c>
       <c r="N39">
-        <v>1000.00000000003</v>
+        <v>1000</v>
       </c>
       <c r="O39">
-        <v>1218.181818181854</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P39">
-        <v>812.1212121212363</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q39">
-        <v>335.3874057</v>
+        <v>286.3972045</v>
       </c>
       <c r="R39">
-        <v>361.828837209302</v>
+        <v>322.256669767442</v>
       </c>
       <c r="S39">
-        <v>1555.863999999998</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3677,57 +3677,57 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>2732.66394707004</v>
+        <v>2821.61377222791</v>
       </c>
       <c r="Y39">
-        <v>800</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>4560.81790181818</v>
+        <v>2062.32018181818</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="C40">
-        <v>6.8381707</v>
+        <v>42.2619887</v>
       </c>
       <c r="D40">
-        <v>2394.048</v>
+        <v>1473.44</v>
       </c>
       <c r="E40">
-        <v>5895.51228</v>
+        <v>3247.272</v>
       </c>
       <c r="F40">
         <v>0.65550003</v>
       </c>
       <c r="G40">
-        <v>4287.89871546977</v>
+        <v>4349.17021926744</v>
       </c>
       <c r="H40">
-        <v>4677.33046181818</v>
+        <v>2029.09018181818</v>
       </c>
       <c r="I40">
-        <v>321.345563599996</v>
+        <v>257.9186185</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10444.7799456441</v>
+        <v>10485.2616446476</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-4.09272615797818e-12</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1000</v>
@@ -3739,13 +3739,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q40">
-        <v>328.1837343</v>
+        <v>300.1806072</v>
       </c>
       <c r="R40">
-        <v>370.708837209302</v>
+        <v>339.790809302326</v>
       </c>
       <c r="S40">
-        <v>1594.047999999998</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3760,57 +3760,57 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2727.1986191759</v>
+        <v>2815.97054468345</v>
       </c>
       <c r="Y40">
-        <v>800</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>4677.33046181818</v>
+        <v>2029.09018181818</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="C41">
-        <v>8.248754549999999</v>
+        <v>41.5971712</v>
       </c>
       <c r="D41">
-        <v>2404.416</v>
+        <v>1438.944</v>
       </c>
       <c r="E41">
-        <v>6012.024839999999</v>
+        <v>3414.041999999999</v>
       </c>
       <c r="F41">
         <v>0.65550003</v>
       </c>
       <c r="G41">
-        <v>3677.30837795</v>
+        <v>4175.00478525116</v>
       </c>
       <c r="H41">
-        <v>4793.84302181818</v>
+        <v>2195.86018181818</v>
       </c>
       <c r="I41">
-        <v>934.46762205</v>
+        <v>268.6624674</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>10418.66799578</v>
+        <v>10459.048490536</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1000</v>
@@ -3822,13 +3822,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q41">
-        <v>317.7163766</v>
+        <v>310.2596386</v>
       </c>
       <c r="R41">
-        <v>373.12</v>
+        <v>326.465413953488</v>
       </c>
       <c r="S41">
-        <v>1604.416</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3843,57 +3843,57 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>2721.74422193755</v>
+        <v>2810.33860359409</v>
       </c>
       <c r="Y41">
-        <v>800</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>4793.84302181818</v>
+        <v>2195.86018181818</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>5800</v>
+        <v>5150</v>
       </c>
       <c r="C42">
-        <v>9.659338399999999</v>
+        <v>40.9323537</v>
       </c>
       <c r="D42">
-        <v>2414.784</v>
+        <v>1604.448</v>
       </c>
       <c r="E42">
-        <v>6128.5374</v>
+        <v>3580.812</v>
       </c>
       <c r="F42">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G42">
-        <v>3544.62501717442</v>
+        <v>4251.78074658372</v>
       </c>
       <c r="H42">
-        <v>4910.35558181818</v>
+        <v>2362.63018181818</v>
       </c>
       <c r="I42">
-        <v>1547.5896805</v>
+        <v>279.4063163</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>10228.14764158</v>
+        <v>10432.9008693097</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1000</v>
@@ -3905,13 +3905,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q42">
-        <v>307.2490189</v>
+        <v>320.33867</v>
       </c>
       <c r="R42">
-        <v>259.252093023257</v>
+        <v>361.884204651163</v>
       </c>
       <c r="S42">
-        <v>1114.784000000005</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3920,63 +3920,63 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>499.999999999994</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>2716.30073349367</v>
+        <v>2804.7179263869</v>
       </c>
       <c r="Y42">
-        <v>800</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>4910.35558181818</v>
+        <v>2362.63018181818</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>5850</v>
+        <v>5300</v>
       </c>
       <c r="C43">
-        <v>10.15272495</v>
+        <v>40.61608455</v>
       </c>
       <c r="D43">
-        <v>2429.904</v>
+        <v>1770.048</v>
       </c>
       <c r="E43">
-        <v>6245.04996</v>
+        <v>3747.582</v>
       </c>
       <c r="F43">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G43">
-        <v>3603.11262874767</v>
+        <v>4430.92649380349</v>
       </c>
       <c r="H43">
-        <v>5026.86814181818</v>
+        <v>2529.40018181818</v>
       </c>
       <c r="I43">
-        <v>1542.79416195</v>
+        <v>286.75172815</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>9873.629904055</v>
+        <v>10406.8186171364</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1000</v>
@@ -3988,13 +3988,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q43">
-        <v>302.9468869</v>
+        <v>327.3678127</v>
       </c>
       <c r="R43">
-        <v>262.768372093019</v>
+        <v>396.209041860465</v>
       </c>
       <c r="S43">
-        <v>1129.903999999982</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -4003,63 +4003,63 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>500.000000000018</v>
+        <v>0</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>2571.9792431378</v>
+        <v>2799.10849053412</v>
       </c>
       <c r="Y43">
-        <v>800</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>5026.86814181818</v>
+        <v>2529.40018181818</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>5900</v>
+        <v>5650</v>
       </c>
       <c r="C44">
-        <v>10.6461115</v>
+        <v>40.2998154</v>
       </c>
       <c r="D44">
-        <v>2445.024</v>
+        <v>1935.648</v>
       </c>
       <c r="E44">
-        <v>6238.421999999998</v>
+        <v>3718.6344</v>
       </c>
       <c r="F44">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G44">
-        <v>3661.60024042093</v>
+        <v>4818.68950011163</v>
       </c>
       <c r="H44">
-        <v>5020.24018181818</v>
+        <v>2500.45258181818</v>
       </c>
       <c r="I44">
-        <v>1537.9986433</v>
+        <v>294.09714</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>9519.99846087381</v>
+        <v>10380.8015705936</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1000</v>
@@ -4071,13 +4071,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q44">
-        <v>298.6447548</v>
+        <v>334.3969554</v>
       </c>
       <c r="R44">
-        <v>266.28465116279</v>
+        <v>439.676859534884</v>
       </c>
       <c r="S44">
-        <v>1145.023999999997</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -4086,63 +4086,63 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>500.000000000002</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>2427.94639576263</v>
+        <v>2793.51027355306</v>
       </c>
       <c r="Y44">
-        <v>800</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>5020.24018181818</v>
+        <v>2500.45258181818</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>6050</v>
+        <v>5375</v>
       </c>
       <c r="C45">
-        <v>9.09654315</v>
+        <v>39.99843145</v>
       </c>
       <c r="D45">
-        <v>2470.656</v>
+        <v>1958.712</v>
       </c>
       <c r="E45">
-        <v>6231.79404</v>
+        <v>3877.0659</v>
       </c>
       <c r="F45">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G45">
-        <v>3839.27326011512</v>
+        <v>4557.17687128488</v>
       </c>
       <c r="H45">
-        <v>5013.61222181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="I45">
-        <v>1516.58460035</v>
+        <v>296.11326825</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>9167.25109630057</v>
+        <v>10354.8495666671</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1000</v>
@@ -4154,13 +4154,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q45">
-        <v>275.6811435</v>
+        <v>336.1116997</v>
       </c>
       <c r="R45">
-        <v>272.245581395353</v>
+        <v>455.514418604651</v>
       </c>
       <c r="S45">
-        <v>1170.656000000018</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4169,63 +4169,63 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>499.999999999984</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>2284.20161408221</v>
+        <v>2787.92325300595</v>
       </c>
       <c r="Y45">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>5013.61222181818</v>
+        <v>2671.08450181818</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>6100</v>
+        <v>5300</v>
       </c>
       <c r="C46">
-        <v>7.5469748</v>
+        <v>39.6970475</v>
       </c>
       <c r="D46">
-        <v>2496.288</v>
+        <v>1981.776</v>
       </c>
       <c r="E46">
-        <v>6225.166079999999</v>
+        <v>4035.4974</v>
       </c>
       <c r="F46">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G46">
-        <v>3916.9462799093</v>
+        <v>4483.58909728605</v>
       </c>
       <c r="H46">
-        <v>5006.98426181818</v>
+        <v>2817.31558181818</v>
       </c>
       <c r="I46">
-        <v>1495.1705573</v>
+        <v>298.1293965</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>8815.38560013877</v>
+        <v>10328.9624427504</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>1000</v>
@@ -4237,13 +4237,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q46">
-        <v>252.7175321</v>
+        <v>337.826444</v>
       </c>
       <c r="R46">
-        <v>278.206511627905</v>
+        <v>458.54015255814</v>
       </c>
       <c r="S46">
-        <v>1196.287999999991</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4252,63 +4252,63 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>500.00000000001</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>2140.74432196516</v>
+        <v>2782.34740649994</v>
       </c>
       <c r="Y46">
-        <v>800</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>5006.98426181818</v>
+        <v>2817.31558181818</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>6150</v>
+        <v>5625</v>
       </c>
       <c r="C47">
-        <v>6.86442885</v>
+        <v>39.0792272</v>
       </c>
       <c r="D47">
-        <v>2521.584000000001</v>
+        <v>2009.64</v>
       </c>
       <c r="E47">
-        <v>6218.53812</v>
+        <v>4193.928899999999</v>
       </c>
       <c r="F47">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G47">
-        <v>3989.02088899186</v>
+        <v>4804.62002542558</v>
       </c>
       <c r="H47">
-        <v>5000.35630181818</v>
+        <v>2975.74708181818</v>
       </c>
       <c r="I47">
-        <v>1479.27287845</v>
+        <v>304.8120885</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>8464.39976771737</v>
+        <v>10303.1400366435</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1000</v>
@@ -4320,13 +4320,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q47">
-        <v>236.1373073</v>
+        <v>343.8913157</v>
       </c>
       <c r="R47">
-        <v>284.089302325581</v>
+        <v>460.680226976744</v>
       </c>
       <c r="S47">
-        <v>1221.583999999998</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4335,63 +4335,63 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>500.000000000003</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1997.57394443234</v>
+        <v>2776.78271168694</v>
       </c>
       <c r="Y47">
-        <v>800</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>5000.35630181818</v>
+        <v>2975.74708181818</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>6200</v>
+        <v>5550</v>
       </c>
       <c r="C48">
-        <v>6.1818829</v>
+        <v>38.4614069</v>
       </c>
       <c r="D48">
-        <v>2546.880000000001</v>
+        <v>2037.504</v>
       </c>
       <c r="E48">
-        <v>6211.91016</v>
+        <v>4352.3604</v>
       </c>
       <c r="F48">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G48">
-        <v>4061.09549817442</v>
+        <v>4725.65095356512</v>
       </c>
       <c r="H48">
-        <v>4993.72834181818</v>
+        <v>3134.17858181818</v>
       </c>
       <c r="I48">
-        <v>1463.3751995</v>
+        <v>311.4947805</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>8114.29139987702</v>
+        <v>10277.3821865519</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1000</v>
@@ -4403,13 +4403,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q48">
-        <v>219.5570824</v>
+        <v>349.9561874</v>
       </c>
       <c r="R48">
-        <v>289.972093023257</v>
+        <v>462.820301395349</v>
       </c>
       <c r="S48">
-        <v>1246.880000000005</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -4418,63 +4418,63 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>499.999999999995</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1854.68990765459</v>
+        <v>2771.22914626356</v>
       </c>
       <c r="Y48">
-        <v>800</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>4993.72834181818</v>
+        <v>3134.17858181818</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>6150</v>
+        <v>5425</v>
       </c>
       <c r="C49">
-        <v>5.28425385</v>
+        <v>35.2655999</v>
       </c>
       <c r="D49">
-        <v>2521.632</v>
+        <v>2091.288</v>
       </c>
       <c r="E49">
-        <v>6205.2822</v>
+        <v>4510.791899999999</v>
       </c>
       <c r="F49">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G49">
-        <v>4017.91641642209</v>
+        <v>4603.63798738837</v>
       </c>
       <c r="H49">
-        <v>4987.10038181818</v>
+        <v>3292.61008181818</v>
       </c>
       <c r="I49">
-        <v>1450.38907195</v>
+        <v>318.9141817</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>7765.05830295628</v>
+        <v>10251.6887310855</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1000</v>
@@ -4486,13 +4486,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q49">
-        <v>205.6733258</v>
+        <v>354.1797816</v>
       </c>
       <c r="R49">
-        <v>284.100465116276</v>
+        <v>472.434980465116</v>
       </c>
       <c r="S49">
-        <v>1221.631999999987</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4501,63 +4501,63 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>500.000000000012</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1712.09163895039</v>
+        <v>2765.68668797104</v>
       </c>
       <c r="Y49">
-        <v>800</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>4987.10038181818</v>
+        <v>3292.61008181818</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>6100</v>
+        <v>5300</v>
       </c>
       <c r="C50">
-        <v>4.3866248</v>
+        <v>32.0697929</v>
       </c>
       <c r="D50">
-        <v>2496.384</v>
+        <v>2145.072</v>
       </c>
       <c r="E50">
-        <v>6198.654240000001</v>
+        <v>5196.436919999998</v>
       </c>
       <c r="F50">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G50">
-        <v>3974.73733476977</v>
+        <v>4463.13576577302</v>
       </c>
       <c r="H50">
-        <v>4980.47242181818</v>
+        <v>3978.25510181818</v>
       </c>
       <c r="I50">
-        <v>1437.4029443</v>
+        <v>326.3335828</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>7416.69828877783</v>
+        <v>10226.0595092578</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1000</v>
@@ -4569,13 +4569,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q50">
-        <v>191.7895691</v>
+        <v>358.4033757</v>
       </c>
       <c r="R50">
-        <v>278.228837209305</v>
+        <v>462.43241227907</v>
       </c>
       <c r="S50">
-        <v>1196.384000000012</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4584,63 +4584,63 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>499.999999999991</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1569.7785667836</v>
+        <v>2760.1553145951</v>
       </c>
       <c r="Y50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>4980.47242181818</v>
+        <v>3978.25510181818</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>6050</v>
+        <v>5150</v>
       </c>
       <c r="C51">
-        <v>3.88972595</v>
+        <v>28.1248745</v>
       </c>
       <c r="D51">
-        <v>2470.704</v>
+        <v>2193.168</v>
       </c>
       <c r="E51">
-        <v>6192.026279999999</v>
+        <v>5312.94948</v>
       </c>
       <c r="F51">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G51">
-        <v>3935.01682734535</v>
+        <v>4322.29385338512</v>
       </c>
       <c r="H51">
-        <v>4973.84446181818</v>
+        <v>4094.76766181818</v>
       </c>
       <c r="I51">
-        <v>1420.85275405</v>
+        <v>327.3638722</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>7069.20917463484</v>
+        <v>10200.4943604847</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1000</v>
@@ -4652,13 +4652,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q51">
-        <v>174.74248</v>
+        <v>355.4887467</v>
       </c>
       <c r="R51">
-        <v>272.256744186048</v>
+        <v>471.966605395349</v>
       </c>
       <c r="S51">
-        <v>1170.704000000007</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4667,63 +4667,63 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>499.999999999995</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1427.75012076114</v>
+        <v>2754.63500396591</v>
       </c>
       <c r="Y51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>4973.84446181818</v>
+        <v>4094.76766181818</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C52">
-        <v>3.3928271</v>
+        <v>24.1799561</v>
       </c>
       <c r="D52">
-        <v>2445.024</v>
+        <v>2241.264</v>
       </c>
       <c r="E52">
-        <v>6185.398319999999</v>
+        <v>5429.46204</v>
       </c>
       <c r="F52">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G52">
-        <v>3895.29631982093</v>
+        <v>4174.43798750884</v>
       </c>
       <c r="H52">
-        <v>4967.21650181818</v>
+        <v>4211.28022181818</v>
       </c>
       <c r="I52">
-        <v>1404.3025639</v>
+        <v>328.3941616</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>6722.5887832772</v>
+        <v>10174.9931245835</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1000</v>
@@ -4735,13 +4735,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q52">
-        <v>157.695391</v>
+        <v>352.5741177</v>
       </c>
       <c r="R52">
-        <v>266.28465116279</v>
+        <v>474.058938046512</v>
       </c>
       <c r="S52">
-        <v>1145.023999999997</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4750,63 +4750,63 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>500.000000000001</v>
+        <v>0</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1286.00573163073</v>
+        <v>2749.12573395797</v>
       </c>
       <c r="Y52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>4967.21650181818</v>
+        <v>4211.28022181818</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>4945</v>
+        <v>5100</v>
       </c>
       <c r="C53">
-        <v>3.7841914</v>
+        <v>19.2233444</v>
       </c>
       <c r="D53">
-        <v>2374.968</v>
+        <v>2279.472</v>
       </c>
       <c r="E53">
-        <v>6178.77036</v>
+        <v>5545.9746</v>
       </c>
       <c r="F53">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G53">
-        <v>2847.56559064651</v>
+        <v>4281.72660670233</v>
       </c>
       <c r="H53">
-        <v>4960.58854181818</v>
+        <v>4327.79278181818</v>
       </c>
       <c r="I53">
-        <v>1379.9265954</v>
+        <v>328.359253</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>6376.83494289795</v>
+        <v>10149.555641772</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1000</v>
@@ -4818,13 +4818,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q53">
-        <v>133.7107868</v>
+        <v>347.5825974</v>
       </c>
       <c r="R53">
-        <v>249.99255813953</v>
+        <v>480.741707906977</v>
       </c>
       <c r="S53">
-        <v>1074.967999999979</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4833,63 +4833,63 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>500.00000000002</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1144.54483127858</v>
+        <v>2743.62748249006</v>
       </c>
       <c r="Y53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>4960.58854181818</v>
+        <v>4327.79278181818</v>
       </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>4590</v>
+        <v>5100</v>
       </c>
       <c r="C54">
-        <v>4.1755557</v>
+        <v>14.2667327</v>
       </c>
       <c r="D54">
-        <v>2304.912</v>
+        <v>2317.68</v>
       </c>
       <c r="E54">
-        <v>6172.1424</v>
+        <v>5662.487160000001</v>
       </c>
       <c r="F54">
         <v>0.65550003</v>
       </c>
       <c r="G54">
-        <v>3246.92788472791</v>
+        <v>4287.75271436791</v>
       </c>
       <c r="H54">
-        <v>4953.96058181818</v>
+        <v>4444.30534181818</v>
       </c>
       <c r="I54">
-        <v>730.550626899997</v>
+        <v>328.3243443</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>6031.94548711966</v>
+        <v>10124.1817526676</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>624.999999999997</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1000</v>
@@ -4901,13 +4901,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q54">
-        <v>109.7261826</v>
+        <v>342.591077</v>
       </c>
       <c r="R54">
-        <v>349.979534883721</v>
+        <v>486.084942883721</v>
       </c>
       <c r="S54">
-        <v>1504.912</v>
+        <v>2090.1652544</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -4922,57 +4922,57 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1003.36685272713</v>
+        <v>2738.14022752508</v>
       </c>
       <c r="Y54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="Z54">
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>4953.96058181818</v>
+        <v>4444.30534181818</v>
       </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>4820</v>
+        <v>5150</v>
       </c>
       <c r="C55">
-        <v>4.19094265</v>
+        <v>10.5524517</v>
       </c>
       <c r="D55">
-        <v>2234.880000000001</v>
+        <v>2355.864</v>
       </c>
       <c r="E55">
-        <v>5898.4968</v>
+        <v>5778.99972</v>
       </c>
       <c r="F55">
         <v>0.65550003</v>
       </c>
       <c r="G55">
-        <v>4109.88730038861</v>
+        <v>4347.22744316837</v>
       </c>
       <c r="H55">
-        <v>4680.31498181818</v>
+        <v>4560.81790181818</v>
       </c>
       <c r="I55">
-        <v>80.4903740299947</v>
+        <v>324.834954</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>5852.39193919133</v>
+        <v>10098.8712982859</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>-5.28643795405515e-12</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1000</v>
@@ -4984,13 +4984,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q55">
-        <v>84.68131667999999</v>
+        <v>335.3874057</v>
       </c>
       <c r="R55">
-        <v>333.693023255814</v>
+        <v>491.422596465116</v>
       </c>
       <c r="S55">
-        <v>1434.88</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -5005,54 +5005,54 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1001.36011902168</v>
+        <v>2732.66394707003</v>
       </c>
       <c r="Y55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>4680.31498181818</v>
+        <v>4560.81790181818</v>
       </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>5050</v>
+        <v>5200</v>
       </c>
       <c r="C56">
-        <v>4.2063296</v>
+        <v>6.8381707</v>
       </c>
       <c r="D56">
-        <v>2164.848</v>
+        <v>2394.048</v>
       </c>
       <c r="E56">
-        <v>5624.8512</v>
+        <v>5895.51228</v>
       </c>
       <c r="F56">
         <v>0.65550003</v>
       </c>
       <c r="G56">
-        <v>4972.8467160593</v>
+        <v>4406.70217206884</v>
       </c>
       <c r="H56">
-        <v>4406.66938181818</v>
+        <v>4677.33046181818</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>321.3455636</v>
       </c>
       <c r="J56">
-        <v>569.569878849998</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>5837.76095934336</v>
+        <v>10073.6241200402</v>
       </c>
       <c r="L56">
-        <v>624.999999999998</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5067,13 +5067,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q56">
-        <v>59.63645075</v>
+        <v>328.1837343</v>
       </c>
       <c r="R56">
-        <v>317.406511627907</v>
+        <v>496.760250046512</v>
       </c>
       <c r="S56">
-        <v>1364.848</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5088,57 +5088,57 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>999.357398783633</v>
+        <v>2727.19861917589</v>
       </c>
       <c r="Y56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4406.66938181818</v>
+        <v>4677.33046181818</v>
       </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>5150</v>
+        <v>5200</v>
       </c>
       <c r="C57">
-        <v>4.99691885</v>
+        <v>8.248754549999999</v>
       </c>
       <c r="D57">
-        <v>2128.944</v>
+        <v>2404.416</v>
       </c>
       <c r="E57">
-        <v>5351.205599999999</v>
+        <v>6012.024839999999</v>
       </c>
       <c r="F57">
         <v>0.65550003</v>
       </c>
       <c r="G57">
-        <v>5206.01764048181</v>
+        <v>3792.77317304953</v>
       </c>
       <c r="H57">
-        <v>4133.02378181818</v>
+        <v>4793.84302181818</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>934.46762205</v>
       </c>
       <c r="J57">
-        <v>711.508059086465</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>5971.604056945</v>
+        <v>10048.4400597401</v>
       </c>
       <c r="L57">
-        <v>755.130467916465</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="N57">
         <v>1000</v>
@@ -5150,13 +5150,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q57">
-        <v>48.61932768</v>
+        <v>317.7163766</v>
       </c>
       <c r="R57">
-        <v>309.056744186047</v>
+        <v>495.629066418605</v>
       </c>
       <c r="S57">
-        <v>1328.944000000002</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -5171,57 +5171,57 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>997.358683986065</v>
+        <v>2721.74422193754</v>
       </c>
       <c r="Y57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>4133.02378181818</v>
+        <v>4793.84302181818</v>
       </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>5250</v>
+        <v>5800</v>
       </c>
       <c r="C58">
-        <v>5.7875081</v>
+        <v>9.659338399999999</v>
       </c>
       <c r="D58">
-        <v>2093.04</v>
+        <v>2414.784</v>
       </c>
       <c r="E58">
-        <v>4585.889399999999</v>
+        <v>6128.5374</v>
       </c>
       <c r="F58">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G58">
-        <v>4698.58085943507</v>
+        <v>3656.55504063488</v>
       </c>
       <c r="H58">
-        <v>3367.70758181818</v>
+        <v>4910.35558181818</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1547.5896805</v>
       </c>
       <c r="J58">
-        <v>98.3157714164651</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>6136.0185329328</v>
+        <v>9858.84527538023</v>
       </c>
       <c r="L58">
-        <v>130.130467916465</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N58">
         <v>1000</v>
@@ -5233,13 +5233,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q58">
-        <v>37.6022046</v>
+        <v>307.2490189</v>
       </c>
       <c r="R58">
-        <v>316.115743255814</v>
+        <v>378.010738604651</v>
       </c>
       <c r="S58">
-        <v>1359.297696</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -5248,63 +5248,63 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>995.3639666180929</v>
+        <v>2716.30073349366</v>
       </c>
       <c r="Y58">
-        <v>733.7423039999993</v>
+        <v>289.337824</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>3367.70758181818</v>
+        <v>4910.35558181818</v>
       </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>5250</v>
+        <v>5850</v>
       </c>
       <c r="C59">
-        <v>6.7020294</v>
+        <v>10.15272495</v>
       </c>
       <c r="D59">
-        <v>2065.272</v>
+        <v>2429.904</v>
       </c>
       <c r="E59">
-        <v>4361.614350000001</v>
+        <v>6245.04996</v>
       </c>
       <c r="F59">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G59">
-        <v>4420.09889184302</v>
+        <v>3715.32908242953</v>
       </c>
       <c r="H59">
-        <v>3143.43253181818</v>
+        <v>5026.86814181818</v>
       </c>
       <c r="I59">
-        <v>181.250911882562</v>
+        <v>1542.79416195</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6151.58447273062</v>
+        <v>9505.250793770731</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>160.211607232562</v>
+        <v>1250</v>
       </c>
       <c r="N59">
         <v>1000</v>
@@ -5316,13 +5316,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q59">
-        <v>27.74133405</v>
+        <v>302.9468869</v>
       </c>
       <c r="R59">
-        <v>318.003186976745</v>
+        <v>381.830922418605</v>
       </c>
       <c r="S59">
-        <v>1367.413704000003</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -5331,63 +5331,63 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>993.373238684857</v>
+        <v>2571.97924313778</v>
       </c>
       <c r="Y59">
-        <v>697.8582959999976</v>
+        <v>288.0310336</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>3143.43253181818</v>
+        <v>5026.86814181818</v>
       </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>5250</v>
+        <v>5900</v>
       </c>
       <c r="C60">
-        <v>7.6165507</v>
+        <v>10.6461115</v>
       </c>
       <c r="D60">
-        <v>2037.504</v>
+        <v>2445.024</v>
       </c>
       <c r="E60">
-        <v>4137.3393</v>
+        <v>6238.421999999998</v>
       </c>
       <c r="F60">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G60">
-        <v>3806.9589994</v>
+        <v>3772.74033139767</v>
       </c>
       <c r="H60">
-        <v>2919.15748181818</v>
+        <v>5020.24018181818</v>
       </c>
       <c r="I60">
-        <v>795.475520032559</v>
+        <v>1537.9986433</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6094.04456227707</v>
+        <v>9152.540298365249</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>785.211607232559</v>
+        <v>1250</v>
       </c>
       <c r="N60">
         <v>1000</v>
@@ -5399,13 +5399,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q60">
-        <v>17.8804635</v>
+        <v>298.6447548</v>
       </c>
       <c r="R60">
-        <v>319.890630697675</v>
+        <v>384.205172093023</v>
       </c>
       <c r="S60">
-        <v>1375.529712000003</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5414,57 +5414,57 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>991.386492207487</v>
+        <v>2427.94639576262</v>
       </c>
       <c r="Y60">
-        <v>661.9742879999985</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>2919.15748181818</v>
+        <v>5020.24018181818</v>
       </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>5775</v>
+        <v>6050</v>
       </c>
       <c r="C61">
-        <v>9.230342950000001</v>
+        <v>9.09654315</v>
       </c>
       <c r="D61">
-        <v>1935.624</v>
+        <v>2470.656</v>
       </c>
       <c r="E61">
-        <v>3913.064249999999</v>
+        <v>6231.79404</v>
       </c>
       <c r="F61">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G61">
-        <v>3696.55191137791</v>
+        <v>3951.29275917744</v>
       </c>
       <c r="H61">
-        <v>2912.26958181816</v>
+        <v>5013.61222181818</v>
       </c>
       <c r="I61">
-        <v>1253.65860025</v>
+        <v>1516.58460035</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5872.17481738913</v>
+        <v>8800.711579198291</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5482,13 +5482,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q61">
-        <v>12.8889432</v>
+        <v>275.6811435</v>
       </c>
       <c r="R61">
-        <v>147.819534883724</v>
+        <v>391.099161302326</v>
       </c>
       <c r="S61">
-        <v>635.6240000000132</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -5497,57 +5497,57 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>499.999999999987</v>
+        <v>500</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>989.403719223072</v>
+        <v>2284.20161408221</v>
       </c>
       <c r="Y61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>2912.26958181816</v>
+        <v>5013.61222181818</v>
       </c>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="C62">
-        <v>10.8441352</v>
+        <v>7.5469748</v>
       </c>
       <c r="D62">
-        <v>1833.744</v>
+        <v>2496.288</v>
       </c>
       <c r="E62">
-        <v>3688.7892</v>
+        <v>6225.166079999999</v>
       </c>
       <c r="F62">
         <v>1.04989998</v>
       </c>
       <c r="G62">
-        <v>3749.26340733256</v>
+        <v>4036.85914054558</v>
       </c>
       <c r="H62">
-        <v>2470.60738181818</v>
+        <v>5006.98426181818</v>
       </c>
       <c r="I62">
-        <v>1247.0532877</v>
+        <v>1495.1705573</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>5528.5470119246</v>
+        <v>8449.76243182924</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q62">
-        <v>7.8974229</v>
+        <v>252.7175321</v>
       </c>
       <c r="R62">
-        <v>172.915750697676</v>
+        <v>405.435010976744</v>
       </c>
       <c r="S62">
-        <v>743.5377280000068</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -5586,51 +5586,51 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>848.536022895741</v>
+        <v>2140.74432196515</v>
       </c>
       <c r="Y62">
-        <v>590.2062719999929</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="Z62">
-        <v>-6.48014975013211e-12</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>2470.60738181818</v>
+        <v>5006.98426181818</v>
       </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>5997</v>
+        <v>6150</v>
       </c>
       <c r="C63">
-        <v>12.2970332</v>
+        <v>6.86442885</v>
       </c>
       <c r="D63">
-        <v>1731.864</v>
+        <v>2521.584000000001</v>
       </c>
       <c r="E63">
-        <v>3464.51415</v>
+        <v>6218.53812</v>
       </c>
       <c r="F63">
         <v>1.04989998</v>
       </c>
       <c r="G63">
-        <v>3933.97631756047</v>
+        <v>4121.01780813233</v>
       </c>
       <c r="H63">
-        <v>2246.33233181818</v>
+        <v>5000.35630181818</v>
       </c>
       <c r="I63">
-        <v>1242.3279769</v>
+        <v>1479.27287845</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5185.77827597374</v>
+        <v>8099.69065732861</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5648,13 +5648,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q63">
-        <v>4.6250101</v>
+        <v>236.1373073</v>
       </c>
       <c r="R63">
-        <v>157.567845581396</v>
+        <v>424.139083906977</v>
       </c>
       <c r="S63">
-        <v>677.5417360000027</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -5669,51 +5669,51 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>707.95006196106</v>
+        <v>1997.57394443233</v>
       </c>
       <c r="Y63">
-        <v>554.3222639999976</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="Z63">
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>2246.33233181818</v>
+        <v>5000.35630181818</v>
       </c>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>5840</v>
+        <v>6200</v>
       </c>
       <c r="C64">
-        <v>13.7499312</v>
+        <v>6.1818829</v>
       </c>
       <c r="D64">
-        <v>1629.984</v>
+        <v>2546.880000000001</v>
       </c>
       <c r="E64">
-        <v>3240.2391</v>
+        <v>6211.91016</v>
       </c>
       <c r="F64">
         <v>1.04989998</v>
       </c>
       <c r="G64">
-        <v>3764.68922778837</v>
+        <v>4194.65554558651</v>
       </c>
       <c r="H64">
-        <v>2022.05728181818</v>
+        <v>4993.72834181818</v>
       </c>
       <c r="I64">
-        <v>1237.6026661</v>
+        <v>1463.3751995</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>4843.86646186275</v>
+        <v>7750.49406226424</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5731,13 +5731,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q64">
-        <v>1.3525973</v>
+        <v>219.5570824</v>
       </c>
       <c r="R64">
-        <v>142.219940465117</v>
+        <v>431.680366139535</v>
       </c>
       <c r="S64">
-        <v>611.5457440000031</v>
+        <v>1856.2255744</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -5752,51 +5752,51 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>567.645272948249</v>
+        <v>1854.68990765458</v>
       </c>
       <c r="Y64">
-        <v>518.4382559999984</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>2022.05728181818</v>
+        <v>4993.72834181818</v>
       </c>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>5920</v>
+        <v>6150</v>
       </c>
       <c r="C65">
-        <v>14.58450715</v>
+        <v>5.28425385</v>
       </c>
       <c r="D65">
-        <v>1540.848</v>
+        <v>2521.632</v>
       </c>
       <c r="E65">
-        <v>3015.96405</v>
+        <v>6205.2822</v>
       </c>
       <c r="F65">
         <v>1.04989998</v>
       </c>
       <c r="G65">
-        <v>3851.50597088914</v>
+        <v>4150.38074261744</v>
       </c>
       <c r="H65">
-        <v>1797.78223181818</v>
+        <v>4987.10038181818</v>
       </c>
       <c r="I65">
-        <v>1236.126697225</v>
+        <v>1450.38907195</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4502.80942728704</v>
+        <v>7402.17045868753</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q65">
-        <v>0.711204375</v>
+        <v>205.6733258</v>
       </c>
       <c r="R65">
-        <v>148.160773251562</v>
+        <v>424.646169302326</v>
       </c>
       <c r="S65">
-        <v>637.0913249817166</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -5829,57 +5829,57 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>421.202427018285</v>
+        <v>500</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>427.621093513464</v>
+        <v>1712.09163895038</v>
       </c>
       <c r="Y65">
-        <v>482.5542479999984</v>
+        <v>195.653472</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>1797.78223181818</v>
+        <v>4987.10038181818</v>
       </c>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="C66">
-        <v>15.4190831</v>
+        <v>4.3866248</v>
       </c>
       <c r="D66">
-        <v>1551.712</v>
+        <v>2496.384</v>
       </c>
       <c r="E66">
-        <v>3138.62</v>
+        <v>6198.654240000001</v>
       </c>
       <c r="F66">
         <v>1.04989998</v>
       </c>
       <c r="G66">
-        <v>4034.18501676628</v>
+        <v>4106.10593974837</v>
       </c>
       <c r="H66">
-        <v>1920.43818181818</v>
+        <v>4980.47242181818</v>
       </c>
       <c r="I66">
-        <v>1234.65072835</v>
+        <v>1437.4029443</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>4162.60503529777</v>
+        <v>7054.71766411975</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5897,13 +5897,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q66">
-        <v>0.06981145</v>
+        <v>191.7895691</v>
       </c>
       <c r="R66">
-        <v>244.077395348838</v>
+        <v>417.611972465116</v>
       </c>
       <c r="S66">
-        <v>1049.532800000003</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -5912,57 +5912,57 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>309.765177154691</v>
+        <v>1569.77856678359</v>
       </c>
       <c r="Y66">
-        <v>502.1791999999984</v>
+        <v>200.6525184</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>1920.43818181818</v>
+        <v>4980.47242181818</v>
       </c>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>6100</v>
+        <v>6050</v>
       </c>
       <c r="C67">
-        <v>16.5040318</v>
+        <v>3.88972595</v>
       </c>
       <c r="D67">
-        <v>1562.576</v>
+        <v>2470.704</v>
       </c>
       <c r="E67">
-        <v>3243.049199999999</v>
+        <v>6192.026279999999</v>
       </c>
       <c r="F67">
         <v>1.04989998</v>
       </c>
       <c r="G67">
-        <v>4134.29540064244</v>
+        <v>4054.74605566535</v>
       </c>
       <c r="H67">
-        <v>2024.86738181818</v>
+        <v>4973.84446181818</v>
       </c>
       <c r="I67">
-        <v>1233.530873925</v>
+        <v>1420.85275405</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3823.25115428848</v>
+        <v>6708.1335015384</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5980,13 +5980,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q67">
-        <v>0.034905725</v>
+        <v>174.74248</v>
       </c>
       <c r="R67">
-        <v>242.718169302326</v>
+        <v>399.290408186047</v>
       </c>
       <c r="S67">
-        <v>1043.688128000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5995,57 +5995,57 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67">
-        <v>309.145646800382</v>
+        <v>1427.75012076114</v>
       </c>
       <c r="Y67">
-        <v>518.8878719999984</v>
+        <v>253.7552448</v>
       </c>
       <c r="Z67">
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>2024.86738181818</v>
+        <v>4973.84446181818</v>
       </c>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="C68">
-        <v>17.5889805</v>
+        <v>3.3928271</v>
       </c>
       <c r="D68">
-        <v>1573.44</v>
+        <v>2445.024</v>
       </c>
       <c r="E68">
-        <v>2959.7544</v>
+        <v>6185.398319999999</v>
       </c>
       <c r="F68">
         <v>1.04989998</v>
       </c>
       <c r="G68">
-        <v>4298.00317503023</v>
+        <v>4013.90710171488</v>
       </c>
       <c r="H68">
-        <v>1741.57258181818</v>
+        <v>4967.21650181818</v>
       </c>
       <c r="I68">
-        <v>1232.4110195</v>
+        <v>1404.3025639</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3484.7456579817</v>
+        <v>6362.4157993635</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6063,13 +6063,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>157.695391</v>
       </c>
       <c r="R68">
-        <v>255.785882790698</v>
+        <v>392.131634604651</v>
       </c>
       <c r="S68">
-        <v>1099.879296000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -6078,57 +6078,57 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>308.527355506781</v>
+        <v>1286.00573163073</v>
       </c>
       <c r="Y68">
-        <v>473.5607039999985</v>
+        <v>258.8579712</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>1741.57258181818</v>
+        <v>4967.21650181818</v>
       </c>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>5850</v>
+        <v>4945</v>
       </c>
       <c r="C69">
-        <v>18.5862904</v>
+        <v>3.7841914</v>
       </c>
       <c r="D69">
-        <v>1585.303999999996</v>
+        <v>2374.968</v>
       </c>
       <c r="E69">
-        <v>2976.4596</v>
+        <v>6178.77036</v>
       </c>
       <c r="F69">
         <v>1.04989998</v>
       </c>
       <c r="G69">
-        <v>3901.31166070698</v>
+        <v>2965.87982118419</v>
       </c>
       <c r="H69">
-        <v>1758.27778181818</v>
+        <v>4960.58854181818</v>
       </c>
       <c r="I69">
-        <v>1231.4137096</v>
+        <v>1379.9265954</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>3147.08642541569</v>
+        <v>6017.56239144404</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6146,13 +6146,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>133.7107868</v>
       </c>
       <c r="R69">
-        <v>257.92336372093</v>
+        <v>375.524898232558</v>
       </c>
       <c r="S69">
-        <v>1109.070463999999</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -6161,63 +6161,63 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69">
-        <v>307.910300795767</v>
+        <v>1144.54483127857</v>
       </c>
       <c r="Y69">
-        <v>476.2335359999984</v>
+        <v>260.2109376</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>1758.27778181818</v>
+        <v>4960.58854181818</v>
       </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>5950</v>
+        <v>4590</v>
       </c>
       <c r="C70">
-        <v>19.5836003</v>
+        <v>4.1755557</v>
       </c>
       <c r="D70">
-        <v>1580</v>
+        <v>2304.912</v>
       </c>
       <c r="E70">
-        <v>3053.1648</v>
+        <v>6172.1424</v>
       </c>
       <c r="F70">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G70">
-        <v>3998.3237742907</v>
+        <v>3358.63300576977</v>
       </c>
       <c r="H70">
-        <v>1834.98298181818</v>
+        <v>4953.96058181818</v>
       </c>
       <c r="I70">
-        <v>1230.4163997</v>
+        <v>730.550626899997</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2810.2713409311</v>
+        <v>5673.57111704438</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1250</v>
+        <v>624.999999999997</v>
       </c>
       <c r="N70">
         <v>1000</v>
@@ -6229,13 +6229,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>109.7261826</v>
       </c>
       <c r="R70">
-        <v>253.835728372093</v>
+        <v>468.499557209302</v>
       </c>
       <c r="S70">
-        <v>1091.493632</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -6250,57 +6250,57 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>307.294480194176</v>
+        <v>1003.36685272713</v>
       </c>
       <c r="Y70">
-        <v>488.5063679999984</v>
+        <v>290.363904</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>1834.98298181818</v>
+        <v>4953.96058181818</v>
       </c>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>6150</v>
+        <v>4820</v>
       </c>
       <c r="C71">
-        <v>19.48325045</v>
+        <v>4.19094265</v>
       </c>
       <c r="D71">
-        <v>1574.696000000004</v>
+        <v>2234.880000000001</v>
       </c>
       <c r="E71">
-        <v>3169.87</v>
+        <v>5898.4968</v>
       </c>
       <c r="F71">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G71">
-        <v>4192.83543742674</v>
+        <v>4216.98416982116</v>
       </c>
       <c r="H71">
-        <v>1951.68818181818</v>
+        <v>4680.31498181818</v>
       </c>
       <c r="I71">
-        <v>1230.51674955001</v>
+        <v>80.4903740300024</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2474.29829415772</v>
+        <v>5494.91350504125</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1250.00000000001</v>
+        <v>2.38742359215394e-12</v>
       </c>
       <c r="N71">
         <v>1000</v>
@@ -6312,13 +6312,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>84.68131667999999</v>
       </c>
       <c r="R71">
-        <v>248.259720930234</v>
+        <v>447.323653953489</v>
       </c>
       <c r="S71">
-        <v>1067.516800000006</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -6333,57 +6333,57 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>306.679891233787</v>
+        <v>1001.36011902167</v>
       </c>
       <c r="Y71">
-        <v>507.1791999999984</v>
+        <v>311.388288</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>1951.68818181818</v>
+        <v>4680.31498181818</v>
       </c>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="1">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>5750</v>
+        <v>5050</v>
       </c>
       <c r="C72">
-        <v>19.3829006</v>
+        <v>4.2063296</v>
       </c>
       <c r="D72">
-        <v>1569.392000000008</v>
+        <v>2164.848</v>
       </c>
       <c r="E72">
-        <v>3102.57520000001</v>
+        <v>5624.8512</v>
       </c>
       <c r="F72">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G72">
-        <v>3793.79993777209</v>
+        <v>5085.85626411512</v>
       </c>
       <c r="H72">
-        <v>1884.39338181819</v>
+        <v>4406.66938181818</v>
       </c>
       <c r="I72">
-        <v>1230.61709940001</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>569.569878850004</v>
       </c>
       <c r="K72">
-        <v>2139.16518000128</v>
+        <v>5481.17622127864</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>625.000000000004</v>
       </c>
       <c r="M72">
-        <v>1250.00000000001</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1000</v>
@@ -6395,13 +6395,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>59.63645075</v>
       </c>
       <c r="R72">
-        <v>249.530225116281</v>
+        <v>437.310541395349</v>
       </c>
       <c r="S72">
-        <v>1072.979968000008</v>
+        <v>1880.435328</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -6416,75 +6416,75 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>306.06653145132</v>
+        <v>999.357398783631</v>
       </c>
       <c r="Y72">
-        <v>496.4120319999992</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>1884.39338181819</v>
+        <v>4406.66938181818</v>
       </c>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="1">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>5500</v>
+        <v>5150</v>
       </c>
       <c r="C73">
-        <v>19.49077665</v>
+        <v>4.99691885</v>
       </c>
       <c r="D73">
-        <v>1564.088000000012</v>
+        <v>2128.944</v>
       </c>
       <c r="E73">
-        <v>3135.28040000001</v>
+        <v>5351.205599999999</v>
       </c>
       <c r="F73">
-        <v>1.04989998</v>
+        <v>0.65550003</v>
       </c>
       <c r="G73">
-        <v>3541.46568727326</v>
+        <v>5199.80308130042</v>
       </c>
       <c r="H73">
-        <v>1917.09858181819</v>
+        <v>4141.28373288598</v>
       </c>
       <c r="I73">
-        <v>1230.50922335</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>581.37759117</v>
       </c>
       <c r="K73">
-        <v>1804.86989863022</v>
+        <v>5615.91078072545</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="M73">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1000</v>
+        <v>993.219443153301</v>
       </c>
       <c r="O73">
-        <v>1218.181818181818</v>
+        <v>1209.921867114021</v>
       </c>
       <c r="P73">
-        <v>812.121212121212</v>
+        <v>806.6145780760139</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>48.61932768</v>
       </c>
       <c r="R73">
-        <v>247.07979906977</v>
+        <v>433.338284651163</v>
       </c>
       <c r="S73">
-        <v>1062.443136000011</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6499,57 +6499,57 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>305.454398388417</v>
+        <v>997.358683986064</v>
       </c>
       <c r="Y73">
-        <v>501.644864</v>
+        <v>265.589376</v>
       </c>
       <c r="Z73">
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1917.09858181819</v>
+        <v>4141.28373288598</v>
       </c>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="1">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="C74">
-        <v>19.5986527</v>
+        <v>5.7875081</v>
       </c>
       <c r="D74">
-        <v>1558.784000000016</v>
+        <v>2093.04</v>
       </c>
       <c r="E74">
-        <v>3167.98560000002</v>
+        <v>4585.889399999999</v>
       </c>
       <c r="F74">
         <v>0.65550003</v>
       </c>
       <c r="G74">
-        <v>4414.13143677442</v>
+        <v>4692.43155840233</v>
       </c>
       <c r="H74">
-        <v>1949.8037818182</v>
+        <v>3367.70758181818</v>
       </c>
       <c r="I74">
-        <v>605.401347299999</v>
+        <v>31.8146965</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1471.41035546259</v>
+        <v>5750.30850377363</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>624.999999999999</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1000</v>
@@ -6561,13 +6561,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>37.6022046</v>
       </c>
       <c r="R74">
-        <v>244.629373023256</v>
+        <v>447.660747906977</v>
       </c>
       <c r="S74">
-        <v>1051.906304000001</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -6576,60 +6576,60 @@
         <v>0</v>
       </c>
       <c r="V74">
-        <v>1.37585942638907e-11</v>
+        <v>0</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74">
-        <v>304.84348959164</v>
+        <v>995.363966618092</v>
       </c>
       <c r="Y74">
-        <v>506.8776960000009</v>
+        <v>168.098784</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>1949.8037818182</v>
+        <v>3367.70758181818</v>
       </c>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>6075</v>
+        <v>5250</v>
       </c>
       <c r="C75">
-        <v>19.47187745</v>
+        <v>6.7020294</v>
       </c>
       <c r="D75">
-        <v>1553.48000000002</v>
+        <v>2065.272</v>
       </c>
       <c r="E75">
-        <v>3200.69080000003</v>
+        <v>4361.614350000001</v>
       </c>
       <c r="F75">
         <v>0.65550003</v>
       </c>
       <c r="G75">
-        <v>5361.56253497559</v>
+        <v>4704.08124735465</v>
       </c>
       <c r="H75">
-        <v>1982.50898181821</v>
+        <v>3143.43253181818</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>21.03930465</v>
       </c>
       <c r="J75">
-        <v>19.4718774500044</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>1303.25814536341</v>
+        <v>5735.9327325142</v>
       </c>
       <c r="L75">
-        <v>4.39825953435502e-12</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -6644,13 +6644,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>27.74133405</v>
       </c>
       <c r="R75">
-        <v>242.178946976748</v>
+        <v>449.324935813954</v>
       </c>
       <c r="S75">
-        <v>1041.369472000016</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -6665,54 +6665,54 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>304.233802612453</v>
+        <v>993.373238684856</v>
       </c>
       <c r="Y75">
-        <v>512.1105280000024</v>
+        <v>133.174776</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>1982.50898181821</v>
+        <v>3143.43253181818</v>
       </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>6400</v>
+        <v>5250</v>
       </c>
       <c r="C76">
-        <v>19.3451022</v>
+        <v>7.6165507</v>
       </c>
       <c r="D76">
-        <v>1548.176000000024</v>
+        <v>2037.504</v>
       </c>
       <c r="E76">
-        <v>3353.39600000004</v>
+        <v>4137.3393</v>
       </c>
       <c r="F76">
         <v>0.65550003</v>
       </c>
       <c r="G76">
-        <v>5693.46947161004</v>
+        <v>4715.73093630698</v>
       </c>
       <c r="H76">
-        <v>2135.21418181822</v>
+        <v>2919.15748181818</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>10.2639128</v>
       </c>
       <c r="J76">
-        <v>33.0293127263144</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1300</v>
+        <v>5721.59290068291</v>
       </c>
       <c r="L76">
-        <v>13.6842105263144</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -6727,13 +6727,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>17.8804635</v>
       </c>
       <c r="R76">
-        <v>235.263404651167</v>
+        <v>450.98912372093</v>
       </c>
       <c r="S76">
-        <v>1011.632640000018</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -6748,75 +6748,75 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>303.625335007228</v>
+        <v>991.386492207486</v>
       </c>
       <c r="Y76">
-        <v>536.5433600000041</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>2135.21418181822</v>
+        <v>2919.15748181818</v>
       </c>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>6025</v>
+        <v>5775</v>
       </c>
       <c r="C77">
-        <v>19.38959065</v>
+        <v>9.230342950000001</v>
       </c>
       <c r="D77">
-        <v>1542.872000000028</v>
+        <v>1935.624</v>
       </c>
       <c r="E77">
-        <v>3386.10120000004</v>
+        <v>3913.064249999999</v>
       </c>
       <c r="F77">
         <v>0.65550003</v>
       </c>
       <c r="G77">
-        <v>5316.07183351121</v>
+        <v>4605.11342968023</v>
       </c>
       <c r="H77">
-        <v>2167.91938181822</v>
+        <v>2694.88243181818</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>628.6586002499999</v>
       </c>
       <c r="J77">
-        <v>33.0738011763158</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>1300</v>
+        <v>5707.28891843121</v>
       </c>
       <c r="L77">
-        <v>13.6842105263158</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="N77">
-        <v>999.999999999996</v>
+        <v>1000</v>
       </c>
       <c r="O77">
-        <v>1218.181818181813</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="P77">
-        <v>812.1212121212088</v>
+        <v>812.121212121212</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>12.8889432</v>
       </c>
       <c r="R77">
-        <v>232.812978604657</v>
+        <v>435.417962790698</v>
       </c>
       <c r="S77">
-        <v>1001.095808000025</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -6831,57 +6831,57 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>303.018084337214</v>
+        <v>989.403719223071</v>
       </c>
       <c r="Y77">
-        <v>541.7761920000016</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="Z77">
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>2167.91938181822</v>
+        <v>2694.88243181818</v>
       </c>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>5650</v>
+        <v>5800</v>
       </c>
       <c r="C78">
-        <v>19.4340791</v>
+        <v>10.8441352</v>
       </c>
       <c r="D78">
-        <v>1537.568000000032</v>
+        <v>1833.744</v>
       </c>
       <c r="E78">
-        <v>3318.80640000005</v>
+        <v>3688.7892</v>
       </c>
       <c r="F78">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G78">
-        <v>4942.18117215655</v>
+        <v>3872.40289979767</v>
       </c>
       <c r="H78">
-        <v>2100.62458181823</v>
+        <v>2470.60738181818</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1247.0532877</v>
       </c>
       <c r="J78">
-        <v>33.1182896263158</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>1300</v>
+        <v>5528.5470119246</v>
       </c>
       <c r="L78">
-        <v>13.6842105263158</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N78">
         <v>1000</v>
@@ -6893,13 +6893,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>7.8974229</v>
       </c>
       <c r="R78">
-        <v>234.083482790703</v>
+        <v>303.567732093023</v>
       </c>
       <c r="S78">
-        <v>1006.558976000023</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -6908,63 +6908,63 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78">
-        <v>302.412048168539</v>
+        <v>987.424911784625</v>
       </c>
       <c r="Y78">
-        <v>531.0090240000104</v>
+        <v>28.402752</v>
       </c>
       <c r="Z78">
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>2100.62458181823</v>
+        <v>2470.60738181818</v>
       </c>
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="1">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>5750</v>
+        <v>5997</v>
       </c>
       <c r="C79">
-        <v>19.46635825</v>
+        <v>12.2970332</v>
       </c>
       <c r="D79">
-        <v>1532.264000000036</v>
+        <v>1731.864</v>
       </c>
       <c r="E79">
-        <v>3451.51160000006</v>
+        <v>3464.51415</v>
       </c>
       <c r="F79">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G79">
-        <v>5036.26434801353</v>
+        <v>4055.4760231</v>
       </c>
       <c r="H79">
-        <v>2233.32978181824</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1242.3279769</v>
       </c>
       <c r="J79">
-        <v>33.1505687763193</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>1300</v>
+        <v>5185.77827597374</v>
       </c>
       <c r="L79">
-        <v>13.6842105263193</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N79">
         <v>1000</v>
@@ -6976,13 +6976,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>4.6250101</v>
       </c>
       <c r="R79">
-        <v>227.912126511633</v>
+        <v>286.48</v>
       </c>
       <c r="S79">
-        <v>980.0221440000219</v>
+        <v>1231.864</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -6991,63 +6991,63 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79">
-        <v>301.807224072202</v>
+        <v>846.561173072167</v>
       </c>
       <c r="Y79">
-        <v>552.241856000012</v>
+        <v>0</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>2233.32978181824</v>
+        <v>2249.98870181818</v>
       </c>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>5800</v>
+        <v>5840</v>
       </c>
       <c r="C80">
-        <v>19.4986374</v>
+        <v>13.7499312</v>
       </c>
       <c r="D80">
-        <v>1526.96000000004</v>
+        <v>1629.984</v>
       </c>
       <c r="E80">
-        <v>3584.21680000007</v>
+        <v>3240.2391</v>
       </c>
       <c r="F80">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G80">
-        <v>5080.34752387051</v>
+        <v>3878.3236594814</v>
       </c>
       <c r="H80">
-        <v>2366.03498181825</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1237.6026661</v>
       </c>
       <c r="J80">
-        <v>33.1828479263157</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>1300</v>
+        <v>4843.86646186275</v>
       </c>
       <c r="L80">
-        <v>13.6842105263157</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N80">
         <v>1000</v>
@@ -7059,13 +7059,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>1.3525973</v>
       </c>
       <c r="R80">
-        <v>221.740770232565</v>
+        <v>262.786976744186</v>
       </c>
       <c r="S80">
-        <v>953.4853120000295</v>
+        <v>1129.984</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -7074,63 +7074,63 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80">
-        <v>301.203609624058</v>
+        <v>705.979161837133</v>
       </c>
       <c r="Y80">
-        <v>573.4746880000088</v>
+        <v>0</v>
       </c>
       <c r="Z80">
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>2366.03498181825</v>
+        <v>2085.00466181818</v>
       </c>
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>5850</v>
+        <v>5920</v>
       </c>
       <c r="C81">
-        <v>19.4986374</v>
+        <v>14.58450715</v>
       </c>
       <c r="D81">
-        <v>1521.656000000044</v>
+        <v>1540.848</v>
       </c>
       <c r="E81">
-        <v>3616.92200000008</v>
+        <v>3015.96405</v>
       </c>
       <c r="F81">
-        <v>0.65550003</v>
+        <v>1.04989998</v>
       </c>
       <c r="G81">
-        <v>5127.90539732167</v>
+        <v>3938.03386091453</v>
       </c>
       <c r="H81">
-        <v>2398.74018181826</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1236.126697225</v>
       </c>
       <c r="J81">
-        <v>33.1828479263124</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>1300</v>
+        <v>4502.80942728704</v>
       </c>
       <c r="L81">
-        <v>13.6842105263124</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N81">
         <v>1000</v>
@@ -7142,13 +7142,13 @@
         <v>812.121212121212</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>0.711204375</v>
       </c>
       <c r="R81">
-        <v>219.290344186054</v>
+        <v>242.057674418605</v>
       </c>
       <c r="S81">
-        <v>942.9484800000322</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -7157,22 +7157,1018 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81">
+        <v>565.67831462457</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>1878.84382181818</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>6000</v>
+      </c>
+      <c r="C82">
+        <v>15.4190831</v>
+      </c>
+      <c r="D82">
+        <v>1551.712</v>
+      </c>
+      <c r="E82">
+        <v>3138.62</v>
+      </c>
+      <c r="F82">
+        <v>1.04989998</v>
+      </c>
+      <c r="G82">
+        <v>4040.41393738112</v>
+      </c>
+      <c r="H82">
+        <v>1968.22778181818</v>
+      </c>
+      <c r="I82">
+        <v>1234.65072835</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>4162.60503529777</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1250</v>
+      </c>
+      <c r="N82">
+        <v>1000</v>
+      </c>
+      <c r="O82">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P82">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q82">
+        <v>0.06981145</v>
+      </c>
+      <c r="R82">
+        <v>261.966348315356</v>
+      </c>
+      <c r="S82">
+        <v>1126.455297756031</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>425.256702243968</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>425.658069106432</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>1968.22778181818</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>6100</v>
+      </c>
+      <c r="C83">
+        <v>16.5040318</v>
+      </c>
+      <c r="D83">
+        <v>1562.576</v>
+      </c>
+      <c r="E83">
+        <v>3243.049199999999</v>
+      </c>
+      <c r="F83">
+        <v>1.04989998</v>
+      </c>
+      <c r="G83">
+        <v>4248.02838188895</v>
+      </c>
+      <c r="H83">
+        <v>2025.03034181818</v>
+      </c>
+      <c r="I83">
+        <v>1233.530873925</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>3823.25115428847</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1250</v>
+      </c>
+      <c r="N83">
+        <v>1000</v>
+      </c>
+      <c r="O83">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P83">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q83">
+        <v>0.034905725</v>
+      </c>
+      <c r="R83">
+        <v>363.38976744186</v>
+      </c>
+      <c r="S83">
+        <v>1562.575999999998</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>306.679891233784</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>2025.03034181818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>6250</v>
+      </c>
+      <c r="C84">
+        <v>17.5889805</v>
+      </c>
+      <c r="D84">
+        <v>1573.44</v>
+      </c>
+      <c r="E84">
+        <v>2959.7544</v>
+      </c>
+      <c r="F84">
+        <v>1.04989998</v>
+      </c>
+      <c r="G84">
+        <v>4401.80107352326</v>
+      </c>
+      <c r="H84">
+        <v>1871.65370181818</v>
+      </c>
+      <c r="I84">
+        <v>1232.4110195</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>3484.7456579817</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1250</v>
+      </c>
+      <c r="N84">
+        <v>1000</v>
+      </c>
+      <c r="O84">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P84">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>365.916279069768</v>
+      </c>
+      <c r="S84">
+        <v>1573.440000000002</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>306.066531451316</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>1871.65370181818</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>5850</v>
+      </c>
+      <c r="C85">
+        <v>18.5862904</v>
+      </c>
+      <c r="D85">
+        <v>1585.303999999996</v>
+      </c>
+      <c r="E85">
+        <v>2976.4596</v>
+      </c>
+      <c r="F85">
+        <v>1.04989998</v>
+      </c>
+      <c r="G85">
+        <v>4005.69540667907</v>
+      </c>
+      <c r="H85">
+        <v>1879.98586181818</v>
+      </c>
+      <c r="I85">
+        <v>1231.4137096</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>3147.08642541569</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1250</v>
+      </c>
+      <c r="N85">
+        <v>1000</v>
+      </c>
+      <c r="O85">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P85">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>368.675348837208</v>
+      </c>
+      <c r="S85">
+        <v>1585.303999999994</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>305.454398388413</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>1879.98586181818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>5950</v>
+      </c>
+      <c r="C86">
+        <v>19.5836003</v>
+      </c>
+      <c r="D86">
+        <v>1580</v>
+      </c>
+      <c r="E86">
+        <v>3053.1648</v>
+      </c>
+      <c r="F86">
+        <v>1.04989998</v>
+      </c>
+      <c r="G86">
+        <v>4105.39755378837</v>
+      </c>
+      <c r="H86">
+        <v>1936.31802181818</v>
+      </c>
+      <c r="I86">
+        <v>1230.4163997</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>2810.2713409311</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1250</v>
+      </c>
+      <c r="N86">
+        <v>1000</v>
+      </c>
+      <c r="O86">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P86">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>367.441860465116</v>
+      </c>
+      <c r="S86">
+        <v>1579.999999999999</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>304.843489591636</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>1936.31802181818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>6150</v>
+      </c>
+      <c r="C87">
+        <v>19.48325045</v>
+      </c>
+      <c r="D87">
+        <v>1574.696000000004</v>
+      </c>
+      <c r="E87">
+        <v>3169.87</v>
+      </c>
+      <c r="F87">
+        <v>1.04989998</v>
+      </c>
+      <c r="G87">
+        <v>4304.00204114768</v>
+      </c>
+      <c r="H87">
+        <v>2024.65018181818</v>
+      </c>
+      <c r="I87">
+        <v>1230.51674955</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2474.29829415772</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1250</v>
+      </c>
+      <c r="N87">
+        <v>1000</v>
+      </c>
+      <c r="O87">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P87">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>366.208372093024</v>
+      </c>
+      <c r="S87">
+        <v>1574.696000000003</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>304.233802612453</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>2024.65018181818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>5750</v>
+      </c>
+      <c r="C88">
+        <v>19.3829006</v>
+      </c>
+      <c r="D88">
+        <v>1569.392000000008</v>
+      </c>
+      <c r="E88">
+        <v>3102.57520000001</v>
+      </c>
+      <c r="F88">
+        <v>1.04989998</v>
+      </c>
+      <c r="G88">
+        <v>3902.60652850698</v>
+      </c>
+      <c r="H88">
+        <v>1965.78234181819</v>
+      </c>
+      <c r="I88">
+        <v>1230.6170994</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2139.16518000128</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1250</v>
+      </c>
+      <c r="N88">
+        <v>1000</v>
+      </c>
+      <c r="O88">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P88">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>364.974883720932</v>
+      </c>
+      <c r="S88">
+        <v>1569.392000000008</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>303.625335007228</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>1965.78234181819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>5500</v>
+      </c>
+      <c r="C89">
+        <v>19.49077665</v>
+      </c>
+      <c r="D89">
+        <v>1564.088000000012</v>
+      </c>
+      <c r="E89">
+        <v>3135.28040000001</v>
+      </c>
+      <c r="F89">
+        <v>1.04989998</v>
+      </c>
+      <c r="G89">
+        <v>3651.41924176628</v>
+      </c>
+      <c r="H89">
+        <v>1986.91450181819</v>
+      </c>
+      <c r="I89">
+        <v>1230.50922335</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1804.86989863022</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1250</v>
+      </c>
+      <c r="N89">
+        <v>1000</v>
+      </c>
+      <c r="O89">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P89">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>363.74139534884</v>
+      </c>
+      <c r="S89">
+        <v>1564.088000000012</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>303.018084337214</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>1986.91450181819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>5750</v>
+      </c>
+      <c r="C90">
+        <v>19.5986527</v>
+      </c>
+      <c r="D90">
+        <v>1558.784000000016</v>
+      </c>
+      <c r="E90">
+        <v>3167.98560000002</v>
+      </c>
+      <c r="F90">
+        <v>0.65550003</v>
+      </c>
+      <c r="G90">
+        <v>4525.23195502559</v>
+      </c>
+      <c r="H90">
+        <v>2008.0466618182</v>
+      </c>
+      <c r="I90">
+        <v>605.4013473</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1471.41035546259</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>625</v>
+      </c>
+      <c r="N90">
+        <v>1000</v>
+      </c>
+      <c r="O90">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P90">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>362.507906976748</v>
+      </c>
+      <c r="S90">
+        <v>1558.784000000016</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>302.412048168539</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>2008.0466618182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>6075</v>
+      </c>
+      <c r="C91">
+        <v>19.47187745</v>
+      </c>
+      <c r="D91">
+        <v>1553.48000000002</v>
+      </c>
+      <c r="E91">
+        <v>3200.69080000003</v>
+      </c>
+      <c r="F91">
+        <v>0.65550003</v>
+      </c>
+      <c r="G91">
+        <v>5473.81001698489</v>
+      </c>
+      <c r="H91">
+        <v>2029.17882181821</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>19.47187745</v>
+      </c>
+      <c r="K91">
+        <v>1303.25814536341</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1000</v>
+      </c>
+      <c r="O91">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P91">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>361.274418604656</v>
+      </c>
+      <c r="S91">
+        <v>1553.480000000021</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>301.807224072202</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>2029.17882181821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>6400</v>
+      </c>
+      <c r="C92">
+        <v>19.3451022</v>
+      </c>
+      <c r="D92">
+        <v>1548.176000000024</v>
+      </c>
+      <c r="E92">
+        <v>3353.39600000004</v>
+      </c>
+      <c r="F92">
+        <v>0.65550003</v>
+      </c>
+      <c r="G92">
+        <v>5811.07228947051</v>
+      </c>
+      <c r="H92">
+        <v>2146.31098181821</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>33.0293127263158</v>
+      </c>
+      <c r="K92">
+        <v>1300</v>
+      </c>
+      <c r="L92">
+        <v>13.6842105263158</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1000</v>
+      </c>
+      <c r="O92">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P92">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>360.040930232564</v>
+      </c>
+      <c r="S92">
+        <v>1548.176000000025</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>301.203609624058</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>2146.31098181821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>6025</v>
+      </c>
+      <c r="C93">
+        <v>19.38959065</v>
+      </c>
+      <c r="D93">
+        <v>1542.872000000028</v>
+      </c>
+      <c r="E93">
+        <v>3386.10120000004</v>
+      </c>
+      <c r="F93">
+        <v>0.65550003</v>
+      </c>
+      <c r="G93">
+        <v>5434.73810699958</v>
+      </c>
+      <c r="H93">
+        <v>2167.91938181822</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>33.0738011763158</v>
+      </c>
+      <c r="K93">
+        <v>1300</v>
+      </c>
+      <c r="L93">
+        <v>13.6842105263158</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1000</v>
+      </c>
+      <c r="O93">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="P93">
+        <v>812.121212121212</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>358.718839069772</v>
+      </c>
+      <c r="S93">
+        <v>1542.49100800002</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
         <v>300.60120240481</v>
       </c>
-      <c r="Y81">
-        <v>578.7075200000104</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>2398.74018181826</v>
+      <c r="Y93">
+        <v>0.3809920000065176</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>2167.91938181822</v>
       </c>
     </row>
   </sheetData>
